--- a/Data/Output/18.xlsx
+++ b/Data/Output/18.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="804">
   <si>
     <t>Уровень позиции</t>
   </si>
@@ -25427,8 +25427,7 @@
     <col min="7" max="8" width="2.42578125" style="16" customWidth="1"/>
     <col min="9" max="10" width="8.85546875" style="16"/>
     <col min="11" max="11" width="13.7109375" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="8.85546875" style="16" collapsed="1"/>
-    <col min="13" max="1024" width="8.85546875" style="16"/>
+    <col min="12" max="1024" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1">
@@ -25533,11 +25532,11 @@
       </c>
       <c r="C12" s="22">
         <f>IFERROR(ROUND(_xlfn.STDEV.S($E:$E),0),"-")</f>
-        <v>585</v>
+        <v>800</v>
       </c>
       <c r="D12" s="22">
         <f>IFERROR(ROUND(_xlfn.STDEV.S($F:$F),0),"-")</f>
-        <v>680</v>
+        <v>930</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>721</v>
@@ -25550,11 +25549,11 @@
       </c>
       <c r="C13" s="22">
         <f>IFERROR(ROUND(AVERAGE($E:$E),0),"-")</f>
-        <v>1281</v>
+        <v>1329</v>
       </c>
       <c r="D13" s="22">
         <f>IFERROR(ROUND(AVERAGE($F:$F),0),"-")</f>
-        <v>1490</v>
+        <v>1545</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>723</v>
@@ -25567,11 +25566,11 @@
       </c>
       <c r="C14" s="22">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($E:$E,0.1),0),"-")</f>
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D14" s="22">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($F:$F,0.1),0),"-")</f>
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" outlineLevel="1">
@@ -25595,11 +25594,11 @@
       </c>
       <c r="C16" s="22">
         <f>IFERROR(ROUND(MEDIAN($E:$E),0),"-")</f>
-        <v>1100</v>
+        <v>1258</v>
       </c>
       <c r="D16" s="22">
         <f>IFERROR(ROUND(MEDIAN($F:$F),0),"-")</f>
-        <v>1279</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" outlineLevel="1">
@@ -25609,11 +25608,11 @@
       </c>
       <c r="C17" s="22">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($E:$E,3),0),"-")</f>
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="D17" s="22">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($F:$F,3),0),"-")</f>
-        <v>1628</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1" outlineLevel="1">
@@ -25646,7 +25645,7 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6" s="28" customFormat="1" ht="31.9" customHeight="1" collapsed="1">
+    <row r="21" spans="1:6" s="28" customFormat="1" ht="31.9" customHeight="1">
       <c r="A21" s="27" t="s">
         <v>0</v>
       </c>
@@ -26471,31 +26470,31 @@
         <v>18</v>
       </c>
       <c r="B84" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/42570638","ООО Сэльвин")</f>
+        <v>ООО Сэльвин</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E84" s="33">
+        <v>1100</v>
+      </c>
+      <c r="F84" s="34">
+        <f t="shared" ref="F84:F115" si="2">IF(ROUND(E84/$K$11,2)&gt;0,ROUND(E84/$K$11,2),"")</f>
+        <v>1279.07</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" outlineLevel="1">
+      <c r="A85" s="32">
+        <v>18</v>
+      </c>
+      <c r="B85" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/50016168","ООО Безопасность Труда")</f>
         <v>ООО Безопасность Труда</v>
       </c>
-      <c r="C84" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D84" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E84" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F84" s="34">
-        <f t="shared" ref="F84:F115" si="2">IF(ROUND(E84/$K$11,2)&gt;0,ROUND(E84/$K$11,2),"")</f>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" outlineLevel="1">
-      <c r="A85" s="32">
-        <v>18</v>
-      </c>
-      <c r="B85" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/42570638","ООО Сэльвин")</f>
-        <v>ООО Сэльвин</v>
-      </c>
       <c r="C85" s="33" t="s">
         <v>362</v>
       </c>
@@ -26503,11 +26502,11 @@
         <v>723</v>
       </c>
       <c r="E85" s="33">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F85" s="34">
         <f t="shared" si="2"/>
-        <v>1279.07</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="86" spans="1:6" outlineLevel="1">
@@ -26515,8 +26514,8 @@
         <v>18</v>
       </c>
       <c r="B86" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50271603","ООО СТБел Плюс")</f>
-        <v>ООО СТБел Плюс</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50330279","APS")</f>
+        <v>APS</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>362</v>
@@ -26525,11 +26524,11 @@
         <v>723</v>
       </c>
       <c r="E86" s="33">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F86" s="34">
         <f t="shared" si="2"/>
-        <v>1395.35</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="87" spans="1:6" outlineLevel="1">
@@ -26537,8 +26536,8 @@
         <v>18</v>
       </c>
       <c r="B87" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50635611","ОСТРОВ ЧИСТОТЫ")</f>
-        <v>ОСТРОВ ЧИСТОТЫ</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50399872","ООО МебельЛэнд-М")</f>
+        <v>ООО МебельЛэнд-М</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>362</v>
@@ -26547,11 +26546,11 @@
         <v>723</v>
       </c>
       <c r="E87" s="33">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="F87" s="34">
         <f t="shared" si="2"/>
-        <v>3720.93</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="88" spans="1:6" outlineLevel="1">
@@ -26559,8 +26558,8 @@
         <v>18</v>
       </c>
       <c r="B88" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/46930472","ООО Сэльвин")</f>
-        <v>ООО Сэльвин</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50227083","ООО ЕКТ Компани")</f>
+        <v>ООО ЕКТ Компани</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>362</v>
@@ -26569,11 +26568,11 @@
         <v>723</v>
       </c>
       <c r="E88" s="33">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F88" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="89" spans="1:6" outlineLevel="1">
@@ -26581,8 +26580,8 @@
         <v>18</v>
       </c>
       <c r="B89" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50656673","ООО Капасити")</f>
-        <v>ООО Капасити</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50562086","Беллесизделие")</f>
+        <v>Беллесизделие</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>362</v>
@@ -26591,11 +26590,11 @@
         <v>723</v>
       </c>
       <c r="E89" s="33">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="F89" s="34">
         <f t="shared" si="2"/>
-        <v>2093.02</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="90" spans="1:6" outlineLevel="1">
@@ -26603,8 +26602,8 @@
         <v>18</v>
       </c>
       <c r="B90" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50304185","КРАВТ")</f>
-        <v>КРАВТ</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50523849","Стронгтрейд")</f>
+        <v>Стронгтрейд</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>362</v>
@@ -26613,11 +26612,11 @@
         <v>723</v>
       </c>
       <c r="E90" s="33">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F90" s="34">
         <f t="shared" si="2"/>
-        <v>697.67</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="91" spans="1:6" outlineLevel="1">
@@ -26625,8 +26624,8 @@
         <v>18</v>
       </c>
       <c r="B91" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50573796","ООО ТД Комплект")</f>
-        <v>ООО ТД Комплект</v>
+        <f>HYPERLINK("https://hh.ru/vacancy/50340286","ООО ВиЯр")</f>
+        <v>ООО ВиЯр</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>362</v>
@@ -26635,11 +26634,11 @@
         <v>723</v>
       </c>
       <c r="E91" s="33">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="F91" s="34">
         <f t="shared" si="2"/>
-        <v>2325.58</v>
+        <v>1976.74</v>
       </c>
     </row>
     <row r="92" spans="1:6" outlineLevel="1">
@@ -26647,8 +26646,8 @@
         <v>18</v>
       </c>
       <c r="B92" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49977980","ООО Мон Ами")</f>
-        <v>ООО Мон Ами</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50334209","БелАшими")</f>
+        <v>БелАшими</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>362</v>
@@ -26669,8 +26668,8 @@
         <v>18</v>
       </c>
       <c r="B93" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50525050","ООО Кэпитал Логистик")</f>
-        <v>ООО Кэпитал Логистик</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50056718","ОАО Трикотажторг")</f>
+        <v>ОАО Трикотажторг</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>362</v>
@@ -26679,11 +26678,11 @@
         <v>723</v>
       </c>
       <c r="E93" s="33">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="F93" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>476.74</v>
       </c>
     </row>
     <row r="94" spans="1:6" outlineLevel="1">
@@ -26691,8 +26690,8 @@
         <v>18</v>
       </c>
       <c r="B94" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49741451","ООО С-Нетворк")</f>
-        <v>ООО С-Нетворк</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/48532444","ТУТ и ТАМ Логистикс")</f>
+        <v>ТУТ и ТАМ Логистикс</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>362</v>
@@ -26701,11 +26700,11 @@
         <v>723</v>
       </c>
       <c r="E94" s="33">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="F94" s="34">
         <f t="shared" si="2"/>
-        <v>1395.35</v>
+        <v>2674.42</v>
       </c>
     </row>
     <row r="95" spans="1:6" outlineLevel="1">
@@ -26713,8 +26712,8 @@
         <v>18</v>
       </c>
       <c r="B95" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48850501","ООО ОМА")</f>
-        <v>ООО ОМА</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/49326321","ЗАО МИЛАВИЦА, СП")</f>
+        <v>ЗАО МИЛАВИЦА, СП</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>362</v>
@@ -26723,11 +26722,11 @@
         <v>723</v>
       </c>
       <c r="E95" s="33">
-        <v>1265</v>
+        <v>670</v>
       </c>
       <c r="F95" s="34">
         <f t="shared" si="2"/>
-        <v>1470.93</v>
+        <v>779.07</v>
       </c>
     </row>
     <row r="96" spans="1:6" outlineLevel="1">
@@ -26735,8 +26734,8 @@
         <v>18</v>
       </c>
       <c r="B96" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50227083","ООО ЕКТ Компани")</f>
-        <v>ООО ЕКТ Компани</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/49372248","ООО Компания Кронекс")</f>
+        <v>ООО Компания Кронекс</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>362</v>
@@ -26745,11 +26744,11 @@
         <v>723</v>
       </c>
       <c r="E96" s="33">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F96" s="34">
         <f t="shared" si="2"/>
-        <v>1744.19</v>
+        <v>1627.91</v>
       </c>
     </row>
     <row r="97" spans="1:6" outlineLevel="1">
@@ -26757,8 +26756,8 @@
         <v>18</v>
       </c>
       <c r="B97" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48792506","ООО Кэпитал Логистик")</f>
-        <v>ООО Кэпитал Логистик</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50161821","Сантехпром")</f>
+        <v>Сантехпром</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>362</v>
@@ -26767,11 +26766,11 @@
         <v>723</v>
       </c>
       <c r="E97" s="33">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F97" s="34">
         <f t="shared" si="2"/>
-        <v>1395.35</v>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="98" spans="1:6" outlineLevel="1">
@@ -26779,8 +26778,8 @@
         <v>18</v>
       </c>
       <c r="B98" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50341405","Belkanton Group")</f>
-        <v>Belkanton Group</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50257483","ООО Залант Групп")</f>
+        <v>ООО Залант Групп</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>362</v>
@@ -26789,11 +26788,11 @@
         <v>723</v>
       </c>
       <c r="E98" s="33">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="F98" s="34">
         <f t="shared" si="2"/>
-        <v>2209.3000000000002</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="99" spans="1:6" outlineLevel="1">
@@ -26801,8 +26800,8 @@
         <v>18</v>
       </c>
       <c r="B99" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50152948","ООО Прадиус Нова")</f>
-        <v>ООО Прадиус Нова</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50310248","ООО Тайсу")</f>
+        <v>ООО Тайсу</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>362</v>
@@ -26811,11 +26810,11 @@
         <v>723</v>
       </c>
       <c r="E99" s="33">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F99" s="34">
         <f t="shared" si="2"/>
-        <v>2325.58</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="100" spans="1:6" outlineLevel="1">
@@ -26823,8 +26822,8 @@
         <v>18</v>
       </c>
       <c r="B100" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50584449","Элитеврострой-плюс")</f>
-        <v>Элитеврострой-плюс</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50497453","ОАО Текстильторг")</f>
+        <v>ОАО Текстильторг</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>362</v>
@@ -26833,11 +26832,11 @@
         <v>723</v>
       </c>
       <c r="E100" s="33">
-        <v>1200</v>
+        <v>730</v>
       </c>
       <c r="F100" s="34">
         <f t="shared" si="2"/>
-        <v>1395.35</v>
+        <v>848.84</v>
       </c>
     </row>
     <row r="101" spans="1:6" outlineLevel="1">
@@ -26845,8 +26844,8 @@
         <v>18</v>
       </c>
       <c r="B101" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50562086","Беллесизделие")</f>
-        <v>Беллесизделие</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/44697312","Группа компаний НП-Сервис")</f>
+        <v>Группа компаний НП-Сервис</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>362</v>
@@ -26855,11 +26854,11 @@
         <v>723</v>
       </c>
       <c r="E101" s="33">
-        <v>1500</v>
+        <v>1375</v>
       </c>
       <c r="F101" s="34">
         <f t="shared" si="2"/>
-        <v>1744.19</v>
+        <v>1598.84</v>
       </c>
     </row>
     <row r="102" spans="1:6" outlineLevel="1">
@@ -26867,8 +26866,8 @@
         <v>18</v>
       </c>
       <c r="B102" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50111096","ООО Доставлено")</f>
-        <v>ООО Доставлено</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50010855","Сеть магазинов Мила (ГК, Парфюмбытхим)")</f>
+        <v>Сеть магазинов Мила (ГК, Парфюмбытхим)</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>362</v>
@@ -26877,11 +26876,11 @@
         <v>723</v>
       </c>
       <c r="E102" s="33">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F102" s="34">
         <f t="shared" si="2"/>
-        <v>1511.63</v>
+        <v>1627.91</v>
       </c>
     </row>
     <row r="103" spans="1:6" outlineLevel="1">
@@ -26889,8 +26888,8 @@
         <v>18</v>
       </c>
       <c r="B103" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50399872","ООО МебельЛэнд-М")</f>
-        <v>ООО МебельЛэнд-М</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50720361","ДевмерГруз, ЧП")</f>
+        <v>ДевмерГруз, ЧП</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>362</v>
@@ -26899,11 +26898,11 @@
         <v>723</v>
       </c>
       <c r="E103" s="33">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F103" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="104" spans="1:6" outlineLevel="1">
@@ -26911,8 +26910,8 @@
         <v>18</v>
       </c>
       <c r="B104" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50469253","ООО МебельЛэнд-М")</f>
-        <v>ООО МебельЛэнд-М</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/49673371","ООО Фулл Тим")</f>
+        <v>ООО Фулл Тим</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>362</v>
@@ -26921,11 +26920,11 @@
         <v>723</v>
       </c>
       <c r="E104" s="33">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="F104" s="34">
         <f t="shared" si="2"/>
-        <v>1220.93</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="105" spans="1:6" outlineLevel="1">
@@ -26933,8 +26932,8 @@
         <v>18</v>
       </c>
       <c r="B105" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50310248","ООО Тайсу")</f>
-        <v>ООО Тайсу</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/46930472","ООО Сэльвин")</f>
+        <v>ООО Сэльвин</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>362</v>
@@ -26955,8 +26954,8 @@
         <v>18</v>
       </c>
       <c r="B106" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48532444","ТУТ и ТАМ Логистикс")</f>
-        <v>ТУТ и ТАМ Логистикс</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50525050","ООО Кэпитал Логистик")</f>
+        <v>ООО Кэпитал Логистик</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>362</v>
@@ -26965,11 +26964,11 @@
         <v>723</v>
       </c>
       <c r="E106" s="33">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="F106" s="34">
         <f t="shared" si="2"/>
-        <v>2674.42</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="107" spans="1:6" outlineLevel="1">
@@ -26977,7 +26976,7 @@
         <v>18</v>
       </c>
       <c r="B107" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/44697312","Группа компаний НП-Сервис")</f>
+        <f>HYPERLINK("https://rabota.by/vacancy/50343417","Группа компаний НП-Сервис")</f>
         <v>Группа компаний НП-Сервис</v>
       </c>
       <c r="C107" s="33" t="s">
@@ -26987,11 +26986,11 @@
         <v>723</v>
       </c>
       <c r="E107" s="33">
-        <v>1375</v>
+        <v>1900</v>
       </c>
       <c r="F107" s="34">
         <f t="shared" si="2"/>
-        <v>1598.84</v>
+        <v>2209.3000000000002</v>
       </c>
     </row>
     <row r="108" spans="1:6" outlineLevel="1">
@@ -26999,8 +26998,8 @@
         <v>18</v>
       </c>
       <c r="B108" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50413814","БелТРАМП")</f>
-        <v>БелТРАМП</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/48850501","ООО ОМА")</f>
+        <v>ООО ОМА</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>362</v>
@@ -27009,11 +27008,11 @@
         <v>723</v>
       </c>
       <c r="E108" s="33">
-        <v>800</v>
+        <v>1265</v>
       </c>
       <c r="F108" s="34">
         <f t="shared" si="2"/>
-        <v>930.23</v>
+        <v>1470.93</v>
       </c>
     </row>
     <row r="109" spans="1:6" outlineLevel="1">
@@ -27021,8 +27020,8 @@
         <v>18</v>
       </c>
       <c r="B109" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50523849","Стронгтрейд")</f>
-        <v>Стронгтрейд</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50142986","ОАО Барановичское производственное хлопчатобумажное объединение")</f>
+        <v>ОАО Барановичское производственное хлопчатобумажное объединение</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>362</v>
@@ -27031,11 +27030,11 @@
         <v>723</v>
       </c>
       <c r="E109" s="33">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F109" s="34">
         <f t="shared" si="2"/>
-        <v>1395.35</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="110" spans="1:6" outlineLevel="1">
@@ -27043,8 +27042,8 @@
         <v>18</v>
       </c>
       <c r="B110" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50330279","APS")</f>
-        <v>APS</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50661526","Частное предприятие Интерключ")</f>
+        <v>Частное предприятие Интерключ</v>
       </c>
       <c r="C110" s="33" t="s">
         <v>362</v>
@@ -27053,11 +27052,11 @@
         <v>723</v>
       </c>
       <c r="E110" s="33">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F110" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="111" spans="1:6" outlineLevel="1">
@@ -27065,8 +27064,8 @@
         <v>18</v>
       </c>
       <c r="B111" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50075611","ПромПродИмпекс")</f>
-        <v>ПромПродИмпекс</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50076367","ООО БалтСистем")</f>
+        <v>ООО БалтСистем</v>
       </c>
       <c r="C111" s="33" t="s">
         <v>362</v>
@@ -27075,11 +27074,11 @@
         <v>723</v>
       </c>
       <c r="E111" s="33">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="F111" s="34">
         <f t="shared" si="2"/>
-        <v>1220.93</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="112" spans="1:6" outlineLevel="1">
@@ -27087,8 +27086,8 @@
         <v>18</v>
       </c>
       <c r="B112" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50453223","ОДО Крышар")</f>
-        <v>ОДО Крышар</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50320718","АКВАТЕРМЕКС")</f>
+        <v>АКВАТЕРМЕКС</v>
       </c>
       <c r="C112" s="33" t="s">
         <v>362</v>
@@ -27097,11 +27096,11 @@
         <v>723</v>
       </c>
       <c r="E112" s="33">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F112" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="113" spans="1:6" outlineLevel="1">
@@ -27109,8 +27108,8 @@
         <v>18</v>
       </c>
       <c r="B113" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50437658","Сеть магазинов Мила (ГК, Парфюмбытхим)")</f>
-        <v>Сеть магазинов Мила (ГК, Парфюмбытхим)</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50168596","ЗИД БАЙ")</f>
+        <v>ЗИД БАЙ</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>362</v>
@@ -27119,310 +27118,517 @@
         <v>723</v>
       </c>
       <c r="E113" s="33">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="F113" s="34">
         <f t="shared" si="2"/>
-        <v>1627.91</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="32">
         <v>18</v>
       </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="34" t="str">
+      <c r="B114" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/4a432df7000972d4fa0013a3fa4443376b3468","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E114" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F114" s="34">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1627.91</v>
       </c>
     </row>
     <row r="115" spans="1:6" outlineLevel="1">
       <c r="A115" s="32">
         <v>18</v>
       </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="34" t="str">
+      <c r="B115" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/f749610a0008ff41ee0013a3fa74507a704752","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E115" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F115" s="34">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="32">
         <v>18</v>
       </c>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="34" t="str">
+      <c r="B116" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/8bd7ffd50007ba4c5e0013a3fa4c6e6a317561","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E116" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F116" s="34">
         <f t="shared" ref="F116:F143" si="3">IF(ROUND(E116/$K$11,2)&gt;0,ROUND(E116/$K$11,2),"")</f>
-        <v/>
+        <v>1627.91</v>
       </c>
     </row>
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="32">
         <v>18</v>
       </c>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="34" t="str">
+      <c r="B117" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/8bb26dcf00027824fc0013a3fa683666416e77","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E117" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F117" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="32">
         <v>18</v>
       </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="34" t="str">
+      <c r="B118" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/b497658b00098a9ac50013a3fa554378654663","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E118" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F118" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="119" spans="1:6" outlineLevel="1">
       <c r="A119" s="32">
         <v>18</v>
       </c>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="34" t="str">
+      <c r="B119" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/7bd5051f000973719f0013a3fa55634a783938","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E119" s="33">
+        <v>1350</v>
+      </c>
+      <c r="F119" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1569.77</v>
       </c>
     </row>
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="32">
         <v>18</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="34" t="str">
+      <c r="B120" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ff3dfd370006226c570013a3fa6978526f6572","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E120" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F120" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="32">
         <v>18</v>
       </c>
-      <c r="B121" s="33"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="34" t="str">
+      <c r="B121" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/7c5d9954000987d56a0013a3fa464b37687a4f","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E121" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F121" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="32">
         <v>18</v>
       </c>
-      <c r="B122" s="33"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="34" t="str">
+      <c r="B122" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ba9734d700062325f70013a3fa616f58575673","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E122" s="33">
+        <v>1600</v>
+      </c>
+      <c r="F122" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1860.47</v>
       </c>
     </row>
     <row r="123" spans="1:6" outlineLevel="1">
       <c r="A123" s="32">
         <v>18</v>
       </c>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="34" t="str">
+      <c r="B123" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/0c7caa7000041f1ba90013a3fa77586c574449","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E123" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F123" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="124" spans="1:6" outlineLevel="1">
       <c r="A124" s="32">
         <v>18</v>
       </c>
-      <c r="B124" s="33"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="34" t="str">
+      <c r="B124" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/6f2878c80009524aa70013a3fa446962374b31","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E124" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F124" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="125" spans="1:6" outlineLevel="1">
       <c r="A125" s="32">
         <v>18</v>
       </c>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="34" t="str">
+      <c r="B125" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ff07c5d00009894f620013a3fa336531545978","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E125" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F125" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="126" spans="1:6" outlineLevel="1">
       <c r="A126" s="32">
         <v>18</v>
       </c>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="34" t="str">
+      <c r="B126" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/c1d8407a0009085ba40013a3fa436771773038","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E126" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F126" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="127" spans="1:6" outlineLevel="1">
       <c r="A127" s="32">
         <v>18</v>
       </c>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="34" t="str">
+      <c r="B127" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/8b05446a0008eefdc50013a3fa557672615744","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E127" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F127" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="128" spans="1:6" outlineLevel="1">
       <c r="A128" s="32">
         <v>18</v>
       </c>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="34" t="str">
+      <c r="B128" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/a9257df60008d8362e0013a3fa613263333875","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E128" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F128" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="129" spans="1:6" outlineLevel="1">
       <c r="A129" s="32">
         <v>18</v>
       </c>
-      <c r="B129" s="33"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="34" t="str">
+      <c r="B129" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/dfbe34a900080df27b0013a3fa314968734361","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D129" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E129" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F129" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="130" spans="1:6" outlineLevel="1">
       <c r="A130" s="32">
         <v>18</v>
       </c>
-      <c r="B130" s="33"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="34" t="str">
+      <c r="B130" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/1c33811c0004ff9ee80013a3fa59335154594f","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E130" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F130" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="131" spans="1:6" outlineLevel="1">
       <c r="A131" s="32">
         <v>18</v>
       </c>
-      <c r="B131" s="33"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="34" t="str">
+      <c r="B131" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/f1e8a7d80009846dc20013a3fa34484d6a7155","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E131" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F131" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="32">
         <v>18</v>
       </c>
-      <c r="B132" s="33"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="34" t="str">
+      <c r="B132" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ba30febb000247f53a0013a3fa4573346c5442","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E132" s="33">
+        <v>1600</v>
+      </c>
+      <c r="F132" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1860.47</v>
       </c>
     </row>
     <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="32">
         <v>18</v>
       </c>
-      <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="34" t="str">
+      <c r="B133" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/3886eff60005fd20240013a3fa313542594370","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E133" s="33">
+        <v>1325</v>
+      </c>
+      <c r="F133" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1540.7</v>
       </c>
     </row>
     <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="32">
         <v>18</v>
       </c>
-      <c r="B134" s="33"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="34" t="str">
+      <c r="B134" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/023009580005384da50013a3fa696f57764a62","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D134" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E134" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F134" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="135" spans="1:6" outlineLevel="1">
       <c r="A135" s="32">
         <v>18</v>
       </c>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="34" t="str">
+      <c r="B135" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/643d1f3200093ea30f0013a3fa4f59695a504b","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D135" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E135" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F135" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="136" spans="1:6" outlineLevel="1">
       <c r="A136" s="32">
         <v>18</v>
       </c>
-      <c r="B136" s="33"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="34" t="str">
+      <c r="B136" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/369becee00093cbf890013a3fa666d4535486d","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D136" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E136" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F136" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="137" spans="1:6" outlineLevel="1">
@@ -27531,454 +27737,571 @@
         <v>18</v>
       </c>
       <c r="B145" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50684651","ООО Надежная Энергия")</f>
+        <v>ООО Надежная Энергия</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D145" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E145" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F145" s="34">
+        <f t="shared" ref="F145:F176" si="4">IF(ROUND(E145/$K$11,2)&gt;0,ROUND(E145/$K$11,2),"")</f>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" outlineLevel="1">
+      <c r="A146" s="32">
+        <v>18</v>
+      </c>
+      <c r="B146" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50561429","Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства")</f>
+        <v>Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E146" s="33">
+        <v>950</v>
+      </c>
+      <c r="F146" s="34">
+        <f t="shared" si="4"/>
+        <v>1104.6500000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" outlineLevel="1">
+      <c r="A147" s="32">
+        <v>18</v>
+      </c>
+      <c r="B147" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50364117","МИНСКИЙ ГОСУДАРСТВЕННЫЙ ПРОФЕССИОНАЛЬНЫЙ ЛИЦЕЙ №3 МАШИНОСТРОЕНИЯ")</f>
+        <v>МИНСКИЙ ГОСУДАРСТВЕННЫЙ ПРОФЕССИОНАЛЬНЫЙ ЛИЦЕЙ №3 МАШИНОСТРОЕНИЯ</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E147" s="33">
+        <v>500</v>
+      </c>
+      <c r="F147" s="34">
+        <f t="shared" si="4"/>
+        <v>581.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" outlineLevel="1">
+      <c r="A148" s="32">
+        <v>18</v>
+      </c>
+      <c r="B148" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50259059","Филиал Колледж современных технологий в машиностроении и автосервисе УО Республиканский институт профессионального образования")</f>
+        <v>Филиал Колледж современных технологий в машиностроении и автосервисе УО Республиканский институт профессионального образования</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D148" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E148" s="33">
+        <v>800</v>
+      </c>
+      <c r="F148" s="34">
+        <f t="shared" si="4"/>
+        <v>930.23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" outlineLevel="1">
+      <c r="A149" s="32">
+        <v>18</v>
+      </c>
+      <c r="B149" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49980709","Белорусский государственный педагогический университет им.Максима Танка")</f>
+        <v>Белорусский государственный педагогический университет им.Максима Танка</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E149" s="33">
+        <v>1100</v>
+      </c>
+      <c r="F149" s="34">
+        <f t="shared" si="4"/>
+        <v>1279.07</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" outlineLevel="1">
+      <c r="A150" s="32">
+        <v>18</v>
+      </c>
+      <c r="B150" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/46912474","Молочный гостинец")</f>
         <v>Молочный гостинец</v>
       </c>
-      <c r="C145" s="33" t="s">
+      <c r="C150" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D145" s="33" t="s">
+      <c r="D150" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E145" s="33">
+      <c r="E150" s="33">
         <v>900</v>
       </c>
-      <c r="F145" s="34">
-        <f t="shared" ref="F145:F176" si="4">IF(ROUND(E145/$K$11,2)&gt;0,ROUND(E145/$K$11,2),"")</f>
+      <c r="F150" s="34">
+        <f t="shared" si="4"/>
         <v>1046.51</v>
       </c>
     </row>
-    <row r="146" spans="1:6" outlineLevel="1">
-      <c r="A146" s="32">
-        <v>18</v>
-      </c>
-      <c r="B146" s="44" t="str">
+    <row r="151" spans="1:6" outlineLevel="1">
+      <c r="A151" s="32">
+        <v>18</v>
+      </c>
+      <c r="B151" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/49310335","Онега")</f>
         <v>Онега</v>
       </c>
-      <c r="C146" s="33" t="s">
+      <c r="C151" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D146" s="33" t="s">
+      <c r="D151" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E146" s="33">
+      <c r="E151" s="33">
         <v>1200</v>
       </c>
-      <c r="F146" s="34">
+      <c r="F151" s="34">
         <f t="shared" si="4"/>
         <v>1395.35</v>
       </c>
     </row>
-    <row r="147" spans="1:6" outlineLevel="1">
-      <c r="A147" s="32">
-        <v>18</v>
-      </c>
-      <c r="B147" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49987894","ООО СервисБайИнж")</f>
-        <v>ООО СервисБайИнж</v>
-      </c>
-      <c r="C147" s="33" t="s">
+    <row r="152" spans="1:6" outlineLevel="1">
+      <c r="A152" s="32">
+        <v>18</v>
+      </c>
+      <c r="B152" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50052798","Гос.учреждение Психоневрологический дом-интернат для престарелых и инвалидов №3 г.Минска")</f>
+        <v>Гос.учреждение Психоневрологический дом-интернат для престарелых и инвалидов №3 г.Минска</v>
+      </c>
+      <c r="C152" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D147" s="33" t="s">
+      <c r="D152" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E147" s="33">
+      <c r="E152" s="33">
+        <v>850</v>
+      </c>
+      <c r="F152" s="34">
+        <f t="shared" si="4"/>
+        <v>988.37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" outlineLevel="1">
+      <c r="A153" s="32">
+        <v>18</v>
+      </c>
+      <c r="B153" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50135979","Белорусский государственный музей истории Великой Отечественной войны")</f>
+        <v>Белорусский государственный музей истории Великой Отечественной войны</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E153" s="33">
+        <v>600</v>
+      </c>
+      <c r="F153" s="34">
+        <f t="shared" si="4"/>
+        <v>697.67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" outlineLevel="1">
+      <c r="A154" s="32">
+        <v>18</v>
+      </c>
+      <c r="B154" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50172927","Белоруснефть-Промсервис")</f>
+        <v>Белоруснефть-Промсервис</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E154" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F154" s="34">
+        <f t="shared" si="4"/>
+        <v>1627.91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" outlineLevel="1">
+      <c r="A155" s="32">
+        <v>18</v>
+      </c>
+      <c r="B155" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50235061","ОАО Крион")</f>
+        <v>ОАО Крион</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D155" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E155" s="33">
+        <v>900</v>
+      </c>
+      <c r="F155" s="34">
+        <f t="shared" si="4"/>
+        <v>1046.51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" outlineLevel="1">
+      <c r="A156" s="32">
+        <v>18</v>
+      </c>
+      <c r="B156" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50568508","Белорусский государственный музей истории Великой Отечественной войны")</f>
+        <v>Белорусский государственный музей истории Великой Отечественной войны</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D156" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E156" s="33">
+        <v>600</v>
+      </c>
+      <c r="F156" s="34">
+        <f t="shared" si="4"/>
+        <v>697.67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" outlineLevel="1">
+      <c r="A157" s="32">
+        <v>18</v>
+      </c>
+      <c r="B157" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50723880","ООО РЕМОНДИС Солюшн")</f>
+        <v>ООО РЕМОНДИС Солюшн</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D157" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E157" s="33">
+        <v>1700</v>
+      </c>
+      <c r="F157" s="34">
+        <f t="shared" si="4"/>
+        <v>1976.74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" outlineLevel="1">
+      <c r="A158" s="32">
+        <v>18</v>
+      </c>
+      <c r="B158" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50307126","ООО Строительная компания АгриПО")</f>
+        <v>ООО Строительная компания АгриПО</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D158" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E158" s="33">
+        <v>3000</v>
+      </c>
+      <c r="F158" s="34">
+        <f t="shared" si="4"/>
+        <v>3488.37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" outlineLevel="1">
+      <c r="A159" s="32">
+        <v>18</v>
+      </c>
+      <c r="B159" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50307838","Институт пограничной службы Республики Беларусь, ГУО")</f>
+        <v>Институт пограничной службы Республики Беларусь, ГУО</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E159" s="33">
+        <v>600</v>
+      </c>
+      <c r="F159" s="34">
+        <f t="shared" si="4"/>
+        <v>697.67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" outlineLevel="1">
+      <c r="A160" s="32">
+        <v>18</v>
+      </c>
+      <c r="B160" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50325895","Минский государственный профессиональный лицей № 9 автомобилестроения")</f>
+        <v>Минский государственный профессиональный лицей № 9 автомобилестроения</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E160" s="33">
+        <v>214</v>
+      </c>
+      <c r="F160" s="34">
+        <f t="shared" si="4"/>
+        <v>248.84</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" outlineLevel="1">
+      <c r="A161" s="32">
+        <v>18</v>
+      </c>
+      <c r="B161" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50503960","ОАО Белбакалея")</f>
+        <v>ОАО Белбакалея</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D161" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E161" s="33">
+        <v>800</v>
+      </c>
+      <c r="F161" s="34">
+        <f t="shared" si="4"/>
+        <v>930.23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" outlineLevel="1">
+      <c r="A162" s="32">
+        <v>18</v>
+      </c>
+      <c r="B162" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50642074","ООО Отличные люди")</f>
+        <v>ООО Отличные люди</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D162" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E162" s="33">
         <v>2000</v>
       </c>
-      <c r="F147" s="34">
+      <c r="F162" s="34">
         <f t="shared" si="4"/>
         <v>2325.58</v>
       </c>
     </row>
-    <row r="148" spans="1:6" outlineLevel="1">
-      <c r="A148" s="32">
-        <v>18</v>
-      </c>
-      <c r="B148" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50172927","Белоруснефть-Промсервис")</f>
-        <v>Белоруснефть-Промсервис</v>
-      </c>
-      <c r="C148" s="33" t="s">
+    <row r="163" spans="1:6" outlineLevel="1">
+      <c r="A163" s="32">
+        <v>18</v>
+      </c>
+      <c r="B163" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49833939","ООО Тарум")</f>
+        <v>ООО Тарум</v>
+      </c>
+      <c r="C163" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D163" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E148" s="33">
-        <v>1400</v>
-      </c>
-      <c r="F148" s="34">
+      <c r="E163" s="33">
+        <v>1100</v>
+      </c>
+      <c r="F163" s="34">
         <f t="shared" si="4"/>
-        <v>1627.91</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" outlineLevel="1">
-      <c r="A149" s="32">
-        <v>18</v>
-      </c>
-      <c r="B149" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50235061","ОАО Крион")</f>
-        <v>ОАО Крион</v>
-      </c>
-      <c r="C149" s="33" t="s">
+        <v>1279.07</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" outlineLevel="1">
+      <c r="A164" s="32">
+        <v>18</v>
+      </c>
+      <c r="B164" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/c5b56a85000929e2ac0013a3fa36756e6f6565","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C164" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D149" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E149" s="33">
-        <v>900</v>
-      </c>
-      <c r="F149" s="34">
+      <c r="D164" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E164" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F164" s="34">
         <f t="shared" si="4"/>
-        <v>1046.51</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" outlineLevel="1">
-      <c r="A150" s="32">
-        <v>18</v>
-      </c>
-      <c r="B150" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50307126","ООО Строительная компания АгриПО")</f>
-        <v>ООО Строительная компания АгриПО</v>
-      </c>
-      <c r="C150" s="33" t="s">
+        <v>2325.58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" outlineLevel="1">
+      <c r="A165" s="32">
+        <v>18</v>
+      </c>
+      <c r="B165" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/f5c62a0a00096846710013a3fa35505165325a","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C165" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D150" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E150" s="33">
+      <c r="D165" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E165" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F165" s="34">
+        <f t="shared" si="4"/>
+        <v>2325.58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" outlineLevel="1">
+      <c r="A166" s="32">
+        <v>18</v>
+      </c>
+      <c r="B166" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ade44998000900bc990013a3fa626453497a77","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D166" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E166" s="33">
+        <v>1700</v>
+      </c>
+      <c r="F166" s="34">
+        <f t="shared" si="4"/>
+        <v>1976.74</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" outlineLevel="1">
+      <c r="A167" s="32">
+        <v>18</v>
+      </c>
+      <c r="B167" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/3e24d6a700082b71790013a3fa354f4f355339","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D167" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E167" s="33">
+        <v>1800</v>
+      </c>
+      <c r="F167" s="34">
+        <f t="shared" si="4"/>
+        <v>2093.02</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" outlineLevel="1">
+      <c r="A168" s="32">
+        <v>18</v>
+      </c>
+      <c r="B168" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/373e64300001eba76d0013a3fa6f58674e724d","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D168" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E168" s="33">
+        <v>1800</v>
+      </c>
+      <c r="F168" s="34">
+        <f t="shared" si="4"/>
+        <v>2093.02</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" outlineLevel="1">
+      <c r="A169" s="32">
+        <v>18</v>
+      </c>
+      <c r="B169" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/609f7a04000414746c0013a3fa4175495a4c4e","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D169" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E169" s="33">
+        <v>2200</v>
+      </c>
+      <c r="F169" s="34">
+        <f t="shared" si="4"/>
+        <v>2558.14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" outlineLevel="1">
+      <c r="A170" s="32">
+        <v>18</v>
+      </c>
+      <c r="B170" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/65df8ccc0001f5f5970013a3fa4a6b724f664a","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D170" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E170" s="33">
         <v>3000</v>
       </c>
-      <c r="F150" s="34">
+      <c r="F170" s="34">
         <f t="shared" si="4"/>
         <v>3488.37</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" outlineLevel="1">
-      <c r="A151" s="32">
-        <v>18</v>
-      </c>
-      <c r="B151" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50561429","Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства")</f>
-        <v>Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D151" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E151" s="33">
-        <v>950</v>
-      </c>
-      <c r="F151" s="34">
-        <f t="shared" si="4"/>
-        <v>1104.6500000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" outlineLevel="1">
-      <c r="A152" s="32">
-        <v>18</v>
-      </c>
-      <c r="B152" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49902728","ОАО Завод Промбурвод")</f>
-        <v>ОАО Завод Промбурвод</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E152" s="33">
-        <v>1200</v>
-      </c>
-      <c r="F152" s="34">
-        <f t="shared" si="4"/>
-        <v>1395.35</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" outlineLevel="1">
-      <c r="A153" s="32">
-        <v>18</v>
-      </c>
-      <c r="B153" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50496305","ОАО Керамин")</f>
-        <v>ОАО Керамин</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D153" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E153" s="33">
-        <v>1600</v>
-      </c>
-      <c r="F153" s="34">
-        <f t="shared" si="4"/>
-        <v>1860.47</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" outlineLevel="1">
-      <c r="A154" s="32">
-        <v>18</v>
-      </c>
-      <c r="B154" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50631995","ООО ПМБ Инвест плюс")</f>
-        <v>ООО ПМБ Инвест плюс</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D154" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E154" s="33">
-        <v>4000</v>
-      </c>
-      <c r="F154" s="34">
-        <f t="shared" si="4"/>
-        <v>4651.16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" outlineLevel="1">
-      <c r="A155" s="32">
-        <v>18</v>
-      </c>
-      <c r="B155" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50642074","ООО Отличные люди")</f>
-        <v>ООО Отличные люди</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D155" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E155" s="33">
-        <v>2000</v>
-      </c>
-      <c r="F155" s="34">
-        <f t="shared" si="4"/>
-        <v>2325.58</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" outlineLevel="1">
-      <c r="A156" s="32">
-        <v>18</v>
-      </c>
-      <c r="B156" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50503960","ОАО Белбакалея")</f>
-        <v>ОАО Белбакалея</v>
-      </c>
-      <c r="C156" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D156" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E156" s="33">
-        <v>800</v>
-      </c>
-      <c r="F156" s="34">
-        <f t="shared" si="4"/>
-        <v>930.23</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" outlineLevel="1">
-      <c r="A157" s="32">
-        <v>18</v>
-      </c>
-      <c r="B157" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49833939","ООО Тарум")</f>
-        <v>ООО Тарум</v>
-      </c>
-      <c r="C157" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D157" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E157" s="33">
-        <v>1100</v>
-      </c>
-      <c r="F157" s="34">
-        <f t="shared" si="4"/>
-        <v>1279.07</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" outlineLevel="1">
-      <c r="A158" s="32">
-        <v>18</v>
-      </c>
-      <c r="B158" s="33"/>
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:6" outlineLevel="1">
-      <c r="A159" s="32">
-        <v>18</v>
-      </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:6" outlineLevel="1">
-      <c r="A160" s="32">
-        <v>18</v>
-      </c>
-      <c r="B160" s="33"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:6" outlineLevel="1">
-      <c r="A161" s="32">
-        <v>18</v>
-      </c>
-      <c r="B161" s="33"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:6" outlineLevel="1">
-      <c r="A162" s="32">
-        <v>18</v>
-      </c>
-      <c r="B162" s="33"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:6" outlineLevel="1">
-      <c r="A163" s="32">
-        <v>18</v>
-      </c>
-      <c r="B163" s="33"/>
-      <c r="C163" s="33"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:6" outlineLevel="1">
-      <c r="A164" s="32">
-        <v>18</v>
-      </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:6" outlineLevel="1">
-      <c r="A165" s="32">
-        <v>18</v>
-      </c>
-      <c r="B165" s="33"/>
-      <c r="C165" s="33"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
-      <c r="F165" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:6" outlineLevel="1">
-      <c r="A166" s="32">
-        <v>18</v>
-      </c>
-      <c r="B166" s="33"/>
-      <c r="C166" s="33"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:6" outlineLevel="1">
-      <c r="A167" s="32">
-        <v>18</v>
-      </c>
-      <c r="B167" s="33"/>
-      <c r="C167" s="33"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="33"/>
-      <c r="F167" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:6" outlineLevel="1">
-      <c r="A168" s="32">
-        <v>18</v>
-      </c>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:6" outlineLevel="1">
-      <c r="A169" s="32">
-        <v>18</v>
-      </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:6" outlineLevel="1">
-      <c r="A170" s="32">
-        <v>18</v>
-      </c>
-      <c r="B170" s="33"/>
-      <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
       </c>
     </row>
     <row r="171" spans="1:6" outlineLevel="1">
@@ -29250,8 +29573,8 @@
         <v>18</v>
       </c>
       <c r="B268" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50655105","ООО БаркасГейм")</f>
-        <v>ООО БаркасГейм</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50202999","ООО Еда с умом")</f>
+        <v>ООО Еда с умом</v>
       </c>
       <c r="C268" s="33" t="s">
         <v>736</v>
@@ -29260,11 +29583,11 @@
         <v>723</v>
       </c>
       <c r="E268" s="33">
-        <v>1250</v>
+        <v>2000</v>
       </c>
       <c r="F268" s="34">
         <f t="shared" si="8"/>
-        <v>1453.49</v>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="269" spans="1:6" outlineLevel="1">
@@ -29272,8 +29595,8 @@
         <v>18</v>
       </c>
       <c r="B269" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50633119","ООО Кофечино")</f>
-        <v>ООО Кофечино</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50477491","Терра пицца")</f>
+        <v>Терра пицца</v>
       </c>
       <c r="C269" s="33" t="s">
         <v>736</v>
@@ -29282,11 +29605,11 @@
         <v>723</v>
       </c>
       <c r="E269" s="33">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F269" s="34">
         <f t="shared" si="8"/>
-        <v>1395.35</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="270" spans="1:6" outlineLevel="1">
@@ -29294,8 +29617,8 @@
         <v>18</v>
       </c>
       <c r="B270" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50416834","Терра пицца")</f>
-        <v>Терра пицца</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50238589","ООО Норте Рокс")</f>
+        <v>ООО Норте Рокс</v>
       </c>
       <c r="C270" s="33" t="s">
         <v>736</v>
@@ -29316,8 +29639,8 @@
         <v>18</v>
       </c>
       <c r="B271" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49941507","Активмил")</f>
-        <v>Активмил</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50235298","ООО ПараграфЦентр")</f>
+        <v>ООО ПараграфЦентр</v>
       </c>
       <c r="C271" s="33" t="s">
         <v>736</v>
@@ -29338,96 +29661,96 @@
         <v>18</v>
       </c>
       <c r="B272" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50397204","ООО Спортюнион-Трейдинг / Ресторан-кондитерская ODI")</f>
+        <v>ООО Спортюнион-Трейдинг / Ресторан-кондитерская ODI</v>
+      </c>
+      <c r="C272" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D272" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E272" s="33">
+        <v>1012</v>
+      </c>
+      <c r="F272" s="34">
+        <f t="shared" si="8"/>
+        <v>1176.74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" outlineLevel="1">
+      <c r="A273" s="32">
+        <v>18</v>
+      </c>
+      <c r="B273" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/42959139","GARAGE")</f>
+        <v>GARAGE</v>
+      </c>
+      <c r="C273" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D273" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E273" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F273" s="34">
+        <f t="shared" si="8"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" outlineLevel="1">
+      <c r="A274" s="32">
+        <v>18</v>
+      </c>
+      <c r="B274" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50731971","ООО Нефть сити")</f>
+        <v>ООО Нефть сити</v>
+      </c>
+      <c r="C274" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D274" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E274" s="33">
+        <v>2300</v>
+      </c>
+      <c r="F274" s="34">
+        <f t="shared" si="8"/>
+        <v>2674.42</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" outlineLevel="1">
+      <c r="A275" s="32">
+        <v>18</v>
+      </c>
+      <c r="B275" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/49620562","Опен Трэйд")</f>
         <v>Опен Трэйд</v>
       </c>
-      <c r="C272" s="33" t="s">
+      <c r="C275" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="D272" s="33" t="s">
+      <c r="D275" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E272" s="33">
+      <c r="E275" s="33">
         <v>1700</v>
       </c>
-      <c r="F272" s="34">
+      <c r="F275" s="34">
         <f t="shared" si="8"/>
         <v>1976.74</v>
       </c>
     </row>
-    <row r="273" spans="1:6" outlineLevel="1">
-      <c r="A273" s="32">
-        <v>18</v>
-      </c>
-      <c r="B273" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50397204","ООО Спортюнион-Трейдинг / Ресторан-кондитерская ODI")</f>
-        <v>ООО Спортюнион-Трейдинг / Ресторан-кондитерская ODI</v>
-      </c>
-      <c r="C273" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D273" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E273" s="33">
-        <v>1012</v>
-      </c>
-      <c r="F273" s="34">
-        <f t="shared" si="8"/>
-        <v>1176.74</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" outlineLevel="1">
-      <c r="A274" s="32">
-        <v>18</v>
-      </c>
-      <c r="B274" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50635309","ООО Гинерион")</f>
-        <v>ООО Гинерион</v>
-      </c>
-      <c r="C274" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D274" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E274" s="33">
-        <v>900</v>
-      </c>
-      <c r="F274" s="34">
-        <f t="shared" si="8"/>
-        <v>1046.51</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" outlineLevel="1">
-      <c r="A275" s="32">
-        <v>18</v>
-      </c>
-      <c r="B275" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50291126","ООО Дубровская чистая вода")</f>
-        <v>ООО Дубровская чистая вода</v>
-      </c>
-      <c r="C275" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D275" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E275" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F275" s="34">
-        <f t="shared" si="8"/>
-        <v>1162.79</v>
-      </c>
-    </row>
     <row r="276" spans="1:6" outlineLevel="1">
       <c r="A276" s="32">
         <v>18</v>
       </c>
       <c r="B276" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50202999","ООО Еда с умом")</f>
-        <v>ООО Еда с умом</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50258098","ОДО Керида")</f>
+        <v>ОДО Керида</v>
       </c>
       <c r="C276" s="33" t="s">
         <v>736</v>
@@ -29436,11 +29759,11 @@
         <v>723</v>
       </c>
       <c r="E276" s="33">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="F276" s="34">
         <f t="shared" si="8"/>
-        <v>2325.58</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="277" spans="1:6" outlineLevel="1">
@@ -29448,8 +29771,8 @@
         <v>18</v>
       </c>
       <c r="B277" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50235298","ООО ПараграфЦентр")</f>
-        <v>ООО ПараграфЦентр</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/46638806","Опен Трэйд")</f>
+        <v>Опен Трэйд</v>
       </c>
       <c r="C277" s="33" t="s">
         <v>736</v>
@@ -29470,8 +29793,8 @@
         <v>18</v>
       </c>
       <c r="B278" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/46638806","Опен Трэйд")</f>
-        <v>Опен Трэйд</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50633119","ООО Кофечино")</f>
+        <v>ООО Кофечино</v>
       </c>
       <c r="C278" s="33" t="s">
         <v>736</v>
@@ -29480,11 +29803,11 @@
         <v>723</v>
       </c>
       <c r="E278" s="33">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F278" s="34">
         <f t="shared" si="8"/>
-        <v>1162.79</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="279" spans="1:6" outlineLevel="1">
@@ -29492,8 +29815,8 @@
         <v>18</v>
       </c>
       <c r="B279" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50238589","ООО Норте Рокс")</f>
-        <v>ООО Норте Рокс</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50209900","ГОСТИНИЦА ПЕКИН-МИНСК")</f>
+        <v>ГОСТИНИЦА ПЕКИН-МИНСК</v>
       </c>
       <c r="C279" s="33" t="s">
         <v>736</v>
@@ -29502,11 +29825,11 @@
         <v>723</v>
       </c>
       <c r="E279" s="33">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F279" s="34">
         <f t="shared" si="8"/>
-        <v>1162.79</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="280" spans="1:6" outlineLevel="1">
@@ -29514,8 +29837,8 @@
         <v>18</v>
       </c>
       <c r="B280" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50477491","Терра пицца")</f>
-        <v>Терра пицца</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50291126","ООО Дубровская чистая вода")</f>
+        <v>ООО Дубровская чистая вода</v>
       </c>
       <c r="C280" s="33" t="s">
         <v>736</v>
@@ -29536,8 +29859,8 @@
         <v>18</v>
       </c>
       <c r="B281" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49944198","Филиал Сябры СЗАО Энерго-Оил")</f>
-        <v>Филиал Сябры СЗАО Энерго-Оил</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50635309","ООО Гинерион")</f>
+        <v>ООО Гинерион</v>
       </c>
       <c r="C281" s="33" t="s">
         <v>736</v>
@@ -29546,11 +29869,11 @@
         <v>723</v>
       </c>
       <c r="E281" s="33">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F281" s="34">
         <f t="shared" si="8"/>
-        <v>1162.79</v>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="282" spans="1:6" outlineLevel="1">
@@ -29558,8 +29881,8 @@
         <v>18</v>
       </c>
       <c r="B282" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50258098","ОДО Керида")</f>
-        <v>ОДО Керида</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50655105","ООО БаркасГейм")</f>
+        <v>ООО БаркасГейм</v>
       </c>
       <c r="C282" s="33" t="s">
         <v>736</v>
@@ -29568,11 +29891,11 @@
         <v>723</v>
       </c>
       <c r="E282" s="33">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="F282" s="34">
         <f t="shared" si="8"/>
-        <v>930.23</v>
+        <v>1453.49</v>
       </c>
     </row>
     <row r="283" spans="1:6" outlineLevel="1">
@@ -29580,8 +29903,8 @@
         <v>18</v>
       </c>
       <c r="B283" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50073914","ООО Экспресс Пицца")</f>
-        <v>ООО Экспресс Пицца</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/49979181","ООО СИСТЕМЫ ИНВЕСТИЦИЙ И ИННОВАЦИЙ ПЛЮС")</f>
+        <v>ООО СИСТЕМЫ ИНВЕСТИЦИЙ И ИННОВАЦИЙ ПЛЮС</v>
       </c>
       <c r="C283" s="33" t="s">
         <v>736</v>
@@ -29590,11 +29913,11 @@
         <v>723</v>
       </c>
       <c r="E283" s="33">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F283" s="34">
         <f t="shared" si="8"/>
-        <v>1744.19</v>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="284" spans="1:6" outlineLevel="1">
@@ -29602,8 +29925,8 @@
         <v>18</v>
       </c>
       <c r="B284" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49979181","ООО СИСТЕМЫ ИНВЕСТИЦИЙ И ИННОВАЦИЙ ПЛЮС")</f>
-        <v>ООО СИСТЕМЫ ИНВЕСТИЦИЙ И ИННОВАЦИЙ ПЛЮС</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50144931","Папа Джонс/ООО Кондитерская №4")</f>
+        <v>Папа Джонс/ООО Кондитерская №4</v>
       </c>
       <c r="C284" s="33" t="s">
         <v>736</v>
@@ -29612,11 +29935,11 @@
         <v>723</v>
       </c>
       <c r="E284" s="33">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F284" s="34">
         <f t="shared" si="8"/>
-        <v>1511.63</v>
+        <v>581.4</v>
       </c>
     </row>
     <row r="285" spans="1:6" outlineLevel="1">
@@ -29624,8 +29947,8 @@
         <v>18</v>
       </c>
       <c r="B285" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49986467","ООО Шеф-повар Кейтеринг")</f>
-        <v>ООО Шеф-повар Кейтеринг</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50572198","Отель Европа")</f>
+        <v>Отель Европа</v>
       </c>
       <c r="C285" s="33" t="s">
         <v>736</v>
@@ -29634,11 +29957,11 @@
         <v>723</v>
       </c>
       <c r="E285" s="33">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="F285" s="34">
         <f t="shared" si="8"/>
-        <v>813.95</v>
+        <v>988.37</v>
       </c>
     </row>
     <row r="286" spans="1:6" outlineLevel="1">
@@ -29646,8 +29969,8 @@
         <v>18</v>
       </c>
       <c r="B286" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50144931","Папа Джонс/ООО Кондитерская №4")</f>
-        <v>Папа Джонс/ООО Кондитерская №4</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50584013","Экоотель Кветки яблыни")</f>
+        <v>Экоотель Кветки яблыни</v>
       </c>
       <c r="C286" s="33" t="s">
         <v>736</v>
@@ -29656,11 +29979,11 @@
         <v>723</v>
       </c>
       <c r="E286" s="33">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F286" s="34">
         <f t="shared" si="8"/>
-        <v>581.4</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="287" spans="1:6" outlineLevel="1">
@@ -29668,8 +29991,8 @@
         <v>18</v>
       </c>
       <c r="B287" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50636543","ООО Раковский Бровар")</f>
-        <v>ООО Раковский Бровар</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50296076","ООО РайтКонсалт")</f>
+        <v>ООО РайтКонсалт</v>
       </c>
       <c r="C287" s="33" t="s">
         <v>736</v>
@@ -29678,11 +30001,11 @@
         <v>723</v>
       </c>
       <c r="E287" s="33">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="F287" s="34">
         <f t="shared" si="8"/>
-        <v>1395.35</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="288" spans="1:6" outlineLevel="1">
@@ -29690,8 +30013,8 @@
         <v>18</v>
       </c>
       <c r="B288" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50296076","ООО РайтКонсалт")</f>
-        <v>ООО РайтКонсалт</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/47021325","Синезис")</f>
+        <v>Синезис</v>
       </c>
       <c r="C288" s="33" t="s">
         <v>736</v>
@@ -29700,11 +30023,11 @@
         <v>723</v>
       </c>
       <c r="E288" s="33">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F288" s="34">
         <f t="shared" si="8"/>
-        <v>930.23</v>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="289" spans="1:6" outlineLevel="1">
@@ -29712,8 +30035,8 @@
         <v>18</v>
       </c>
       <c r="B289" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50209900","ГОСТИНИЦА ПЕКИН-МИНСК")</f>
-        <v>ГОСТИНИЦА ПЕКИН-МИНСК</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50533384","ООО Азия Мол")</f>
+        <v>ООО Азия Мол</v>
       </c>
       <c r="C289" s="33" t="s">
         <v>736</v>
@@ -29722,11 +30045,11 @@
         <v>723</v>
       </c>
       <c r="E289" s="33">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="F289" s="34">
         <f t="shared" si="8"/>
-        <v>930.23</v>
+        <v>523.26</v>
       </c>
     </row>
     <row r="290" spans="1:6" outlineLevel="1">
@@ -29734,8 +30057,8 @@
         <v>18</v>
       </c>
       <c r="B290" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50572198","Отель Европа")</f>
-        <v>Отель Европа</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50487698","Shangri La")</f>
+        <v>Shangri La</v>
       </c>
       <c r="C290" s="33" t="s">
         <v>736</v>
@@ -29744,11 +30067,11 @@
         <v>723</v>
       </c>
       <c r="E290" s="33">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="F290" s="34">
         <f t="shared" si="8"/>
-        <v>988.37</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="291" spans="1:6" outlineLevel="1">
@@ -29756,8 +30079,8 @@
         <v>18</v>
       </c>
       <c r="B291" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/42959139","GARAGE")</f>
-        <v>GARAGE</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50482458","ОАО Ресторан Арбат")</f>
+        <v>ОАО Ресторан Арбат</v>
       </c>
       <c r="C291" s="33" t="s">
         <v>736</v>
@@ -29766,11 +30089,11 @@
         <v>723</v>
       </c>
       <c r="E291" s="33">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F291" s="34">
         <f t="shared" si="8"/>
-        <v>1162.79</v>
+        <v>813.95</v>
       </c>
     </row>
     <row r="292" spans="1:6" outlineLevel="1">
@@ -29778,8 +30101,8 @@
         <v>18</v>
       </c>
       <c r="B292" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50584013","Экоотель Кветки яблыни")</f>
-        <v>Экоотель Кветки яблыни</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50372245","Tifani")</f>
+        <v>Tifani</v>
       </c>
       <c r="C292" s="33" t="s">
         <v>736</v>
@@ -29788,11 +30111,11 @@
         <v>723</v>
       </c>
       <c r="E292" s="33">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F292" s="34">
         <f t="shared" si="8"/>
-        <v>1744.19</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="293" spans="1:6" outlineLevel="1">
@@ -29800,8 +30123,8 @@
         <v>18</v>
       </c>
       <c r="B293" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50438202","Терра пицца")</f>
-        <v>Терра пицца</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50392134","ООО Эдшон")</f>
+        <v>ООО Эдшон</v>
       </c>
       <c r="C293" s="33" t="s">
         <v>736</v>
@@ -29810,11 +30133,11 @@
         <v>723</v>
       </c>
       <c r="E293" s="33">
-        <v>1070</v>
+        <v>1000</v>
       </c>
       <c r="F293" s="34">
         <f t="shared" si="8"/>
-        <v>1244.19</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="294" spans="1:6" outlineLevel="1">
@@ -29822,8 +30145,8 @@
         <v>18</v>
       </c>
       <c r="B294" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50533384","ООО Азия Мол")</f>
-        <v>ООО Азия Мол</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50223553","Спортингклаб")</f>
+        <v>Спортингклаб</v>
       </c>
       <c r="C294" s="33" t="s">
         <v>736</v>
@@ -29832,11 +30155,11 @@
         <v>723</v>
       </c>
       <c r="E294" s="33">
-        <v>450</v>
+        <v>2000</v>
       </c>
       <c r="F294" s="34">
         <f t="shared" si="8"/>
-        <v>523.26</v>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="295" spans="1:6" outlineLevel="1">
@@ -29844,8 +30167,8 @@
         <v>18</v>
       </c>
       <c r="B295" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49985067","ООО Прайм Ресторан")</f>
-        <v>ООО Прайм Ресторан</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50242098","ООО БаркасГейм")</f>
+        <v>ООО БаркасГейм</v>
       </c>
       <c r="C295" s="33" t="s">
         <v>736</v>
@@ -29854,11 +30177,11 @@
         <v>723</v>
       </c>
       <c r="E295" s="33">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="F295" s="34">
         <f t="shared" si="8"/>
-        <v>1046.51</v>
+        <v>1453.49</v>
       </c>
     </row>
     <row r="296" spans="1:6" outlineLevel="1">
@@ -29866,8 +30189,8 @@
         <v>18</v>
       </c>
       <c r="B296" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50372245","Tifani")</f>
-        <v>Tifani</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50133482","СООО Шондра / Боулинг-центр MADISON")</f>
+        <v>СООО Шондра / Боулинг-центр MADISON</v>
       </c>
       <c r="C296" s="33" t="s">
         <v>736</v>
@@ -29876,24 +30199,33 @@
         <v>723</v>
       </c>
       <c r="E296" s="33">
-        <v>1200</v>
+        <v>825</v>
       </c>
       <c r="F296" s="34">
         <f t="shared" si="8"/>
-        <v>1395.35</v>
+        <v>959.3</v>
       </c>
     </row>
     <row r="297" spans="1:6" outlineLevel="1">
       <c r="A297" s="32">
         <v>18</v>
       </c>
-      <c r="B297" s="33"/>
-      <c r="C297" s="33"/>
-      <c r="D297" s="33"/>
-      <c r="E297" s="33"/>
-      <c r="F297" s="34" t="str">
+      <c r="B297" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/5196c5df00085cc6a80013a3fa5737514d3231","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C297" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D297" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E297" s="33">
+        <v>8000</v>
+      </c>
+      <c r="F297" s="34">
         <f t="shared" si="8"/>
-        <v/>
+        <v>9302.33</v>
       </c>
     </row>
     <row r="298" spans="1:6" outlineLevel="1">

--- a/Data/Output/18.xlsx
+++ b/Data/Output/18.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="805">
   <si>
     <t>Уровень позиции</t>
   </si>
@@ -2453,6 +2453,9 @@
   </si>
   <si>
     <t>Уборщик служебных (или производственных) помещений/ Уборщик территорий</t>
+  </si>
+  <si>
+    <t>Укладчик-упаковщик/Комплектовщик</t>
   </si>
 </sst>
 </file>
@@ -25532,11 +25535,11 @@
       </c>
       <c r="C12" s="22">
         <f>IFERROR(ROUND(_xlfn.STDEV.S($E:$E),0),"-")</f>
-        <v>800</v>
+        <v>445</v>
       </c>
       <c r="D12" s="22">
         <f>IFERROR(ROUND(_xlfn.STDEV.S($F:$F),0),"-")</f>
-        <v>930</v>
+        <v>517</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>721</v>
@@ -25549,11 +25552,11 @@
       </c>
       <c r="C13" s="22">
         <f>IFERROR(ROUND(AVERAGE($E:$E),0),"-")</f>
-        <v>1329</v>
+        <v>1116</v>
       </c>
       <c r="D13" s="22">
         <f>IFERROR(ROUND(AVERAGE($F:$F),0),"-")</f>
-        <v>1545</v>
+        <v>1298</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>723</v>
@@ -25566,11 +25569,11 @@
       </c>
       <c r="C14" s="22">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($E:$E,0.1),0),"-")</f>
-        <v>793</v>
+        <v>650</v>
       </c>
       <c r="D14" s="22">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($F:$F,0.1),0),"-")</f>
-        <v>922</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" outlineLevel="1">
@@ -25580,11 +25583,11 @@
       </c>
       <c r="C15" s="22">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($E:$E,1),0),"-")</f>
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D15" s="22">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($F:$F,1),0),"-")</f>
-        <v>1163</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" outlineLevel="1">
@@ -25594,11 +25597,11 @@
       </c>
       <c r="C16" s="22">
         <f>IFERROR(ROUND(MEDIAN($E:$E),0),"-")</f>
-        <v>1258</v>
+        <v>1000</v>
       </c>
       <c r="D16" s="22">
         <f>IFERROR(ROUND(MEDIAN($F:$F),0),"-")</f>
-        <v>1462</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" outlineLevel="1">
@@ -25608,11 +25611,11 @@
       </c>
       <c r="C17" s="22">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($E:$E,3),0),"-")</f>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="D17" s="22">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($F:$F,3),0),"-")</f>
-        <v>1744</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1" outlineLevel="1">
@@ -25622,11 +25625,11 @@
       </c>
       <c r="C18" s="22">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($E:$E,0.9),0),"-")</f>
-        <v>2000</v>
+        <v>1570</v>
       </c>
       <c r="D18" s="22">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($F:$F,0.9),0),"-")</f>
-        <v>2326</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1" outlineLevel="1">
@@ -25679,780 +25682,1320 @@
       <c r="A23" s="32">
         <v>18</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34" t="str">
+      <c r="B23" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/42492912","СОСЕДИ, Сеть магазинов")</f>
+        <v>СОСЕДИ, Сеть магазинов</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E23" s="33">
+        <v>1170</v>
+      </c>
+      <c r="F23" s="34">
         <f t="shared" ref="F23:F54" si="0">IF(ROUND(E23/$K$11,2)&gt;0,ROUND(E23/$K$11,2),"")</f>
-        <v/>
+        <v>1360.47</v>
       </c>
     </row>
     <row r="24" spans="1:6" outlineLevel="1">
       <c r="A24" s="32">
         <v>18</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34" t="str">
+      <c r="B24" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/43643939","Белвингрупп")</f>
+        <v>Белвингрупп</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E24" s="33">
+        <v>1280</v>
+      </c>
+      <c r="F24" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1488.37</v>
       </c>
     </row>
     <row r="25" spans="1:6" outlineLevel="1">
       <c r="A25" s="32">
         <v>18</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34" t="str">
+      <c r="B25" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49126969","ООО Дапторрес")</f>
+        <v>ООО Дапторрес</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="26" spans="1:6" outlineLevel="1">
       <c r="A26" s="32">
         <v>18</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34" t="str">
+      <c r="B26" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50781490","ООО Шесть Озер")</f>
+        <v>ООО Шесть Озер</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E26" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F26" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1627.91</v>
       </c>
     </row>
     <row r="27" spans="1:6" outlineLevel="1">
       <c r="A27" s="32">
         <v>18</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34" t="str">
+      <c r="B27" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/36904471","КОРОНА, ЗАМОК Торговые центры")</f>
+        <v>КОРОНА, ЗАМОК Торговые центры</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E27" s="33">
+        <v>1088</v>
+      </c>
+      <c r="F27" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1265.1199999999999</v>
       </c>
     </row>
     <row r="28" spans="1:6" outlineLevel="1">
       <c r="A28" s="32">
         <v>18</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34" t="str">
+      <c r="B28" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49848237","SPAR")</f>
+        <v>SPAR</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E28" s="33">
+        <v>1700</v>
+      </c>
+      <c r="F28" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1976.74</v>
       </c>
     </row>
     <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" s="32">
         <v>18</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34" t="str">
+      <c r="B29" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49441448","ООО Евросторе")</f>
+        <v>ООО Евросторе</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E29" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F29" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="30" spans="1:6" outlineLevel="1">
       <c r="A30" s="32">
         <v>18</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34" t="str">
+      <c r="B30" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/45645616","ProStore")</f>
+        <v>ProStore</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E30" s="33">
+        <v>1050</v>
+      </c>
+      <c r="F30" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1220.93</v>
       </c>
     </row>
     <row r="31" spans="1:6" outlineLevel="1">
       <c r="A31" s="32">
         <v>18</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34" t="str">
+      <c r="B31" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50694686","ООО Санта Ритейл")</f>
+        <v>ООО Санта Ритейл</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E31" s="33">
+        <v>890</v>
+      </c>
+      <c r="F31" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1034.8800000000001</v>
       </c>
     </row>
     <row r="32" spans="1:6" outlineLevel="1">
       <c r="A32" s="32">
         <v>18</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34" t="str">
+      <c r="B32" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/46838266","ЗАО Доброном")</f>
+        <v>ЗАО Доброном</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E32" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1627.91</v>
       </c>
     </row>
     <row r="33" spans="1:6" outlineLevel="1">
       <c r="A33" s="32">
         <v>18</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34" t="str">
+      <c r="B33" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50794552","БЕЛМАРКЕТ")</f>
+        <v>БЕЛМАРКЕТ</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E33" s="33">
+        <v>900</v>
+      </c>
+      <c r="F33" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="34" spans="1:6" outlineLevel="1">
       <c r="A34" s="32">
         <v>18</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34" t="str">
+      <c r="B34" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50577731","ОДО Виталюр")</f>
+        <v>ОДО Виталюр</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E34" s="33">
+        <v>1140</v>
+      </c>
+      <c r="F34" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1325.58</v>
       </c>
     </row>
     <row r="35" spans="1:6" outlineLevel="1">
       <c r="A35" s="32">
         <v>18</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34" t="str">
+      <c r="B35" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/19835113","ГРИНрозница ГК РАПА")</f>
+        <v>ГРИНрозница ГК РАПА</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E35" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="36" spans="1:6" outlineLevel="1">
       <c r="A36" s="32">
         <v>18</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34" t="str">
+      <c r="B36" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50769119","Серволюкс, Группа компаний")</f>
+        <v>Серволюкс, Группа компаний</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E36" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="37" spans="1:6" outlineLevel="1">
       <c r="A37" s="32">
         <v>18</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34" t="str">
+      <c r="B37" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50707850","ООО СтафРесурс")</f>
+        <v>ООО СтафРесурс</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E37" s="33">
+        <v>1100</v>
+      </c>
+      <c r="F37" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="38" spans="1:6" outlineLevel="1">
       <c r="A38" s="32">
         <v>18</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34" t="str">
+      <c r="B38" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50483463","ООО Завод Бульбашъ")</f>
+        <v>ООО Завод Бульбашъ</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E38" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F38" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="39" spans="1:6" outlineLevel="1">
       <c r="A39" s="32">
         <v>18</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34" t="str">
+      <c r="B39" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49490034","ООО Ресттрэйд / Дионис")</f>
+        <v>ООО Ресттрэйд / Дионис</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E39" s="33">
+        <v>1100</v>
+      </c>
+      <c r="F39" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="40" spans="1:6" outlineLevel="1">
       <c r="A40" s="32">
         <v>18</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34" t="str">
+      <c r="B40" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/48744251","ЕВРООПТ")</f>
+        <v>ЕВРООПТ</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E40" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="41" spans="1:6" outlineLevel="1">
       <c r="A41" s="32">
         <v>18</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34" t="str">
+      <c r="B41" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50525724","ОАО Кондитерская фабрика Слодыч")</f>
+        <v>ОАО Кондитерская фабрика Слодыч</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E41" s="33">
+        <v>1150</v>
+      </c>
+      <c r="F41" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1337.21</v>
       </c>
     </row>
     <row r="42" spans="1:6" outlineLevel="1">
       <c r="A42" s="32">
         <v>18</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34" t="str">
+      <c r="B42" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50786807","ООО Первая пивная корпорация")</f>
+        <v>ООО Первая пивная корпорация</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E42" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="43" spans="1:6" outlineLevel="1">
       <c r="A43" s="32">
         <v>18</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34" t="str">
+      <c r="B43" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50752230","ООО Биомельница")</f>
+        <v>ООО Биомельница</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E43" s="33">
+        <v>750</v>
+      </c>
+      <c r="F43" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>872.09</v>
       </c>
     </row>
     <row r="44" spans="1:6" outlineLevel="1">
       <c r="A44" s="32">
         <v>18</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="34" t="str">
+      <c r="B44" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49951709","ООО МаркетЛига")</f>
+        <v>ООО МаркетЛига</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E44" s="33">
+        <v>980</v>
+      </c>
+      <c r="F44" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1139.53</v>
       </c>
     </row>
     <row r="45" spans="1:6" outlineLevel="1">
       <c r="A45" s="32">
         <v>18</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="34" t="str">
+      <c r="B45" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50701295","ОАО Дорорс")</f>
+        <v>ОАО Дорорс</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E45" s="33">
+        <v>750</v>
+      </c>
+      <c r="F45" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>872.09</v>
       </c>
     </row>
     <row r="46" spans="1:6" outlineLevel="1">
       <c r="A46" s="32">
         <v>18</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34" t="str">
+      <c r="B46" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50408808","ООО СЛАВПРАЙМ")</f>
+        <v>ООО СЛАВПРАЙМ</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E46" s="33">
+        <v>750</v>
+      </c>
+      <c r="F46" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>872.09</v>
       </c>
     </row>
     <row r="47" spans="1:6" outlineLevel="1">
       <c r="A47" s="32">
         <v>18</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="34" t="str">
+      <c r="B47" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50213248","КОСМОФУД")</f>
+        <v>КОСМОФУД</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E47" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="48" spans="1:6" outlineLevel="1">
       <c r="A48" s="32">
         <v>18</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34" t="str">
+      <c r="B48" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50387847","ООО Антей-Вайт")</f>
+        <v>ООО Антей-Вайт</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E48" s="33">
+        <v>700</v>
+      </c>
+      <c r="F48" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>813.95</v>
       </c>
     </row>
     <row r="49" spans="1:6" outlineLevel="1">
       <c r="A49" s="32">
         <v>18</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34" t="str">
+      <c r="B49" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50305331","ООО Фэмили Фуд")</f>
+        <v>ООО Фэмили Фуд</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E49" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F49" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="50" spans="1:6" outlineLevel="1">
       <c r="A50" s="32">
         <v>18</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34" t="str">
+      <c r="B50" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50278217","Джаганнатх")</f>
+        <v>Джаганнатх</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E50" s="33">
+        <v>1100</v>
+      </c>
+      <c r="F50" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="51" spans="1:6" outlineLevel="1">
       <c r="A51" s="32">
         <v>18</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34" t="str">
+      <c r="B51" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50723867","ООО Лект-торг")</f>
+        <v>ООО Лект-торг</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E51" s="33">
+        <v>1100</v>
+      </c>
+      <c r="F51" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="52" spans="1:6" outlineLevel="1">
       <c r="A52" s="32">
         <v>18</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34" t="str">
+      <c r="B52" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/1c90ad4d0002e5e8fb0013a3fa6d5844437732","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E52" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="53" spans="1:6" outlineLevel="1">
       <c r="A53" s="32">
         <v>18</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34" t="str">
+      <c r="B53" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/7be3d57c0003551ec40013a3fa4e6f58526a4f","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E53" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F53" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="54" spans="1:6" outlineLevel="1">
       <c r="A54" s="32">
         <v>18</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34" t="str">
+      <c r="B54" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/513657b100097a51c30013a3fa793230504d57","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E54" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F54" s="34">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="55" spans="1:6" outlineLevel="1">
       <c r="A55" s="32">
         <v>18</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="34" t="str">
+      <c r="B55" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/1de9191f00098b08d40013a3fa536650725662","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E55" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F55" s="34">
         <f t="shared" ref="F55:F82" si="1">IF(ROUND(E55/$K$11,2)&gt;0,ROUND(E55/$K$11,2),"")</f>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="56" spans="1:6" outlineLevel="1">
       <c r="A56" s="32">
         <v>18</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34" t="str">
+      <c r="B56" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/60d706ba000908a6ff0013a3fa4a6177477957","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E56" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F56" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="57" spans="1:6" outlineLevel="1">
       <c r="A57" s="32">
         <v>18</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34" t="str">
+      <c r="B57" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/744306c00001c9686f0013a3fa6778674b6653","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E57" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="58" spans="1:6" outlineLevel="1">
       <c r="A58" s="32">
         <v>18</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34" t="str">
+      <c r="B58" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/b21dd5c900013d71c70013a3fa524d46413751","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E58" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F58" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="59" spans="1:6" outlineLevel="1">
       <c r="A59" s="32">
         <v>18</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34" t="str">
+      <c r="B59" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/b2bd23e200039f70150013a3fa7351676a4b67","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E59" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="60" spans="1:6" outlineLevel="1">
       <c r="A60" s="32">
         <v>18</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34" t="str">
+      <c r="B60" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/88e6d7540002a3f0350013a3fa796837595933","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E60" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="61" spans="1:6" outlineLevel="1">
       <c r="A61" s="32">
         <v>18</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34" t="str">
+      <c r="B61" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/aeb534980009639d450013a3fa685a7a794831","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E61" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="62" spans="1:6" outlineLevel="1">
       <c r="A62" s="32">
         <v>18</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="34" t="str">
+      <c r="B62" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/cd37a8d5000575249c0013a3fa537358584671","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E62" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="63" spans="1:6" outlineLevel="1">
       <c r="A63" s="32">
         <v>18</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="34" t="str">
+      <c r="B63" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/da99baf80008d6b5680013a3fa6f624c46736c","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E63" s="33">
+        <v>900</v>
+      </c>
+      <c r="F63" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="64" spans="1:6" outlineLevel="1">
       <c r="A64" s="32">
         <v>18</v>
       </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="34" t="str">
+      <c r="B64" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/1820b1dd000301b2c00013a3fa566e486c6c66","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E64" s="33">
+        <v>900</v>
+      </c>
+      <c r="F64" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="65" spans="1:6" outlineLevel="1">
       <c r="A65" s="32">
         <v>18</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="34" t="str">
+      <c r="B65" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/a2e4dbf3000833742d0013a3fa466872706266","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E65" s="33">
+        <v>900</v>
+      </c>
+      <c r="F65" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="66" spans="1:6" outlineLevel="1">
       <c r="A66" s="32">
         <v>18</v>
       </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="34" t="str">
+      <c r="B66" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/1d55c5c5000444bbec0013a3fa557477584576","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E66" s="33">
+        <v>900</v>
+      </c>
+      <c r="F66" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="67" spans="1:6" outlineLevel="1">
       <c r="A67" s="32">
         <v>18</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="34" t="str">
+      <c r="B67" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ca4ca86000093592ec0013a3fa7a5556675954","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E67" s="33">
+        <v>900</v>
+      </c>
+      <c r="F67" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="68" spans="1:6" outlineLevel="1">
       <c r="A68" s="32">
         <v>18</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="34" t="str">
+      <c r="B68" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/fbd65b730003d9f26f0013a3fa613779354663","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E68" s="33">
+        <v>900</v>
+      </c>
+      <c r="F68" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="69" spans="1:6" outlineLevel="1">
       <c r="A69" s="32">
         <v>18</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="34" t="str">
+      <c r="B69" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/9e749060000742f51b0013a3fa67464c454749","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E69" s="33">
+        <v>900</v>
+      </c>
+      <c r="F69" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="70" spans="1:6" outlineLevel="1">
       <c r="A70" s="32">
         <v>18</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="34" t="str">
+      <c r="B70" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/2c06f67a00077df7960013a3fa6c6a56344165","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E70" s="33">
+        <v>900</v>
+      </c>
+      <c r="F70" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="71" spans="1:6" outlineLevel="1">
       <c r="A71" s="32">
         <v>18</v>
       </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="34" t="str">
+      <c r="B71" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/dc63c454000823e74a0013a3fa633256315a65","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E71" s="33">
+        <v>900</v>
+      </c>
+      <c r="F71" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="72" spans="1:6" outlineLevel="1">
       <c r="A72" s="32">
         <v>18</v>
       </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="34" t="str">
+      <c r="B72" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/80da34190008a5c0170013a3fa6734616b354b","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E72" s="33">
+        <v>900</v>
+      </c>
+      <c r="F72" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="73" spans="1:6" outlineLevel="1">
       <c r="A73" s="32">
         <v>18</v>
       </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="34" t="str">
+      <c r="B73" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/85a910f600085fb0630013a3fa554f74575772","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E73" s="33">
+        <v>900</v>
+      </c>
+      <c r="F73" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="74" spans="1:6" outlineLevel="1">
       <c r="A74" s="32">
         <v>18</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="34" t="str">
+      <c r="B74" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/cb28aed000030f09730013a3fa7a696e727a53","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E74" s="33">
+        <v>650</v>
+      </c>
+      <c r="F74" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>755.81</v>
       </c>
     </row>
     <row r="75" spans="1:6" outlineLevel="1">
       <c r="A75" s="32">
         <v>18</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="34" t="str">
+      <c r="B75" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/8da3da4600096ab9ed0013a3fa4a366f456c53","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E75" s="33">
+        <v>600</v>
+      </c>
+      <c r="F75" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>697.67</v>
       </c>
     </row>
     <row r="76" spans="1:6" outlineLevel="1">
       <c r="A76" s="32">
         <v>18</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="34" t="str">
+      <c r="B76" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/29588ecc0008c5e5530013a3fa62444f6f5a6f","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E76" s="33">
+        <v>600</v>
+      </c>
+      <c r="F76" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>697.67</v>
       </c>
     </row>
     <row r="77" spans="1:6" outlineLevel="1">
       <c r="A77" s="32">
         <v>18</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="34" t="str">
+      <c r="B77" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/76034b3b00097ce7da0013a3fa537775347474","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E77" s="33">
+        <v>600</v>
+      </c>
+      <c r="F77" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>697.67</v>
       </c>
     </row>
     <row r="78" spans="1:6" outlineLevel="1">
       <c r="A78" s="32">
         <v>18</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="34" t="str">
+      <c r="B78" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/34bd39cc000927e83f0013a3fa32615348546d","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E78" s="33">
+        <v>500</v>
+      </c>
+      <c r="F78" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>581.4</v>
       </c>
     </row>
     <row r="79" spans="1:6" outlineLevel="1">
       <c r="A79" s="32">
         <v>18</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="34" t="str">
+      <c r="B79" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/d538995200098d1cb20013a3fa46554370764b","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E79" s="33">
+        <v>500</v>
+      </c>
+      <c r="F79" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>581.4</v>
       </c>
     </row>
     <row r="80" spans="1:6" outlineLevel="1">
       <c r="A80" s="32">
         <v>18</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="34" t="str">
+      <c r="B80" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/4596213f0000ba35330013a3fa736563726574","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E80" s="33">
+        <v>500</v>
+      </c>
+      <c r="F80" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>581.4</v>
       </c>
     </row>
     <row r="81" spans="1:6" outlineLevel="1">
       <c r="A81" s="32">
         <v>18</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="34" t="str">
+      <c r="B81" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/8d0515ef0009350db60013a3fa304b70476a30","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E81" s="33">
+        <v>400</v>
+      </c>
+      <c r="F81" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>465.12</v>
       </c>
     </row>
     <row r="82" spans="1:6" outlineLevel="1">
       <c r="A82" s="32">
         <v>18</v>
       </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="34" t="str">
+      <c r="B82" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/a9eaf14e00039a0ed90013a3fa575471433259","Продавец")</f>
+        <v>Продавец</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E82" s="33">
+        <v>400</v>
+      </c>
+      <c r="F82" s="34">
         <f t="shared" si="1"/>
-        <v/>
+        <v>465.12</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -26492,8 +27035,8 @@
         <v>18</v>
       </c>
       <c r="B85" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50016168","ООО Безопасность Труда")</f>
-        <v>ООО Безопасность Труда</v>
+        <f>HYPERLINK("https://hh.ru/vacancy/50340286","ООО ВиЯр")</f>
+        <v>ООО ВиЯр</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>362</v>
@@ -26502,11 +27045,11 @@
         <v>723</v>
       </c>
       <c r="E85" s="33">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="F85" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>1976.74</v>
       </c>
     </row>
     <row r="86" spans="1:6" outlineLevel="1">
@@ -26514,8 +27057,8 @@
         <v>18</v>
       </c>
       <c r="B86" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50330279","APS")</f>
-        <v>APS</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50784045","ООО Флорсток")</f>
+        <v>ООО Флорсток</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>362</v>
@@ -26524,11 +27067,11 @@
         <v>723</v>
       </c>
       <c r="E86" s="33">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="F86" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>1453.49</v>
       </c>
     </row>
     <row r="87" spans="1:6" outlineLevel="1">
@@ -26624,8 +27167,8 @@
         <v>18</v>
       </c>
       <c r="B91" s="44" t="str">
-        <f>HYPERLINK("https://hh.ru/vacancy/50340286","ООО ВиЯр")</f>
-        <v>ООО ВиЯр</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50257483","ООО Залант Групп")</f>
+        <v>ООО Залант Групп</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>362</v>
@@ -26634,11 +27177,11 @@
         <v>723</v>
       </c>
       <c r="E91" s="33">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="F91" s="34">
         <f t="shared" si="2"/>
-        <v>1976.74</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="92" spans="1:6" outlineLevel="1">
@@ -26646,439 +27189,439 @@
         <v>18</v>
       </c>
       <c r="B92" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/48532444","ТУТ и ТАМ Логистикс")</f>
+        <v>ТУТ и ТАМ Логистикс</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E92" s="33">
+        <v>2300</v>
+      </c>
+      <c r="F92" s="34">
+        <f t="shared" si="2"/>
+        <v>2674.42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" outlineLevel="1">
+      <c r="A93" s="32">
+        <v>18</v>
+      </c>
+      <c r="B93" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49326321","ЗАО МИЛАВИЦА, СП")</f>
+        <v>ЗАО МИЛАВИЦА, СП</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E93" s="33">
+        <v>740</v>
+      </c>
+      <c r="F93" s="34">
+        <f t="shared" si="2"/>
+        <v>860.47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" outlineLevel="1">
+      <c r="A94" s="32">
+        <v>18</v>
+      </c>
+      <c r="B94" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50016168","ООО Безопасность Труда")</f>
+        <v>ООО Безопасность Труда</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E94" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F94" s="34">
+        <f t="shared" si="2"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" outlineLevel="1">
+      <c r="A95" s="32">
+        <v>18</v>
+      </c>
+      <c r="B95" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50310248","ООО Тайсу")</f>
+        <v>ООО Тайсу</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E95" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F95" s="34">
+        <f t="shared" si="2"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" outlineLevel="1">
+      <c r="A96" s="32">
+        <v>18</v>
+      </c>
+      <c r="B96" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50330279","APS")</f>
+        <v>APS</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E96" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F96" s="34">
+        <f t="shared" si="2"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" outlineLevel="1">
+      <c r="A97" s="32">
+        <v>18</v>
+      </c>
+      <c r="B97" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/50334209","БелАшими")</f>
         <v>БелАшими</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C97" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="D92" s="33" t="s">
+      <c r="D97" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E92" s="33">
+      <c r="E97" s="33">
         <v>1200</v>
       </c>
-      <c r="F92" s="34">
+      <c r="F97" s="34">
         <f t="shared" si="2"/>
         <v>1395.35</v>
       </c>
     </row>
-    <row r="93" spans="1:6" outlineLevel="1">
-      <c r="A93" s="32">
-        <v>18</v>
-      </c>
-      <c r="B93" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50056718","ОАО Трикотажторг")</f>
-        <v>ОАО Трикотажторг</v>
-      </c>
-      <c r="C93" s="33" t="s">
+    <row r="98" spans="1:6" outlineLevel="1">
+      <c r="A98" s="32">
+        <v>18</v>
+      </c>
+      <c r="B98" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50497453","ОАО Текстильторг")</f>
+        <v>ОАО Текстильторг</v>
+      </c>
+      <c r="C98" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="D93" s="33" t="s">
+      <c r="D98" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E93" s="33">
-        <v>410</v>
-      </c>
-      <c r="F93" s="34">
+      <c r="E98" s="33">
+        <v>730</v>
+      </c>
+      <c r="F98" s="34">
         <f t="shared" si="2"/>
-        <v>476.74</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" outlineLevel="1">
-      <c r="A94" s="32">
-        <v>18</v>
-      </c>
-      <c r="B94" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48532444","ТУТ и ТАМ Логистикс")</f>
-        <v>ТУТ и ТАМ Логистикс</v>
-      </c>
-      <c r="C94" s="33" t="s">
+        <v>848.84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" outlineLevel="1">
+      <c r="A99" s="32">
+        <v>18</v>
+      </c>
+      <c r="B99" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/44697312","Группа компаний НП-Сервис")</f>
+        <v>Группа компаний НП-Сервис</v>
+      </c>
+      <c r="C99" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="D94" s="33" t="s">
+      <c r="D99" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E94" s="33">
-        <v>2300</v>
-      </c>
-      <c r="F94" s="34">
+      <c r="E99" s="33">
+        <v>1375</v>
+      </c>
+      <c r="F99" s="34">
         <f t="shared" si="2"/>
-        <v>2674.42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" outlineLevel="1">
-      <c r="A95" s="32">
-        <v>18</v>
-      </c>
-      <c r="B95" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49326321","ЗАО МИЛАВИЦА, СП")</f>
-        <v>ЗАО МИЛАВИЦА, СП</v>
-      </c>
-      <c r="C95" s="33" t="s">
+        <v>1598.84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" outlineLevel="1">
+      <c r="A100" s="32">
+        <v>18</v>
+      </c>
+      <c r="B100" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50010855","Сеть магазинов Мила (ГК, Парфюмбытхим)")</f>
+        <v>Сеть магазинов Мила (ГК, Парфюмбытхим)</v>
+      </c>
+      <c r="C100" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="D95" s="33" t="s">
+      <c r="D100" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E95" s="33">
-        <v>670</v>
-      </c>
-      <c r="F95" s="34">
-        <f t="shared" si="2"/>
-        <v>779.07</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" outlineLevel="1">
-      <c r="A96" s="32">
-        <v>18</v>
-      </c>
-      <c r="B96" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49372248","ООО Компания Кронекс")</f>
-        <v>ООО Компания Кронекс</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E96" s="33">
+      <c r="E100" s="33">
         <v>1400</v>
       </c>
-      <c r="F96" s="34">
+      <c r="F100" s="34">
         <f t="shared" si="2"/>
         <v>1627.91</v>
       </c>
     </row>
-    <row r="97" spans="1:6" outlineLevel="1">
-      <c r="A97" s="32">
-        <v>18</v>
-      </c>
-      <c r="B97" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50161821","Сантехпром")</f>
-        <v>Сантехпром</v>
-      </c>
-      <c r="C97" s="33" t="s">
+    <row r="101" spans="1:6" outlineLevel="1">
+      <c r="A101" s="32">
+        <v>18</v>
+      </c>
+      <c r="B101" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49673371","ООО Фулл Тим")</f>
+        <v>ООО Фулл Тим</v>
+      </c>
+      <c r="C101" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="D97" s="33" t="s">
+      <c r="D101" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E97" s="33">
+      <c r="E101" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="34">
+        <f t="shared" si="2"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" outlineLevel="1">
+      <c r="A102" s="32">
+        <v>18</v>
+      </c>
+      <c r="B102" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50753491","ООО СТБел Плюс")</f>
+        <v>ООО СТБел Плюс</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E102" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F102" s="34">
+        <f t="shared" si="2"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" outlineLevel="1">
+      <c r="A103" s="32">
+        <v>18</v>
+      </c>
+      <c r="B103" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50525050","ООО Кэпитал Логистик")</f>
+        <v>ООО Кэпитал Логистик</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E103" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F103" s="34">
+        <f t="shared" si="2"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" outlineLevel="1">
+      <c r="A104" s="32">
+        <v>18</v>
+      </c>
+      <c r="B104" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50320718","АКВАТЕРМЕКС")</f>
+        <v>АКВАТЕРМЕКС</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E104" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F104" s="34">
+        <f t="shared" si="2"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" outlineLevel="1">
+      <c r="A105" s="32">
+        <v>18</v>
+      </c>
+      <c r="B105" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/48906993","ООО ВилисБел")</f>
+        <v>ООО ВилисБел</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E105" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F105" s="34">
+        <f t="shared" si="2"/>
+        <v>1627.91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" outlineLevel="1">
+      <c r="A106" s="32">
+        <v>18</v>
+      </c>
+      <c r="B106" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50389855","ООО МЛ Смарт Групп")</f>
+        <v>ООО МЛ Смарт Групп</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E106" s="33">
         <v>1100</v>
       </c>
-      <c r="F97" s="34">
+      <c r="F106" s="34">
         <f t="shared" si="2"/>
         <v>1279.07</v>
       </c>
     </row>
-    <row r="98" spans="1:6" outlineLevel="1">
-      <c r="A98" s="32">
-        <v>18</v>
-      </c>
-      <c r="B98" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50257483","ООО Залант Групп")</f>
-        <v>ООО Залант Групп</v>
-      </c>
-      <c r="C98" s="33" t="s">
+    <row r="107" spans="1:6" outlineLevel="1">
+      <c r="A107" s="32">
+        <v>18</v>
+      </c>
+      <c r="B107" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50724266","ОАО ТЛЦ Озерцо-логистик")</f>
+        <v>ОАО ТЛЦ Озерцо-логистик</v>
+      </c>
+      <c r="C107" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="D98" s="33" t="s">
+      <c r="D107" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E98" s="33">
+      <c r="E107" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F107" s="34">
+        <f t="shared" si="2"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" outlineLevel="1">
+      <c r="A108" s="32">
+        <v>18</v>
+      </c>
+      <c r="B108" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50781314","ООО ГутеХауз")</f>
+        <v>ООО ГутеХауз</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E108" s="33">
         <v>1000</v>
       </c>
-      <c r="F98" s="34">
+      <c r="F108" s="34">
         <f t="shared" si="2"/>
         <v>1162.79</v>
       </c>
     </row>
-    <row r="99" spans="1:6" outlineLevel="1">
-      <c r="A99" s="32">
-        <v>18</v>
-      </c>
-      <c r="B99" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50310248","ООО Тайсу")</f>
-        <v>ООО Тайсу</v>
-      </c>
-      <c r="C99" s="33" t="s">
+    <row r="109" spans="1:6" outlineLevel="1">
+      <c r="A109" s="32">
+        <v>18</v>
+      </c>
+      <c r="B109" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50793250","ООО БалтСистем")</f>
+        <v>ООО БалтСистем</v>
+      </c>
+      <c r="C109" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="D99" s="33" t="s">
+      <c r="D109" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E99" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F99" s="34">
+      <c r="E109" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F109" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" outlineLevel="1">
-      <c r="A100" s="32">
-        <v>18</v>
-      </c>
-      <c r="B100" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50497453","ОАО Текстильторг")</f>
-        <v>ОАО Текстильторг</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E100" s="33">
-        <v>730</v>
-      </c>
-      <c r="F100" s="34">
-        <f t="shared" si="2"/>
-        <v>848.84</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" outlineLevel="1">
-      <c r="A101" s="32">
-        <v>18</v>
-      </c>
-      <c r="B101" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/44697312","Группа компаний НП-Сервис")</f>
-        <v>Группа компаний НП-Сервис</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E101" s="33">
-        <v>1375</v>
-      </c>
-      <c r="F101" s="34">
-        <f t="shared" si="2"/>
-        <v>1598.84</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" outlineLevel="1">
-      <c r="A102" s="32">
-        <v>18</v>
-      </c>
-      <c r="B102" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50010855","Сеть магазинов Мила (ГК, Парфюмбытхим)")</f>
-        <v>Сеть магазинов Мила (ГК, Парфюмбытхим)</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E102" s="33">
-        <v>1400</v>
-      </c>
-      <c r="F102" s="34">
-        <f t="shared" si="2"/>
-        <v>1627.91</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" outlineLevel="1">
-      <c r="A103" s="32">
-        <v>18</v>
-      </c>
-      <c r="B103" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50720361","ДевмерГруз, ЧП")</f>
-        <v>ДевмерГруз, ЧП</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E103" s="33">
-        <v>1300</v>
-      </c>
-      <c r="F103" s="34">
-        <f t="shared" si="2"/>
-        <v>1511.63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" outlineLevel="1">
-      <c r="A104" s="32">
-        <v>18</v>
-      </c>
-      <c r="B104" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49673371","ООО Фулл Тим")</f>
-        <v>ООО Фулл Тим</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E104" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F104" s="34">
-        <f t="shared" si="2"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" outlineLevel="1">
-      <c r="A105" s="32">
-        <v>18</v>
-      </c>
-      <c r="B105" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/46930472","ООО Сэльвин")</f>
-        <v>ООО Сэльвин</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E105" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F105" s="34">
-        <f t="shared" si="2"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" outlineLevel="1">
-      <c r="A106" s="32">
-        <v>18</v>
-      </c>
-      <c r="B106" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50525050","ООО Кэпитал Логистик")</f>
-        <v>ООО Кэпитал Логистик</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E106" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F106" s="34">
-        <f t="shared" si="2"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" outlineLevel="1">
-      <c r="A107" s="32">
-        <v>18</v>
-      </c>
-      <c r="B107" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50343417","Группа компаний НП-Сервис")</f>
-        <v>Группа компаний НП-Сервис</v>
-      </c>
-      <c r="C107" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E107" s="33">
-        <v>1900</v>
-      </c>
-      <c r="F107" s="34">
-        <f t="shared" si="2"/>
-        <v>2209.3000000000002</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" outlineLevel="1">
-      <c r="A108" s="32">
-        <v>18</v>
-      </c>
-      <c r="B108" s="44" t="str">
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" outlineLevel="1">
+      <c r="A110" s="32">
+        <v>18</v>
+      </c>
+      <c r="B110" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/48850501","ООО ОМА")</f>
         <v>ООО ОМА</v>
       </c>
-      <c r="C108" s="33" t="s">
+      <c r="C110" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="D108" s="33" t="s">
+      <c r="D110" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E108" s="33">
+      <c r="E110" s="33">
         <v>1265</v>
       </c>
-      <c r="F108" s="34">
+      <c r="F110" s="34">
         <f t="shared" si="2"/>
         <v>1470.93</v>
       </c>
     </row>
-    <row r="109" spans="1:6" outlineLevel="1">
-      <c r="A109" s="32">
-        <v>18</v>
-      </c>
-      <c r="B109" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50142986","ОАО Барановичское производственное хлопчатобумажное объединение")</f>
-        <v>ОАО Барановичское производственное хлопчатобумажное объединение</v>
-      </c>
-      <c r="C109" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D109" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E109" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F109" s="34">
-        <f t="shared" si="2"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" outlineLevel="1">
-      <c r="A110" s="32">
-        <v>18</v>
-      </c>
-      <c r="B110" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50661526","Частное предприятие Интерключ")</f>
-        <v>Частное предприятие Интерключ</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D110" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E110" s="33">
-        <v>1500</v>
-      </c>
-      <c r="F110" s="34">
-        <f t="shared" si="2"/>
-        <v>1744.19</v>
-      </c>
-    </row>
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="32">
         <v>18</v>
       </c>
       <c r="B111" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50076367","ООО БалтСистем")</f>
-        <v>ООО БалтСистем</v>
+        <f>HYPERLINK("https://rabota.by/resume/dfbe34a900080df27b0013a3fa314968734361","Кладовщик")</f>
+        <v>Кладовщик</v>
       </c>
       <c r="C111" s="33" t="s">
         <v>362</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E111" s="33">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F111" s="34">
         <f t="shared" si="2"/>
-        <v>1395.35</v>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="112" spans="1:6" outlineLevel="1">
@@ -27086,21 +27629,21 @@
         <v>18</v>
       </c>
       <c r="B112" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50320718","АКВАТЕРМЕКС")</f>
-        <v>АКВАТЕРМЕКС</v>
+        <f>HYPERLINK("https://rabota.by/resume/d1790226000355ef430013a3fa444846784e6f","Кладовщик")</f>
+        <v>Кладовщик</v>
       </c>
       <c r="C112" s="33" t="s">
         <v>362</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E112" s="33">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F112" s="34">
         <f t="shared" si="2"/>
-        <v>1744.19</v>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="113" spans="1:6" outlineLevel="1">
@@ -27108,21 +27651,21 @@
         <v>18</v>
       </c>
       <c r="B113" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50168596","ЗИД БАЙ")</f>
-        <v>ЗИД БАЙ</v>
+        <f>HYPERLINK("https://rabota.by/resume/ba9734d700062325f70013a3fa616f58575673","Кладовщик")</f>
+        <v>Кладовщик</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>362</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E113" s="33">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="F113" s="34">
         <f t="shared" si="2"/>
-        <v>1395.35</v>
+        <v>1860.47</v>
       </c>
     </row>
     <row r="114" spans="1:6" outlineLevel="1">
@@ -27130,7 +27673,7 @@
         <v>18</v>
       </c>
       <c r="B114" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/4a432df7000972d4fa0013a3fa4443376b3468","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/ba30febb000247f53a0013a3fa4573346c5442","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C114" s="33" t="s">
@@ -27140,11 +27683,11 @@
         <v>721</v>
       </c>
       <c r="E114" s="33">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="F114" s="34">
         <f t="shared" si="2"/>
-        <v>1627.91</v>
+        <v>1860.47</v>
       </c>
     </row>
     <row r="115" spans="1:6" outlineLevel="1">
@@ -27152,7 +27695,7 @@
         <v>18</v>
       </c>
       <c r="B115" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/f749610a0008ff41ee0013a3fa74507a704752","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/e63e9354000312f3050013a3fa6e626c365a38","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C115" s="33" t="s">
@@ -27174,7 +27717,7 @@
         <v>18</v>
       </c>
       <c r="B116" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/8bd7ffd50007ba4c5e0013a3fa4c6e6a317561","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/f749610a0008ff41ee0013a3fa74507a704752","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C116" s="33" t="s">
@@ -27184,11 +27727,11 @@
         <v>721</v>
       </c>
       <c r="E116" s="33">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F116" s="34">
         <f t="shared" ref="F116:F143" si="3">IF(ROUND(E116/$K$11,2)&gt;0,ROUND(E116/$K$11,2),"")</f>
-        <v>1627.91</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="117" spans="1:6" outlineLevel="1">
@@ -27196,7 +27739,7 @@
         <v>18</v>
       </c>
       <c r="B117" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/8bb26dcf00027824fc0013a3fa683666416e77","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/bbc71e5c0006139ee60013a3fa654572455450","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C117" s="33" t="s">
@@ -27218,7 +27761,7 @@
         <v>18</v>
       </c>
       <c r="B118" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/b497658b00098a9ac50013a3fa554378654663","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/8b05446a0008eefdc50013a3fa557672615744","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C118" s="33" t="s">
@@ -27228,11 +27771,11 @@
         <v>721</v>
       </c>
       <c r="E118" s="33">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F118" s="34">
         <f t="shared" si="3"/>
-        <v>1511.63</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="119" spans="1:6" outlineLevel="1">
@@ -27240,7 +27783,7 @@
         <v>18</v>
       </c>
       <c r="B119" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/7bd5051f000973719f0013a3fa55634a783938","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/4592d8680007392bbd0013a3fa47667056306a","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C119" s="33" t="s">
@@ -27250,11 +27793,11 @@
         <v>721</v>
       </c>
       <c r="E119" s="33">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="F119" s="34">
         <f t="shared" si="3"/>
-        <v>1569.77</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="120" spans="1:6" outlineLevel="1">
@@ -27262,7 +27805,7 @@
         <v>18</v>
       </c>
       <c r="B120" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ff3dfd370006226c570013a3fa6978526f6572","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/95e513560009372b5d0013a3fa3456734a4747","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C120" s="33" t="s">
@@ -27272,11 +27815,11 @@
         <v>721</v>
       </c>
       <c r="E120" s="33">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F120" s="34">
         <f t="shared" si="3"/>
-        <v>1511.63</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="121" spans="1:6" outlineLevel="1">
@@ -27284,7 +27827,7 @@
         <v>18</v>
       </c>
       <c r="B121" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/7c5d9954000987d56a0013a3fa464b37687a4f","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/45702c8e00013518180013a3fa58766b343049","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C121" s="33" t="s">
@@ -27294,11 +27837,11 @@
         <v>721</v>
       </c>
       <c r="E121" s="33">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F121" s="34">
         <f t="shared" si="3"/>
-        <v>1511.63</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="122" spans="1:6" outlineLevel="1">
@@ -27306,7 +27849,7 @@
         <v>18</v>
       </c>
       <c r="B122" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ba9734d700062325f70013a3fa616f58575673","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/4a2d139b00098616480013a3fa5a6e496a7135","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C122" s="33" t="s">
@@ -27316,11 +27859,11 @@
         <v>721</v>
       </c>
       <c r="E122" s="33">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="F122" s="34">
         <f t="shared" si="3"/>
-        <v>1860.47</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="123" spans="1:6" outlineLevel="1">
@@ -27328,7 +27871,7 @@
         <v>18</v>
       </c>
       <c r="B123" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/0c7caa7000041f1ba90013a3fa77586c574449","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/6537d20f00073b5e5a0013a3fa553363316d46","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C123" s="33" t="s">
@@ -27338,11 +27881,11 @@
         <v>721</v>
       </c>
       <c r="E123" s="33">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F123" s="34">
         <f t="shared" si="3"/>
-        <v>1511.63</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="124" spans="1:6" outlineLevel="1">
@@ -27350,7 +27893,7 @@
         <v>18</v>
       </c>
       <c r="B124" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/6f2878c80009524aa70013a3fa446962374b31","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/e5684a6e000969dccb0013a3fa353638456745","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C124" s="33" t="s">
@@ -27360,11 +27903,11 @@
         <v>721</v>
       </c>
       <c r="E124" s="33">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F124" s="34">
         <f t="shared" si="3"/>
-        <v>1511.63</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="125" spans="1:6" outlineLevel="1">
@@ -27372,7 +27915,7 @@
         <v>18</v>
       </c>
       <c r="B125" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ff07c5d00009894f620013a3fa336531545978","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/5878e97b000418db210013a3fa574431583835","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C125" s="33" t="s">
@@ -27382,11 +27925,11 @@
         <v>721</v>
       </c>
       <c r="E125" s="33">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F125" s="34">
         <f t="shared" si="3"/>
-        <v>1511.63</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="126" spans="1:6" outlineLevel="1">
@@ -27394,7 +27937,7 @@
         <v>18</v>
       </c>
       <c r="B126" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/c1d8407a0009085ba40013a3fa436771773038","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/d7ec3ba9000866e8f10013a3fa437257534961","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C126" s="33" t="s">
@@ -27404,11 +27947,11 @@
         <v>721</v>
       </c>
       <c r="E126" s="33">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F126" s="34">
         <f t="shared" si="3"/>
-        <v>1511.63</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="127" spans="1:6" outlineLevel="1">
@@ -27416,7 +27959,7 @@
         <v>18</v>
       </c>
       <c r="B127" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/8b05446a0008eefdc50013a3fa557672615744","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/c6e0243b000947e4d30013a3fa67704e4e6545","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C127" s="33" t="s">
@@ -27426,11 +27969,11 @@
         <v>721</v>
       </c>
       <c r="E127" s="33">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F127" s="34">
         <f t="shared" si="3"/>
-        <v>1744.19</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="128" spans="1:6" outlineLevel="1">
@@ -27438,7 +27981,7 @@
         <v>18</v>
       </c>
       <c r="B128" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/a9257df60008d8362e0013a3fa613263333875","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/fd63a59200097d91990013a3fa7373616a564d","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C128" s="33" t="s">
@@ -27448,11 +27991,11 @@
         <v>721</v>
       </c>
       <c r="E128" s="33">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F128" s="34">
         <f t="shared" si="3"/>
-        <v>1511.63</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="129" spans="1:6" outlineLevel="1">
@@ -27460,7 +28003,7 @@
         <v>18</v>
       </c>
       <c r="B129" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/dfbe34a900080df27b0013a3fa314968734361","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/537fff4900088bd4b60013a3fa4273764d7272","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C129" s="33" t="s">
@@ -27470,11 +28013,11 @@
         <v>721</v>
       </c>
       <c r="E129" s="33">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="F129" s="34">
         <f t="shared" si="3"/>
-        <v>2325.58</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="130" spans="1:6" outlineLevel="1">
@@ -27482,7 +28025,7 @@
         <v>18</v>
       </c>
       <c r="B130" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/1c33811c0004ff9ee80013a3fa59335154594f","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/8f8cfed8000884b9470013a3fa756654456272","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C130" s="33" t="s">
@@ -27492,11 +28035,11 @@
         <v>721</v>
       </c>
       <c r="E130" s="33">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F130" s="34">
         <f t="shared" si="3"/>
-        <v>1744.19</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="131" spans="1:6" outlineLevel="1">
@@ -27504,7 +28047,7 @@
         <v>18</v>
       </c>
       <c r="B131" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/f1e8a7d80009846dc20013a3fa34484d6a7155","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/88e6d7540002a3f0350013a3fa796837595933","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C131" s="33" t="s">
@@ -27514,11 +28057,11 @@
         <v>721</v>
       </c>
       <c r="E131" s="33">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F131" s="34">
         <f t="shared" si="3"/>
-        <v>1744.19</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="132" spans="1:6" outlineLevel="1">
@@ -27526,7 +28069,7 @@
         <v>18</v>
       </c>
       <c r="B132" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ba30febb000247f53a0013a3fa4573346c5442","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/7c364d9f0009502cb70013a3fa7068786c7836","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C132" s="33" t="s">
@@ -27536,11 +28079,11 @@
         <v>721</v>
       </c>
       <c r="E132" s="33">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="F132" s="34">
         <f t="shared" si="3"/>
-        <v>1860.47</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="133" spans="1:6" outlineLevel="1">
@@ -27548,7 +28091,7 @@
         <v>18</v>
       </c>
       <c r="B133" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/3886eff60005fd20240013a3fa313542594370","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/6545578d00097e38540013a3fa6d326a67694e","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C133" s="33" t="s">
@@ -27558,11 +28101,11 @@
         <v>721</v>
       </c>
       <c r="E133" s="33">
-        <v>1325</v>
+        <v>1150</v>
       </c>
       <c r="F133" s="34">
         <f t="shared" si="3"/>
-        <v>1540.7</v>
+        <v>1337.21</v>
       </c>
     </row>
     <row r="134" spans="1:6" outlineLevel="1">
@@ -27570,7 +28113,7 @@
         <v>18</v>
       </c>
       <c r="B134" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/023009580005384da50013a3fa696f57764a62","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/a824683600072c7b2c0013a3fa5863566c7432","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C134" s="33" t="s">
@@ -27580,11 +28123,11 @@
         <v>721</v>
       </c>
       <c r="E134" s="33">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F134" s="34">
         <f t="shared" si="3"/>
-        <v>1744.19</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="135" spans="1:6" outlineLevel="1">
@@ -27592,7 +28135,7 @@
         <v>18</v>
       </c>
       <c r="B135" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/643d1f3200093ea30f0013a3fa4f59695a504b","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/35fc650f00096dee3f0013a3fa677a6338565a","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C135" s="33" t="s">
@@ -27602,11 +28145,11 @@
         <v>721</v>
       </c>
       <c r="E135" s="33">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F135" s="34">
         <f t="shared" si="3"/>
-        <v>1744.19</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="136" spans="1:6" outlineLevel="1">
@@ -27614,7 +28157,7 @@
         <v>18</v>
       </c>
       <c r="B136" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/369becee00093cbf890013a3fa666d4535486d","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/5c4433520007203bc50013a3fa3750464c5465","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C136" s="33" t="s">
@@ -27624,102 +28167,165 @@
         <v>721</v>
       </c>
       <c r="E136" s="33">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F136" s="34">
         <f t="shared" si="3"/>
-        <v>1744.19</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="32">
         <v>18</v>
       </c>
-      <c r="B137" s="33"/>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="34" t="str">
+      <c r="B137" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/df708b2300040230730013a3fa495535306165","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D137" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E137" s="33">
+        <v>800</v>
+      </c>
+      <c r="F137" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="32">
         <v>18</v>
       </c>
-      <c r="B138" s="33"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="34" t="str">
+      <c r="B138" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/93b33d9200097f74c60013a3fa49774e4c3974","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E138" s="33">
+        <v>800</v>
+      </c>
+      <c r="F138" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="32">
         <v>18</v>
       </c>
-      <c r="B139" s="33"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="34" t="str">
+      <c r="B139" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/5c5303920005aeee2e0013a3fa393953575232","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E139" s="33">
+        <v>800</v>
+      </c>
+      <c r="F139" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="140" spans="1:6" outlineLevel="1">
       <c r="A140" s="32">
         <v>18</v>
       </c>
-      <c r="B140" s="33"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="34" t="str">
+      <c r="B140" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/94add6df000517457d0013a3fa6837666f5a48","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E140" s="33">
+        <v>800</v>
+      </c>
+      <c r="F140" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="141" spans="1:6" outlineLevel="1">
       <c r="A141" s="32">
         <v>18</v>
       </c>
-      <c r="B141" s="33"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="34" t="str">
+      <c r="B141" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/09ce5454000727ff840013a3fa4d726f583975","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D141" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E141" s="33">
+        <v>700</v>
+      </c>
+      <c r="F141" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>813.95</v>
       </c>
     </row>
     <row r="142" spans="1:6" outlineLevel="1">
       <c r="A142" s="32">
         <v>18</v>
       </c>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="34" t="str">
+      <c r="B142" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/3a434cf100073a5f080013a3fa414178525255","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E142" s="33">
+        <v>600</v>
+      </c>
+      <c r="F142" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>697.67</v>
       </c>
     </row>
     <row r="143" spans="1:6" outlineLevel="1">
       <c r="A143" s="32">
         <v>18</v>
       </c>
-      <c r="B143" s="33"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="34" t="str">
+      <c r="B143" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/d1c91f6b0007916a000013a3fa6f795446354a","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D143" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E143" s="33">
+        <v>350</v>
+      </c>
+      <c r="F143" s="34">
         <f t="shared" si="3"/>
-        <v/>
+        <v>406.98</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -27737,766 +28343,901 @@
         <v>18</v>
       </c>
       <c r="B145" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50723880","ООО РЕМОНДИС Солюшн")</f>
+        <v>ООО РЕМОНДИС Солюшн</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D145" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E145" s="33">
+        <v>1700</v>
+      </c>
+      <c r="F145" s="34">
+        <f t="shared" ref="F145:F176" si="4">IF(ROUND(E145/$K$11,2)&gt;0,ROUND(E145/$K$11,2),"")</f>
+        <v>1976.74</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" outlineLevel="1">
+      <c r="A146" s="32">
+        <v>18</v>
+      </c>
+      <c r="B146" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50307126","ООО Строительная компания АгриПО")</f>
+        <v>ООО Строительная компания АгриПО</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E146" s="33">
+        <v>3000</v>
+      </c>
+      <c r="F146" s="34">
+        <f t="shared" si="4"/>
+        <v>3488.37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" outlineLevel="1">
+      <c r="A147" s="32">
+        <v>18</v>
+      </c>
+      <c r="B147" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/50684651","ООО Надежная Энергия")</f>
         <v>ООО Надежная Энергия</v>
       </c>
-      <c r="C145" s="33" t="s">
+      <c r="C147" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D145" s="33" t="s">
+      <c r="D147" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E145" s="33">
+      <c r="E147" s="33">
         <v>1000</v>
       </c>
-      <c r="F145" s="34">
-        <f t="shared" ref="F145:F176" si="4">IF(ROUND(E145/$K$11,2)&gt;0,ROUND(E145/$K$11,2),"")</f>
+      <c r="F147" s="34">
+        <f t="shared" si="4"/>
         <v>1162.79</v>
       </c>
     </row>
-    <row r="146" spans="1:6" outlineLevel="1">
-      <c r="A146" s="32">
-        <v>18</v>
-      </c>
-      <c r="B146" s="44" t="str">
+    <row r="148" spans="1:6" outlineLevel="1">
+      <c r="A148" s="32">
+        <v>18</v>
+      </c>
+      <c r="B148" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/50561429","Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства")</f>
         <v>Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства</v>
       </c>
-      <c r="C146" s="33" t="s">
+      <c r="C148" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D146" s="33" t="s">
+      <c r="D148" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E146" s="33">
+      <c r="E148" s="33">
         <v>950</v>
       </c>
-      <c r="F146" s="34">
+      <c r="F148" s="34">
         <f t="shared" si="4"/>
         <v>1104.6500000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:6" outlineLevel="1">
-      <c r="A147" s="32">
-        <v>18</v>
-      </c>
-      <c r="B147" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50364117","МИНСКИЙ ГОСУДАРСТВЕННЫЙ ПРОФЕССИОНАЛЬНЫЙ ЛИЦЕЙ №3 МАШИНОСТРОЕНИЯ")</f>
-        <v>МИНСКИЙ ГОСУДАРСТВЕННЫЙ ПРОФЕССИОНАЛЬНЫЙ ЛИЦЕЙ №3 МАШИНОСТРОЕНИЯ</v>
-      </c>
-      <c r="C147" s="33" t="s">
+    <row r="149" spans="1:6" outlineLevel="1">
+      <c r="A149" s="32">
+        <v>18</v>
+      </c>
+      <c r="B149" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/46912474","Молочный гостинец")</f>
+        <v>Молочный гостинец</v>
+      </c>
+      <c r="C149" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D147" s="33" t="s">
+      <c r="D149" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E147" s="33">
-        <v>500</v>
-      </c>
-      <c r="F147" s="34">
+      <c r="E149" s="33">
+        <v>900</v>
+      </c>
+      <c r="F149" s="34">
         <f t="shared" si="4"/>
-        <v>581.4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" outlineLevel="1">
-      <c r="A148" s="32">
-        <v>18</v>
-      </c>
-      <c r="B148" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50259059","Филиал Колледж современных технологий в машиностроении и автосервисе УО Республиканский институт профессионального образования")</f>
-        <v>Филиал Колледж современных технологий в машиностроении и автосервисе УО Республиканский институт профессионального образования</v>
-      </c>
-      <c r="C148" s="33" t="s">
+        <v>1046.51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" outlineLevel="1">
+      <c r="A150" s="32">
+        <v>18</v>
+      </c>
+      <c r="B150" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49310335","Онега")</f>
+        <v>Онега</v>
+      </c>
+      <c r="C150" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D150" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E148" s="33">
+      <c r="E150" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F150" s="34">
+        <f t="shared" si="4"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" outlineLevel="1">
+      <c r="A151" s="32">
+        <v>18</v>
+      </c>
+      <c r="B151" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50235061","ОАО Крион")</f>
+        <v>ОАО Крион</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D151" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E151" s="33">
+        <v>900</v>
+      </c>
+      <c r="F151" s="34">
+        <f t="shared" si="4"/>
+        <v>1046.51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" outlineLevel="1">
+      <c r="A152" s="32">
+        <v>18</v>
+      </c>
+      <c r="B152" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50783950","Инжиниринговая компания МСЛ-Сервис")</f>
+        <v>Инжиниринговая компания МСЛ-Сервис</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E152" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F152" s="34">
+        <f t="shared" si="4"/>
+        <v>1511.63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" outlineLevel="1">
+      <c r="A153" s="32">
+        <v>18</v>
+      </c>
+      <c r="B153" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50789989","ОАО Кондитерская фабрика Слодыч")</f>
+        <v>ОАО Кондитерская фабрика Слодыч</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E153" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F153" s="34">
+        <f t="shared" si="4"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" outlineLevel="1">
+      <c r="A154" s="32">
+        <v>18</v>
+      </c>
+      <c r="B154" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50642074","ООО Отличные люди")</f>
+        <v>ООО Отличные люди</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E154" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F154" s="34">
+        <f t="shared" si="4"/>
+        <v>2325.58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" outlineLevel="1">
+      <c r="A155" s="32">
+        <v>18</v>
+      </c>
+      <c r="B155" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49833939","ООО Тарум")</f>
+        <v>ООО Тарум</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D155" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E155" s="33">
+        <v>1100</v>
+      </c>
+      <c r="F155" s="34">
+        <f t="shared" si="4"/>
+        <v>1279.07</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" outlineLevel="1">
+      <c r="A156" s="32">
+        <v>18</v>
+      </c>
+      <c r="B156" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50503960","ОАО Белбакалея")</f>
+        <v>ОАО Белбакалея</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D156" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E156" s="33">
         <v>800</v>
       </c>
-      <c r="F148" s="34">
+      <c r="F156" s="34">
         <f t="shared" si="4"/>
         <v>930.23</v>
       </c>
     </row>
-    <row r="149" spans="1:6" outlineLevel="1">
-      <c r="A149" s="32">
-        <v>18</v>
-      </c>
-      <c r="B149" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49980709","Белорусский государственный педагогический университет им.Максима Танка")</f>
-        <v>Белорусский государственный педагогический университет им.Максима Танка</v>
-      </c>
-      <c r="C149" s="33" t="s">
+    <row r="157" spans="1:6" outlineLevel="1">
+      <c r="A157" s="32">
+        <v>18</v>
+      </c>
+      <c r="B157" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/65df8ccc0001f5f5970013a3fa4a6b724f664a","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C157" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D149" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E149" s="33">
+      <c r="D157" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E157" s="33">
+        <v>3000</v>
+      </c>
+      <c r="F157" s="34">
+        <f t="shared" si="4"/>
+        <v>3488.37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" outlineLevel="1">
+      <c r="A158" s="32">
+        <v>18</v>
+      </c>
+      <c r="B158" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/609f7a04000414746c0013a3fa4175495a4c4e","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D158" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E158" s="33">
+        <v>2200</v>
+      </c>
+      <c r="F158" s="34">
+        <f t="shared" si="4"/>
+        <v>2558.14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" outlineLevel="1">
+      <c r="A159" s="32">
+        <v>18</v>
+      </c>
+      <c r="B159" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/f5c62a0a00096846710013a3fa35505165325a","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E159" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F159" s="34">
+        <f t="shared" si="4"/>
+        <v>2325.58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" outlineLevel="1">
+      <c r="A160" s="32">
+        <v>18</v>
+      </c>
+      <c r="B160" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/373e64300001eba76d0013a3fa6f58674e724d","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E160" s="33">
+        <v>1800</v>
+      </c>
+      <c r="F160" s="34">
+        <f t="shared" si="4"/>
+        <v>2093.02</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" outlineLevel="1">
+      <c r="A161" s="32">
+        <v>18</v>
+      </c>
+      <c r="B161" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/3e24d6a700082b71790013a3fa354f4f355339","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D161" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E161" s="33">
+        <v>1800</v>
+      </c>
+      <c r="F161" s="34">
+        <f t="shared" si="4"/>
+        <v>2093.02</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" outlineLevel="1">
+      <c r="A162" s="32">
+        <v>18</v>
+      </c>
+      <c r="B162" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ade44998000900bc990013a3fa626453497a77","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D162" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E162" s="33">
+        <v>1700</v>
+      </c>
+      <c r="F162" s="34">
+        <f t="shared" si="4"/>
+        <v>1976.74</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" outlineLevel="1">
+      <c r="A163" s="32">
+        <v>18</v>
+      </c>
+      <c r="B163" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/49cdc5b200032e884f0013a3fa396b534d3263","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D163" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E163" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F163" s="34">
+        <f t="shared" si="4"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" outlineLevel="1">
+      <c r="A164" s="32">
+        <v>18</v>
+      </c>
+      <c r="B164" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/9c781a09000980b4430013a3fa65445a65515a","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E164" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F164" s="34">
+        <f t="shared" si="4"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" outlineLevel="1">
+      <c r="A165" s="32">
+        <v>18</v>
+      </c>
+      <c r="B165" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/b6a6c39f000261eb270013a3fa656f676f3653","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D165" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E165" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F165" s="34">
+        <f t="shared" si="4"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" outlineLevel="1">
+      <c r="A166" s="32">
+        <v>18</v>
+      </c>
+      <c r="B166" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/85a2b4ad00017f84060013a3fa4e4963465234","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D166" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E166" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F166" s="34">
+        <f t="shared" si="4"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" outlineLevel="1">
+      <c r="A167" s="32">
+        <v>18</v>
+      </c>
+      <c r="B167" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/2ea8c330000985689b0013a3fa784545735871","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D167" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E167" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F167" s="34">
+        <f t="shared" si="4"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" outlineLevel="1">
+      <c r="A168" s="32">
+        <v>18</v>
+      </c>
+      <c r="B168" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/6706d0680002597d700013a3fa7650774f4f46","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D168" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E168" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F168" s="34">
+        <f t="shared" si="4"/>
+        <v>1627.91</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" outlineLevel="1">
+      <c r="A169" s="32">
+        <v>18</v>
+      </c>
+      <c r="B169" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/477e60e50008a8eb5d0013a3fa446c6a424178","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D169" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E169" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F169" s="34">
+        <f t="shared" si="4"/>
+        <v>1627.91</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" outlineLevel="1">
+      <c r="A170" s="32">
+        <v>18</v>
+      </c>
+      <c r="B170" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/82207502000415d2480013a3fa5771504f4938","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D170" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E170" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F170" s="34">
+        <f t="shared" si="4"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" outlineLevel="1">
+      <c r="A171" s="32">
+        <v>18</v>
+      </c>
+      <c r="B171" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/a9d9cde600098578040013a3fa536641453737","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D171" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E171" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F171" s="34">
+        <f t="shared" si="4"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" outlineLevel="1">
+      <c r="A172" s="32">
+        <v>18</v>
+      </c>
+      <c r="B172" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/d2c206240007e594000013a3fa6a66684d4833","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D172" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E172" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F172" s="34">
+        <f t="shared" si="4"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" outlineLevel="1">
+      <c r="A173" s="32">
+        <v>18</v>
+      </c>
+      <c r="B173" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/83e346d000086af5c40013a3fa384d6c4b4f78","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D173" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E173" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F173" s="34">
+        <f t="shared" si="4"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" outlineLevel="1">
+      <c r="A174" s="32">
+        <v>18</v>
+      </c>
+      <c r="B174" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/9502a7a80001f92a530013a3fa366c68754643","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D174" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E174" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F174" s="34">
+        <f t="shared" si="4"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" outlineLevel="1">
+      <c r="A175" s="32">
+        <v>18</v>
+      </c>
+      <c r="B175" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/91a1acff0008fc26c70013a3fa34744566594f","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D175" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E175" s="33">
         <v>1100</v>
       </c>
-      <c r="F149" s="34">
+      <c r="F175" s="34">
         <f t="shared" si="4"/>
         <v>1279.07</v>
       </c>
     </row>
-    <row r="150" spans="1:6" outlineLevel="1">
-      <c r="A150" s="32">
-        <v>18</v>
-      </c>
-      <c r="B150" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/46912474","Молочный гостинец")</f>
-        <v>Молочный гостинец</v>
-      </c>
-      <c r="C150" s="33" t="s">
+    <row r="176" spans="1:6" outlineLevel="1">
+      <c r="A176" s="32">
+        <v>18</v>
+      </c>
+      <c r="B176" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/957cbb0f00064a618c0013a3fa494d59586631","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C176" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D150" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E150" s="33">
-        <v>900</v>
-      </c>
-      <c r="F150" s="34">
-        <f t="shared" si="4"/>
-        <v>1046.51</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" outlineLevel="1">
-      <c r="A151" s="32">
-        <v>18</v>
-      </c>
-      <c r="B151" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49310335","Онега")</f>
-        <v>Онега</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D151" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E151" s="33">
-        <v>1200</v>
-      </c>
-      <c r="F151" s="34">
-        <f t="shared" si="4"/>
-        <v>1395.35</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" outlineLevel="1">
-      <c r="A152" s="32">
-        <v>18</v>
-      </c>
-      <c r="B152" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50052798","Гос.учреждение Психоневрологический дом-интернат для престарелых и инвалидов №3 г.Минска")</f>
-        <v>Гос.учреждение Психоневрологический дом-интернат для престарелых и инвалидов №3 г.Минска</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E152" s="33">
-        <v>850</v>
-      </c>
-      <c r="F152" s="34">
-        <f t="shared" si="4"/>
-        <v>988.37</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" outlineLevel="1">
-      <c r="A153" s="32">
-        <v>18</v>
-      </c>
-      <c r="B153" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50135979","Белорусский государственный музей истории Великой Отечественной войны")</f>
-        <v>Белорусский государственный музей истории Великой Отечественной войны</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D153" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E153" s="33">
-        <v>600</v>
-      </c>
-      <c r="F153" s="34">
-        <f t="shared" si="4"/>
-        <v>697.67</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" outlineLevel="1">
-      <c r="A154" s="32">
-        <v>18</v>
-      </c>
-      <c r="B154" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50172927","Белоруснефть-Промсервис")</f>
-        <v>Белоруснефть-Промсервис</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D154" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E154" s="33">
-        <v>1400</v>
-      </c>
-      <c r="F154" s="34">
-        <f t="shared" si="4"/>
-        <v>1627.91</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" outlineLevel="1">
-      <c r="A155" s="32">
-        <v>18</v>
-      </c>
-      <c r="B155" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50235061","ОАО Крион")</f>
-        <v>ОАО Крион</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D155" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E155" s="33">
-        <v>900</v>
-      </c>
-      <c r="F155" s="34">
-        <f t="shared" si="4"/>
-        <v>1046.51</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" outlineLevel="1">
-      <c r="A156" s="32">
-        <v>18</v>
-      </c>
-      <c r="B156" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50568508","Белорусский государственный музей истории Великой Отечественной войны")</f>
-        <v>Белорусский государственный музей истории Великой Отечественной войны</v>
-      </c>
-      <c r="C156" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D156" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E156" s="33">
-        <v>600</v>
-      </c>
-      <c r="F156" s="34">
-        <f t="shared" si="4"/>
-        <v>697.67</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" outlineLevel="1">
-      <c r="A157" s="32">
-        <v>18</v>
-      </c>
-      <c r="B157" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50723880","ООО РЕМОНДИС Солюшн")</f>
-        <v>ООО РЕМОНДИС Солюшн</v>
-      </c>
-      <c r="C157" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D157" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E157" s="33">
-        <v>1700</v>
-      </c>
-      <c r="F157" s="34">
-        <f t="shared" si="4"/>
-        <v>1976.74</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" outlineLevel="1">
-      <c r="A158" s="32">
-        <v>18</v>
-      </c>
-      <c r="B158" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50307126","ООО Строительная компания АгриПО")</f>
-        <v>ООО Строительная компания АгриПО</v>
-      </c>
-      <c r="C158" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D158" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E158" s="33">
-        <v>3000</v>
-      </c>
-      <c r="F158" s="34">
-        <f t="shared" si="4"/>
-        <v>3488.37</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" outlineLevel="1">
-      <c r="A159" s="32">
-        <v>18</v>
-      </c>
-      <c r="B159" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50307838","Институт пограничной службы Республики Беларусь, ГУО")</f>
-        <v>Институт пограничной службы Республики Беларусь, ГУО</v>
-      </c>
-      <c r="C159" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D159" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E159" s="33">
-        <v>600</v>
-      </c>
-      <c r="F159" s="34">
-        <f t="shared" si="4"/>
-        <v>697.67</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" outlineLevel="1">
-      <c r="A160" s="32">
-        <v>18</v>
-      </c>
-      <c r="B160" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50325895","Минский государственный профессиональный лицей № 9 автомобилестроения")</f>
-        <v>Минский государственный профессиональный лицей № 9 автомобилестроения</v>
-      </c>
-      <c r="C160" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D160" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E160" s="33">
-        <v>214</v>
-      </c>
-      <c r="F160" s="34">
-        <f t="shared" si="4"/>
-        <v>248.84</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" outlineLevel="1">
-      <c r="A161" s="32">
-        <v>18</v>
-      </c>
-      <c r="B161" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50503960","ОАО Белбакалея")</f>
-        <v>ОАО Белбакалея</v>
-      </c>
-      <c r="C161" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D161" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E161" s="33">
-        <v>800</v>
-      </c>
-      <c r="F161" s="34">
-        <f t="shared" si="4"/>
-        <v>930.23</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" outlineLevel="1">
-      <c r="A162" s="32">
-        <v>18</v>
-      </c>
-      <c r="B162" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50642074","ООО Отличные люди")</f>
-        <v>ООО Отличные люди</v>
-      </c>
-      <c r="C162" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D162" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E162" s="33">
-        <v>2000</v>
-      </c>
-      <c r="F162" s="34">
-        <f t="shared" si="4"/>
-        <v>2325.58</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" outlineLevel="1">
-      <c r="A163" s="32">
-        <v>18</v>
-      </c>
-      <c r="B163" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49833939","ООО Тарум")</f>
-        <v>ООО Тарум</v>
-      </c>
-      <c r="C163" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D163" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E163" s="33">
+      <c r="D176" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E176" s="33">
         <v>1100</v>
       </c>
-      <c r="F163" s="34">
+      <c r="F176" s="34">
         <f t="shared" si="4"/>
         <v>1279.07</v>
       </c>
     </row>
-    <row r="164" spans="1:6" outlineLevel="1">
-      <c r="A164" s="32">
-        <v>18</v>
-      </c>
-      <c r="B164" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/c5b56a85000929e2ac0013a3fa36756e6f6565","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C164" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D164" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E164" s="33">
-        <v>2000</v>
-      </c>
-      <c r="F164" s="34">
-        <f t="shared" si="4"/>
-        <v>2325.58</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" outlineLevel="1">
-      <c r="A165" s="32">
-        <v>18</v>
-      </c>
-      <c r="B165" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/f5c62a0a00096846710013a3fa35505165325a","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C165" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D165" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E165" s="33">
-        <v>2000</v>
-      </c>
-      <c r="F165" s="34">
-        <f t="shared" si="4"/>
-        <v>2325.58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" outlineLevel="1">
-      <c r="A166" s="32">
-        <v>18</v>
-      </c>
-      <c r="B166" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ade44998000900bc990013a3fa626453497a77","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C166" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D166" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E166" s="33">
-        <v>1700</v>
-      </c>
-      <c r="F166" s="34">
-        <f t="shared" si="4"/>
-        <v>1976.74</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" outlineLevel="1">
-      <c r="A167" s="32">
-        <v>18</v>
-      </c>
-      <c r="B167" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/3e24d6a700082b71790013a3fa354f4f355339","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C167" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D167" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E167" s="33">
-        <v>1800</v>
-      </c>
-      <c r="F167" s="34">
-        <f t="shared" si="4"/>
-        <v>2093.02</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" outlineLevel="1">
-      <c r="A168" s="32">
-        <v>18</v>
-      </c>
-      <c r="B168" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/373e64300001eba76d0013a3fa6f58674e724d","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C168" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D168" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E168" s="33">
-        <v>1800</v>
-      </c>
-      <c r="F168" s="34">
-        <f t="shared" si="4"/>
-        <v>2093.02</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" outlineLevel="1">
-      <c r="A169" s="32">
-        <v>18</v>
-      </c>
-      <c r="B169" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/609f7a04000414746c0013a3fa4175495a4c4e","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C169" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D169" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E169" s="33">
-        <v>2200</v>
-      </c>
-      <c r="F169" s="34">
-        <f t="shared" si="4"/>
-        <v>2558.14</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" outlineLevel="1">
-      <c r="A170" s="32">
-        <v>18</v>
-      </c>
-      <c r="B170" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/65df8ccc0001f5f5970013a3fa4a6b724f664a","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C170" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D170" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E170" s="33">
-        <v>3000</v>
-      </c>
-      <c r="F170" s="34">
-        <f t="shared" si="4"/>
-        <v>3488.37</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" outlineLevel="1">
-      <c r="A171" s="32">
-        <v>18</v>
-      </c>
-      <c r="B171" s="33"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:6" outlineLevel="1">
-      <c r="A172" s="32">
-        <v>18</v>
-      </c>
-      <c r="B172" s="33"/>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:6" outlineLevel="1">
-      <c r="A173" s="32">
-        <v>18</v>
-      </c>
-      <c r="B173" s="33"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="33"/>
-      <c r="F173" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:6" outlineLevel="1">
-      <c r="A174" s="32">
-        <v>18</v>
-      </c>
-      <c r="B174" s="33"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:6" outlineLevel="1">
-      <c r="A175" s="32">
-        <v>18</v>
-      </c>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:6" outlineLevel="1">
-      <c r="A176" s="32">
-        <v>18</v>
-      </c>
-      <c r="B176" s="33"/>
-      <c r="C176" s="33"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="33"/>
-      <c r="F176" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
     <row r="177" spans="1:6" outlineLevel="1">
       <c r="A177" s="32">
         <v>18</v>
       </c>
-      <c r="B177" s="33"/>
-      <c r="C177" s="33"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="33"/>
-      <c r="F177" s="34" t="str">
+      <c r="B177" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/9d73f0c500025993a50013a3fa474264387642","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D177" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E177" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F177" s="34">
         <f t="shared" ref="F177:F204" si="5">IF(ROUND(E177/$K$11,2)&gt;0,ROUND(E177/$K$11,2),"")</f>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="178" spans="1:6" outlineLevel="1">
       <c r="A178" s="32">
         <v>18</v>
       </c>
-      <c r="B178" s="33"/>
-      <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="34" t="str">
+      <c r="B178" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/efc8b3fc00056f02960013a3fa43417335536f","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D178" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E178" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F178" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="179" spans="1:6" outlineLevel="1">
       <c r="A179" s="32">
         <v>18</v>
       </c>
-      <c r="B179" s="33"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-      <c r="F179" s="34" t="str">
+      <c r="B179" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/9c090abc0007ee685b0013a3fa36326133714a","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C179" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D179" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E179" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F179" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="180" spans="1:6" outlineLevel="1">
       <c r="A180" s="32">
         <v>18</v>
       </c>
-      <c r="B180" s="33"/>
-      <c r="C180" s="33"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="34" t="str">
+      <c r="B180" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/f41645ea0007ccea100013a3fa745678767a38","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D180" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E180" s="33">
+        <v>900</v>
+      </c>
+      <c r="F180" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="181" spans="1:6" outlineLevel="1">
       <c r="A181" s="32">
         <v>18</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="34" t="str">
+      <c r="B181" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/1dd6595a00089f93380013a3fa343859796268","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D181" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E181" s="33">
+        <v>900</v>
+      </c>
+      <c r="F181" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="182" spans="1:6" outlineLevel="1">
       <c r="A182" s="32">
         <v>18</v>
       </c>
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="34" t="str">
+      <c r="B182" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ef73139000096bd5b60013a3fa695670746b6e","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C182" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D182" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E182" s="33">
+        <v>800</v>
+      </c>
+      <c r="F182" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="183" spans="1:6" outlineLevel="1">
       <c r="A183" s="32">
         <v>18</v>
       </c>
-      <c r="B183" s="33"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="33"/>
-      <c r="F183" s="34" t="str">
+      <c r="B183" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/27d09a3c000968ec9f0013a3fa4a594a677844","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E183" s="33">
+        <v>700</v>
+      </c>
+      <c r="F183" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>813.95</v>
       </c>
     </row>
     <row r="184" spans="1:6" outlineLevel="1">
       <c r="A184" s="32">
         <v>18</v>
       </c>
-      <c r="B184" s="33"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="34" t="str">
+      <c r="B184" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/4cc0d6c70009801a3a0013a3fa706c5a413766","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C184" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D184" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E184" s="33">
+        <v>600</v>
+      </c>
+      <c r="F184" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>697.67</v>
       </c>
     </row>
     <row r="185" spans="1:6" outlineLevel="1">
       <c r="A185" s="32">
         <v>18</v>
       </c>
-      <c r="B185" s="33"/>
-      <c r="C185" s="33"/>
-      <c r="D185" s="33"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="34" t="str">
+      <c r="B185" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/0d1eef8c0007dfb5e90013a3fa7378434c7a48","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D185" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E185" s="33">
+        <v>400</v>
+      </c>
+      <c r="F185" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>465.12</v>
       </c>
     </row>
     <row r="186" spans="1:6" outlineLevel="1">
@@ -28760,689 +29501,1166 @@
       <c r="A206" s="32">
         <v>18</v>
       </c>
-      <c r="B206" s="33"/>
-      <c r="C206" s="33"/>
-      <c r="D206" s="33"/>
-      <c r="E206" s="33"/>
-      <c r="F206" s="34" t="str">
+      <c r="B206" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50625260","ЗАО E-dostavka.by")</f>
+        <v>ЗАО E-dostavka.by</v>
+      </c>
+      <c r="C206" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D206" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E206" s="33">
+        <v>3000</v>
+      </c>
+      <c r="F206" s="34">
         <f t="shared" ref="F206:F237" si="6">IF(ROUND(E206/$K$11,2)&gt;0,ROUND(E206/$K$11,2),"")</f>
-        <v/>
+        <v>3488.37</v>
       </c>
     </row>
     <row r="207" spans="1:6" outlineLevel="1">
       <c r="A207" s="32">
         <v>18</v>
       </c>
-      <c r="B207" s="33"/>
-      <c r="C207" s="33"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="33"/>
-      <c r="F207" s="34" t="str">
+      <c r="B207" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50613155","ЭЛЕКТРОСИЛА, сеть магазинов")</f>
+        <v>ЭЛЕКТРОСИЛА, сеть магазинов</v>
+      </c>
+      <c r="C207" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D207" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E207" s="33">
+        <v>800</v>
+      </c>
+      <c r="F207" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="208" spans="1:6" outlineLevel="1">
       <c r="A208" s="32">
         <v>18</v>
       </c>
-      <c r="B208" s="33"/>
-      <c r="C208" s="33"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="33"/>
-      <c r="F208" s="34" t="str">
+      <c r="B208" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/48848966","ТУТ и ТАМ Логистикс")</f>
+        <v>ТУТ и ТАМ Логистикс</v>
+      </c>
+      <c r="C208" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D208" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E208" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F208" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="209" spans="1:6" outlineLevel="1">
       <c r="A209" s="32">
         <v>18</v>
       </c>
-      <c r="B209" s="33"/>
-      <c r="C209" s="33"/>
-      <c r="D209" s="33"/>
-      <c r="E209" s="33"/>
-      <c r="F209" s="34" t="str">
+      <c r="B209" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50295826","ЗООХАУЗ")</f>
+        <v>ЗООХАУЗ</v>
+      </c>
+      <c r="C209" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D209" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E209" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F209" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="210" spans="1:6" outlineLevel="1">
       <c r="A210" s="32">
         <v>18</v>
       </c>
-      <c r="B210" s="33"/>
-      <c r="C210" s="33"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="34" t="str">
+      <c r="B210" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50413814","БелТРАМП")</f>
+        <v>БелТРАМП</v>
+      </c>
+      <c r="C210" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D210" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E210" s="33">
+        <v>800</v>
+      </c>
+      <c r="F210" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="211" spans="1:6" outlineLevel="1">
       <c r="A211" s="32">
         <v>18</v>
       </c>
-      <c r="B211" s="33"/>
-      <c r="C211" s="33"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="34" t="str">
+      <c r="B211" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50366421","ООО ФрэшАйс")</f>
+        <v>ООО ФрэшАйс</v>
+      </c>
+      <c r="C211" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D211" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E211" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F211" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="212" spans="1:6" outlineLevel="1">
       <c r="A212" s="32">
         <v>18</v>
       </c>
-      <c r="B212" s="33"/>
-      <c r="C212" s="33"/>
-      <c r="D212" s="33"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="34" t="str">
+      <c r="B212" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50152948","ООО Прадиус Нова")</f>
+        <v>ООО Прадиус Нова</v>
+      </c>
+      <c r="C212" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D212" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E212" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F212" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="213" spans="1:6" outlineLevel="1">
       <c r="A213" s="32">
         <v>18</v>
       </c>
-      <c r="B213" s="33"/>
-      <c r="C213" s="33"/>
-      <c r="D213" s="33"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="34" t="str">
+      <c r="B213" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/48792506","ООО Кэпитал Логистик")</f>
+        <v>ООО Кэпитал Логистик</v>
+      </c>
+      <c r="C213" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D213" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E213" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F213" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="214" spans="1:6" outlineLevel="1">
       <c r="A214" s="32">
         <v>18</v>
       </c>
-      <c r="B214" s="33"/>
-      <c r="C214" s="33"/>
-      <c r="D214" s="33"/>
-      <c r="E214" s="33"/>
-      <c r="F214" s="34" t="str">
+      <c r="B214" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50319760","Ассомедика,ООО")</f>
+        <v>Ассомедика,ООО</v>
+      </c>
+      <c r="C214" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D214" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E214" s="33">
+        <v>990</v>
+      </c>
+      <c r="F214" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1151.1600000000001</v>
       </c>
     </row>
     <row r="215" spans="1:6" outlineLevel="1">
       <c r="A215" s="32">
         <v>18</v>
       </c>
-      <c r="B215" s="33"/>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
-      <c r="F215" s="34" t="str">
+      <c r="B215" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50625349","МБС-ТоргСервис")</f>
+        <v>МБС-ТоргСервис</v>
+      </c>
+      <c r="C215" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D215" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E215" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F215" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="216" spans="1:6" outlineLevel="1">
       <c r="A216" s="32">
         <v>18</v>
       </c>
-      <c r="B216" s="33"/>
-      <c r="C216" s="33"/>
-      <c r="D216" s="33"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="34" t="str">
+      <c r="B216" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50657972","ООО МОНТБРУК")</f>
+        <v>ООО МОНТБРУК</v>
+      </c>
+      <c r="C216" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D216" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E216" s="33">
+        <v>900</v>
+      </c>
+      <c r="F216" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="217" spans="1:6" outlineLevel="1">
       <c r="A217" s="32">
         <v>18</v>
       </c>
-      <c r="B217" s="33"/>
-      <c r="C217" s="33"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="33"/>
-      <c r="F217" s="34" t="str">
+      <c r="B217" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49784571","ООО СП Софтформ")</f>
+        <v>ООО СП Софтформ</v>
+      </c>
+      <c r="C217" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D217" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E217" s="33">
+        <v>850</v>
+      </c>
+      <c r="F217" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>988.37</v>
       </c>
     </row>
     <row r="218" spans="1:6" outlineLevel="1">
       <c r="A218" s="32">
         <v>18</v>
       </c>
-      <c r="B218" s="33"/>
-      <c r="C218" s="33"/>
-      <c r="D218" s="33"/>
-      <c r="E218" s="33"/>
-      <c r="F218" s="34" t="str">
+      <c r="B218" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50624108","ООО Складэксперт")</f>
+        <v>ООО Складэксперт</v>
+      </c>
+      <c r="C218" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D218" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E218" s="33">
+        <v>2280</v>
+      </c>
+      <c r="F218" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2651.16</v>
       </c>
     </row>
     <row r="219" spans="1:6" outlineLevel="1">
       <c r="A219" s="32">
         <v>18</v>
       </c>
-      <c r="B219" s="33"/>
-      <c r="C219" s="33"/>
-      <c r="D219" s="33"/>
-      <c r="E219" s="33"/>
-      <c r="F219" s="34" t="str">
+      <c r="B219" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50663462","ООО Имидж косметик")</f>
+        <v>ООО Имидж косметик</v>
+      </c>
+      <c r="C219" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D219" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E219" s="33">
+        <v>900</v>
+      </c>
+      <c r="F219" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="220" spans="1:6" outlineLevel="1">
       <c r="A220" s="32">
         <v>18</v>
       </c>
-      <c r="B220" s="33"/>
-      <c r="C220" s="33"/>
-      <c r="D220" s="33"/>
-      <c r="E220" s="33"/>
-      <c r="F220" s="34" t="str">
+      <c r="B220" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50715732","ООО Торговый Дом Система")</f>
+        <v>ООО Торговый Дом Система</v>
+      </c>
+      <c r="C220" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D220" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E220" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F220" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="221" spans="1:6" outlineLevel="1">
       <c r="A221" s="32">
         <v>18</v>
       </c>
-      <c r="B221" s="33"/>
-      <c r="C221" s="33"/>
-      <c r="D221" s="33"/>
-      <c r="E221" s="33"/>
-      <c r="F221" s="34" t="str">
+      <c r="B221" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50250763","ООО ИмЭкс Трейд")</f>
+        <v>ООО ИмЭкс Трейд</v>
+      </c>
+      <c r="C221" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D221" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E221" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F221" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="222" spans="1:6" outlineLevel="1">
       <c r="A222" s="32">
         <v>18</v>
       </c>
-      <c r="B222" s="33"/>
-      <c r="C222" s="33"/>
-      <c r="D222" s="33"/>
-      <c r="E222" s="33"/>
-      <c r="F222" s="34" t="str">
+      <c r="B222" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/44406725","ЕВРООПТ")</f>
+        <v>ЕВРООПТ</v>
+      </c>
+      <c r="C222" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D222" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E222" s="33">
+        <v>2450</v>
+      </c>
+      <c r="F222" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2848.84</v>
       </c>
     </row>
     <row r="223" spans="1:6" outlineLevel="1">
       <c r="A223" s="32">
         <v>18</v>
       </c>
-      <c r="B223" s="33"/>
-      <c r="C223" s="33"/>
-      <c r="D223" s="33"/>
-      <c r="E223" s="33"/>
-      <c r="F223" s="34" t="str">
+      <c r="B223" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/41629986","КОРОНА, ЗАМОК Торговые центры")</f>
+        <v>КОРОНА, ЗАМОК Торговые центры</v>
+      </c>
+      <c r="C223" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D223" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E223" s="33">
+        <v>716</v>
+      </c>
+      <c r="F223" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>832.56</v>
       </c>
     </row>
     <row r="224" spans="1:6" outlineLevel="1">
       <c r="A224" s="32">
         <v>18</v>
       </c>
-      <c r="B224" s="33"/>
-      <c r="C224" s="33"/>
-      <c r="D224" s="33"/>
-      <c r="E224" s="33"/>
-      <c r="F224" s="34" t="str">
+      <c r="B224" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/43816127","ГРИНрозница ГК РАПА")</f>
+        <v>ГРИНрозница ГК РАПА</v>
+      </c>
+      <c r="C224" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D224" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E224" s="33">
+        <v>910</v>
+      </c>
+      <c r="F224" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1058.1400000000001</v>
       </c>
     </row>
     <row r="225" spans="1:6" outlineLevel="1">
       <c r="A225" s="32">
         <v>18</v>
       </c>
-      <c r="B225" s="33"/>
-      <c r="C225" s="33"/>
-      <c r="D225" s="33"/>
-      <c r="E225" s="33"/>
-      <c r="F225" s="34" t="str">
+      <c r="B225" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49863388","Сеть магазинов Мила (ГК, Парфюмбытхим)")</f>
+        <v>Сеть магазинов Мила (ГК, Парфюмбытхим)</v>
+      </c>
+      <c r="C225" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D225" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E225" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F225" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="226" spans="1:6" outlineLevel="1">
       <c r="A226" s="32">
         <v>18</v>
       </c>
-      <c r="B226" s="33"/>
-      <c r="C226" s="33"/>
-      <c r="D226" s="33"/>
-      <c r="E226" s="33"/>
-      <c r="F226" s="34" t="str">
+      <c r="B226" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50761455","ProStore")</f>
+        <v>ProStore</v>
+      </c>
+      <c r="C226" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D226" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E226" s="33">
+        <v>970</v>
+      </c>
+      <c r="F226" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1127.9100000000001</v>
       </c>
     </row>
     <row r="227" spans="1:6" outlineLevel="1">
       <c r="A227" s="32">
         <v>18</v>
       </c>
-      <c r="B227" s="33"/>
-      <c r="C227" s="33"/>
-      <c r="D227" s="33"/>
-      <c r="E227" s="33"/>
-      <c r="F227" s="34" t="str">
+      <c r="B227" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50794649","БЕЛМАРКЕТ")</f>
+        <v>БЕЛМАРКЕТ</v>
+      </c>
+      <c r="C227" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D227" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E227" s="33">
+        <v>860</v>
+      </c>
+      <c r="F227" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1000</v>
       </c>
     </row>
     <row r="228" spans="1:6" outlineLevel="1">
       <c r="A228" s="32">
         <v>18</v>
       </c>
-      <c r="B228" s="33"/>
-      <c r="C228" s="33"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="33"/>
-      <c r="F228" s="34" t="str">
+      <c r="B228" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50370749","ООО Санта Ритейл")</f>
+        <v>ООО Санта Ритейл</v>
+      </c>
+      <c r="C228" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D228" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E228" s="33">
+        <v>880</v>
+      </c>
+      <c r="F228" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1023.26</v>
       </c>
     </row>
     <row r="229" spans="1:6" outlineLevel="1">
       <c r="A229" s="32">
         <v>18</v>
       </c>
-      <c r="B229" s="33"/>
-      <c r="C229" s="33"/>
-      <c r="D229" s="33"/>
-      <c r="E229" s="33"/>
-      <c r="F229" s="34" t="str">
+      <c r="B229" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/37408383","СОСЕДИ, Сеть магазинов")</f>
+        <v>СОСЕДИ, Сеть магазинов</v>
+      </c>
+      <c r="C229" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D229" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E229" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F229" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="230" spans="1:6" outlineLevel="1">
       <c r="A230" s="32">
         <v>18</v>
       </c>
-      <c r="B230" s="33"/>
-      <c r="C230" s="33"/>
-      <c r="D230" s="33"/>
-      <c r="E230" s="33"/>
-      <c r="F230" s="34" t="str">
+      <c r="B230" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50008816","АЛИДИ-Вест, ИООО")</f>
+        <v>АЛИДИ-Вест, ИООО</v>
+      </c>
+      <c r="C230" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D230" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E230" s="33">
+        <v>1700</v>
+      </c>
+      <c r="F230" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1976.74</v>
       </c>
     </row>
     <row r="231" spans="1:6" outlineLevel="1">
       <c r="A231" s="32">
         <v>18</v>
       </c>
-      <c r="B231" s="33"/>
-      <c r="C231" s="33"/>
-      <c r="D231" s="33"/>
-      <c r="E231" s="33"/>
-      <c r="F231" s="34" t="str">
+      <c r="B231" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50784978","Добрада")</f>
+        <v>Добрада</v>
+      </c>
+      <c r="C231" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D231" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E231" s="33">
+        <v>2300</v>
+      </c>
+      <c r="F231" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2674.42</v>
       </c>
     </row>
     <row r="232" spans="1:6" outlineLevel="1">
       <c r="A232" s="32">
         <v>18</v>
       </c>
-      <c r="B232" s="33"/>
-      <c r="C232" s="33"/>
-      <c r="D232" s="33"/>
-      <c r="E232" s="33"/>
-      <c r="F232" s="34" t="str">
+      <c r="B232" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/25922595","ОДО Виталюр")</f>
+        <v>ОДО Виталюр</v>
+      </c>
+      <c r="C232" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D232" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E232" s="33">
+        <v>880</v>
+      </c>
+      <c r="F232" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1023.26</v>
       </c>
     </row>
     <row r="233" spans="1:6" outlineLevel="1">
       <c r="A233" s="32">
         <v>18</v>
       </c>
-      <c r="B233" s="33"/>
-      <c r="C233" s="33"/>
-      <c r="D233" s="33"/>
-      <c r="E233" s="33"/>
-      <c r="F233" s="34" t="str">
+      <c r="B233" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/44434206","Группа компаний НП-Сервис")</f>
+        <v>Группа компаний НП-Сервис</v>
+      </c>
+      <c r="C233" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D233" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E233" s="33">
+        <v>2050</v>
+      </c>
+      <c r="F233" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2383.7199999999998</v>
       </c>
     </row>
     <row r="234" spans="1:6" outlineLevel="1">
       <c r="A234" s="32">
         <v>18</v>
       </c>
-      <c r="B234" s="33"/>
-      <c r="C234" s="33"/>
-      <c r="D234" s="33"/>
-      <c r="E234" s="33"/>
-      <c r="F234" s="34" t="str">
+      <c r="B234" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/47483269","ЗАО Доброном")</f>
+        <v>ЗАО Доброном</v>
+      </c>
+      <c r="C234" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D234" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E234" s="33">
+        <v>1100</v>
+      </c>
+      <c r="F234" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="235" spans="1:6" outlineLevel="1">
       <c r="A235" s="32">
         <v>18</v>
       </c>
-      <c r="B235" s="33"/>
-      <c r="C235" s="33"/>
-      <c r="D235" s="33"/>
-      <c r="E235" s="33"/>
-      <c r="F235" s="34" t="str">
+      <c r="B235" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/48991846","ООО Желенторг")</f>
+        <v>ООО Желенторг</v>
+      </c>
+      <c r="C235" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D235" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E235" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F235" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="236" spans="1:6" outlineLevel="1">
       <c r="A236" s="32">
         <v>18</v>
       </c>
-      <c r="B236" s="33"/>
-      <c r="C236" s="33"/>
-      <c r="D236" s="33"/>
-      <c r="E236" s="33"/>
-      <c r="F236" s="34" t="str">
+      <c r="B236" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/1aaf297d00084df4dd0013a3fa3634596f5467","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C236" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D236" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E236" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F236" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="237" spans="1:6" outlineLevel="1">
       <c r="A237" s="32">
         <v>18</v>
       </c>
-      <c r="B237" s="33"/>
-      <c r="C237" s="33"/>
-      <c r="D237" s="33"/>
-      <c r="E237" s="33"/>
-      <c r="F237" s="34" t="str">
+      <c r="B237" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/0b05f56200098d4ce50013a3fa67754c725976","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C237" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D237" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E237" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F237" s="34">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="238" spans="1:6" outlineLevel="1">
       <c r="A238" s="32">
         <v>18</v>
       </c>
-      <c r="B238" s="33"/>
-      <c r="C238" s="33"/>
-      <c r="D238" s="33"/>
-      <c r="E238" s="33"/>
-      <c r="F238" s="34" t="str">
+      <c r="B238" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/47c3098c0009898e950013a3fa59547842676b","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C238" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D238" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E238" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F238" s="34">
         <f t="shared" ref="F238:F265" si="7">IF(ROUND(E238/$K$11,2)&gt;0,ROUND(E238/$K$11,2),"")</f>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="239" spans="1:6" outlineLevel="1">
       <c r="A239" s="32">
         <v>18</v>
       </c>
-      <c r="B239" s="33"/>
-      <c r="C239" s="33"/>
-      <c r="D239" s="33"/>
-      <c r="E239" s="33"/>
-      <c r="F239" s="34" t="str">
+      <c r="B239" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/6cb0a7840003b9adf00013a3fa796362346877","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C239" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D239" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E239" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F239" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="240" spans="1:6" outlineLevel="1">
       <c r="A240" s="32">
         <v>18</v>
       </c>
-      <c r="B240" s="33"/>
-      <c r="C240" s="33"/>
-      <c r="D240" s="33"/>
-      <c r="E240" s="33"/>
-      <c r="F240" s="34" t="str">
+      <c r="B240" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/0173aabc00080ab64d0013a3fa694b30497165","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C240" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D240" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E240" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F240" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="241" spans="1:6" outlineLevel="1">
       <c r="A241" s="32">
         <v>18</v>
       </c>
-      <c r="B241" s="33"/>
-      <c r="C241" s="33"/>
-      <c r="D241" s="33"/>
-      <c r="E241" s="33"/>
-      <c r="F241" s="34" t="str">
+      <c r="B241" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/0ad261ed0002fb8c4a0013a3fa4270744e614a","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C241" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D241" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E241" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F241" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="242" spans="1:6" outlineLevel="1">
       <c r="A242" s="32">
         <v>18</v>
       </c>
-      <c r="B242" s="33"/>
-      <c r="C242" s="33"/>
-      <c r="D242" s="33"/>
-      <c r="E242" s="33"/>
-      <c r="F242" s="34" t="str">
+      <c r="B242" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/b9a9d85800057ad37b0013a3fa6d4e44454466","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C242" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D242" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E242" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F242" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="243" spans="1:6" outlineLevel="1">
       <c r="A243" s="32">
         <v>18</v>
       </c>
-      <c r="B243" s="33"/>
-      <c r="C243" s="33"/>
-      <c r="D243" s="33"/>
-      <c r="E243" s="33"/>
-      <c r="F243" s="34" t="str">
+      <c r="B243" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ef7c402d0008cd625b0013a3fa77663151554e","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C243" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D243" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E243" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F243" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="244" spans="1:6" outlineLevel="1">
       <c r="A244" s="32">
         <v>18</v>
       </c>
-      <c r="B244" s="33"/>
-      <c r="C244" s="33"/>
-      <c r="D244" s="33"/>
-      <c r="E244" s="33"/>
-      <c r="F244" s="34" t="str">
+      <c r="B244" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/638caf2c0008c0953c0013a3fa4471646e6d50","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C244" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D244" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E244" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F244" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="245" spans="1:6" outlineLevel="1">
       <c r="A245" s="32">
         <v>18</v>
       </c>
-      <c r="B245" s="33"/>
-      <c r="C245" s="33"/>
-      <c r="D245" s="33"/>
-      <c r="E245" s="33"/>
-      <c r="F245" s="34" t="str">
+      <c r="B245" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/04d024ba00098770100013a3fa6c4974724f47","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C245" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D245" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E245" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F245" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="246" spans="1:6" outlineLevel="1">
       <c r="A246" s="32">
         <v>18</v>
       </c>
-      <c r="B246" s="33"/>
-      <c r="C246" s="33"/>
-      <c r="D246" s="33"/>
-      <c r="E246" s="33"/>
-      <c r="F246" s="34" t="str">
+      <c r="B246" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/055f9010000864c2dc0013a3fa4a4f3146575a","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C246" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D246" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E246" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F246" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="247" spans="1:6" outlineLevel="1">
       <c r="A247" s="32">
         <v>18</v>
       </c>
-      <c r="B247" s="33"/>
-      <c r="C247" s="33"/>
-      <c r="D247" s="33"/>
-      <c r="E247" s="33"/>
-      <c r="F247" s="34" t="str">
+      <c r="B247" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/9318e41500030d532b0013a3fa396252466556","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C247" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D247" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E247" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F247" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="248" spans="1:6" outlineLevel="1">
       <c r="A248" s="32">
         <v>18</v>
       </c>
-      <c r="B248" s="33"/>
-      <c r="C248" s="33"/>
-      <c r="D248" s="33"/>
-      <c r="E248" s="33"/>
-      <c r="F248" s="34" t="str">
+      <c r="B248" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ea0bab450007202c640013a3fa5439594a7476","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C248" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D248" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E248" s="33">
+        <v>900</v>
+      </c>
+      <c r="F248" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="249" spans="1:6" outlineLevel="1">
       <c r="A249" s="32">
         <v>18</v>
       </c>
-      <c r="B249" s="33"/>
-      <c r="C249" s="33"/>
-      <c r="D249" s="33"/>
-      <c r="E249" s="33"/>
-      <c r="F249" s="34" t="str">
+      <c r="B249" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/90d930550003f19d8d0013a3fa35654b706335","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C249" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D249" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E249" s="33">
+        <v>850</v>
+      </c>
+      <c r="F249" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>988.37</v>
       </c>
     </row>
     <row r="250" spans="1:6" outlineLevel="1">
       <c r="A250" s="32">
         <v>18</v>
       </c>
-      <c r="B250" s="33"/>
-      <c r="C250" s="33"/>
-      <c r="D250" s="33"/>
-      <c r="E250" s="33"/>
-      <c r="F250" s="34" t="str">
+      <c r="B250" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/cf2fbc160002d5a3c50013a3fa6a574f373755","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C250" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D250" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E250" s="33">
+        <v>800</v>
+      </c>
+      <c r="F250" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="251" spans="1:6" outlineLevel="1">
       <c r="A251" s="32">
         <v>18</v>
       </c>
-      <c r="B251" s="33"/>
-      <c r="C251" s="33"/>
-      <c r="D251" s="33"/>
-      <c r="E251" s="33"/>
-      <c r="F251" s="34" t="str">
+      <c r="B251" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/a1772f130008f6be610013a3fa533953374348","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C251" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D251" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E251" s="33">
+        <v>800</v>
+      </c>
+      <c r="F251" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="252" spans="1:6" outlineLevel="1">
       <c r="A252" s="32">
         <v>18</v>
       </c>
-      <c r="B252" s="33"/>
-      <c r="C252" s="33"/>
-      <c r="D252" s="33"/>
-      <c r="E252" s="33"/>
-      <c r="F252" s="34" t="str">
+      <c r="B252" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/603bf5b600089221d20013a3fa624a6351737a","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C252" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D252" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E252" s="33">
+        <v>800</v>
+      </c>
+      <c r="F252" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="253" spans="1:6" outlineLevel="1">
       <c r="A253" s="32">
         <v>18</v>
       </c>
-      <c r="B253" s="33"/>
-      <c r="C253" s="33"/>
-      <c r="D253" s="33"/>
-      <c r="E253" s="33"/>
-      <c r="F253" s="34" t="str">
+      <c r="B253" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/3c137e9900096745980013a3fa626d6d4a6441","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C253" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D253" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E253" s="33">
+        <v>800</v>
+      </c>
+      <c r="F253" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="254" spans="1:6" outlineLevel="1">
       <c r="A254" s="32">
         <v>18</v>
       </c>
-      <c r="B254" s="33"/>
-      <c r="C254" s="33"/>
-      <c r="D254" s="33"/>
-      <c r="E254" s="33"/>
-      <c r="F254" s="34" t="str">
+      <c r="B254" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/f047ef4000020b5f910013a3fa756e6757344b","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C254" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D254" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E254" s="33">
+        <v>700</v>
+      </c>
+      <c r="F254" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>813.95</v>
       </c>
     </row>
     <row r="255" spans="1:6" outlineLevel="1">
       <c r="A255" s="32">
         <v>18</v>
       </c>
-      <c r="B255" s="33"/>
-      <c r="C255" s="33"/>
-      <c r="D255" s="33"/>
-      <c r="E255" s="33"/>
-      <c r="F255" s="34" t="str">
+      <c r="B255" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/568a4d450001edf7190013a3fa63553752674c","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C255" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D255" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E255" s="33">
+        <v>600</v>
+      </c>
+      <c r="F255" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>697.67</v>
       </c>
     </row>
     <row r="256" spans="1:6" outlineLevel="1">
       <c r="A256" s="32">
         <v>18</v>
       </c>
-      <c r="B256" s="33"/>
-      <c r="C256" s="33"/>
-      <c r="D256" s="33"/>
-      <c r="E256" s="33"/>
-      <c r="F256" s="34" t="str">
+      <c r="B256" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/e8616f2100032dba9e0013a3fa47306b494665","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C256" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D256" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E256" s="33">
+        <v>600</v>
+      </c>
+      <c r="F256" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>697.67</v>
       </c>
     </row>
     <row r="257" spans="1:6" outlineLevel="1">
       <c r="A257" s="32">
         <v>18</v>
       </c>
-      <c r="B257" s="33"/>
-      <c r="C257" s="33"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="33"/>
-      <c r="F257" s="34" t="str">
+      <c r="B257" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/0328579500097fb8420013a3fa6a313057716e","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C257" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D257" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E257" s="33">
+        <v>600</v>
+      </c>
+      <c r="F257" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>697.67</v>
       </c>
     </row>
     <row r="258" spans="1:6" outlineLevel="1">
       <c r="A258" s="32">
         <v>18</v>
       </c>
-      <c r="B258" s="33"/>
-      <c r="C258" s="33"/>
-      <c r="D258" s="33"/>
-      <c r="E258" s="33"/>
-      <c r="F258" s="34" t="str">
+      <c r="B258" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/644b8d3d000358e4360013a3fa534d41396e48","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C258" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D258" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E258" s="33">
+        <v>550</v>
+      </c>
+      <c r="F258" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>639.53</v>
       </c>
     </row>
     <row r="259" spans="1:6" outlineLevel="1">
@@ -29551,8 +30769,8 @@
         <v>18</v>
       </c>
       <c r="B267" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50654810","ООО Фулун")</f>
-        <v>ООО Фулун</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50786904","ООО Деним-Джинс")</f>
+        <v>ООО Деним-Джинс</v>
       </c>
       <c r="C267" s="33" t="s">
         <v>736</v>
@@ -29573,74 +30791,74 @@
         <v>18</v>
       </c>
       <c r="B268" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50739590","ООО Еспортс Арена")</f>
+        <v>ООО Еспортс Арена</v>
+      </c>
+      <c r="C268" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D268" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E268" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F268" s="34">
+        <f t="shared" si="8"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" outlineLevel="1">
+      <c r="A269" s="32">
+        <v>18</v>
+      </c>
+      <c r="B269" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50633119","ООО Кофечино")</f>
+        <v>ООО Кофечино</v>
+      </c>
+      <c r="C269" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D269" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E269" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F269" s="34">
+        <f t="shared" si="8"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" outlineLevel="1">
+      <c r="A270" s="32">
+        <v>18</v>
+      </c>
+      <c r="B270" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/50202999","ООО Еда с умом")</f>
         <v>ООО Еда с умом</v>
       </c>
-      <c r="C268" s="33" t="s">
+      <c r="C270" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="D268" s="33" t="s">
+      <c r="D270" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E268" s="33">
+      <c r="E270" s="33">
         <v>2000</v>
       </c>
-      <c r="F268" s="34">
+      <c r="F270" s="34">
         <f t="shared" si="8"/>
         <v>2325.58</v>
       </c>
     </row>
-    <row r="269" spans="1:6" outlineLevel="1">
-      <c r="A269" s="32">
-        <v>18</v>
-      </c>
-      <c r="B269" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50477491","Терра пицца")</f>
-        <v>Терра пицца</v>
-      </c>
-      <c r="C269" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D269" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E269" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F269" s="34">
-        <f t="shared" si="8"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" outlineLevel="1">
-      <c r="A270" s="32">
-        <v>18</v>
-      </c>
-      <c r="B270" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50238589","ООО Норте Рокс")</f>
-        <v>ООО Норте Рокс</v>
-      </c>
-      <c r="C270" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D270" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E270" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F270" s="34">
-        <f t="shared" si="8"/>
-        <v>1162.79</v>
-      </c>
-    </row>
     <row r="271" spans="1:6" outlineLevel="1">
       <c r="A271" s="32">
         <v>18</v>
       </c>
       <c r="B271" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50235298","ООО ПараграфЦентр")</f>
-        <v>ООО ПараграфЦентр</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/46638806","Опен Трэйд")</f>
+        <v>Опен Трэйд</v>
       </c>
       <c r="C271" s="33" t="s">
         <v>736</v>
@@ -29661,8 +30879,8 @@
         <v>18</v>
       </c>
       <c r="B272" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50397204","ООО Спортюнион-Трейдинг / Ресторан-кондитерская ODI")</f>
-        <v>ООО Спортюнион-Трейдинг / Ресторан-кондитерская ODI</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50291126","ООО Дубровская чистая вода")</f>
+        <v>ООО Дубровская чистая вода</v>
       </c>
       <c r="C272" s="33" t="s">
         <v>736</v>
@@ -29671,11 +30889,11 @@
         <v>723</v>
       </c>
       <c r="E272" s="33">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="F272" s="34">
         <f t="shared" si="8"/>
-        <v>1176.74</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="273" spans="1:6" outlineLevel="1">
@@ -29683,8 +30901,8 @@
         <v>18</v>
       </c>
       <c r="B273" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/42959139","GARAGE")</f>
-        <v>GARAGE</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50635309","ООО Гинерион")</f>
+        <v>ООО Гинерион</v>
       </c>
       <c r="C273" s="33" t="s">
         <v>736</v>
@@ -29693,11 +30911,11 @@
         <v>723</v>
       </c>
       <c r="E273" s="33">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F273" s="34">
         <f t="shared" si="8"/>
-        <v>1162.79</v>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="274" spans="1:6" outlineLevel="1">
@@ -29705,8 +30923,8 @@
         <v>18</v>
       </c>
       <c r="B274" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50731971","ООО Нефть сити")</f>
-        <v>ООО Нефть сити</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50235298","ООО ПараграфЦентр")</f>
+        <v>ООО ПараграфЦентр</v>
       </c>
       <c r="C274" s="33" t="s">
         <v>736</v>
@@ -29715,11 +30933,11 @@
         <v>723</v>
       </c>
       <c r="E274" s="33">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="F274" s="34">
         <f t="shared" si="8"/>
-        <v>2674.42</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="275" spans="1:6" outlineLevel="1">
@@ -29727,8 +30945,8 @@
         <v>18</v>
       </c>
       <c r="B275" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49620562","Опен Трэйд")</f>
-        <v>Опен Трэйд</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50263375","ООО АВАСЕТ")</f>
+        <v>ООО АВАСЕТ</v>
       </c>
       <c r="C275" s="33" t="s">
         <v>736</v>
@@ -29737,11 +30955,11 @@
         <v>723</v>
       </c>
       <c r="E275" s="33">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="F275" s="34">
         <f t="shared" si="8"/>
-        <v>1976.74</v>
+        <v>581.4</v>
       </c>
     </row>
     <row r="276" spans="1:6" outlineLevel="1">
@@ -29749,8 +30967,8 @@
         <v>18</v>
       </c>
       <c r="B276" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50258098","ОДО Керида")</f>
-        <v>ОДО Керида</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50477491","Терра пицца")</f>
+        <v>Терра пицца</v>
       </c>
       <c r="C276" s="33" t="s">
         <v>736</v>
@@ -29759,11 +30977,11 @@
         <v>723</v>
       </c>
       <c r="E276" s="33">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F276" s="34">
         <f t="shared" si="8"/>
-        <v>930.23</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="277" spans="1:6" outlineLevel="1">
@@ -29771,8 +30989,8 @@
         <v>18</v>
       </c>
       <c r="B277" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/46638806","Опен Трэйд")</f>
-        <v>Опен Трэйд</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50779693","ООО СеАл Монолит")</f>
+        <v>ООО СеАл Монолит</v>
       </c>
       <c r="C277" s="33" t="s">
         <v>736</v>
@@ -29793,8 +31011,8 @@
         <v>18</v>
       </c>
       <c r="B278" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50633119","ООО Кофечино")</f>
-        <v>ООО Кофечино</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50786474","ООО Савана-Спорт Трейдинг")</f>
+        <v>ООО Савана-Спорт Трейдинг</v>
       </c>
       <c r="C278" s="33" t="s">
         <v>736</v>
@@ -29803,11 +31021,11 @@
         <v>723</v>
       </c>
       <c r="E278" s="33">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F278" s="34">
         <f t="shared" si="8"/>
-        <v>1395.35</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="279" spans="1:6" outlineLevel="1">
@@ -29815,118 +31033,118 @@
         <v>18</v>
       </c>
       <c r="B279" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50397204","ООО Спортюнион-Трейдинг / Ресторан-кондитерская ODI")</f>
+        <v>ООО Спортюнион-Трейдинг / Ресторан-кондитерская ODI</v>
+      </c>
+      <c r="C279" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D279" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E279" s="33">
+        <v>975</v>
+      </c>
+      <c r="F279" s="34">
+        <f t="shared" si="8"/>
+        <v>1133.72</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" outlineLevel="1">
+      <c r="A280" s="32">
+        <v>18</v>
+      </c>
+      <c r="B280" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50782394","Ресторан-пивоварня ДРУЗЬЯ")</f>
+        <v>Ресторан-пивоварня ДРУЗЬЯ</v>
+      </c>
+      <c r="C280" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D280" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E280" s="33">
+        <v>650</v>
+      </c>
+      <c r="F280" s="34">
+        <f t="shared" si="8"/>
+        <v>755.81</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" outlineLevel="1">
+      <c r="A281" s="32">
+        <v>18</v>
+      </c>
+      <c r="B281" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50238589","ООО Норте Рокс")</f>
+        <v>ООО Норте Рокс</v>
+      </c>
+      <c r="C281" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D281" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E281" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F281" s="34">
+        <f t="shared" si="8"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" outlineLevel="1">
+      <c r="A282" s="32">
+        <v>18</v>
+      </c>
+      <c r="B282" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49979181","ООО СИСТЕМЫ ИНВЕСТИЦИЙ И ИННОВАЦИЙ ПЛЮС")</f>
+        <v>ООО СИСТЕМЫ ИНВЕСТИЦИЙ И ИННОВАЦИЙ ПЛЮС</v>
+      </c>
+      <c r="C282" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D282" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E282" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F282" s="34">
+        <f t="shared" si="8"/>
+        <v>1511.63</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" outlineLevel="1">
+      <c r="A283" s="32">
+        <v>18</v>
+      </c>
+      <c r="B283" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/50209900","ГОСТИНИЦА ПЕКИН-МИНСК")</f>
         <v>ГОСТИНИЦА ПЕКИН-МИНСК</v>
       </c>
-      <c r="C279" s="33" t="s">
+      <c r="C283" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="D279" s="33" t="s">
+      <c r="D283" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E279" s="33">
+      <c r="E283" s="33">
         <v>800</v>
       </c>
-      <c r="F279" s="34">
+      <c r="F283" s="34">
         <f t="shared" si="8"/>
         <v>930.23</v>
       </c>
     </row>
-    <row r="280" spans="1:6" outlineLevel="1">
-      <c r="A280" s="32">
-        <v>18</v>
-      </c>
-      <c r="B280" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50291126","ООО Дубровская чистая вода")</f>
-        <v>ООО Дубровская чистая вода</v>
-      </c>
-      <c r="C280" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D280" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E280" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F280" s="34">
-        <f t="shared" si="8"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" outlineLevel="1">
-      <c r="A281" s="32">
-        <v>18</v>
-      </c>
-      <c r="B281" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50635309","ООО Гинерион")</f>
-        <v>ООО Гинерион</v>
-      </c>
-      <c r="C281" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D281" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E281" s="33">
-        <v>900</v>
-      </c>
-      <c r="F281" s="34">
-        <f t="shared" si="8"/>
-        <v>1046.51</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" outlineLevel="1">
-      <c r="A282" s="32">
-        <v>18</v>
-      </c>
-      <c r="B282" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50655105","ООО БаркасГейм")</f>
-        <v>ООО БаркасГейм</v>
-      </c>
-      <c r="C282" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D282" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E282" s="33">
-        <v>1250</v>
-      </c>
-      <c r="F282" s="34">
-        <f t="shared" si="8"/>
-        <v>1453.49</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" outlineLevel="1">
-      <c r="A283" s="32">
-        <v>18</v>
-      </c>
-      <c r="B283" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49979181","ООО СИСТЕМЫ ИНВЕСТИЦИЙ И ИННОВАЦИЙ ПЛЮС")</f>
-        <v>ООО СИСТЕМЫ ИНВЕСТИЦИЙ И ИННОВАЦИЙ ПЛЮС</v>
-      </c>
-      <c r="C283" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D283" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E283" s="33">
-        <v>1300</v>
-      </c>
-      <c r="F283" s="34">
-        <f t="shared" si="8"/>
-        <v>1511.63</v>
-      </c>
-    </row>
     <row r="284" spans="1:6" outlineLevel="1">
       <c r="A284" s="32">
         <v>18</v>
       </c>
       <c r="B284" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50144931","Папа Джонс/ООО Кондитерская №4")</f>
-        <v>Папа Джонс/ООО Кондитерская №4</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50296076","ООО РайтКонсалт")</f>
+        <v>ООО РайтКонсалт</v>
       </c>
       <c r="C284" s="33" t="s">
         <v>736</v>
@@ -29935,11 +31153,11 @@
         <v>723</v>
       </c>
       <c r="E284" s="33">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F284" s="34">
         <f t="shared" si="8"/>
-        <v>581.4</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="285" spans="1:6" outlineLevel="1">
@@ -29947,8 +31165,8 @@
         <v>18</v>
       </c>
       <c r="B285" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50572198","Отель Европа")</f>
-        <v>Отель Европа</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50731971","ООО Нефть сити")</f>
+        <v>ООО Нефть сити</v>
       </c>
       <c r="C285" s="33" t="s">
         <v>736</v>
@@ -29957,11 +31175,11 @@
         <v>723</v>
       </c>
       <c r="E285" s="33">
-        <v>850</v>
+        <v>2300</v>
       </c>
       <c r="F285" s="34">
         <f t="shared" si="8"/>
-        <v>988.37</v>
+        <v>2674.42</v>
       </c>
     </row>
     <row r="286" spans="1:6" outlineLevel="1">
@@ -29969,8 +31187,8 @@
         <v>18</v>
       </c>
       <c r="B286" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50584013","Экоотель Кветки яблыни")</f>
-        <v>Экоотель Кветки яблыни</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50781240","Папа Джонс/ООО Кондитерская №4")</f>
+        <v>Папа Джонс/ООО Кондитерская №4</v>
       </c>
       <c r="C286" s="33" t="s">
         <v>736</v>
@@ -29979,11 +31197,11 @@
         <v>723</v>
       </c>
       <c r="E286" s="33">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F286" s="34">
         <f t="shared" si="8"/>
-        <v>1744.19</v>
+        <v>581.4</v>
       </c>
     </row>
     <row r="287" spans="1:6" outlineLevel="1">
@@ -29991,8 +31209,8 @@
         <v>18</v>
       </c>
       <c r="B287" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50296076","ООО РайтКонсалт")</f>
-        <v>ООО РайтКонсалт</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50766533","ООО Грузинбай")</f>
+        <v>ООО Грузинбай</v>
       </c>
       <c r="C287" s="33" t="s">
         <v>736</v>
@@ -30013,8 +31231,8 @@
         <v>18</v>
       </c>
       <c r="B288" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/47021325","Синезис")</f>
-        <v>Синезис</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/42959139","GARAGE")</f>
+        <v>GARAGE</v>
       </c>
       <c r="C288" s="33" t="s">
         <v>736</v>
@@ -30023,11 +31241,11 @@
         <v>723</v>
       </c>
       <c r="E288" s="33">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F288" s="34">
         <f t="shared" si="8"/>
-        <v>1511.63</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="289" spans="1:6" outlineLevel="1">
@@ -30035,8 +31253,8 @@
         <v>18</v>
       </c>
       <c r="B289" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50533384","ООО Азия Мол")</f>
-        <v>ООО Азия Мол</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50655105","ООО БаркасГейм")</f>
+        <v>ООО БаркасГейм</v>
       </c>
       <c r="C289" s="33" t="s">
         <v>736</v>
@@ -30045,11 +31263,11 @@
         <v>723</v>
       </c>
       <c r="E289" s="33">
-        <v>450</v>
+        <v>1250</v>
       </c>
       <c r="F289" s="34">
         <f t="shared" si="8"/>
-        <v>523.26</v>
+        <v>1453.49</v>
       </c>
     </row>
     <row r="290" spans="1:6" outlineLevel="1">
@@ -30057,118 +31275,118 @@
         <v>18</v>
       </c>
       <c r="B290" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50654810","ООО Фулун")</f>
+        <v>ООО Фулун</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D290" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E290" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F290" s="34">
+        <f t="shared" si="8"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" outlineLevel="1">
+      <c r="A291" s="32">
+        <v>18</v>
+      </c>
+      <c r="B291" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50258098","ОДО Керида")</f>
+        <v>ОДО Керида</v>
+      </c>
+      <c r="C291" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D291" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E291" s="33">
+        <v>800</v>
+      </c>
+      <c r="F291" s="34">
+        <f t="shared" si="8"/>
+        <v>930.23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" outlineLevel="1">
+      <c r="A292" s="32">
+        <v>18</v>
+      </c>
+      <c r="B292" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/47713062","КОРОНА, ЗАМОК Торговые центры")</f>
+        <v>КОРОНА, ЗАМОК Торговые центры</v>
+      </c>
+      <c r="C292" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D292" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E292" s="33">
+        <v>870</v>
+      </c>
+      <c r="F292" s="34">
+        <f t="shared" si="8"/>
+        <v>1011.63</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" outlineLevel="1">
+      <c r="A293" s="32">
+        <v>18</v>
+      </c>
+      <c r="B293" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/50487698","Shangri La")</f>
         <v>Shangri La</v>
       </c>
-      <c r="C290" s="33" t="s">
+      <c r="C293" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="D290" s="33" t="s">
+      <c r="D293" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E290" s="33">
+      <c r="E293" s="33">
         <v>800</v>
       </c>
-      <c r="F290" s="34">
+      <c r="F293" s="34">
         <f t="shared" si="8"/>
         <v>930.23</v>
       </c>
     </row>
-    <row r="291" spans="1:6" outlineLevel="1">
-      <c r="A291" s="32">
-        <v>18</v>
-      </c>
-      <c r="B291" s="44" t="str">
+    <row r="294" spans="1:6" outlineLevel="1">
+      <c r="A294" s="32">
+        <v>18</v>
+      </c>
+      <c r="B294" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/50482458","ОАО Ресторан Арбат")</f>
         <v>ОАО Ресторан Арбат</v>
       </c>
-      <c r="C291" s="33" t="s">
+      <c r="C294" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="D291" s="33" t="s">
+      <c r="D294" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E291" s="33">
+      <c r="E294" s="33">
         <v>700</v>
       </c>
-      <c r="F291" s="34">
+      <c r="F294" s="34">
         <f t="shared" si="8"/>
         <v>813.95</v>
       </c>
     </row>
-    <row r="292" spans="1:6" outlineLevel="1">
-      <c r="A292" s="32">
-        <v>18</v>
-      </c>
-      <c r="B292" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50372245","Tifani")</f>
-        <v>Tifani</v>
-      </c>
-      <c r="C292" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D292" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E292" s="33">
-        <v>1200</v>
-      </c>
-      <c r="F292" s="34">
-        <f t="shared" si="8"/>
-        <v>1395.35</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" outlineLevel="1">
-      <c r="A293" s="32">
-        <v>18</v>
-      </c>
-      <c r="B293" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50392134","ООО Эдшон")</f>
-        <v>ООО Эдшон</v>
-      </c>
-      <c r="C293" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D293" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E293" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F293" s="34">
-        <f t="shared" si="8"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" outlineLevel="1">
-      <c r="A294" s="32">
-        <v>18</v>
-      </c>
-      <c r="B294" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50223553","Спортингклаб")</f>
-        <v>Спортингклаб</v>
-      </c>
-      <c r="C294" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D294" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E294" s="33">
-        <v>2000</v>
-      </c>
-      <c r="F294" s="34">
-        <f t="shared" si="8"/>
-        <v>2325.58</v>
-      </c>
-    </row>
     <row r="295" spans="1:6" outlineLevel="1">
       <c r="A295" s="32">
         <v>18</v>
       </c>
       <c r="B295" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50242098","ООО БаркасГейм")</f>
-        <v>ООО БаркасГейм</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50584013","Экоотель Кветки яблыни")</f>
+        <v>Экоотель Кветки яблыни</v>
       </c>
       <c r="C295" s="33" t="s">
         <v>736</v>
@@ -30177,11 +31395,11 @@
         <v>723</v>
       </c>
       <c r="E295" s="33">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="F295" s="34">
         <f t="shared" si="8"/>
-        <v>1453.49</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="296" spans="1:6" outlineLevel="1">
@@ -30189,8 +31407,8 @@
         <v>18</v>
       </c>
       <c r="B296" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50133482","СООО Шондра / Боулинг-центр MADISON")</f>
-        <v>СООО Шондра / Боулинг-центр MADISON</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50572198","Отель Европа")</f>
+        <v>Отель Европа</v>
       </c>
       <c r="C296" s="33" t="s">
         <v>736</v>
@@ -30199,11 +31417,11 @@
         <v>723</v>
       </c>
       <c r="E296" s="33">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="F296" s="34">
         <f t="shared" si="8"/>
-        <v>959.3</v>
+        <v>988.37</v>
       </c>
     </row>
     <row r="297" spans="1:6" outlineLevel="1">
@@ -30211,7 +31429,7 @@
         <v>18</v>
       </c>
       <c r="B297" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/5196c5df00085cc6a80013a3fa5737514d3231","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/c490458800076476b70013a3fa346848393868","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C297" s="33" t="s">
@@ -30221,388 +31439,649 @@
         <v>721</v>
       </c>
       <c r="E297" s="33">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="F297" s="34">
         <f t="shared" si="8"/>
-        <v>9302.33</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="298" spans="1:6" outlineLevel="1">
       <c r="A298" s="32">
         <v>18</v>
       </c>
-      <c r="B298" s="33"/>
-      <c r="C298" s="33"/>
-      <c r="D298" s="33"/>
-      <c r="E298" s="33"/>
-      <c r="F298" s="34" t="str">
+      <c r="B298" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/8bd2dd410001cf373c0013a3fa74686c793664","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C298" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D298" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E298" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F298" s="34">
         <f t="shared" si="8"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="299" spans="1:6" outlineLevel="1">
       <c r="A299" s="32">
         <v>18</v>
       </c>
-      <c r="B299" s="33"/>
-      <c r="C299" s="33"/>
-      <c r="D299" s="33"/>
-      <c r="E299" s="33"/>
-      <c r="F299" s="34" t="str">
+      <c r="B299" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/47554f4000096547850013a3fa38506b4f4775","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C299" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D299" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E299" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F299" s="34">
         <f t="shared" ref="F299:F326" si="9">IF(ROUND(E299/$K$11,2)&gt;0,ROUND(E299/$K$11,2),"")</f>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="300" spans="1:6" outlineLevel="1">
       <c r="A300" s="32">
         <v>18</v>
       </c>
-      <c r="B300" s="33"/>
-      <c r="C300" s="33"/>
-      <c r="D300" s="33"/>
-      <c r="E300" s="33"/>
-      <c r="F300" s="34" t="str">
+      <c r="B300" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/78c57b63000809196b0013a3fa584f7a454979","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C300" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D300" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E300" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F300" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="301" spans="1:6" outlineLevel="1">
       <c r="A301" s="32">
         <v>18</v>
       </c>
-      <c r="B301" s="33"/>
-      <c r="C301" s="33"/>
-      <c r="D301" s="33"/>
-      <c r="E301" s="33"/>
-      <c r="F301" s="34" t="str">
+      <c r="B301" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/d05b170000038f39f60013a3fa304d5346766a","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C301" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D301" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E301" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F301" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="302" spans="1:6" outlineLevel="1">
       <c r="A302" s="32">
         <v>18</v>
       </c>
-      <c r="B302" s="33"/>
-      <c r="C302" s="33"/>
-      <c r="D302" s="33"/>
-      <c r="E302" s="33"/>
-      <c r="F302" s="34" t="str">
+      <c r="B302" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/20b0a66e00097b46b60013a3fa6c4b74727753","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C302" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D302" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E302" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F302" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="303" spans="1:6" outlineLevel="1">
       <c r="A303" s="32">
         <v>18</v>
       </c>
-      <c r="B303" s="33"/>
-      <c r="C303" s="33"/>
-      <c r="D303" s="33"/>
-      <c r="E303" s="33"/>
-      <c r="F303" s="34" t="str">
+      <c r="B303" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/8ddd3738000952f3560013a3fa476833656558","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C303" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D303" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E303" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F303" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="304" spans="1:6" outlineLevel="1">
       <c r="A304" s="32">
         <v>18</v>
       </c>
-      <c r="B304" s="33"/>
-      <c r="C304" s="33"/>
-      <c r="D304" s="33"/>
-      <c r="E304" s="33"/>
-      <c r="F304" s="34" t="str">
+      <c r="B304" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/68d4c6970001c667ec0013a3fa627352683579","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C304" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D304" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E304" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F304" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="305" spans="1:6" outlineLevel="1">
       <c r="A305" s="32">
         <v>18</v>
       </c>
-      <c r="B305" s="33"/>
-      <c r="C305" s="33"/>
-      <c r="D305" s="33"/>
-      <c r="E305" s="33"/>
-      <c r="F305" s="34" t="str">
+      <c r="B305" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/a5afc04100098c2a690013a3fa615949775544","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C305" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D305" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E305" s="33">
+        <v>1100</v>
+      </c>
+      <c r="F305" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="306" spans="1:6" outlineLevel="1">
       <c r="A306" s="32">
         <v>18</v>
       </c>
-      <c r="B306" s="33"/>
-      <c r="C306" s="33"/>
-      <c r="D306" s="33"/>
-      <c r="E306" s="33"/>
-      <c r="F306" s="34" t="str">
+      <c r="B306" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/c753abfb00092dde2c0013a3fa524552705273","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C306" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D306" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E306" s="33">
+        <v>1100</v>
+      </c>
+      <c r="F306" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="307" spans="1:6" outlineLevel="1">
       <c r="A307" s="32">
         <v>18</v>
       </c>
-      <c r="B307" s="33"/>
-      <c r="C307" s="33"/>
-      <c r="D307" s="33"/>
-      <c r="E307" s="33"/>
-      <c r="F307" s="34" t="str">
+      <c r="B307" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/df1029a10008d141bb0013a3fa43577a775971","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C307" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D307" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E307" s="33">
+        <v>800</v>
+      </c>
+      <c r="F307" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="308" spans="1:6" outlineLevel="1">
       <c r="A308" s="32">
         <v>18</v>
       </c>
-      <c r="B308" s="33"/>
-      <c r="C308" s="33"/>
-      <c r="D308" s="33"/>
-      <c r="E308" s="33"/>
-      <c r="F308" s="34" t="str">
+      <c r="B308" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/7df3865800084e51590013a3fa344c584a5657","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C308" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D308" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E308" s="33">
+        <v>800</v>
+      </c>
+      <c r="F308" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="309" spans="1:6" outlineLevel="1">
       <c r="A309" s="32">
         <v>18</v>
       </c>
-      <c r="B309" s="33"/>
-      <c r="C309" s="33"/>
-      <c r="D309" s="33"/>
-      <c r="E309" s="33"/>
-      <c r="F309" s="34" t="str">
+      <c r="B309" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/b1b576b30009856fe90013a3fa39516c597132","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C309" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D309" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E309" s="33">
+        <v>800</v>
+      </c>
+      <c r="F309" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="310" spans="1:6" outlineLevel="1">
       <c r="A310" s="32">
         <v>18</v>
       </c>
-      <c r="B310" s="33"/>
-      <c r="C310" s="33"/>
-      <c r="D310" s="33"/>
-      <c r="E310" s="33"/>
-      <c r="F310" s="34" t="str">
+      <c r="B310" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/e6d8815c0002aeeec00013a3fa327a70415446","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C310" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D310" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E310" s="33">
+        <v>800</v>
+      </c>
+      <c r="F310" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="311" spans="1:6" outlineLevel="1">
       <c r="A311" s="32">
         <v>18</v>
       </c>
-      <c r="B311" s="33"/>
-      <c r="C311" s="33"/>
-      <c r="D311" s="33"/>
-      <c r="E311" s="33"/>
-      <c r="F311" s="34" t="str">
+      <c r="B311" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/07fbedcd00081451800013a3fa636a5977527a","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C311" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D311" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E311" s="33">
+        <v>800</v>
+      </c>
+      <c r="F311" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="312" spans="1:6" outlineLevel="1">
       <c r="A312" s="32">
         <v>18</v>
       </c>
-      <c r="B312" s="33"/>
-      <c r="C312" s="33"/>
-      <c r="D312" s="33"/>
-      <c r="E312" s="33"/>
-      <c r="F312" s="34" t="str">
+      <c r="B312" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/393bb41c00051329190013a3fa366f6e573732","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C312" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D312" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E312" s="33">
+        <v>800</v>
+      </c>
+      <c r="F312" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="313" spans="1:6" outlineLevel="1">
       <c r="A313" s="32">
         <v>18</v>
       </c>
-      <c r="B313" s="33"/>
-      <c r="C313" s="33"/>
-      <c r="D313" s="33"/>
-      <c r="E313" s="33"/>
-      <c r="F313" s="34" t="str">
+      <c r="B313" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/00724c33000585f3400013a3fa307867554f67","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C313" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D313" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E313" s="33">
+        <v>800</v>
+      </c>
+      <c r="F313" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="314" spans="1:6" outlineLevel="1">
       <c r="A314" s="32">
         <v>18</v>
       </c>
-      <c r="B314" s="33"/>
-      <c r="C314" s="33"/>
-      <c r="D314" s="33"/>
-      <c r="E314" s="33"/>
-      <c r="F314" s="34" t="str">
+      <c r="B314" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/caabd84c0008212f300013a3fa547635745a78","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C314" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D314" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E314" s="33">
+        <v>800</v>
+      </c>
+      <c r="F314" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="315" spans="1:6" outlineLevel="1">
       <c r="A315" s="32">
         <v>18</v>
       </c>
-      <c r="B315" s="33"/>
-      <c r="C315" s="33"/>
-      <c r="D315" s="33"/>
-      <c r="E315" s="33"/>
-      <c r="F315" s="34" t="str">
+      <c r="B315" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/7755f82b0008b89e810013a3fa484455774d42","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C315" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D315" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E315" s="33">
+        <v>800</v>
+      </c>
+      <c r="F315" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="316" spans="1:6" outlineLevel="1">
       <c r="A316" s="32">
         <v>18</v>
       </c>
-      <c r="B316" s="33"/>
-      <c r="C316" s="33"/>
-      <c r="D316" s="33"/>
-      <c r="E316" s="33"/>
-      <c r="F316" s="34" t="str">
+      <c r="B316" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/5fbf693400093307a00013a3fa6f6c5a693359","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C316" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D316" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E316" s="33">
+        <v>800</v>
+      </c>
+      <c r="F316" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="32">
         <v>18</v>
       </c>
-      <c r="B317" s="33"/>
-      <c r="C317" s="33"/>
-      <c r="D317" s="33"/>
-      <c r="E317" s="33"/>
-      <c r="F317" s="34" t="str">
+      <c r="B317" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/0eecc8d300095c14d70013a3fa4c5238454471","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C317" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D317" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E317" s="33">
+        <v>800</v>
+      </c>
+      <c r="F317" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="32">
         <v>18</v>
       </c>
-      <c r="B318" s="33"/>
-      <c r="C318" s="33"/>
-      <c r="D318" s="33"/>
-      <c r="E318" s="33"/>
-      <c r="F318" s="34" t="str">
+      <c r="B318" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/87eb82b400098c6b880013a3fa646c49414278","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C318" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D318" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E318" s="33">
+        <v>500</v>
+      </c>
+      <c r="F318" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>581.4</v>
       </c>
     </row>
     <row r="319" spans="1:6" outlineLevel="1">
       <c r="A319" s="32">
         <v>18</v>
       </c>
-      <c r="B319" s="33"/>
-      <c r="C319" s="33"/>
-      <c r="D319" s="33"/>
-      <c r="E319" s="33"/>
-      <c r="F319" s="34" t="str">
+      <c r="B319" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/b0cd5a41000948c8c70013a3fa3533366f4a6e","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C319" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D319" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E319" s="33">
+        <v>450</v>
+      </c>
+      <c r="F319" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>523.26</v>
       </c>
     </row>
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="32">
         <v>18</v>
       </c>
-      <c r="B320" s="33"/>
-      <c r="C320" s="33"/>
-      <c r="D320" s="33"/>
-      <c r="E320" s="33"/>
-      <c r="F320" s="34" t="str">
+      <c r="B320" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ce83305d00094a41300013a3fa333137353938","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C320" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D320" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E320" s="33">
+        <v>400</v>
+      </c>
+      <c r="F320" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>465.12</v>
       </c>
     </row>
     <row r="321" spans="1:6" outlineLevel="1">
       <c r="A321" s="32">
         <v>18</v>
       </c>
-      <c r="B321" s="33"/>
-      <c r="C321" s="33"/>
-      <c r="D321" s="33"/>
-      <c r="E321" s="33"/>
-      <c r="F321" s="34" t="str">
+      <c r="B321" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/2073ffd000097874720013a3fa61755a705361","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C321" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D321" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E321" s="33">
+        <v>400</v>
+      </c>
+      <c r="F321" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>465.12</v>
       </c>
     </row>
     <row r="322" spans="1:6" outlineLevel="1">
       <c r="A322" s="32">
         <v>18</v>
       </c>
-      <c r="B322" s="33"/>
-      <c r="C322" s="33"/>
-      <c r="D322" s="33"/>
-      <c r="E322" s="33"/>
-      <c r="F322" s="34" t="str">
+      <c r="B322" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/274ee45c0006ce1e440013a3fa39465646534c","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C322" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D322" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E322" s="33">
+        <v>400</v>
+      </c>
+      <c r="F322" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>465.12</v>
       </c>
     </row>
     <row r="323" spans="1:6" outlineLevel="1">
       <c r="A323" s="32">
         <v>18</v>
       </c>
-      <c r="B323" s="33"/>
-      <c r="C323" s="33"/>
-      <c r="D323" s="33"/>
-      <c r="E323" s="33"/>
-      <c r="F323" s="34" t="str">
+      <c r="B323" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/1d5199770007d5ad420013a3fa334243716771","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C323" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D323" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E323" s="33">
+        <v>400</v>
+      </c>
+      <c r="F323" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>465.12</v>
       </c>
     </row>
     <row r="324" spans="1:6" outlineLevel="1">
       <c r="A324" s="32">
         <v>18</v>
       </c>
-      <c r="B324" s="33"/>
-      <c r="C324" s="33"/>
-      <c r="D324" s="33"/>
-      <c r="E324" s="33"/>
-      <c r="F324" s="34" t="str">
+      <c r="B324" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/31b9db3400042459470013a3fa4b4148553653","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C324" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D324" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E324" s="33">
+        <v>300</v>
+      </c>
+      <c r="F324" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>348.84</v>
       </c>
     </row>
     <row r="325" spans="1:6" outlineLevel="1">
       <c r="A325" s="32">
         <v>18</v>
       </c>
-      <c r="B325" s="33"/>
-      <c r="C325" s="33"/>
-      <c r="D325" s="33"/>
-      <c r="E325" s="33"/>
-      <c r="F325" s="34" t="str">
+      <c r="B325" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/8845464d00095ed2330013a3fa654764694467","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C325" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D325" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E325" s="33">
+        <v>300</v>
+      </c>
+      <c r="F325" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>348.84</v>
       </c>
     </row>
     <row r="326" spans="1:6" outlineLevel="1">
       <c r="A326" s="32">
         <v>18</v>
       </c>
-      <c r="B326" s="33"/>
-      <c r="C326" s="33"/>
-      <c r="D326" s="33"/>
-      <c r="E326" s="33"/>
-      <c r="F326" s="34" t="str">
+      <c r="B326" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/e9961851000942a2210013a3fa506d7574686b","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C326" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D326" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E326" s="33">
+        <v>250</v>
+      </c>
+      <c r="F326" s="34">
         <f t="shared" si="9"/>
-        <v/>
+        <v>290.7</v>
       </c>
     </row>
     <row r="327" spans="1:6">

--- a/Data/Output/18.xlsx
+++ b/Data/Output/18.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="805">
   <si>
     <t>Уровень позиции</t>
   </si>
@@ -25430,7 +25430,8 @@
     <col min="7" max="8" width="2.42578125" style="16" customWidth="1"/>
     <col min="9" max="10" width="8.85546875" style="16"/>
     <col min="11" max="11" width="13.7109375" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="1024" width="8.85546875" style="16"/>
+    <col min="12" max="12" width="8.85546875" style="16" collapsed="1"/>
+    <col min="13" max="1024" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1">
@@ -25535,11 +25536,11 @@
       </c>
       <c r="C12" s="22">
         <f>IFERROR(ROUND(_xlfn.STDEV.S($E:$E),0),"-")</f>
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D12" s="22">
         <f>IFERROR(ROUND(_xlfn.STDEV.S($F:$F),0),"-")</f>
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>721</v>
@@ -25552,11 +25553,11 @@
       </c>
       <c r="C13" s="22">
         <f>IFERROR(ROUND(AVERAGE($E:$E),0),"-")</f>
-        <v>1116</v>
+        <v>1148</v>
       </c>
       <c r="D13" s="22">
         <f>IFERROR(ROUND(AVERAGE($F:$F),0),"-")</f>
-        <v>1298</v>
+        <v>1335</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>723</v>
@@ -25569,11 +25570,11 @@
       </c>
       <c r="C14" s="22">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($E:$E,0.1),0),"-")</f>
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="D14" s="22">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($F:$F,0.1),0),"-")</f>
-        <v>756</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" outlineLevel="1">
@@ -25583,11 +25584,11 @@
       </c>
       <c r="C15" s="22">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($E:$E,1),0),"-")</f>
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="D15" s="22">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($F:$F,1),0),"-")</f>
-        <v>930</v>
+        <v>988</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" outlineLevel="1">
@@ -25597,11 +25598,11 @@
       </c>
       <c r="C16" s="22">
         <f>IFERROR(ROUND(MEDIAN($E:$E),0),"-")</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D16" s="22">
         <f>IFERROR(ROUND(MEDIAN($F:$F),0),"-")</f>
-        <v>1163</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" outlineLevel="1">
@@ -25611,11 +25612,11 @@
       </c>
       <c r="C17" s="22">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($E:$E,3),0),"-")</f>
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="D17" s="22">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($F:$F,3),0),"-")</f>
-        <v>1512</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1" outlineLevel="1">
@@ -25625,11 +25626,11 @@
       </c>
       <c r="C18" s="22">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($E:$E,0.9),0),"-")</f>
-        <v>1570</v>
+        <v>1600</v>
       </c>
       <c r="D18" s="22">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($F:$F,0.9),0),"-")</f>
-        <v>1826</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1" outlineLevel="1">
@@ -25648,7 +25649,7 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6" s="28" customFormat="1" ht="31.9" customHeight="1">
+    <row r="21" spans="1:6" s="28" customFormat="1" ht="31.9" customHeight="1" collapsed="1">
       <c r="A21" s="27" t="s">
         <v>0</v>
       </c>
@@ -25683,404 +25684,404 @@
         <v>18</v>
       </c>
       <c r="B23" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51689598","ЕВРООПТ")</f>
+        <v>ЕВРООПТ</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E23" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F23" s="34">
+        <f t="shared" ref="F23:F54" si="0">IF(ROUND(E23/$K$11,2)&gt;0,ROUND(E23/$K$11,2),"")</f>
+        <v>1627.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" outlineLevel="1">
+      <c r="A24" s="32">
+        <v>18</v>
+      </c>
+      <c r="B24" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50932831","ООО Евросторе")</f>
+        <v>ООО Евросторе</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E24" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F24" s="34">
+        <f t="shared" si="0"/>
+        <v>1511.63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" outlineLevel="1">
+      <c r="A25" s="32">
+        <v>18</v>
+      </c>
+      <c r="B25" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51078148","ООО Биомельница")</f>
+        <v>ООО Биомельница</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E25" s="33">
+        <v>750</v>
+      </c>
+      <c r="F25" s="34">
+        <f t="shared" si="0"/>
+        <v>872.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" outlineLevel="1">
+      <c r="A26" s="32">
+        <v>18</v>
+      </c>
+      <c r="B26" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51648336","ООО Санта Ритейл")</f>
+        <v>ООО Санта Ритейл</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E26" s="33">
+        <v>1055</v>
+      </c>
+      <c r="F26" s="34">
+        <f t="shared" si="0"/>
+        <v>1226.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" outlineLevel="1">
+      <c r="A27" s="32">
+        <v>18</v>
+      </c>
+      <c r="B27" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/19835113","ГРИНрозница ГК РАПА")</f>
+        <v>ГРИНрозница ГК РАПА</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E27" s="33">
+        <v>1600</v>
+      </c>
+      <c r="F27" s="34">
+        <f t="shared" si="0"/>
+        <v>1860.47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" outlineLevel="1">
+      <c r="A28" s="32">
+        <v>18</v>
+      </c>
+      <c r="B28" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/36904471","КОРОНА, ЗАМОК Торговые центры")</f>
+        <v>КОРОНА, ЗАМОК Торговые центры</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E28" s="33">
+        <v>1088</v>
+      </c>
+      <c r="F28" s="34">
+        <f t="shared" si="0"/>
+        <v>1265.1199999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" outlineLevel="1">
+      <c r="A29" s="32">
+        <v>18</v>
+      </c>
+      <c r="B29" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/45645616","ProStore")</f>
+        <v>ProStore</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E29" s="33">
+        <v>1050</v>
+      </c>
+      <c r="F29" s="34">
+        <f t="shared" si="0"/>
+        <v>1220.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" outlineLevel="1">
+      <c r="A30" s="32">
+        <v>18</v>
+      </c>
+      <c r="B30" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/46838266","ЗАО Доброном")</f>
+        <v>ЗАО Доброном</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E30" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F30" s="34">
+        <f t="shared" si="0"/>
+        <v>1627.91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" outlineLevel="1">
+      <c r="A31" s="32">
+        <v>18</v>
+      </c>
+      <c r="B31" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/26691247","ОДО Виталюр")</f>
+        <v>ОДО Виталюр</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E31" s="33">
+        <v>1140</v>
+      </c>
+      <c r="F31" s="34">
+        <f t="shared" si="0"/>
+        <v>1325.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" outlineLevel="1">
+      <c r="A32" s="32">
+        <v>18</v>
+      </c>
+      <c r="B32" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50794552","БЕЛМАРКЕТ")</f>
+        <v>БЕЛМАРКЕТ</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E32" s="33">
+        <v>900</v>
+      </c>
+      <c r="F32" s="34">
+        <f t="shared" si="0"/>
+        <v>1046.51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" outlineLevel="1">
+      <c r="A33" s="32">
+        <v>18</v>
+      </c>
+      <c r="B33" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/42492912","СОСЕДИ, Сеть магазинов")</f>
         <v>СОСЕДИ, Сеть магазинов</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C33" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D33" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E33" s="33">
         <v>1170</v>
       </c>
-      <c r="F23" s="34">
-        <f t="shared" ref="F23:F54" si="0">IF(ROUND(E23/$K$11,2)&gt;0,ROUND(E23/$K$11,2),"")</f>
+      <c r="F33" s="34">
+        <f t="shared" si="0"/>
         <v>1360.47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" outlineLevel="1">
-      <c r="A24" s="32">
-        <v>18</v>
-      </c>
-      <c r="B24" s="44" t="str">
+    <row r="34" spans="1:6" outlineLevel="1">
+      <c r="A34" s="32">
+        <v>18</v>
+      </c>
+      <c r="B34" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51184864","ООО Завод Бульбашъ")</f>
+        <v>ООО Завод Бульбашъ</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E34" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F34" s="34">
+        <f t="shared" si="0"/>
+        <v>1511.63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" outlineLevel="1">
+      <c r="A35" s="32">
+        <v>18</v>
+      </c>
+      <c r="B35" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50939463","ООО Джон Дори")</f>
+        <v>ООО Джон Дори</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E35" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F35" s="34">
+        <f t="shared" si="0"/>
+        <v>1627.91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" outlineLevel="1">
+      <c r="A36" s="32">
+        <v>18</v>
+      </c>
+      <c r="B36" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49490034","ООО Ресттрэйд / Дионис")</f>
+        <v>ООО Ресттрэйд / Дионис</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E36" s="33">
+        <v>1100</v>
+      </c>
+      <c r="F36" s="34">
+        <f t="shared" si="0"/>
+        <v>1279.07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" outlineLevel="1">
+      <c r="A37" s="32">
+        <v>18</v>
+      </c>
+      <c r="B37" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/52020790","ОАО Кондитерская фабрика Слодыч")</f>
+        <v>ОАО Кондитерская фабрика Слодыч</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E37" s="33">
+        <v>1150</v>
+      </c>
+      <c r="F37" s="34">
+        <f t="shared" si="0"/>
+        <v>1337.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" outlineLevel="1">
+      <c r="A38" s="32">
+        <v>18</v>
+      </c>
+      <c r="B38" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/43643939","Белвингрупп")</f>
         <v>Белвингрупп</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C38" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D38" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E38" s="33">
         <v>1280</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F38" s="34">
         <f t="shared" si="0"/>
         <v>1488.37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" outlineLevel="1">
-      <c r="A25" s="32">
-        <v>18</v>
-      </c>
-      <c r="B25" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49126969","ООО Дапторрес")</f>
-        <v>ООО Дапторрес</v>
-      </c>
-      <c r="C25" s="33" t="s">
+    <row r="39" spans="1:6" outlineLevel="1">
+      <c r="A39" s="32">
+        <v>18</v>
+      </c>
+      <c r="B39" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51988013","ООО Антей-Вайт")</f>
+        <v>ООО Антей-Вайт</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D39" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E25" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="34">
+      <c r="E39" s="33">
+        <v>800</v>
+      </c>
+      <c r="F39" s="34">
         <f t="shared" si="0"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" outlineLevel="1">
-      <c r="A26" s="32">
-        <v>18</v>
-      </c>
-      <c r="B26" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50781490","ООО Шесть Озер")</f>
-        <v>ООО Шесть Озер</v>
-      </c>
-      <c r="C26" s="33" t="s">
+        <v>930.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" outlineLevel="1">
+      <c r="A40" s="32">
+        <v>18</v>
+      </c>
+      <c r="B40" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51919700","ООО Кендиэплс")</f>
+        <v>ООО Кендиэплс</v>
+      </c>
+      <c r="C40" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D40" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E40" s="33">
         <v>1400</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F40" s="34">
         <f t="shared" si="0"/>
         <v>1627.91</v>
       </c>
     </row>
-    <row r="27" spans="1:6" outlineLevel="1">
-      <c r="A27" s="32">
-        <v>18</v>
-      </c>
-      <c r="B27" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/36904471","КОРОНА, ЗАМОК Торговые центры")</f>
-        <v>КОРОНА, ЗАМОК Торговые центры</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E27" s="33">
-        <v>1088</v>
-      </c>
-      <c r="F27" s="34">
-        <f t="shared" si="0"/>
-        <v>1265.1199999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" outlineLevel="1">
-      <c r="A28" s="32">
-        <v>18</v>
-      </c>
-      <c r="B28" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49848237","SPAR")</f>
-        <v>SPAR</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E28" s="33">
-        <v>1700</v>
-      </c>
-      <c r="F28" s="34">
-        <f t="shared" si="0"/>
-        <v>1976.74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" outlineLevel="1">
-      <c r="A29" s="32">
-        <v>18</v>
-      </c>
-      <c r="B29" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49441448","ООО Евросторе")</f>
-        <v>ООО Евросторе</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E29" s="33">
-        <v>1300</v>
-      </c>
-      <c r="F29" s="34">
-        <f t="shared" si="0"/>
-        <v>1511.63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" outlineLevel="1">
-      <c r="A30" s="32">
-        <v>18</v>
-      </c>
-      <c r="B30" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/45645616","ProStore")</f>
-        <v>ProStore</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E30" s="33">
-        <v>1050</v>
-      </c>
-      <c r="F30" s="34">
-        <f t="shared" si="0"/>
-        <v>1220.93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" outlineLevel="1">
-      <c r="A31" s="32">
-        <v>18</v>
-      </c>
-      <c r="B31" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50694686","ООО Санта Ритейл")</f>
-        <v>ООО Санта Ритейл</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E31" s="33">
-        <v>890</v>
-      </c>
-      <c r="F31" s="34">
-        <f t="shared" si="0"/>
-        <v>1034.8800000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" outlineLevel="1">
-      <c r="A32" s="32">
-        <v>18</v>
-      </c>
-      <c r="B32" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/46838266","ЗАО Доброном")</f>
-        <v>ЗАО Доброном</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E32" s="33">
-        <v>1400</v>
-      </c>
-      <c r="F32" s="34">
-        <f t="shared" si="0"/>
-        <v>1627.91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" outlineLevel="1">
-      <c r="A33" s="32">
-        <v>18</v>
-      </c>
-      <c r="B33" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50794552","БЕЛМАРКЕТ")</f>
-        <v>БЕЛМАРКЕТ</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E33" s="33">
-        <v>900</v>
-      </c>
-      <c r="F33" s="34">
-        <f t="shared" si="0"/>
-        <v>1046.51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" outlineLevel="1">
-      <c r="A34" s="32">
-        <v>18</v>
-      </c>
-      <c r="B34" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50577731","ОДО Виталюр")</f>
-        <v>ОДО Виталюр</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E34" s="33">
-        <v>1140</v>
-      </c>
-      <c r="F34" s="34">
-        <f t="shared" si="0"/>
-        <v>1325.58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" outlineLevel="1">
-      <c r="A35" s="32">
-        <v>18</v>
-      </c>
-      <c r="B35" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/19835113","ГРИНрозница ГК РАПА")</f>
-        <v>ГРИНрозница ГК РАПА</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E35" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F35" s="34">
-        <f t="shared" si="0"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" outlineLevel="1">
-      <c r="A36" s="32">
-        <v>18</v>
-      </c>
-      <c r="B36" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50769119","Серволюкс, Группа компаний")</f>
-        <v>Серволюкс, Группа компаний</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E36" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F36" s="34">
-        <f t="shared" si="0"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" outlineLevel="1">
-      <c r="A37" s="32">
-        <v>18</v>
-      </c>
-      <c r="B37" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50707850","ООО СтафРесурс")</f>
-        <v>ООО СтафРесурс</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E37" s="33">
-        <v>1100</v>
-      </c>
-      <c r="F37" s="34">
-        <f t="shared" si="0"/>
-        <v>1279.07</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" outlineLevel="1">
-      <c r="A38" s="32">
-        <v>18</v>
-      </c>
-      <c r="B38" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50483463","ООО Завод Бульбашъ")</f>
-        <v>ООО Завод Бульбашъ</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E38" s="33">
-        <v>1300</v>
-      </c>
-      <c r="F38" s="34">
-        <f t="shared" si="0"/>
-        <v>1511.63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" outlineLevel="1">
-      <c r="A39" s="32">
-        <v>18</v>
-      </c>
-      <c r="B39" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49490034","ООО Ресттрэйд / Дионис")</f>
-        <v>ООО Ресттрэйд / Дионис</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E39" s="33">
-        <v>1100</v>
-      </c>
-      <c r="F39" s="34">
-        <f t="shared" si="0"/>
-        <v>1279.07</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" outlineLevel="1">
-      <c r="A40" s="32">
-        <v>18</v>
-      </c>
-      <c r="B40" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48744251","ЕВРООПТ")</f>
-        <v>ЕВРООПТ</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E40" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F40" s="34">
-        <f t="shared" si="0"/>
-        <v>1162.79</v>
-      </c>
-    </row>
     <row r="41" spans="1:6" outlineLevel="1">
       <c r="A41" s="32">
         <v>18</v>
       </c>
       <c r="B41" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50525724","ОАО Кондитерская фабрика Слодыч")</f>
-        <v>ОАО Кондитерская фабрика Слодыч</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51702229","ООО МаркетЛига")</f>
+        <v>ООО МаркетЛига</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>473</v>
@@ -26089,11 +26090,11 @@
         <v>723</v>
       </c>
       <c r="E41" s="33">
-        <v>1150</v>
+        <v>980</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="0"/>
-        <v>1337.21</v>
+        <v>1139.53</v>
       </c>
     </row>
     <row r="42" spans="1:6" outlineLevel="1">
@@ -26101,8 +26102,8 @@
         <v>18</v>
       </c>
       <c r="B42" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50786807","ООО Первая пивная корпорация")</f>
-        <v>ООО Первая пивная корпорация</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51209197","ООО СЛАВПРАЙМ")</f>
+        <v>ООО СЛАВПРАЙМ</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>473</v>
@@ -26111,11 +26112,11 @@
         <v>723</v>
       </c>
       <c r="E42" s="33">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="0"/>
-        <v>1162.79</v>
+        <v>988.37</v>
       </c>
     </row>
     <row r="43" spans="1:6" outlineLevel="1">
@@ -26123,8 +26124,8 @@
         <v>18</v>
       </c>
       <c r="B43" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50752230","ООО Биомельница")</f>
-        <v>ООО Биомельница</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50912213","Универсам Славянский")</f>
+        <v>Универсам Славянский</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>473</v>
@@ -26145,8 +26146,8 @@
         <v>18</v>
       </c>
       <c r="B44" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49951709","ООО МаркетЛига")</f>
-        <v>ООО МаркетЛига</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51275052","ООО Двинар")</f>
+        <v>ООО Двинар</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>473</v>
@@ -26155,11 +26156,11 @@
         <v>723</v>
       </c>
       <c r="E44" s="33">
-        <v>980</v>
+        <v>750</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="0"/>
-        <v>1139.53</v>
+        <v>872.09</v>
       </c>
     </row>
     <row r="45" spans="1:6" outlineLevel="1">
@@ -26167,8 +26168,8 @@
         <v>18</v>
       </c>
       <c r="B45" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50701295","ОАО Дорорс")</f>
-        <v>ОАО Дорорс</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50852660","КОСМОФУД")</f>
+        <v>КОСМОФУД</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>473</v>
@@ -26177,11 +26178,11 @@
         <v>723</v>
       </c>
       <c r="E45" s="33">
-        <v>750</v>
+        <v>860</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="0"/>
-        <v>872.09</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:6" outlineLevel="1">
@@ -26189,8 +26190,8 @@
         <v>18</v>
       </c>
       <c r="B46" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50408808","ООО СЛАВПРАЙМ")</f>
-        <v>ООО СЛАВПРАЙМ</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50776231","ООО Бирхоф")</f>
+        <v>ООО Бирхоф</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>473</v>
@@ -26199,11 +26200,11 @@
         <v>723</v>
       </c>
       <c r="E46" s="33">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="0"/>
-        <v>872.09</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="47" spans="1:6" outlineLevel="1">
@@ -26211,8 +26212,8 @@
         <v>18</v>
       </c>
       <c r="B47" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50213248","КОСМОФУД")</f>
-        <v>КОСМОФУД</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50857154","АльянсМакМаркет")</f>
+        <v>АльянсМакМаркет</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>473</v>
@@ -26221,11 +26222,11 @@
         <v>723</v>
       </c>
       <c r="E47" s="33">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="0"/>
-        <v>1162.79</v>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="48" spans="1:6" outlineLevel="1">
@@ -26233,8 +26234,8 @@
         <v>18</v>
       </c>
       <c r="B48" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50387847","ООО Антей-Вайт")</f>
-        <v>ООО Антей-Вайт</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51130673","ООО Дапторрес")</f>
+        <v>ООО Дапторрес</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>473</v>
@@ -26243,11 +26244,11 @@
         <v>723</v>
       </c>
       <c r="E48" s="33">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="0"/>
-        <v>813.95</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="49" spans="1:6" outlineLevel="1">
@@ -26255,8 +26256,8 @@
         <v>18</v>
       </c>
       <c r="B49" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50305331","ООО Фэмили Фуд")</f>
-        <v>ООО Фэмили Фуд</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50870493","ООО ЛЕГИОНКОНСАЛТИНГ")</f>
+        <v>ООО ЛЕГИОНКОНСАЛТИНГ</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>473</v>
@@ -26265,11 +26266,11 @@
         <v>723</v>
       </c>
       <c r="E49" s="33">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="0"/>
-        <v>1162.79</v>
+        <v>988.37</v>
       </c>
     </row>
     <row r="50" spans="1:6" outlineLevel="1">
@@ -26277,8 +26278,8 @@
         <v>18</v>
       </c>
       <c r="B50" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50278217","Джаганнатх")</f>
-        <v>Джаганнатх</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50723867","ООО Лект-торг")</f>
+        <v>ООО Лект-торг</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>473</v>
@@ -26299,21 +26300,21 @@
         <v>18</v>
       </c>
       <c r="B51" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50723867","ООО Лект-торг")</f>
-        <v>ООО Лект-торг</v>
+        <f>HYPERLINK("https://rabota.by/resume/b45940130007bd2a9b0013a3fa5a537a643530","Продавец")</f>
+        <v>Продавец</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>473</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E51" s="33">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="0"/>
-        <v>1279.07</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="52" spans="1:6" outlineLevel="1">
@@ -26321,7 +26322,7 @@
         <v>18</v>
       </c>
       <c r="B52" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/1c90ad4d0002e5e8fb0013a3fa6d5844437732","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/38d8099d0009442ba50013a3fa664231715448","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C52" s="33" t="s">
@@ -26331,11 +26332,11 @@
         <v>721</v>
       </c>
       <c r="E52" s="33">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="0"/>
-        <v>2325.58</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="53" spans="1:6" outlineLevel="1">
@@ -26343,7 +26344,7 @@
         <v>18</v>
       </c>
       <c r="B53" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/7be3d57c0003551ec40013a3fa4e6f58526a4f","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/efa24b1f0007f6009f0013a3fa6d4f434b6d30","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C53" s="33" t="s">
@@ -26365,7 +26366,7 @@
         <v>18</v>
       </c>
       <c r="B54" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/513657b100097a51c30013a3fa793230504d57","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/37b31bff0003334dff0013a3fa55336f6f6877","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C54" s="33" t="s">
@@ -26387,7 +26388,7 @@
         <v>18</v>
       </c>
       <c r="B55" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/1de9191f00098b08d40013a3fa536650725662","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/8b1b7cab0006057ea10013a3fa7978394d4a50","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C55" s="33" t="s">
@@ -26397,11 +26398,11 @@
         <v>721</v>
       </c>
       <c r="E55" s="33">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" ref="F55:F82" si="1">IF(ROUND(E55/$K$11,2)&gt;0,ROUND(E55/$K$11,2),"")</f>
-        <v>1744.19</v>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="56" spans="1:6" outlineLevel="1">
@@ -26409,7 +26410,7 @@
         <v>18</v>
       </c>
       <c r="B56" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/60d706ba000908a6ff0013a3fa4a6177477957","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/9bb976750009a763550013a3fa4f386362624d","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C56" s="33" t="s">
@@ -26419,11 +26420,11 @@
         <v>721</v>
       </c>
       <c r="E56" s="33">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="1"/>
-        <v>1511.63</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="57" spans="1:6" outlineLevel="1">
@@ -26431,7 +26432,7 @@
         <v>18</v>
       </c>
       <c r="B57" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/744306c00001c9686f0013a3fa6778674b6653","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/656173b100063ad39b0013a3fa384c52595155","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C57" s="33" t="s">
@@ -26441,11 +26442,11 @@
         <v>721</v>
       </c>
       <c r="E57" s="33">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="1"/>
-        <v>1511.63</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="58" spans="1:6" outlineLevel="1">
@@ -26453,7 +26454,7 @@
         <v>18</v>
       </c>
       <c r="B58" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/b21dd5c900013d71c70013a3fa524d46413751","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/b72a573b0007f39daf0013a3fa4b567a587072","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C58" s="33" t="s">
@@ -26475,7 +26476,7 @@
         <v>18</v>
       </c>
       <c r="B59" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/b2bd23e200039f70150013a3fa7351676a4b67","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/d42ca8a3000763c85c0013a3fa625572786e4d","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C59" s="33" t="s">
@@ -26497,7 +26498,7 @@
         <v>18</v>
       </c>
       <c r="B60" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/88e6d7540002a3f0350013a3fa796837595933","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/b2bd23e200039f70150013a3fa7351676a4b67","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C60" s="33" t="s">
@@ -26519,7 +26520,7 @@
         <v>18</v>
       </c>
       <c r="B61" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/aeb534980009639d450013a3fa685a7a794831","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/45dbd84e000225e9240013a3fa7666644f446a","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C61" s="33" t="s">
@@ -26541,7 +26542,7 @@
         <v>18</v>
       </c>
       <c r="B62" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/cd37a8d5000575249c0013a3fa537358584671","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/fa0fc48800097c9d3a0013a3fa714761554e43","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C62" s="33" t="s">
@@ -26551,11 +26552,11 @@
         <v>721</v>
       </c>
       <c r="E62" s="33">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="1"/>
-        <v>1162.79</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="63" spans="1:6" outlineLevel="1">
@@ -26563,7 +26564,7 @@
         <v>18</v>
       </c>
       <c r="B63" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/da99baf80008d6b5680013a3fa6f624c46736c","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/d4747cee000953217b0013a3fa6d344e32636f","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C63" s="33" t="s">
@@ -26585,7 +26586,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/1820b1dd000301b2c00013a3fa566e486c6c66","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/77bba6de0009a121600013a3fa644535653856","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C64" s="33" t="s">
@@ -26607,7 +26608,7 @@
         <v>18</v>
       </c>
       <c r="B65" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/a2e4dbf3000833742d0013a3fa466872706266","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/ee97c5fc00051c98660013a3fa4e476e386a51","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C65" s="33" t="s">
@@ -26629,7 +26630,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/1d55c5c5000444bbec0013a3fa557477584576","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/ab76965800095d02760013a3fa48555a377676","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C66" s="33" t="s">
@@ -26651,7 +26652,7 @@
         <v>18</v>
       </c>
       <c r="B67" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ca4ca86000093592ec0013a3fa7a5556675954","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/8121465e0008080e320013a3fa736a45534e76","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C67" s="33" t="s">
@@ -26673,7 +26674,7 @@
         <v>18</v>
       </c>
       <c r="B68" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/fbd65b730003d9f26f0013a3fa613779354663","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/345e056900081057690013a3fa387a6f504568","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C68" s="33" t="s">
@@ -26695,7 +26696,7 @@
         <v>18</v>
       </c>
       <c r="B69" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/9e749060000742f51b0013a3fa67464c454749","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/838cbf350001b59a760013a3fa4f5946566939","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C69" s="33" t="s">
@@ -26717,7 +26718,7 @@
         <v>18</v>
       </c>
       <c r="B70" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/2c06f67a00077df7960013a3fa6c6a56344165","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/6f563afa000900cac80013a3fa47474e695355","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C70" s="33" t="s">
@@ -26739,7 +26740,7 @@
         <v>18</v>
       </c>
       <c r="B71" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/dc63c454000823e74a0013a3fa633256315a65","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/8b2b92b3000950cbde0013a3fa6e626f567531","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C71" s="33" t="s">
@@ -26761,7 +26762,7 @@
         <v>18</v>
       </c>
       <c r="B72" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/80da34190008a5c0170013a3fa6734616b354b","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/687019ab0007549b420013a3fa6f364b4b4949","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C72" s="33" t="s">
@@ -26783,7 +26784,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/85a910f600085fb0630013a3fa554f74575772","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/6acc64fd00076477be0013a3fa57714563736a","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C73" s="33" t="s">
@@ -26805,7 +26806,7 @@
         <v>18</v>
       </c>
       <c r="B74" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/cb28aed000030f09730013a3fa7a696e727a53","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/06bcc1b60007b35c690013a3fa546e3932356e","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C74" s="33" t="s">
@@ -26827,7 +26828,7 @@
         <v>18</v>
       </c>
       <c r="B75" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/8da3da4600096ab9ed0013a3fa4a366f456c53","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/6e58dfb30009a75a6a0013a3fa413779683043","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C75" s="33" t="s">
@@ -26837,11 +26838,11 @@
         <v>721</v>
       </c>
       <c r="E75" s="33">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="1"/>
-        <v>697.67</v>
+        <v>755.81</v>
       </c>
     </row>
     <row r="76" spans="1:6" outlineLevel="1">
@@ -26849,7 +26850,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/29588ecc0008c5e5530013a3fa62444f6f5a6f","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/6eb7daba0002e9f3eb0013a3fa5531506b7367","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C76" s="33" t="s">
@@ -26871,7 +26872,7 @@
         <v>18</v>
       </c>
       <c r="B77" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/76034b3b00097ce7da0013a3fa537775347474","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/aea7c8a10007eaa8e70013a3fa356238517663","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C77" s="33" t="s">
@@ -26893,7 +26894,7 @@
         <v>18</v>
       </c>
       <c r="B78" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/34bd39cc000927e83f0013a3fa32615348546d","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/946b0f96000994ab730013a3fa4b474e497a70","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C78" s="33" t="s">
@@ -26903,11 +26904,11 @@
         <v>721</v>
       </c>
       <c r="E78" s="33">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="1"/>
-        <v>581.4</v>
+        <v>697.67</v>
       </c>
     </row>
     <row r="79" spans="1:6" outlineLevel="1">
@@ -26915,7 +26916,7 @@
         <v>18</v>
       </c>
       <c r="B79" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d538995200098d1cb20013a3fa46554370764b","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/87464def00065941420013a3fa794f34674a31","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C79" s="33" t="s">
@@ -26937,7 +26938,7 @@
         <v>18</v>
       </c>
       <c r="B80" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/4596213f0000ba35330013a3fa736563726574","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/909dcdaf00086bc2520013a3fa316e51386437","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C80" s="33" t="s">
@@ -26959,7 +26960,7 @@
         <v>18</v>
       </c>
       <c r="B81" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/8d0515ef0009350db60013a3fa304b70476a30","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/c0fec4e400095ecb820013a3fa3966654d6750","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C81" s="33" t="s">
@@ -26969,11 +26970,11 @@
         <v>721</v>
       </c>
       <c r="E81" s="33">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F81" s="34">
         <f t="shared" si="1"/>
-        <v>465.12</v>
+        <v>581.4</v>
       </c>
     </row>
     <row r="82" spans="1:6" outlineLevel="1">
@@ -26981,7 +26982,7 @@
         <v>18</v>
       </c>
       <c r="B82" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/a9eaf14e00039a0ed90013a3fa575471433259","Продавец")</f>
+        <f>HYPERLINK("https://rabota.by/resume/840391d900099c1d090013a3fa6c7a4f596d4f","Продавец")</f>
         <v>Продавец</v>
       </c>
       <c r="C82" s="33" t="s">
@@ -26991,11 +26992,11 @@
         <v>721</v>
       </c>
       <c r="E82" s="33">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F82" s="34">
         <f t="shared" si="1"/>
-        <v>465.12</v>
+        <v>523.26</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -27023,11 +27024,11 @@
         <v>723</v>
       </c>
       <c r="E84" s="33">
-        <v>1100</v>
+        <v>1750</v>
       </c>
       <c r="F84" s="34">
         <f t="shared" ref="F84:F115" si="2">IF(ROUND(E84/$K$11,2)&gt;0,ROUND(E84/$K$11,2),"")</f>
-        <v>1279.07</v>
+        <v>2034.88</v>
       </c>
     </row>
     <row r="85" spans="1:6" outlineLevel="1">
@@ -27035,8 +27036,8 @@
         <v>18</v>
       </c>
       <c r="B85" s="44" t="str">
-        <f>HYPERLINK("https://hh.ru/vacancy/50340286","ООО ВиЯр")</f>
-        <v>ООО ВиЯр</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50330279","APS")</f>
+        <v>APS</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>362</v>
@@ -27045,11 +27046,11 @@
         <v>723</v>
       </c>
       <c r="E85" s="33">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="F85" s="34">
         <f t="shared" si="2"/>
-        <v>1976.74</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="86" spans="1:6" outlineLevel="1">
@@ -27057,8 +27058,8 @@
         <v>18</v>
       </c>
       <c r="B86" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50784045","ООО Флорсток")</f>
-        <v>ООО Флорсток</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51206756","ООО СЭЙФТИМ")</f>
+        <v>ООО СЭЙФТИМ</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>362</v>
@@ -27067,11 +27068,11 @@
         <v>723</v>
       </c>
       <c r="E86" s="33">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="F86" s="34">
         <f t="shared" si="2"/>
-        <v>1453.49</v>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="87" spans="1:6" outlineLevel="1">
@@ -27079,8 +27080,8 @@
         <v>18</v>
       </c>
       <c r="B87" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50399872","ООО МебельЛэнд-М")</f>
-        <v>ООО МебельЛэнд-М</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/52080878","ОАО Минский часовой завод")</f>
+        <v>ОАО Минский часовой завод</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>362</v>
@@ -27089,11 +27090,11 @@
         <v>723</v>
       </c>
       <c r="E87" s="33">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F87" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="88" spans="1:6" outlineLevel="1">
@@ -27101,8 +27102,8 @@
         <v>18</v>
       </c>
       <c r="B88" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50227083","ООО ЕКТ Компани")</f>
-        <v>ООО ЕКТ Компани</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51280532","ООО ТД Комплект")</f>
+        <v>ООО ТД Комплект</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>362</v>
@@ -27111,11 +27112,11 @@
         <v>723</v>
       </c>
       <c r="E88" s="33">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F88" s="34">
         <f t="shared" si="2"/>
-        <v>1744.19</v>
+        <v>2906.98</v>
       </c>
     </row>
     <row r="89" spans="1:6" outlineLevel="1">
@@ -27123,8 +27124,8 @@
         <v>18</v>
       </c>
       <c r="B89" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50562086","Беллесизделие")</f>
-        <v>Беллесизделие</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50793250","ООО БалтСистем")</f>
+        <v>ООО БалтСистем</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>362</v>
@@ -27133,11 +27134,11 @@
         <v>723</v>
       </c>
       <c r="E89" s="33">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F89" s="34">
         <f t="shared" si="2"/>
-        <v>1744.19</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="90" spans="1:6" outlineLevel="1">
@@ -27145,8 +27146,8 @@
         <v>18</v>
       </c>
       <c r="B90" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50523849","Стронгтрейд")</f>
-        <v>Стронгтрейд</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51054283","Возим-Бай")</f>
+        <v>Возим-Бай</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>362</v>
@@ -27167,8 +27168,8 @@
         <v>18</v>
       </c>
       <c r="B91" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50257483","ООО Залант Групп")</f>
-        <v>ООО Залант Групп</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/48532444","ТУТ и ТАМ Логистикс")</f>
+        <v>ТУТ и ТАМ Логистикс</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>362</v>
@@ -27177,11 +27178,11 @@
         <v>723</v>
       </c>
       <c r="E91" s="33">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="F91" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>2674.42</v>
       </c>
     </row>
     <row r="92" spans="1:6" outlineLevel="1">
@@ -27189,8 +27190,8 @@
         <v>18</v>
       </c>
       <c r="B92" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48532444","ТУТ и ТАМ Логистикс")</f>
-        <v>ТУТ и ТАМ Логистикс</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50399872","ООО МебельЛэнд-М")</f>
+        <v>ООО МебельЛэнд-М</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>362</v>
@@ -27199,11 +27200,11 @@
         <v>723</v>
       </c>
       <c r="E92" s="33">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="F92" s="34">
         <f t="shared" si="2"/>
-        <v>2674.42</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="93" spans="1:6" outlineLevel="1">
@@ -27211,8 +27212,8 @@
         <v>18</v>
       </c>
       <c r="B93" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49326321","ЗАО МИЛАВИЦА, СП")</f>
-        <v>ЗАО МИЛАВИЦА, СП</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50840772","Сантехпром")</f>
+        <v>Сантехпром</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>362</v>
@@ -27221,11 +27222,11 @@
         <v>723</v>
       </c>
       <c r="E93" s="33">
-        <v>740</v>
+        <v>1100</v>
       </c>
       <c r="F93" s="34">
         <f t="shared" si="2"/>
-        <v>860.47</v>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="94" spans="1:6" outlineLevel="1">
@@ -27233,8 +27234,8 @@
         <v>18</v>
       </c>
       <c r="B94" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50016168","ООО Безопасность Труда")</f>
-        <v>ООО Безопасность Труда</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50975909","Ю-Пласт Бел")</f>
+        <v>Ю-Пласт Бел</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>362</v>
@@ -27243,11 +27244,11 @@
         <v>723</v>
       </c>
       <c r="E94" s="33">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F94" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="95" spans="1:6" outlineLevel="1">
@@ -27255,8 +27256,8 @@
         <v>18</v>
       </c>
       <c r="B95" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50310248","ООО Тайсу")</f>
-        <v>ООО Тайсу</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51081097","ИЗОМАТ-СТРОЙ")</f>
+        <v>ИЗОМАТ-СТРОЙ</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>362</v>
@@ -27265,11 +27266,11 @@
         <v>723</v>
       </c>
       <c r="E95" s="33">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F95" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="96" spans="1:6" outlineLevel="1">
@@ -27277,8 +27278,8 @@
         <v>18</v>
       </c>
       <c r="B96" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50330279","APS")</f>
-        <v>APS</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51106257","МедеяСтиль")</f>
+        <v>МедеяСтиль</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>362</v>
@@ -27287,11 +27288,11 @@
         <v>723</v>
       </c>
       <c r="E96" s="33">
-        <v>1000</v>
+        <v>670</v>
       </c>
       <c r="F96" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>779.07</v>
       </c>
     </row>
     <row r="97" spans="1:6" outlineLevel="1">
@@ -27299,8 +27300,8 @@
         <v>18</v>
       </c>
       <c r="B97" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50334209","БелАшими")</f>
-        <v>БелАшими</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51216765","ООО Мир устройств")</f>
+        <v>ООО Мир устройств</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>362</v>
@@ -27309,11 +27310,11 @@
         <v>723</v>
       </c>
       <c r="E97" s="33">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F97" s="34">
         <f t="shared" si="2"/>
-        <v>1395.35</v>
+        <v>2093.02</v>
       </c>
     </row>
     <row r="98" spans="1:6" outlineLevel="1">
@@ -27321,8 +27322,8 @@
         <v>18</v>
       </c>
       <c r="B98" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50497453","ОАО Текстильторг")</f>
-        <v>ОАО Текстильторг</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51252541","ОП НИИ ПКД")</f>
+        <v>ОП НИИ ПКД</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>362</v>
@@ -27331,11 +27332,11 @@
         <v>723</v>
       </c>
       <c r="E98" s="33">
-        <v>730</v>
+        <v>1200</v>
       </c>
       <c r="F98" s="34">
         <f t="shared" si="2"/>
-        <v>848.84</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="99" spans="1:6" outlineLevel="1">
@@ -27343,219 +27344,219 @@
         <v>18</v>
       </c>
       <c r="B99" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51617349","ООО С-Нетворк")</f>
+        <v>ООО С-Нетворк</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E99" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F99" s="34">
+        <f t="shared" si="2"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" outlineLevel="1">
+      <c r="A100" s="32">
+        <v>18</v>
+      </c>
+      <c r="B100" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51894319","Стронгтрейд")</f>
+        <v>Стронгтрейд</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E100" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F100" s="34">
+        <f t="shared" si="2"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" outlineLevel="1">
+      <c r="A101" s="32">
+        <v>18</v>
+      </c>
+      <c r="B101" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/52031293","ООО ОМА")</f>
+        <v>ООО ОМА</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E101" s="33">
+        <v>1150</v>
+      </c>
+      <c r="F101" s="34">
+        <f t="shared" si="2"/>
+        <v>1337.21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" outlineLevel="1">
+      <c r="A102" s="32">
+        <v>18</v>
+      </c>
+      <c r="B102" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/44697312","Группа компаний НП-Сервис")</f>
         <v>Группа компаний НП-Сервис</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C102" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="D99" s="33" t="s">
+      <c r="D102" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E99" s="33">
+      <c r="E102" s="33">
         <v>1375</v>
       </c>
-      <c r="F99" s="34">
+      <c r="F102" s="34">
         <f t="shared" si="2"/>
         <v>1598.84</v>
       </c>
     </row>
-    <row r="100" spans="1:6" outlineLevel="1">
-      <c r="A100" s="32">
-        <v>18</v>
-      </c>
-      <c r="B100" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50010855","Сеть магазинов Мила (ГК, Парфюмбытхим)")</f>
-        <v>Сеть магазинов Мила (ГК, Парфюмбытхим)</v>
-      </c>
-      <c r="C100" s="33" t="s">
+    <row r="103" spans="1:6" outlineLevel="1">
+      <c r="A103" s="32">
+        <v>18</v>
+      </c>
+      <c r="B103" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51248347","ООО ЗИКО-ЗОРКА Групп")</f>
+        <v>ООО ЗИКО-ЗОРКА Групп</v>
+      </c>
+      <c r="C103" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="D100" s="33" t="s">
+      <c r="D103" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E100" s="33">
+      <c r="E103" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F103" s="34">
+        <f t="shared" si="2"/>
+        <v>1511.63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" outlineLevel="1">
+      <c r="A104" s="32">
+        <v>18</v>
+      </c>
+      <c r="B104" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51990117","Росчерк")</f>
+        <v>Росчерк</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E104" s="33">
+        <v>900</v>
+      </c>
+      <c r="F104" s="34">
+        <f t="shared" si="2"/>
+        <v>1046.51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" outlineLevel="1">
+      <c r="A105" s="32">
+        <v>18</v>
+      </c>
+      <c r="B105" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51340074","ООО Бюрократ")</f>
+        <v>ООО Бюрократ</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E105" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F105" s="34">
+        <f t="shared" si="2"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" outlineLevel="1">
+      <c r="A106" s="32">
+        <v>18</v>
+      </c>
+      <c r="B106" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51647368","OOO Гуру Тревел")</f>
+        <v>OOO Гуру Тревел</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E106" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F106" s="34">
+        <f t="shared" si="2"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" outlineLevel="1">
+      <c r="A107" s="32">
+        <v>18</v>
+      </c>
+      <c r="B107" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51847710","ООО ВилисБел")</f>
+        <v>ООО ВилисБел</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E107" s="33">
         <v>1400</v>
       </c>
-      <c r="F100" s="34">
+      <c r="F107" s="34">
         <f t="shared" si="2"/>
         <v>1627.91</v>
       </c>
     </row>
-    <row r="101" spans="1:6" outlineLevel="1">
-      <c r="A101" s="32">
-        <v>18</v>
-      </c>
-      <c r="B101" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49673371","ООО Фулл Тим")</f>
-        <v>ООО Фулл Тим</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E101" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F101" s="34">
-        <f t="shared" si="2"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" outlineLevel="1">
-      <c r="A102" s="32">
-        <v>18</v>
-      </c>
-      <c r="B102" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50753491","ООО СТБел Плюс")</f>
-        <v>ООО СТБел Плюс</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E102" s="33">
-        <v>1500</v>
-      </c>
-      <c r="F102" s="34">
-        <f t="shared" si="2"/>
-        <v>1744.19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" outlineLevel="1">
-      <c r="A103" s="32">
-        <v>18</v>
-      </c>
-      <c r="B103" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50525050","ООО Кэпитал Логистик")</f>
-        <v>ООО Кэпитал Логистик</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E103" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F103" s="34">
-        <f t="shared" si="2"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" outlineLevel="1">
-      <c r="A104" s="32">
-        <v>18</v>
-      </c>
-      <c r="B104" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50320718","АКВАТЕРМЕКС")</f>
-        <v>АКВАТЕРМЕКС</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E104" s="33">
-        <v>1500</v>
-      </c>
-      <c r="F104" s="34">
-        <f t="shared" si="2"/>
-        <v>1744.19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" outlineLevel="1">
-      <c r="A105" s="32">
-        <v>18</v>
-      </c>
-      <c r="B105" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48906993","ООО ВилисБел")</f>
-        <v>ООО ВилисБел</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E105" s="33">
-        <v>1400</v>
-      </c>
-      <c r="F105" s="34">
-        <f t="shared" si="2"/>
-        <v>1627.91</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" outlineLevel="1">
-      <c r="A106" s="32">
-        <v>18</v>
-      </c>
-      <c r="B106" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50389855","ООО МЛ Смарт Групп")</f>
-        <v>ООО МЛ Смарт Групп</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E106" s="33">
-        <v>1100</v>
-      </c>
-      <c r="F106" s="34">
-        <f t="shared" si="2"/>
-        <v>1279.07</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" outlineLevel="1">
-      <c r="A107" s="32">
-        <v>18</v>
-      </c>
-      <c r="B107" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50724266","ОАО ТЛЦ Озерцо-логистик")</f>
-        <v>ОАО ТЛЦ Озерцо-логистик</v>
-      </c>
-      <c r="C107" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E107" s="33">
-        <v>1200</v>
-      </c>
-      <c r="F107" s="34">
-        <f t="shared" si="2"/>
-        <v>1395.35</v>
-      </c>
-    </row>
     <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="32">
         <v>18</v>
       </c>
       <c r="B108" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50781314","ООО ГутеХауз")</f>
-        <v>ООО ГутеХауз</v>
+        <f>HYPERLINK("https://rabota.by/resume/563e16af0000c607960013a3fa695342663370","Кладовщик")</f>
+        <v>Кладовщик</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>362</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E108" s="33">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F108" s="34">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v>2093.02</v>
       </c>
     </row>
     <row r="109" spans="1:6" outlineLevel="1">
@@ -27563,21 +27564,21 @@
         <v>18</v>
       </c>
       <c r="B109" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50793250","ООО БалтСистем")</f>
-        <v>ООО БалтСистем</v>
+        <f>HYPERLINK("https://rabota.by/resume/5de57d230008259f4d0013a3fa6d5544715a6c","Кладовщик")</f>
+        <v>Кладовщик</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>362</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E109" s="33">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="F109" s="34">
         <f t="shared" si="2"/>
-        <v>1395.35</v>
+        <v>1976.74</v>
       </c>
     </row>
     <row r="110" spans="1:6" outlineLevel="1">
@@ -27585,21 +27586,21 @@
         <v>18</v>
       </c>
       <c r="B110" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48850501","ООО ОМА")</f>
-        <v>ООО ОМА</v>
+        <f>HYPERLINK("https://rabota.by/resume/ba9734d700062325f70013a3fa616f58575673","Кладовщик")</f>
+        <v>Кладовщик</v>
       </c>
       <c r="C110" s="33" t="s">
         <v>362</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E110" s="33">
-        <v>1265</v>
+        <v>1600</v>
       </c>
       <c r="F110" s="34">
         <f t="shared" si="2"/>
-        <v>1470.93</v>
+        <v>1860.47</v>
       </c>
     </row>
     <row r="111" spans="1:6" outlineLevel="1">
@@ -27607,7 +27608,7 @@
         <v>18</v>
       </c>
       <c r="B111" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/dfbe34a900080df27b0013a3fa314968734361","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/d047750000099e74ec0013a3fa753471575763","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C111" s="33" t="s">
@@ -27617,11 +27618,11 @@
         <v>721</v>
       </c>
       <c r="E111" s="33">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="F111" s="34">
         <f t="shared" si="2"/>
-        <v>2325.58</v>
+        <v>1860.47</v>
       </c>
     </row>
     <row r="112" spans="1:6" outlineLevel="1">
@@ -27629,7 +27630,7 @@
         <v>18</v>
       </c>
       <c r="B112" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d1790226000355ef430013a3fa444846784e6f","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/69fc2bdf0005a0947d0013a3fa426163757066","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C112" s="33" t="s">
@@ -27639,11 +27640,11 @@
         <v>721</v>
       </c>
       <c r="E112" s="33">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="F112" s="34">
         <f t="shared" si="2"/>
-        <v>2325.58</v>
+        <v>1860.47</v>
       </c>
     </row>
     <row r="113" spans="1:6" outlineLevel="1">
@@ -27651,7 +27652,7 @@
         <v>18</v>
       </c>
       <c r="B113" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ba9734d700062325f70013a3fa616f58575673","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/616555f1000957e3800013a3fa776a46597855","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C113" s="33" t="s">
@@ -27673,7 +27674,7 @@
         <v>18</v>
       </c>
       <c r="B114" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ba30febb000247f53a0013a3fa4573346c5442","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/a8221d7e0009a2d9040013a3fa44716e4a794e","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C114" s="33" t="s">
@@ -27683,11 +27684,11 @@
         <v>721</v>
       </c>
       <c r="E114" s="33">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F114" s="34">
         <f t="shared" si="2"/>
-        <v>1860.47</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="115" spans="1:6" outlineLevel="1">
@@ -27695,7 +27696,7 @@
         <v>18</v>
       </c>
       <c r="B115" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/e63e9354000312f3050013a3fa6e626c365a38","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/e03a30c500091b67980013a3fa31506730344b","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C115" s="33" t="s">
@@ -27717,7 +27718,7 @@
         <v>18</v>
       </c>
       <c r="B116" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/f749610a0008ff41ee0013a3fa74507a704752","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/3d80b97e0007d788460013a3fa364a57474231","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C116" s="33" t="s">
@@ -27739,7 +27740,7 @@
         <v>18</v>
       </c>
       <c r="B117" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/bbc71e5c0006139ee60013a3fa654572455450","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/e63e9354000312f3050013a3fa6e626c365a38","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C117" s="33" t="s">
@@ -27761,7 +27762,7 @@
         <v>18</v>
       </c>
       <c r="B118" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/8b05446a0008eefdc50013a3fa557672615744","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/cfec947f000998aca80013a3fa73483763666f","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C118" s="33" t="s">
@@ -27783,7 +27784,7 @@
         <v>18</v>
       </c>
       <c r="B119" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/4592d8680007392bbd0013a3fa47667056306a","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/7da80e320009a218ac0013a3fa666638355759","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C119" s="33" t="s">
@@ -27805,7 +27806,7 @@
         <v>18</v>
       </c>
       <c r="B120" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/95e513560009372b5d0013a3fa3456734a4747","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/40dde21000026676d00013a3fa64565033736c","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C120" s="33" t="s">
@@ -27815,11 +27816,11 @@
         <v>721</v>
       </c>
       <c r="E120" s="33">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F120" s="34">
         <f t="shared" si="3"/>
-        <v>1744.19</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="121" spans="1:6" outlineLevel="1">
@@ -27827,7 +27828,7 @@
         <v>18</v>
       </c>
       <c r="B121" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/45702c8e00013518180013a3fa58766b343049","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/7c06ae0100098e98630013a3fa6156544f564b","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C121" s="33" t="s">
@@ -27837,11 +27838,11 @@
         <v>721</v>
       </c>
       <c r="E121" s="33">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F121" s="34">
         <f t="shared" si="3"/>
-        <v>1744.19</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="122" spans="1:6" outlineLevel="1">
@@ -27849,7 +27850,7 @@
         <v>18</v>
       </c>
       <c r="B122" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/4a2d139b00098616480013a3fa5a6e496a7135","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/e5684a6e000969dccb0013a3fa353638456745","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C122" s="33" t="s">
@@ -27871,7 +27872,7 @@
         <v>18</v>
       </c>
       <c r="B123" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/6537d20f00073b5e5a0013a3fa553363316d46","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/537fff4900088bd4b60013a3fa4273764d7272","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C123" s="33" t="s">
@@ -27893,7 +27894,7 @@
         <v>18</v>
       </c>
       <c r="B124" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/e5684a6e000969dccb0013a3fa353638456745","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/cddee7060009a09c230013a3fa61426c306269","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C124" s="33" t="s">
@@ -27915,7 +27916,7 @@
         <v>18</v>
       </c>
       <c r="B125" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/5878e97b000418db210013a3fa574431583835","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/256361bd0009a1b45f0013a3fa50624f627350","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C125" s="33" t="s">
@@ -27937,7 +27938,7 @@
         <v>18</v>
       </c>
       <c r="B126" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d7ec3ba9000866e8f10013a3fa437257534961","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/6545578d00097e38540013a3fa6d326a67694e","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C126" s="33" t="s">
@@ -27947,11 +27948,11 @@
         <v>721</v>
       </c>
       <c r="E126" s="33">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="F126" s="34">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v>1337.21</v>
       </c>
     </row>
     <row r="127" spans="1:6" outlineLevel="1">
@@ -27959,7 +27960,7 @@
         <v>18</v>
       </c>
       <c r="B127" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/c6e0243b000947e4d30013a3fa67704e4e6545","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/d4cd3c9f000990ebf10013a3fa564a57724a63","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C127" s="33" t="s">
@@ -27969,11 +27970,11 @@
         <v>721</v>
       </c>
       <c r="E127" s="33">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F127" s="34">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="128" spans="1:6" outlineLevel="1">
@@ -27981,7 +27982,7 @@
         <v>18</v>
       </c>
       <c r="B128" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/fd63a59200097d91990013a3fa7373616a564d","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/f38ff5b50009707e3b0013a3fa396f38726a31","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C128" s="33" t="s">
@@ -27991,11 +27992,11 @@
         <v>721</v>
       </c>
       <c r="E128" s="33">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F128" s="34">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="129" spans="1:6" outlineLevel="1">
@@ -28003,7 +28004,7 @@
         <v>18</v>
       </c>
       <c r="B129" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/537fff4900088bd4b60013a3fa4273764d7272","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/6e0177c400021a5bc20013a3fa7a7730544d37","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C129" s="33" t="s">
@@ -28013,11 +28014,11 @@
         <v>721</v>
       </c>
       <c r="E129" s="33">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F129" s="34">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="130" spans="1:6" outlineLevel="1">
@@ -28025,7 +28026,7 @@
         <v>18</v>
       </c>
       <c r="B130" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/8f8cfed8000884b9470013a3fa756654456272","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/67295233000613ef6f0013a3fa426150764473","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C130" s="33" t="s">
@@ -28035,11 +28036,11 @@
         <v>721</v>
       </c>
       <c r="E130" s="33">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F130" s="34">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="131" spans="1:6" outlineLevel="1">
@@ -28047,7 +28048,7 @@
         <v>18</v>
       </c>
       <c r="B131" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/88e6d7540002a3f0350013a3fa796837595933","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/1726b1da0008a768ed0013a3fa436654315550","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C131" s="33" t="s">
@@ -28057,11 +28058,11 @@
         <v>721</v>
       </c>
       <c r="E131" s="33">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F131" s="34">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="132" spans="1:6" outlineLevel="1">
@@ -28069,7 +28070,7 @@
         <v>18</v>
       </c>
       <c r="B132" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/7c364d9f0009502cb70013a3fa7068786c7836","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/03217ff600096add090013a3fa494a466d6e37","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C132" s="33" t="s">
@@ -28079,11 +28080,11 @@
         <v>721</v>
       </c>
       <c r="E132" s="33">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F132" s="34">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="133" spans="1:6" outlineLevel="1">
@@ -28091,7 +28092,7 @@
         <v>18</v>
       </c>
       <c r="B133" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/6545578d00097e38540013a3fa6d326a67694e","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/ea49e6240009a5d7920013a3fa34596c523343","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C133" s="33" t="s">
@@ -28101,11 +28102,11 @@
         <v>721</v>
       </c>
       <c r="E133" s="33">
-        <v>1150</v>
+        <v>800</v>
       </c>
       <c r="F133" s="34">
         <f t="shared" si="3"/>
-        <v>1337.21</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="134" spans="1:6" outlineLevel="1">
@@ -28113,7 +28114,7 @@
         <v>18</v>
       </c>
       <c r="B134" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/a824683600072c7b2c0013a3fa5863566c7432","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/fc6d3fd300064b4c4e0013a3fa684a55324d72","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C134" s="33" t="s">
@@ -28135,7 +28136,7 @@
         <v>18</v>
       </c>
       <c r="B135" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/35fc650f00096dee3f0013a3fa677a6338565a","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/0fcdf86400099f2a6b0013a3fa637361425931","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C135" s="33" t="s">
@@ -28179,7 +28180,7 @@
         <v>18</v>
       </c>
       <c r="B137" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/df708b2300040230730013a3fa495535306165","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/9bdbed460004077a590013a3fa744679697749","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C137" s="33" t="s">
@@ -28201,7 +28202,7 @@
         <v>18</v>
       </c>
       <c r="B138" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/93b33d9200097f74c60013a3fa49774e4c3974","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/54bbc9aa00099b77c90013a3fa5972466b6651","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C138" s="33" t="s">
@@ -28223,7 +28224,7 @@
         <v>18</v>
       </c>
       <c r="B139" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/5c5303920005aeee2e0013a3fa393953575232","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/fcf2ca8900090591350013a3fa6d6e705a6e45","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C139" s="33" t="s">
@@ -28245,7 +28246,7 @@
         <v>18</v>
       </c>
       <c r="B140" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/94add6df000517457d0013a3fa6837666f5a48","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/a824683600072c7b2c0013a3fa5863566c7432","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C140" s="33" t="s">
@@ -28267,7 +28268,7 @@
         <v>18</v>
       </c>
       <c r="B141" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/09ce5454000727ff840013a3fa4d726f583975","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/9b4647ca000964c7300013a3fa414a62664e4b","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C141" s="33" t="s">
@@ -28277,11 +28278,11 @@
         <v>721</v>
       </c>
       <c r="E141" s="33">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F141" s="34">
         <f t="shared" si="3"/>
-        <v>813.95</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="142" spans="1:6" outlineLevel="1">
@@ -28289,7 +28290,7 @@
         <v>18</v>
       </c>
       <c r="B142" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/3a434cf100073a5f080013a3fa414178525255","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/818edca400099248800013a3fa7544764e3676","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C142" s="33" t="s">
@@ -28299,11 +28300,11 @@
         <v>721</v>
       </c>
       <c r="E142" s="33">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F142" s="34">
         <f t="shared" si="3"/>
-        <v>697.67</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="143" spans="1:6" outlineLevel="1">
@@ -28311,7 +28312,7 @@
         <v>18</v>
       </c>
       <c r="B143" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d1c91f6b0007916a000013a3fa6f795446354a","Кладовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/b1a0fe6400086eb8d20013a3fa6b6e52714e62","Кладовщик")</f>
         <v>Кладовщик</v>
       </c>
       <c r="C143" s="33" t="s">
@@ -28321,11 +28322,11 @@
         <v>721</v>
       </c>
       <c r="E143" s="33">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="F143" s="34">
         <f t="shared" si="3"/>
-        <v>406.98</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -28343,8 +28344,8 @@
         <v>18</v>
       </c>
       <c r="B145" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50723880","ООО РЕМОНДИС Солюшн")</f>
-        <v>ООО РЕМОНДИС Солюшн</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/52073241","Дарида, Частное предприятие")</f>
+        <v>Дарида, Частное предприятие</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>734</v>
@@ -28353,11 +28354,11 @@
         <v>723</v>
       </c>
       <c r="E145" s="33">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="F145" s="34">
         <f t="shared" ref="F145:F176" si="4">IF(ROUND(E145/$K$11,2)&gt;0,ROUND(E145/$K$11,2),"")</f>
-        <v>1976.74</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="146" spans="1:6" outlineLevel="1">
@@ -28365,7 +28366,7 @@
         <v>18</v>
       </c>
       <c r="B146" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50307126","ООО Строительная компания АгриПО")</f>
+        <f>HYPERLINK("https://rabota.by/vacancy/51581778","ООО Строительная компания АгриПО")</f>
         <v>ООО Строительная компания АгриПО</v>
       </c>
       <c r="C146" s="33" t="s">
@@ -28387,8 +28388,8 @@
         <v>18</v>
       </c>
       <c r="B147" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50684651","ООО Надежная Энергия")</f>
-        <v>ООО Надежная Энергия</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/46912474","Молочный гостинец")</f>
+        <v>Молочный гостинец</v>
       </c>
       <c r="C147" s="33" t="s">
         <v>734</v>
@@ -28397,11 +28398,11 @@
         <v>723</v>
       </c>
       <c r="E147" s="33">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F147" s="34">
         <f t="shared" si="4"/>
-        <v>1162.79</v>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="148" spans="1:6" outlineLevel="1">
@@ -28409,8 +28410,8 @@
         <v>18</v>
       </c>
       <c r="B148" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50561429","Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства")</f>
-        <v>Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/49310335","Онега")</f>
+        <v>Онега</v>
       </c>
       <c r="C148" s="33" t="s">
         <v>734</v>
@@ -28419,11 +28420,11 @@
         <v>723</v>
       </c>
       <c r="E148" s="33">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="F148" s="34">
         <f t="shared" si="4"/>
-        <v>1104.6500000000001</v>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="149" spans="1:6" outlineLevel="1">
@@ -28431,8 +28432,8 @@
         <v>18</v>
       </c>
       <c r="B149" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/46912474","Молочный гостинец")</f>
-        <v>Молочный гостинец</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50808598","ОДО Виталюр")</f>
+        <v>ОДО Виталюр</v>
       </c>
       <c r="C149" s="33" t="s">
         <v>734</v>
@@ -28441,11 +28442,11 @@
         <v>723</v>
       </c>
       <c r="E149" s="33">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="F149" s="34">
         <f t="shared" si="4"/>
-        <v>1046.51</v>
+        <v>1569.77</v>
       </c>
     </row>
     <row r="150" spans="1:6" outlineLevel="1">
@@ -28453,8 +28454,8 @@
         <v>18</v>
       </c>
       <c r="B150" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49310335","Онега")</f>
-        <v>Онега</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51468228","ООО Мистер Профи")</f>
+        <v>ООО Мистер Профи</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>734</v>
@@ -28463,11 +28464,11 @@
         <v>723</v>
       </c>
       <c r="E150" s="33">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F150" s="34">
         <f t="shared" si="4"/>
-        <v>1395.35</v>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="151" spans="1:6" outlineLevel="1">
@@ -28475,8 +28476,8 @@
         <v>18</v>
       </c>
       <c r="B151" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50235061","ОАО Крион")</f>
-        <v>ОАО Крион</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51878456","ООО Вайлд Вотер")</f>
+        <v>ООО Вайлд Вотер</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>734</v>
@@ -28497,8 +28498,8 @@
         <v>18</v>
       </c>
       <c r="B152" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50783950","Инжиниринговая компания МСЛ-Сервис")</f>
-        <v>Инжиниринговая компания МСЛ-Сервис</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51880739","Белоруснефть-Промсервис")</f>
+        <v>Белоруснефть-Промсервис</v>
       </c>
       <c r="C152" s="33" t="s">
         <v>734</v>
@@ -28507,11 +28508,11 @@
         <v>723</v>
       </c>
       <c r="E152" s="33">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F152" s="34">
         <f t="shared" si="4"/>
-        <v>1511.63</v>
+        <v>1627.91</v>
       </c>
     </row>
     <row r="153" spans="1:6" outlineLevel="1">
@@ -28519,8 +28520,8 @@
         <v>18</v>
       </c>
       <c r="B153" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50789989","ОАО Кондитерская фабрика Слодыч")</f>
-        <v>ОАО Кондитерская фабрика Слодыч</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/52020627","ГРИНрозница ГК РАПА")</f>
+        <v>ГРИНрозница ГК РАПА</v>
       </c>
       <c r="C153" s="33" t="s">
         <v>734</v>
@@ -28529,11 +28530,11 @@
         <v>723</v>
       </c>
       <c r="E153" s="33">
-        <v>1000</v>
+        <v>1105</v>
       </c>
       <c r="F153" s="34">
         <f t="shared" si="4"/>
-        <v>1162.79</v>
+        <v>1284.8800000000001</v>
       </c>
     </row>
     <row r="154" spans="1:6" outlineLevel="1">
@@ -28541,8 +28542,8 @@
         <v>18</v>
       </c>
       <c r="B154" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50642074","ООО Отличные люди")</f>
-        <v>ООО Отличные люди</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51324136","Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства")</f>
+        <v>Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства</v>
       </c>
       <c r="C154" s="33" t="s">
         <v>734</v>
@@ -28551,11 +28552,11 @@
         <v>723</v>
       </c>
       <c r="E154" s="33">
-        <v>2000</v>
+        <v>950</v>
       </c>
       <c r="F154" s="34">
         <f t="shared" si="4"/>
-        <v>2325.58</v>
+        <v>1104.6500000000001</v>
       </c>
     </row>
     <row r="155" spans="1:6" outlineLevel="1">
@@ -28563,8 +28564,8 @@
         <v>18</v>
       </c>
       <c r="B155" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49833939","ООО Тарум")</f>
-        <v>ООО Тарум</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51890579","Всё для тепла монтаж")</f>
+        <v>Всё для тепла монтаж</v>
       </c>
       <c r="C155" s="33" t="s">
         <v>734</v>
@@ -28573,11 +28574,11 @@
         <v>723</v>
       </c>
       <c r="E155" s="33">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F155" s="34">
         <f t="shared" si="4"/>
-        <v>1279.07</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="156" spans="1:6" outlineLevel="1">
@@ -28585,8 +28586,8 @@
         <v>18</v>
       </c>
       <c r="B156" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50503960","ОАО Белбакалея")</f>
-        <v>ОАО Белбакалея</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50923392","СтэмСервис")</f>
+        <v>СтэмСервис</v>
       </c>
       <c r="C156" s="33" t="s">
         <v>734</v>
@@ -28595,11 +28596,11 @@
         <v>723</v>
       </c>
       <c r="E156" s="33">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="F156" s="34">
         <f t="shared" si="4"/>
-        <v>930.23</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="157" spans="1:6" outlineLevel="1">
@@ -28607,21 +28608,21 @@
         <v>18</v>
       </c>
       <c r="B157" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/65df8ccc0001f5f5970013a3fa4a6b724f664a","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/52020607","ЗАО Выставочный центр АКВАБЕЛ")</f>
+        <v>ЗАО Выставочный центр АКВАБЕЛ</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>734</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E157" s="33">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="F157" s="34">
         <f t="shared" si="4"/>
-        <v>3488.37</v>
+        <v>1627.91</v>
       </c>
     </row>
     <row r="158" spans="1:6" outlineLevel="1">
@@ -28629,21 +28630,21 @@
         <v>18</v>
       </c>
       <c r="B158" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/609f7a04000414746c0013a3fa4175495a4c4e","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51213463","ООО СТС-Ринново")</f>
+        <v>ООО СТС-Ринново</v>
       </c>
       <c r="C158" s="33" t="s">
         <v>734</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E158" s="33">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="F158" s="34">
         <f t="shared" si="4"/>
-        <v>2558.14</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="159" spans="1:6" outlineLevel="1">
@@ -28651,139 +28652,139 @@
         <v>18</v>
       </c>
       <c r="B159" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/a76964a10009a6bfbe0013a3fa446742797565","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E159" s="33">
+        <v>3000</v>
+      </c>
+      <c r="F159" s="34">
+        <f t="shared" si="4"/>
+        <v>3488.37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" outlineLevel="1">
+      <c r="A160" s="32">
+        <v>18</v>
+      </c>
+      <c r="B160" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/98b40bdc0004404ebe0013a3fa48446349704b","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E160" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F160" s="34">
+        <f t="shared" si="4"/>
+        <v>2325.58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" outlineLevel="1">
+      <c r="A161" s="32">
+        <v>18</v>
+      </c>
+      <c r="B161" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/resume/f5c62a0a00096846710013a3fa35505165325a","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C159" s="33" t="s">
+      <c r="C161" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D159" s="33" t="s">
+      <c r="D161" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E159" s="33">
+      <c r="E161" s="33">
         <v>2000</v>
       </c>
-      <c r="F159" s="34">
+      <c r="F161" s="34">
         <f t="shared" si="4"/>
         <v>2325.58</v>
       </c>
     </row>
-    <row r="160" spans="1:6" outlineLevel="1">
-      <c r="A160" s="32">
-        <v>18</v>
-      </c>
-      <c r="B160" s="44" t="str">
+    <row r="162" spans="1:6" outlineLevel="1">
+      <c r="A162" s="32">
+        <v>18</v>
+      </c>
+      <c r="B162" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/de6093e600098231170013a3fa495861306d72","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D162" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E162" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F162" s="34">
+        <f t="shared" si="4"/>
+        <v>2325.58</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" outlineLevel="1">
+      <c r="A163" s="32">
+        <v>18</v>
+      </c>
+      <c r="B163" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/resume/373e64300001eba76d0013a3fa6f58674e724d","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C160" s="33" t="s">
+      <c r="C163" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D160" s="33" t="s">
+      <c r="D163" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E160" s="33">
+      <c r="E163" s="33">
         <v>1800</v>
       </c>
-      <c r="F160" s="34">
+      <c r="F163" s="34">
         <f t="shared" si="4"/>
         <v>2093.02</v>
       </c>
     </row>
-    <row r="161" spans="1:6" outlineLevel="1">
-      <c r="A161" s="32">
-        <v>18</v>
-      </c>
-      <c r="B161" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/3e24d6a700082b71790013a3fa354f4f355339","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C161" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D161" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E161" s="33">
-        <v>1800</v>
-      </c>
-      <c r="F161" s="34">
-        <f t="shared" si="4"/>
-        <v>2093.02</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" outlineLevel="1">
-      <c r="A162" s="32">
-        <v>18</v>
-      </c>
-      <c r="B162" s="44" t="str">
+    <row r="164" spans="1:6" outlineLevel="1">
+      <c r="A164" s="32">
+        <v>18</v>
+      </c>
+      <c r="B164" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/resume/ade44998000900bc990013a3fa626453497a77","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C162" s="33" t="s">
+      <c r="C164" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D162" s="33" t="s">
+      <c r="D164" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E162" s="33">
+      <c r="E164" s="33">
         <v>1700</v>
       </c>
-      <c r="F162" s="34">
+      <c r="F164" s="34">
         <f t="shared" si="4"/>
         <v>1976.74</v>
       </c>
     </row>
-    <row r="163" spans="1:6" outlineLevel="1">
-      <c r="A163" s="32">
-        <v>18</v>
-      </c>
-      <c r="B163" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/49cdc5b200032e884f0013a3fa396b534d3263","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C163" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D163" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E163" s="33">
-        <v>1500</v>
-      </c>
-      <c r="F163" s="34">
-        <f t="shared" si="4"/>
-        <v>1744.19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" outlineLevel="1">
-      <c r="A164" s="32">
-        <v>18</v>
-      </c>
-      <c r="B164" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/9c781a09000980b4430013a3fa65445a65515a","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C164" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D164" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E164" s="33">
-        <v>1500</v>
-      </c>
-      <c r="F164" s="34">
-        <f t="shared" si="4"/>
-        <v>1744.19</v>
-      </c>
-    </row>
     <row r="165" spans="1:6" outlineLevel="1">
       <c r="A165" s="32">
         <v>18</v>
       </c>
       <c r="B165" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/b6a6c39f000261eb270013a3fa656f676f3653","Слесарь-сантехник")</f>
+        <f>HYPERLINK("https://rabota.by/resume/d83d20820009a0be5a0013a3fa536b68795467","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
       <c r="C165" s="33" t="s">
@@ -28793,11 +28794,11 @@
         <v>721</v>
       </c>
       <c r="E165" s="33">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F165" s="34">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v>1860.47</v>
       </c>
     </row>
     <row r="166" spans="1:6" outlineLevel="1">
@@ -28805,7 +28806,7 @@
         <v>18</v>
       </c>
       <c r="B166" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/85a2b4ad00017f84060013a3fa4e4963465234","Слесарь-сантехник")</f>
+        <f>HYPERLINK("https://rabota.by/resume/27fce866000372d6e20013a3fa68514e31784c","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
       <c r="C166" s="33" t="s">
@@ -28815,11 +28816,11 @@
         <v>721</v>
       </c>
       <c r="E166" s="33">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F166" s="34">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v>1860.47</v>
       </c>
     </row>
     <row r="167" spans="1:6" outlineLevel="1">
@@ -28827,7 +28828,7 @@
         <v>18</v>
       </c>
       <c r="B167" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/2ea8c330000985689b0013a3fa784545735871","Слесарь-сантехник")</f>
+        <f>HYPERLINK("https://rabota.by/resume/49cdc5b200032e884f0013a3fa396b534d3263","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
       <c r="C167" s="33" t="s">
@@ -28849,7 +28850,7 @@
         <v>18</v>
       </c>
       <c r="B168" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/6706d0680002597d700013a3fa7650774f4f46","Слесарь-сантехник")</f>
+        <f>HYPERLINK("https://rabota.by/resume/c8cd0c55000785767e0013a3fa634b4b497555","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
       <c r="C168" s="33" t="s">
@@ -28859,11 +28860,11 @@
         <v>721</v>
       </c>
       <c r="E168" s="33">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F168" s="34">
         <f t="shared" si="4"/>
-        <v>1627.91</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="169" spans="1:6" outlineLevel="1">
@@ -28871,7 +28872,7 @@
         <v>18</v>
       </c>
       <c r="B169" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/477e60e50008a8eb5d0013a3fa446c6a424178","Слесарь-сантехник")</f>
+        <f>HYPERLINK("https://rabota.by/resume/9502a7a80001f92a530013a3fa366c68754643","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
       <c r="C169" s="33" t="s">
@@ -28881,11 +28882,11 @@
         <v>721</v>
       </c>
       <c r="E169" s="33">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F169" s="34">
         <f t="shared" si="4"/>
-        <v>1627.91</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="170" spans="1:6" outlineLevel="1">
@@ -28893,598 +28894,769 @@
         <v>18</v>
       </c>
       <c r="B170" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/230192770009a43b0e0013a3fa4d6437794671","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D170" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E170" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F170" s="34">
+        <f t="shared" si="4"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" outlineLevel="1">
+      <c r="A171" s="32">
+        <v>18</v>
+      </c>
+      <c r="B171" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/2e4a179400044e61d30013a3fa547673724f36","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D171" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E171" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F171" s="34">
+        <f t="shared" si="4"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" outlineLevel="1">
+      <c r="A172" s="32">
+        <v>18</v>
+      </c>
+      <c r="B172" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/b6a6c39f000261eb270013a3fa656f676f3653","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D172" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E172" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F172" s="34">
+        <f t="shared" si="4"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" outlineLevel="1">
+      <c r="A173" s="32">
+        <v>18</v>
+      </c>
+      <c r="B173" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/3e24d6a700082b71790013a3fa354f4f355339","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D173" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E173" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F173" s="34">
+        <f t="shared" si="4"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" outlineLevel="1">
+      <c r="A174" s="32">
+        <v>18</v>
+      </c>
+      <c r="B174" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/957cbb0f00064a618c0013a3fa494d59586631","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D174" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E174" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F174" s="34">
+        <f t="shared" si="4"/>
+        <v>1511.63</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" outlineLevel="1">
+      <c r="A175" s="32">
+        <v>18</v>
+      </c>
+      <c r="B175" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/resume/82207502000415d2480013a3fa5771504f4938","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C170" s="33" t="s">
+      <c r="C175" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D170" s="33" t="s">
+      <c r="D175" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E170" s="33">
+      <c r="E175" s="33">
         <v>1200</v>
       </c>
-      <c r="F170" s="34">
+      <c r="F175" s="34">
         <f t="shared" si="4"/>
         <v>1395.35</v>
       </c>
     </row>
-    <row r="171" spans="1:6" outlineLevel="1">
-      <c r="A171" s="32">
-        <v>18</v>
-      </c>
-      <c r="B171" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/a9d9cde600098578040013a3fa536641453737","Слесарь-сантехник")</f>
+    <row r="176" spans="1:6" outlineLevel="1">
+      <c r="A176" s="32">
+        <v>18</v>
+      </c>
+      <c r="B176" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/d2c206240007e594000013a3fa6a66684d4833","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C171" s="33" t="s">
+      <c r="C176" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D171" s="33" t="s">
+      <c r="D176" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E171" s="33">
+      <c r="E176" s="33">
         <v>1200</v>
       </c>
-      <c r="F171" s="34">
+      <c r="F176" s="34">
         <f t="shared" si="4"/>
         <v>1395.35</v>
       </c>
     </row>
-    <row r="172" spans="1:6" outlineLevel="1">
-      <c r="A172" s="32">
-        <v>18</v>
-      </c>
-      <c r="B172" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d2c206240007e594000013a3fa6a66684d4833","Слесарь-сантехник")</f>
+    <row r="177" spans="1:6" outlineLevel="1">
+      <c r="A177" s="32">
+        <v>18</v>
+      </c>
+      <c r="B177" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/d60df8f50009627ab30013a3fa4b324870314f","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C172" s="33" t="s">
+      <c r="C177" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D172" s="33" t="s">
+      <c r="D177" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E172" s="33">
+      <c r="E177" s="33">
         <v>1200</v>
       </c>
-      <c r="F172" s="34">
-        <f t="shared" si="4"/>
+      <c r="F177" s="34">
+        <f t="shared" ref="F177:F204" si="5">IF(ROUND(E177/$K$11,2)&gt;0,ROUND(E177/$K$11,2),"")</f>
         <v>1395.35</v>
       </c>
     </row>
-    <row r="173" spans="1:6" outlineLevel="1">
-      <c r="A173" s="32">
-        <v>18</v>
-      </c>
-      <c r="B173" s="44" t="str">
+    <row r="178" spans="1:6" outlineLevel="1">
+      <c r="A178" s="32">
+        <v>18</v>
+      </c>
+      <c r="B178" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/aec55e3e000860fbe60013a3fa4a6b6e6f6d50","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D178" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E178" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F178" s="34">
+        <f t="shared" si="5"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" outlineLevel="1">
+      <c r="A179" s="32">
+        <v>18</v>
+      </c>
+      <c r="B179" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ca4840db0003e8117e0013a3fa546b37476878","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C179" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D179" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E179" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F179" s="34">
+        <f t="shared" si="5"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" outlineLevel="1">
+      <c r="A180" s="32">
+        <v>18</v>
+      </c>
+      <c r="B180" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/resume/83e346d000086af5c40013a3fa384d6c4b4f78","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C173" s="33" t="s">
+      <c r="C180" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D173" s="33" t="s">
+      <c r="D180" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E173" s="33">
+      <c r="E180" s="33">
         <v>1200</v>
       </c>
-      <c r="F173" s="34">
-        <f t="shared" si="4"/>
+      <c r="F180" s="34">
+        <f t="shared" si="5"/>
         <v>1395.35</v>
       </c>
     </row>
-    <row r="174" spans="1:6" outlineLevel="1">
-      <c r="A174" s="32">
-        <v>18</v>
-      </c>
-      <c r="B174" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/9502a7a80001f92a530013a3fa366c68754643","Слесарь-сантехник")</f>
+    <row r="181" spans="1:6" outlineLevel="1">
+      <c r="A181" s="32">
+        <v>18</v>
+      </c>
+      <c r="B181" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/9def492700098a1a100013a3fa6c5271343142","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C174" s="33" t="s">
+      <c r="C181" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D174" s="33" t="s">
+      <c r="D181" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E174" s="33">
+      <c r="E181" s="33">
         <v>1200</v>
       </c>
-      <c r="F174" s="34">
-        <f t="shared" si="4"/>
+      <c r="F181" s="34">
+        <f t="shared" si="5"/>
         <v>1395.35</v>
       </c>
     </row>
-    <row r="175" spans="1:6" outlineLevel="1">
-      <c r="A175" s="32">
-        <v>18</v>
-      </c>
-      <c r="B175" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/91a1acff0008fc26c70013a3fa34744566594f","Слесарь-сантехник")</f>
+    <row r="182" spans="1:6" outlineLevel="1">
+      <c r="A182" s="32">
+        <v>18</v>
+      </c>
+      <c r="B182" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/a8fa3556000761f4530013a3fa786f63714c70","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C175" s="33" t="s">
+      <c r="C182" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D175" s="33" t="s">
+      <c r="D182" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E175" s="33">
+      <c r="E182" s="33">
         <v>1100</v>
       </c>
-      <c r="F175" s="34">
-        <f t="shared" si="4"/>
+      <c r="F182" s="34">
+        <f t="shared" si="5"/>
         <v>1279.07</v>
       </c>
     </row>
-    <row r="176" spans="1:6" outlineLevel="1">
-      <c r="A176" s="32">
-        <v>18</v>
-      </c>
-      <c r="B176" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/957cbb0f00064a618c0013a3fa494d59586631","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C176" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D176" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E176" s="33">
-        <v>1100</v>
-      </c>
-      <c r="F176" s="34">
-        <f t="shared" si="4"/>
-        <v>1279.07</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" outlineLevel="1">
-      <c r="A177" s="32">
-        <v>18</v>
-      </c>
-      <c r="B177" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/9d73f0c500025993a50013a3fa474264387642","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C177" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D177" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E177" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F177" s="34">
-        <f t="shared" ref="F177:F204" si="5">IF(ROUND(E177/$K$11,2)&gt;0,ROUND(E177/$K$11,2),"")</f>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" outlineLevel="1">
-      <c r="A178" s="32">
-        <v>18</v>
-      </c>
-      <c r="B178" s="44" t="str">
+    <row r="183" spans="1:6" outlineLevel="1">
+      <c r="A183" s="32">
+        <v>18</v>
+      </c>
+      <c r="B183" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/resume/efc8b3fc00056f02960013a3fa43417335536f","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C178" s="33" t="s">
+      <c r="C183" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D178" s="33" t="s">
+      <c r="D183" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E178" s="33">
+      <c r="E183" s="33">
         <v>1000</v>
       </c>
-      <c r="F178" s="34">
+      <c r="F183" s="34">
         <f t="shared" si="5"/>
         <v>1162.79</v>
       </c>
     </row>
-    <row r="179" spans="1:6" outlineLevel="1">
-      <c r="A179" s="32">
-        <v>18</v>
-      </c>
-      <c r="B179" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/9c090abc0007ee685b0013a3fa36326133714a","Слесарь-сантехник")</f>
+    <row r="184" spans="1:6" outlineLevel="1">
+      <c r="A184" s="32">
+        <v>18</v>
+      </c>
+      <c r="B184" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/3057379a00035c22250013a3fa76346d324c70","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C179" s="33" t="s">
+      <c r="C184" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D179" s="33" t="s">
+      <c r="D184" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E179" s="33">
+      <c r="E184" s="33">
         <v>1000</v>
       </c>
-      <c r="F179" s="34">
+      <c r="F184" s="34">
         <f t="shared" si="5"/>
         <v>1162.79</v>
       </c>
     </row>
-    <row r="180" spans="1:6" outlineLevel="1">
-      <c r="A180" s="32">
-        <v>18</v>
-      </c>
-      <c r="B180" s="44" t="str">
+    <row r="185" spans="1:6" outlineLevel="1">
+      <c r="A185" s="32">
+        <v>18</v>
+      </c>
+      <c r="B185" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/d343b5a300099965ec0013a3fa566436676771","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D185" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E185" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F185" s="34">
+        <f t="shared" si="5"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" outlineLevel="1">
+      <c r="A186" s="32">
+        <v>18</v>
+      </c>
+      <c r="B186" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/1dd6595a00089f93380013a3fa343859796268","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D186" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E186" s="33">
+        <v>900</v>
+      </c>
+      <c r="F186" s="34">
+        <f t="shared" si="5"/>
+        <v>1046.51</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" outlineLevel="1">
+      <c r="A187" s="32">
+        <v>18</v>
+      </c>
+      <c r="B187" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/resume/f41645ea0007ccea100013a3fa745678767a38","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C180" s="33" t="s">
+      <c r="C187" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D180" s="33" t="s">
+      <c r="D187" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E180" s="33">
+      <c r="E187" s="33">
         <v>900</v>
       </c>
-      <c r="F180" s="34">
+      <c r="F187" s="34">
         <f t="shared" si="5"/>
         <v>1046.51</v>
       </c>
     </row>
-    <row r="181" spans="1:6" outlineLevel="1">
-      <c r="A181" s="32">
-        <v>18</v>
-      </c>
-      <c r="B181" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/1dd6595a00089f93380013a3fa343859796268","Слесарь-сантехник")</f>
+    <row r="188" spans="1:6" outlineLevel="1">
+      <c r="A188" s="32">
+        <v>18</v>
+      </c>
+      <c r="B188" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/4c6c4cc700058057640013a3fa4264736e3136","Слесарь-сантехник")</f>
         <v>Слесарь-сантехник</v>
       </c>
-      <c r="C181" s="33" t="s">
+      <c r="C188" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="D181" s="33" t="s">
+      <c r="D188" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E181" s="33">
+      <c r="E188" s="33">
         <v>900</v>
       </c>
-      <c r="F181" s="34">
+      <c r="F188" s="34">
         <f t="shared" si="5"/>
         <v>1046.51</v>
       </c>
     </row>
-    <row r="182" spans="1:6" outlineLevel="1">
-      <c r="A182" s="32">
-        <v>18</v>
-      </c>
-      <c r="B182" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ef73139000096bd5b60013a3fa695670746b6e","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C182" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D182" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E182" s="33">
-        <v>800</v>
-      </c>
-      <c r="F182" s="34">
-        <f t="shared" si="5"/>
-        <v>930.23</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" outlineLevel="1">
-      <c r="A183" s="32">
-        <v>18</v>
-      </c>
-      <c r="B183" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/27d09a3c000968ec9f0013a3fa4a594a677844","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C183" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D183" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E183" s="33">
-        <v>700</v>
-      </c>
-      <c r="F183" s="34">
-        <f t="shared" si="5"/>
-        <v>813.95</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" outlineLevel="1">
-      <c r="A184" s="32">
-        <v>18</v>
-      </c>
-      <c r="B184" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/4cc0d6c70009801a3a0013a3fa706c5a413766","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C184" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D184" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E184" s="33">
-        <v>600</v>
-      </c>
-      <c r="F184" s="34">
-        <f t="shared" si="5"/>
-        <v>697.67</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" outlineLevel="1">
-      <c r="A185" s="32">
-        <v>18</v>
-      </c>
-      <c r="B185" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/0d1eef8c0007dfb5e90013a3fa7378434c7a48","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C185" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="D185" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E185" s="33">
-        <v>400</v>
-      </c>
-      <c r="F185" s="34">
-        <f t="shared" si="5"/>
-        <v>465.12</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" outlineLevel="1">
-      <c r="A186" s="32">
-        <v>18</v>
-      </c>
-      <c r="B186" s="33"/>
-      <c r="C186" s="33"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="1:6" outlineLevel="1">
-      <c r="A187" s="32">
-        <v>18</v>
-      </c>
-      <c r="B187" s="33"/>
-      <c r="C187" s="33"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="1:6" outlineLevel="1">
-      <c r="A188" s="32">
-        <v>18</v>
-      </c>
-      <c r="B188" s="33"/>
-      <c r="C188" s="33"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
     <row r="189" spans="1:6" outlineLevel="1">
       <c r="A189" s="32">
         <v>18</v>
       </c>
-      <c r="B189" s="33"/>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="34" t="str">
+      <c r="B189" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/5ad518fa00099411590013a3fa62684a564d76","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C189" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D189" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E189" s="33">
+        <v>900</v>
+      </c>
+      <c r="F189" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="190" spans="1:6" outlineLevel="1">
       <c r="A190" s="32">
         <v>18</v>
       </c>
-      <c r="B190" s="33"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="33"/>
-      <c r="F190" s="34" t="str">
+      <c r="B190" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/ced44e5b00099bc5cd0013a3fa706a72613354","Слесарь-сантехник")</f>
+        <v>Слесарь-сантехник</v>
+      </c>
+      <c r="C190" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D190" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E190" s="33">
+        <v>260</v>
+      </c>
+      <c r="F190" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>302.33</v>
       </c>
     </row>
     <row r="191" spans="1:6" outlineLevel="1">
       <c r="A191" s="32">
         <v>18</v>
       </c>
-      <c r="B191" s="33"/>
-      <c r="C191" s="33"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="34" t="str">
+      <c r="B191" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/52073241","Дарида, Частное предприятие")</f>
+        <v>Дарида, Частное предприятие</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D191" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E191" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F191" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="192" spans="1:6" outlineLevel="1">
       <c r="A192" s="32">
         <v>18</v>
       </c>
-      <c r="B192" s="33"/>
-      <c r="C192" s="33"/>
-      <c r="D192" s="33"/>
-      <c r="E192" s="33"/>
-      <c r="F192" s="34" t="str">
+      <c r="B192" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51581778","ООО Строительная компания АгриПО")</f>
+        <v>ООО Строительная компания АгриПО</v>
+      </c>
+      <c r="C192" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D192" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E192" s="33">
+        <v>3000</v>
+      </c>
+      <c r="F192" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3488.37</v>
       </c>
     </row>
     <row r="193" spans="1:6" outlineLevel="1">
       <c r="A193" s="32">
         <v>18</v>
       </c>
-      <c r="B193" s="33"/>
-      <c r="C193" s="33"/>
-      <c r="D193" s="33"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="34" t="str">
+      <c r="B193" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/46912474","Молочный гостинец")</f>
+        <v>Молочный гостинец</v>
+      </c>
+      <c r="C193" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D193" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E193" s="33">
+        <v>900</v>
+      </c>
+      <c r="F193" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="194" spans="1:6" outlineLevel="1">
       <c r="A194" s="32">
         <v>18</v>
       </c>
-      <c r="B194" s="33"/>
-      <c r="C194" s="33"/>
-      <c r="D194" s="33"/>
-      <c r="E194" s="33"/>
-      <c r="F194" s="34" t="str">
+      <c r="B194" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49310335","Онега")</f>
+        <v>Онега</v>
+      </c>
+      <c r="C194" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D194" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E194" s="33">
+        <v>1300</v>
+      </c>
+      <c r="F194" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="195" spans="1:6" outlineLevel="1">
       <c r="A195" s="32">
         <v>18</v>
       </c>
-      <c r="B195" s="33"/>
-      <c r="C195" s="33"/>
-      <c r="D195" s="33"/>
-      <c r="E195" s="33"/>
-      <c r="F195" s="34" t="str">
+      <c r="B195" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50808598","ОДО Виталюр")</f>
+        <v>ОДО Виталюр</v>
+      </c>
+      <c r="C195" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D195" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E195" s="33">
+        <v>1350</v>
+      </c>
+      <c r="F195" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1569.77</v>
       </c>
     </row>
     <row r="196" spans="1:6" outlineLevel="1">
       <c r="A196" s="32">
         <v>18</v>
       </c>
-      <c r="B196" s="33"/>
-      <c r="C196" s="33"/>
-      <c r="D196" s="33"/>
-      <c r="E196" s="33"/>
-      <c r="F196" s="34" t="str">
+      <c r="B196" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51468228","ООО Мистер Профи")</f>
+        <v>ООО Мистер Профи</v>
+      </c>
+      <c r="C196" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D196" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E196" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F196" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="197" spans="1:6" outlineLevel="1">
       <c r="A197" s="32">
         <v>18</v>
       </c>
-      <c r="B197" s="33"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="33"/>
-      <c r="E197" s="33"/>
-      <c r="F197" s="34" t="str">
+      <c r="B197" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51878456","ООО Вайлд Вотер")</f>
+        <v>ООО Вайлд Вотер</v>
+      </c>
+      <c r="C197" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D197" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E197" s="33">
+        <v>900</v>
+      </c>
+      <c r="F197" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="198" spans="1:6" outlineLevel="1">
       <c r="A198" s="32">
         <v>18</v>
       </c>
-      <c r="B198" s="33"/>
-      <c r="C198" s="33"/>
-      <c r="D198" s="33"/>
-      <c r="E198" s="33"/>
-      <c r="F198" s="34" t="str">
+      <c r="B198" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51880739","Белоруснефть-Промсервис")</f>
+        <v>Белоруснефть-Промсервис</v>
+      </c>
+      <c r="C198" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D198" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E198" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F198" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1627.91</v>
       </c>
     </row>
     <row r="199" spans="1:6" outlineLevel="1">
       <c r="A199" s="32">
         <v>18</v>
       </c>
-      <c r="B199" s="33"/>
-      <c r="C199" s="33"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="34" t="str">
+      <c r="B199" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/52020627","ГРИНрозница ГК РАПА")</f>
+        <v>ГРИНрозница ГК РАПА</v>
+      </c>
+      <c r="C199" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D199" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E199" s="33">
+        <v>1105</v>
+      </c>
+      <c r="F199" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1284.8800000000001</v>
       </c>
     </row>
     <row r="200" spans="1:6" outlineLevel="1">
       <c r="A200" s="32">
         <v>18</v>
       </c>
-      <c r="B200" s="33"/>
-      <c r="C200" s="33"/>
-      <c r="D200" s="33"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="34" t="str">
+      <c r="B200" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51324136","Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства")</f>
+        <v>Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства</v>
+      </c>
+      <c r="C200" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D200" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E200" s="33">
+        <v>950</v>
+      </c>
+      <c r="F200" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1104.6500000000001</v>
       </c>
     </row>
     <row r="201" spans="1:6" outlineLevel="1">
       <c r="A201" s="32">
         <v>18</v>
       </c>
-      <c r="B201" s="33"/>
-      <c r="C201" s="33"/>
-      <c r="D201" s="33"/>
-      <c r="E201" s="33"/>
-      <c r="F201" s="34" t="str">
+      <c r="B201" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51890579","Всё для тепла монтаж")</f>
+        <v>Всё для тепла монтаж</v>
+      </c>
+      <c r="C201" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D201" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E201" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F201" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="202" spans="1:6" outlineLevel="1">
       <c r="A202" s="32">
         <v>18</v>
       </c>
-      <c r="B202" s="33"/>
-      <c r="C202" s="33"/>
-      <c r="D202" s="33"/>
-      <c r="E202" s="33"/>
-      <c r="F202" s="34" t="str">
+      <c r="B202" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50923392","СтэмСервис")</f>
+        <v>СтэмСервис</v>
+      </c>
+      <c r="C202" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D202" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E202" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F202" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="203" spans="1:6" outlineLevel="1">
       <c r="A203" s="32">
         <v>18</v>
       </c>
-      <c r="B203" s="33"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="34" t="str">
+      <c r="B203" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/52020607","ЗАО Выставочный центр АКВАБЕЛ")</f>
+        <v>ЗАО Выставочный центр АКВАБЕЛ</v>
+      </c>
+      <c r="C203" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D203" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E203" s="33">
+        <v>1400</v>
+      </c>
+      <c r="F203" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1627.91</v>
       </c>
     </row>
     <row r="204" spans="1:6" outlineLevel="1">
       <c r="A204" s="32">
         <v>18</v>
       </c>
-      <c r="B204" s="33"/>
-      <c r="C204" s="33"/>
-      <c r="D204" s="33"/>
-      <c r="E204" s="33"/>
-      <c r="F204" s="34" t="str">
+      <c r="B204" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51213463","ООО СТС-Ринново")</f>
+        <v>ООО СТС-Ринново</v>
+      </c>
+      <c r="C204" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D204" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E204" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F204" s="34">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -29502,31 +29674,31 @@
         <v>18</v>
       </c>
       <c r="B206" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50638485","ЭЛЕКТРОСИЛА, сеть магазинов")</f>
+        <v>ЭЛЕКТРОСИЛА, сеть магазинов</v>
+      </c>
+      <c r="C206" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D206" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E206" s="33">
+        <v>400</v>
+      </c>
+      <c r="F206" s="34">
+        <f t="shared" ref="F206:F237" si="6">IF(ROUND(E206/$K$11,2)&gt;0,ROUND(E206/$K$11,2),"")</f>
+        <v>465.12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" outlineLevel="1">
+      <c r="A207" s="32">
+        <v>18</v>
+      </c>
+      <c r="B207" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/50625260","ЗАО E-dostavka.by")</f>
         <v>ЗАО E-dostavka.by</v>
       </c>
-      <c r="C206" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D206" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E206" s="33">
-        <v>3000</v>
-      </c>
-      <c r="F206" s="34">
-        <f t="shared" ref="F206:F237" si="6">IF(ROUND(E206/$K$11,2)&gt;0,ROUND(E206/$K$11,2),"")</f>
-        <v>3488.37</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" outlineLevel="1">
-      <c r="A207" s="32">
-        <v>18</v>
-      </c>
-      <c r="B207" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50613155","ЭЛЕКТРОСИЛА, сеть магазинов")</f>
-        <v>ЭЛЕКТРОСИЛА, сеть магазинов</v>
-      </c>
       <c r="C207" s="33" t="s">
         <v>804</v>
       </c>
@@ -29534,11 +29706,11 @@
         <v>723</v>
       </c>
       <c r="E207" s="33">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="F207" s="34">
         <f t="shared" si="6"/>
-        <v>930.23</v>
+        <v>3488.37</v>
       </c>
     </row>
     <row r="208" spans="1:6" outlineLevel="1">
@@ -29546,8 +29718,8 @@
         <v>18</v>
       </c>
       <c r="B208" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48848966","ТУТ и ТАМ Логистикс")</f>
-        <v>ТУТ и ТАМ Логистикс</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51280691","Группа компаний НП-Сервис")</f>
+        <v>Группа компаний НП-Сервис</v>
       </c>
       <c r="C208" s="33" t="s">
         <v>804</v>
@@ -29556,11 +29728,11 @@
         <v>723</v>
       </c>
       <c r="E208" s="33">
-        <v>1000</v>
+        <v>2050</v>
       </c>
       <c r="F208" s="34">
         <f t="shared" si="6"/>
-        <v>1162.79</v>
+        <v>2383.7199999999998</v>
       </c>
     </row>
     <row r="209" spans="1:6" outlineLevel="1">
@@ -29568,8 +29740,8 @@
         <v>18</v>
       </c>
       <c r="B209" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50295826","ЗООХАУЗ")</f>
-        <v>ЗООХАУЗ</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51932772","ООО Швейная королева")</f>
+        <v>ООО Швейная королева</v>
       </c>
       <c r="C209" s="33" t="s">
         <v>804</v>
@@ -29590,8 +29762,8 @@
         <v>18</v>
       </c>
       <c r="B210" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50413814","БелТРАМП")</f>
-        <v>БелТРАМП</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/52035463","Жемчужина кухни")</f>
+        <v>Жемчужина кухни</v>
       </c>
       <c r="C210" s="33" t="s">
         <v>804</v>
@@ -29600,11 +29772,11 @@
         <v>723</v>
       </c>
       <c r="E210" s="33">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F210" s="34">
         <f t="shared" si="6"/>
-        <v>930.23</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="211" spans="1:6" outlineLevel="1">
@@ -29612,8 +29784,8 @@
         <v>18</v>
       </c>
       <c r="B211" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50366421","ООО ФрэшАйс")</f>
-        <v>ООО ФрэшАйс</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51966351","СОСЕДИ, Сеть магазинов")</f>
+        <v>СОСЕДИ, Сеть магазинов</v>
       </c>
       <c r="C211" s="33" t="s">
         <v>804</v>
@@ -29634,8 +29806,8 @@
         <v>18</v>
       </c>
       <c r="B212" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50152948","ООО Прадиус Нова")</f>
-        <v>ООО Прадиус Нова</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/52065012","ООО ЗИКО-ЗОРКА Групп")</f>
+        <v>ООО ЗИКО-ЗОРКА Групп</v>
       </c>
       <c r="C212" s="33" t="s">
         <v>804</v>
@@ -29644,11 +29816,11 @@
         <v>723</v>
       </c>
       <c r="E212" s="33">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F212" s="34">
         <f t="shared" si="6"/>
-        <v>2325.58</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="213" spans="1:6" outlineLevel="1">
@@ -29656,8 +29828,8 @@
         <v>18</v>
       </c>
       <c r="B213" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48792506","ООО Кэпитал Логистик")</f>
-        <v>ООО Кэпитал Логистик</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51987675","БАРЕНЦЕВО")</f>
+        <v>БАРЕНЦЕВО</v>
       </c>
       <c r="C213" s="33" t="s">
         <v>804</v>
@@ -29666,11 +29838,11 @@
         <v>723</v>
       </c>
       <c r="E213" s="33">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F213" s="34">
         <f t="shared" si="6"/>
-        <v>1395.35</v>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="214" spans="1:6" outlineLevel="1">
@@ -29678,8 +29850,8 @@
         <v>18</v>
       </c>
       <c r="B214" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50319760","Ассомедика,ООО")</f>
-        <v>Ассомедика,ООО</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50845699","АЛМИ, ГК")</f>
+        <v>АЛМИ, ГК</v>
       </c>
       <c r="C214" s="33" t="s">
         <v>804</v>
@@ -29688,11 +29860,11 @@
         <v>723</v>
       </c>
       <c r="E214" s="33">
-        <v>990</v>
+        <v>850</v>
       </c>
       <c r="F214" s="34">
         <f t="shared" si="6"/>
-        <v>1151.1600000000001</v>
+        <v>988.37</v>
       </c>
     </row>
     <row r="215" spans="1:6" outlineLevel="1">
@@ -29700,8 +29872,8 @@
         <v>18</v>
       </c>
       <c r="B215" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50625349","МБС-ТоргСервис")</f>
-        <v>МБС-ТоргСервис</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/52079696","ООО Кальянная Республика")</f>
+        <v>ООО Кальянная Республика</v>
       </c>
       <c r="C215" s="33" t="s">
         <v>804</v>
@@ -29710,11 +29882,11 @@
         <v>723</v>
       </c>
       <c r="E215" s="33">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F215" s="34">
         <f t="shared" si="6"/>
-        <v>1395.35</v>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="216" spans="1:6" outlineLevel="1">
@@ -29722,8 +29894,8 @@
         <v>18</v>
       </c>
       <c r="B216" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50657972","ООО МОНТБРУК")</f>
-        <v>ООО МОНТБРУК</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50873697","ООО Кэпитал Логистик")</f>
+        <v>ООО Кэпитал Логистик</v>
       </c>
       <c r="C216" s="33" t="s">
         <v>804</v>
@@ -29732,11 +29904,11 @@
         <v>723</v>
       </c>
       <c r="E216" s="33">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F216" s="34">
         <f t="shared" si="6"/>
-        <v>1046.51</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="217" spans="1:6" outlineLevel="1">
@@ -29744,272 +29916,272 @@
         <v>18</v>
       </c>
       <c r="B217" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/52111146","ЗООХАУЗ")</f>
+        <v>ЗООХАУЗ</v>
+      </c>
+      <c r="C217" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D217" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E217" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F217" s="34">
+        <f t="shared" si="6"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" outlineLevel="1">
+      <c r="A218" s="32">
+        <v>18</v>
+      </c>
+      <c r="B218" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50805065","ОДО Лучший Вкус")</f>
+        <v>ОДО Лучший Вкус</v>
+      </c>
+      <c r="C218" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D218" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E218" s="33">
+        <v>950</v>
+      </c>
+      <c r="F218" s="34">
+        <f t="shared" si="6"/>
+        <v>1104.6500000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" outlineLevel="1">
+      <c r="A219" s="32">
+        <v>18</v>
+      </c>
+      <c r="B219" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/25922595","ОДО Виталюр")</f>
+        <v>ОДО Виталюр</v>
+      </c>
+      <c r="C219" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D219" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E219" s="33">
+        <v>880</v>
+      </c>
+      <c r="F219" s="34">
+        <f t="shared" si="6"/>
+        <v>1023.26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" outlineLevel="1">
+      <c r="A220" s="32">
+        <v>18</v>
+      </c>
+      <c r="B220" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51621430","ООО Мартин Бел")</f>
+        <v>ООО Мартин Бел</v>
+      </c>
+      <c r="C220" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D220" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E220" s="33">
+        <v>800</v>
+      </c>
+      <c r="F220" s="34">
+        <f t="shared" si="6"/>
+        <v>930.23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" outlineLevel="1">
+      <c r="A221" s="32">
+        <v>18</v>
+      </c>
+      <c r="B221" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50812446","ТУТ и ТАМ Логистикс")</f>
+        <v>ТУТ и ТАМ Логистикс</v>
+      </c>
+      <c r="C221" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D221" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E221" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F221" s="34">
+        <f t="shared" si="6"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" outlineLevel="1">
+      <c r="A222" s="32">
+        <v>18</v>
+      </c>
+      <c r="B222" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51706032","ООО Славпродсервис")</f>
+        <v>ООО Славпродсервис</v>
+      </c>
+      <c r="C222" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D222" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E222" s="33">
+        <v>900</v>
+      </c>
+      <c r="F222" s="34">
+        <f t="shared" si="6"/>
+        <v>1046.51</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" outlineLevel="1">
+      <c r="A223" s="32">
+        <v>18</v>
+      </c>
+      <c r="B223" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51887432","МиланКосметикс")</f>
+        <v>МиланКосметикс</v>
+      </c>
+      <c r="C223" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D223" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E223" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F223" s="34">
+        <f t="shared" si="6"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" outlineLevel="1">
+      <c r="A224" s="32">
+        <v>18</v>
+      </c>
+      <c r="B224" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/49784571","ООО СП Софтформ")</f>
         <v>ООО СП Софтформ</v>
       </c>
-      <c r="C217" s="33" t="s">
+      <c r="C224" s="33" t="s">
         <v>804</v>
       </c>
-      <c r="D217" s="33" t="s">
+      <c r="D224" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E217" s="33">
+      <c r="E224" s="33">
         <v>850</v>
       </c>
-      <c r="F217" s="34">
+      <c r="F224" s="34">
         <f t="shared" si="6"/>
         <v>988.37</v>
       </c>
     </row>
-    <row r="218" spans="1:6" outlineLevel="1">
-      <c r="A218" s="32">
-        <v>18</v>
-      </c>
-      <c r="B218" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50624108","ООО Складэксперт")</f>
-        <v>ООО Складэксперт</v>
-      </c>
-      <c r="C218" s="33" t="s">
+    <row r="225" spans="1:6" outlineLevel="1">
+      <c r="A225" s="32">
+        <v>18</v>
+      </c>
+      <c r="B225" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51651805","ООО Релуи Бел")</f>
+        <v>ООО Релуи Бел</v>
+      </c>
+      <c r="C225" s="33" t="s">
         <v>804</v>
       </c>
-      <c r="D218" s="33" t="s">
+      <c r="D225" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E218" s="33">
-        <v>2280</v>
-      </c>
-      <c r="F218" s="34">
+      <c r="E225" s="33">
+        <v>700</v>
+      </c>
+      <c r="F225" s="34">
         <f t="shared" si="6"/>
-        <v>2651.16</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" outlineLevel="1">
-      <c r="A219" s="32">
-        <v>18</v>
-      </c>
-      <c r="B219" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50663462","ООО Имидж косметик")</f>
-        <v>ООО Имидж косметик</v>
-      </c>
-      <c r="C219" s="33" t="s">
+        <v>813.95</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" outlineLevel="1">
+      <c r="A226" s="32">
+        <v>18</v>
+      </c>
+      <c r="B226" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/48991846","ООО Желенторг")</f>
+        <v>ООО Желенторг</v>
+      </c>
+      <c r="C226" s="33" t="s">
         <v>804</v>
       </c>
-      <c r="D219" s="33" t="s">
+      <c r="D226" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E219" s="33">
-        <v>900</v>
-      </c>
-      <c r="F219" s="34">
-        <f t="shared" si="6"/>
-        <v>1046.51</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" outlineLevel="1">
-      <c r="A220" s="32">
-        <v>18</v>
-      </c>
-      <c r="B220" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50715732","ООО Торговый Дом Система")</f>
-        <v>ООО Торговый Дом Система</v>
-      </c>
-      <c r="C220" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D220" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E220" s="33">
-        <v>1300</v>
-      </c>
-      <c r="F220" s="34">
-        <f t="shared" si="6"/>
-        <v>1511.63</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" outlineLevel="1">
-      <c r="A221" s="32">
-        <v>18</v>
-      </c>
-      <c r="B221" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50250763","ООО ИмЭкс Трейд")</f>
-        <v>ООО ИмЭкс Трейд</v>
-      </c>
-      <c r="C221" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D221" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E221" s="33">
+      <c r="E226" s="33">
         <v>2000</v>
       </c>
-      <c r="F221" s="34">
+      <c r="F226" s="34">
         <f t="shared" si="6"/>
         <v>2325.58</v>
       </c>
     </row>
-    <row r="222" spans="1:6" outlineLevel="1">
-      <c r="A222" s="32">
-        <v>18</v>
-      </c>
-      <c r="B222" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/44406725","ЕВРООПТ")</f>
-        <v>ЕВРООПТ</v>
-      </c>
-      <c r="C222" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D222" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E222" s="33">
-        <v>2450</v>
-      </c>
-      <c r="F222" s="34">
-        <f t="shared" si="6"/>
-        <v>2848.84</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" outlineLevel="1">
-      <c r="A223" s="32">
-        <v>18</v>
-      </c>
-      <c r="B223" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/41629986","КОРОНА, ЗАМОК Торговые центры")</f>
-        <v>КОРОНА, ЗАМОК Торговые центры</v>
-      </c>
-      <c r="C223" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D223" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E223" s="33">
-        <v>716</v>
-      </c>
-      <c r="F223" s="34">
-        <f t="shared" si="6"/>
-        <v>832.56</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" outlineLevel="1">
-      <c r="A224" s="32">
-        <v>18</v>
-      </c>
-      <c r="B224" s="44" t="str">
+    <row r="227" spans="1:6" outlineLevel="1">
+      <c r="A227" s="32">
+        <v>18</v>
+      </c>
+      <c r="B227" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/43816127","ГРИНрозница ГК РАПА")</f>
         <v>ГРИНрозница ГК РАПА</v>
       </c>
-      <c r="C224" s="33" t="s">
+      <c r="C227" s="33" t="s">
         <v>804</v>
       </c>
-      <c r="D224" s="33" t="s">
+      <c r="D227" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E224" s="33">
+      <c r="E227" s="33">
         <v>910</v>
       </c>
-      <c r="F224" s="34">
+      <c r="F227" s="34">
         <f t="shared" si="6"/>
         <v>1058.1400000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:6" outlineLevel="1">
-      <c r="A225" s="32">
-        <v>18</v>
-      </c>
-      <c r="B225" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49863388","Сеть магазинов Мила (ГК, Парфюмбытхим)")</f>
-        <v>Сеть магазинов Мила (ГК, Парфюмбытхим)</v>
-      </c>
-      <c r="C225" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D225" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E225" s="33">
-        <v>1000</v>
-      </c>
-      <c r="F225" s="34">
-        <f t="shared" si="6"/>
-        <v>1162.79</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" outlineLevel="1">
-      <c r="A226" s="32">
-        <v>18</v>
-      </c>
-      <c r="B226" s="44" t="str">
+    <row r="228" spans="1:6" outlineLevel="1">
+      <c r="A228" s="32">
+        <v>18</v>
+      </c>
+      <c r="B228" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/50761455","ProStore")</f>
         <v>ProStore</v>
       </c>
-      <c r="C226" s="33" t="s">
+      <c r="C228" s="33" t="s">
         <v>804</v>
       </c>
-      <c r="D226" s="33" t="s">
+      <c r="D228" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E226" s="33">
+      <c r="E228" s="33">
         <v>970</v>
       </c>
-      <c r="F226" s="34">
+      <c r="F228" s="34">
         <f t="shared" si="6"/>
         <v>1127.9100000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:6" outlineLevel="1">
-      <c r="A227" s="32">
-        <v>18</v>
-      </c>
-      <c r="B227" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50794649","БЕЛМАРКЕТ")</f>
-        <v>БЕЛМАРКЕТ</v>
-      </c>
-      <c r="C227" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D227" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E227" s="33">
-        <v>860</v>
-      </c>
-      <c r="F227" s="34">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" outlineLevel="1">
-      <c r="A228" s="32">
-        <v>18</v>
-      </c>
-      <c r="B228" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50370749","ООО Санта Ритейл")</f>
-        <v>ООО Санта Ритейл</v>
-      </c>
-      <c r="C228" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D228" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E228" s="33">
-        <v>880</v>
-      </c>
-      <c r="F228" s="34">
-        <f t="shared" si="6"/>
-        <v>1023.26</v>
-      </c>
-    </row>
     <row r="229" spans="1:6" outlineLevel="1">
       <c r="A229" s="32">
         <v>18</v>
       </c>
       <c r="B229" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/37408383","СОСЕДИ, Сеть магазинов")</f>
-        <v>СОСЕДИ, Сеть магазинов</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51089147","ООО Ресттрэйд / Дионис")</f>
+        <v>ООО Ресттрэйд / Дионис</v>
       </c>
       <c r="C229" s="33" t="s">
         <v>804</v>
@@ -30018,11 +30190,11 @@
         <v>723</v>
       </c>
       <c r="E229" s="33">
-        <v>1300</v>
+        <v>904</v>
       </c>
       <c r="F229" s="34">
         <f t="shared" si="6"/>
-        <v>1511.63</v>
+        <v>1051.1600000000001</v>
       </c>
     </row>
     <row r="230" spans="1:6" outlineLevel="1">
@@ -30030,8 +30202,8 @@
         <v>18</v>
       </c>
       <c r="B230" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50008816","АЛИДИ-Вест, ИООО")</f>
-        <v>АЛИДИ-Вест, ИООО</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51264823","КОРОНА, ЗАМОК Торговые центры")</f>
+        <v>КОРОНА, ЗАМОК Торговые центры</v>
       </c>
       <c r="C230" s="33" t="s">
         <v>804</v>
@@ -30040,11 +30212,11 @@
         <v>723</v>
       </c>
       <c r="E230" s="33">
-        <v>1700</v>
+        <v>960</v>
       </c>
       <c r="F230" s="34">
         <f t="shared" si="6"/>
-        <v>1976.74</v>
+        <v>1116.28</v>
       </c>
     </row>
     <row r="231" spans="1:6" outlineLevel="1">
@@ -30052,8 +30224,8 @@
         <v>18</v>
       </c>
       <c r="B231" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50784978","Добрада")</f>
-        <v>Добрада</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/48198370","ЕВРООПТ")</f>
+        <v>ЕВРООПТ</v>
       </c>
       <c r="C231" s="33" t="s">
         <v>804</v>
@@ -30062,11 +30234,11 @@
         <v>723</v>
       </c>
       <c r="E231" s="33">
-        <v>2300</v>
+        <v>850</v>
       </c>
       <c r="F231" s="34">
         <f t="shared" si="6"/>
-        <v>2674.42</v>
+        <v>988.37</v>
       </c>
     </row>
     <row r="232" spans="1:6" outlineLevel="1">
@@ -30074,8 +30246,8 @@
         <v>18</v>
       </c>
       <c r="B232" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/25922595","ОДО Виталюр")</f>
-        <v>ОДО Виталюр</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50799258","БЕЛМАРКЕТ")</f>
+        <v>БЕЛМАРКЕТ</v>
       </c>
       <c r="C232" s="33" t="s">
         <v>804</v>
@@ -30084,11 +30256,11 @@
         <v>723</v>
       </c>
       <c r="E232" s="33">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="F232" s="34">
         <f t="shared" si="6"/>
-        <v>1023.26</v>
+        <v>988.37</v>
       </c>
     </row>
     <row r="233" spans="1:6" outlineLevel="1">
@@ -30096,8 +30268,8 @@
         <v>18</v>
       </c>
       <c r="B233" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/44434206","Группа компаний НП-Сервис")</f>
-        <v>Группа компаний НП-Сервис</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50813117","ООО Санта Ритейл")</f>
+        <v>ООО Санта Ритейл</v>
       </c>
       <c r="C233" s="33" t="s">
         <v>804</v>
@@ -30106,11 +30278,11 @@
         <v>723</v>
       </c>
       <c r="E233" s="33">
-        <v>2050</v>
+        <v>1090</v>
       </c>
       <c r="F233" s="34">
         <f t="shared" si="6"/>
-        <v>2383.7199999999998</v>
+        <v>1267.44</v>
       </c>
     </row>
     <row r="234" spans="1:6" outlineLevel="1">
@@ -30118,7 +30290,7 @@
         <v>18</v>
       </c>
       <c r="B234" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/47483269","ЗАО Доброном")</f>
+        <f>HYPERLINK("https://rabota.by/vacancy/51320947","ЗАО Доброном")</f>
         <v>ЗАО Доброном</v>
       </c>
       <c r="C234" s="33" t="s">
@@ -30140,8 +30312,8 @@
         <v>18</v>
       </c>
       <c r="B235" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48991846","ООО Желенторг")</f>
-        <v>ООО Желенторг</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50319760","Ассомедика,ООО")</f>
+        <v>Ассомедика,ООО</v>
       </c>
       <c r="C235" s="33" t="s">
         <v>804</v>
@@ -30150,11 +30322,11 @@
         <v>723</v>
       </c>
       <c r="E235" s="33">
-        <v>2000</v>
+        <v>1150</v>
       </c>
       <c r="F235" s="34">
         <f t="shared" si="6"/>
-        <v>2325.58</v>
+        <v>1337.21</v>
       </c>
     </row>
     <row r="236" spans="1:6" outlineLevel="1">
@@ -30162,7 +30334,7 @@
         <v>18</v>
       </c>
       <c r="B236" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/1aaf297d00084df4dd0013a3fa3634596f5467","Укладчик-упаковщик/Комплектовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/3bec9df200099ffec40013a3fa483333786737","Укладчик-упаковщик/Комплектовщик")</f>
         <v>Укладчик-упаковщик/Комплектовщик</v>
       </c>
       <c r="C236" s="33" t="s">
@@ -30172,11 +30344,11 @@
         <v>721</v>
       </c>
       <c r="E236" s="33">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F236" s="34">
         <f t="shared" si="6"/>
-        <v>1511.63</v>
+        <v>1627.91</v>
       </c>
     </row>
     <row r="237" spans="1:6" outlineLevel="1">
@@ -30184,7 +30356,7 @@
         <v>18</v>
       </c>
       <c r="B237" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/0b05f56200098d4ce50013a3fa67754c725976","Укладчик-упаковщик/Комплектовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/ce471449000958ed840013a3fa643348307136","Укладчик-упаковщик/Комплектовщик")</f>
         <v>Укладчик-упаковщик/Комплектовщик</v>
       </c>
       <c r="C237" s="33" t="s">
@@ -30194,11 +30366,11 @@
         <v>721</v>
       </c>
       <c r="E237" s="33">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F237" s="34">
         <f t="shared" si="6"/>
-        <v>1395.35</v>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="238" spans="1:6" outlineLevel="1">
@@ -30206,7 +30378,7 @@
         <v>18</v>
       </c>
       <c r="B238" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/47c3098c0009898e950013a3fa59547842676b","Укладчик-упаковщик/Комплектовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/6cb0a7840003b9adf00013a3fa796362346877","Укладчик-упаковщик/Комплектовщик")</f>
         <v>Укладчик-упаковщик/Комплектовщик</v>
       </c>
       <c r="C238" s="33" t="s">
@@ -30228,7 +30400,7 @@
         <v>18</v>
       </c>
       <c r="B239" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/6cb0a7840003b9adf00013a3fa796362346877","Укладчик-упаковщик/Комплектовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/0173aabc00080ab64d0013a3fa694b30497165","Укладчик-упаковщик/Комплектовщик")</f>
         <v>Укладчик-упаковщик/Комплектовщик</v>
       </c>
       <c r="C239" s="33" t="s">
@@ -30250,7 +30422,7 @@
         <v>18</v>
       </c>
       <c r="B240" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/0173aabc00080ab64d0013a3fa694b30497165","Укладчик-упаковщик/Комплектовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/0b05f56200098d4ce50013a3fa67754c725976","Укладчик-упаковщик/Комплектовщик")</f>
         <v>Укладчик-упаковщик/Комплектовщик</v>
       </c>
       <c r="C240" s="33" t="s">
@@ -30272,7 +30444,7 @@
         <v>18</v>
       </c>
       <c r="B241" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/0ad261ed0002fb8c4a0013a3fa4270744e614a","Укладчик-упаковщик/Комплектовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/03119f76000586c65c0013a3fa346a3239527a","Укладчик-упаковщик/Комплектовщик")</f>
         <v>Укладчик-упаковщик/Комплектовщик</v>
       </c>
       <c r="C241" s="33" t="s">
@@ -30294,7 +30466,7 @@
         <v>18</v>
       </c>
       <c r="B242" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/b9a9d85800057ad37b0013a3fa6d4e44454466","Укладчик-упаковщик/Комплектовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/e48f9b470003cb9f440013a3fa4f6162733965","Укладчик-упаковщик/Комплектовщик")</f>
         <v>Укладчик-упаковщик/Комплектовщик</v>
       </c>
       <c r="C242" s="33" t="s">
@@ -30316,7 +30488,7 @@
         <v>18</v>
       </c>
       <c r="B243" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ef7c402d0008cd625b0013a3fa77663151554e","Укладчик-упаковщик/Комплектовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/b9a9d85800057ad37b0013a3fa6d4e44454466","Укладчик-упаковщик/Комплектовщик")</f>
         <v>Укладчик-упаковщик/Комплектовщик</v>
       </c>
       <c r="C243" s="33" t="s">
@@ -30338,7 +30510,7 @@
         <v>18</v>
       </c>
       <c r="B244" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/638caf2c0008c0953c0013a3fa4471646e6d50","Укладчик-упаковщик/Комплектовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/26511c1f0003aa94d00013a3fa74307a59524e","Укладчик-упаковщик/Комплектовщик")</f>
         <v>Укладчик-упаковщик/Комплектовщик</v>
       </c>
       <c r="C244" s="33" t="s">
@@ -30360,7 +30532,7 @@
         <v>18</v>
       </c>
       <c r="B245" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/04d024ba00098770100013a3fa6c4974724f47","Укладчик-упаковщик/Комплектовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/6ce4511b00090118740013a3fa6f4e7a41504e","Укладчик-упаковщик/Комплектовщик")</f>
         <v>Укладчик-упаковщик/Комплектовщик</v>
       </c>
       <c r="C245" s="33" t="s">
@@ -30370,11 +30542,11 @@
         <v>721</v>
       </c>
       <c r="E245" s="33">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="F245" s="34">
         <f t="shared" si="7"/>
-        <v>1162.79</v>
+        <v>988.37</v>
       </c>
     </row>
     <row r="246" spans="1:6" outlineLevel="1">
@@ -30382,7 +30554,7 @@
         <v>18</v>
       </c>
       <c r="B246" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/055f9010000864c2dc0013a3fa4a4f3146575a","Укладчик-упаковщик/Комплектовщик")</f>
+        <f>HYPERLINK("https://rabota.by/resume/ae6ce7d10008d6f9af0013a3fa4a4e71397662","Укладчик-упаковщик/Комплектовщик")</f>
         <v>Укладчик-упаковщик/Комплектовщик</v>
       </c>
       <c r="C246" s="33" t="s">
@@ -30392,11 +30564,11 @@
         <v>721</v>
       </c>
       <c r="E246" s="33">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F246" s="34">
         <f t="shared" si="7"/>
-        <v>1162.79</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="247" spans="1:6" outlineLevel="1">
@@ -30404,354 +30576,417 @@
         <v>18</v>
       </c>
       <c r="B247" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/603bf5b600089221d20013a3fa624a6351737a","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C247" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D247" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E247" s="33">
+        <v>800</v>
+      </c>
+      <c r="F247" s="34">
+        <f t="shared" si="7"/>
+        <v>930.23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" outlineLevel="1">
+      <c r="A248" s="32">
+        <v>18</v>
+      </c>
+      <c r="B248" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/7e62c5d900098f10310013a3fa776369714d43","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C248" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D248" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E248" s="33">
+        <v>800</v>
+      </c>
+      <c r="F248" s="34">
+        <f t="shared" si="7"/>
+        <v>930.23</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" outlineLevel="1">
+      <c r="A249" s="32">
+        <v>18</v>
+      </c>
+      <c r="B249" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/cf2fbc160002d5a3c50013a3fa6a574f373755","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C249" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D249" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E249" s="33">
+        <v>800</v>
+      </c>
+      <c r="F249" s="34">
+        <f t="shared" si="7"/>
+        <v>930.23</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" outlineLevel="1">
+      <c r="A250" s="32">
+        <v>18</v>
+      </c>
+      <c r="B250" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/resume/9318e41500030d532b0013a3fa396252466556","Укладчик-упаковщик/Комплектовщик")</f>
         <v>Укладчик-упаковщик/Комплектовщик</v>
       </c>
-      <c r="C247" s="33" t="s">
+      <c r="C250" s="33" t="s">
         <v>804</v>
       </c>
-      <c r="D247" s="33" t="s">
+      <c r="D250" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E247" s="33">
+      <c r="E250" s="33">
+        <v>750</v>
+      </c>
+      <c r="F250" s="34">
+        <f t="shared" si="7"/>
+        <v>872.09</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" outlineLevel="1">
+      <c r="A251" s="32">
+        <v>18</v>
+      </c>
+      <c r="B251" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/270968880001b39db60013a3fa4a6741545363","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C251" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D251" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E251" s="33">
+        <v>700</v>
+      </c>
+      <c r="F251" s="34">
+        <f t="shared" si="7"/>
+        <v>813.95</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" outlineLevel="1">
+      <c r="A252" s="32">
+        <v>18</v>
+      </c>
+      <c r="B252" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/fafcaabc00099aef430013a3fa334b554a6268","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C252" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D252" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E252" s="33">
+        <v>650</v>
+      </c>
+      <c r="F252" s="34">
+        <f t="shared" si="7"/>
+        <v>755.81</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" outlineLevel="1">
+      <c r="A253" s="32">
+        <v>18</v>
+      </c>
+      <c r="B253" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/644b8d3d000358e4360013a3fa534d41396e48","Укладчик-упаковщик/Комплектовщик")</f>
+        <v>Укладчик-упаковщик/Комплектовщик</v>
+      </c>
+      <c r="C253" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D253" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E253" s="33">
+        <v>520</v>
+      </c>
+      <c r="F253" s="34">
+        <f t="shared" si="7"/>
+        <v>604.65</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" outlineLevel="1">
+      <c r="A254" s="32">
+        <v>18</v>
+      </c>
+      <c r="B254" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51838513","ООО Имидж косметик")</f>
+        <v>ООО Имидж косметик</v>
+      </c>
+      <c r="C254" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D254" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E254" s="33">
+        <v>900</v>
+      </c>
+      <c r="F254" s="34">
+        <f t="shared" si="7"/>
+        <v>1046.51</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" outlineLevel="1">
+      <c r="A255" s="32">
+        <v>18</v>
+      </c>
+      <c r="B255" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51052686","Про-Трэйд")</f>
+        <v>Про-Трэйд</v>
+      </c>
+      <c r="C255" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D255" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E255" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F255" s="34">
+        <f t="shared" si="7"/>
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" outlineLevel="1">
+      <c r="A256" s="32">
+        <v>18</v>
+      </c>
+      <c r="B256" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50929453","Росчерк")</f>
+        <v>Росчерк</v>
+      </c>
+      <c r="C256" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D256" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E256" s="33">
+        <v>900</v>
+      </c>
+      <c r="F256" s="34">
+        <f t="shared" si="7"/>
+        <v>1046.51</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" outlineLevel="1">
+      <c r="A257" s="32">
+        <v>18</v>
+      </c>
+      <c r="B257" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50385844","ЗАО ТВК")</f>
+        <v>ЗАО ТВК</v>
+      </c>
+      <c r="C257" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D257" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E257" s="33">
+        <v>1050</v>
+      </c>
+      <c r="F257" s="34">
+        <f t="shared" si="7"/>
+        <v>1220.93</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" outlineLevel="1">
+      <c r="A258" s="32">
+        <v>18</v>
+      </c>
+      <c r="B258" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51426440","OZ.by")</f>
+        <v>OZ.by</v>
+      </c>
+      <c r="C258" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D258" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E258" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F258" s="34">
+        <f t="shared" si="7"/>
+        <v>1744.19</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" outlineLevel="1">
+      <c r="A259" s="32">
+        <v>18</v>
+      </c>
+      <c r="B259" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50699758","ООО РИВА Групп")</f>
+        <v>ООО РИВА Групп</v>
+      </c>
+      <c r="C259" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D259" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E259" s="33">
+        <v>850</v>
+      </c>
+      <c r="F259" s="34">
+        <f t="shared" si="7"/>
+        <v>988.37</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" outlineLevel="1">
+      <c r="A260" s="32">
+        <v>18</v>
+      </c>
+      <c r="B260" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/49013369","ИООО ДПД Бел")</f>
+        <v>ИООО ДПД Бел</v>
+      </c>
+      <c r="C260" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D260" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E260" s="33">
+        <v>2000</v>
+      </c>
+      <c r="F260" s="34">
+        <f t="shared" si="7"/>
+        <v>2325.58</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" outlineLevel="1">
+      <c r="A261" s="32">
+        <v>18</v>
+      </c>
+      <c r="B261" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/52109242","БелТРАМП")</f>
+        <v>БелТРАМП</v>
+      </c>
+      <c r="C261" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D261" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E261" s="33">
         <v>1000</v>
       </c>
-      <c r="F247" s="34">
+      <c r="F261" s="34">
         <f t="shared" si="7"/>
         <v>1162.79</v>
       </c>
     </row>
-    <row r="248" spans="1:6" outlineLevel="1">
-      <c r="A248" s="32">
-        <v>18</v>
-      </c>
-      <c r="B248" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ea0bab450007202c640013a3fa5439594a7476","Укладчик-упаковщик/Комплектовщик")</f>
-        <v>Укладчик-упаковщик/Комплектовщик</v>
-      </c>
-      <c r="C248" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D248" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E248" s="33">
-        <v>900</v>
-      </c>
-      <c r="F248" s="34">
-        <f t="shared" si="7"/>
-        <v>1046.51</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" outlineLevel="1">
-      <c r="A249" s="32">
-        <v>18</v>
-      </c>
-      <c r="B249" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/90d930550003f19d8d0013a3fa35654b706335","Укладчик-упаковщик/Комплектовщик")</f>
-        <v>Укладчик-упаковщик/Комплектовщик</v>
-      </c>
-      <c r="C249" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D249" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E249" s="33">
-        <v>850</v>
-      </c>
-      <c r="F249" s="34">
-        <f t="shared" si="7"/>
-        <v>988.37</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" outlineLevel="1">
-      <c r="A250" s="32">
-        <v>18</v>
-      </c>
-      <c r="B250" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/cf2fbc160002d5a3c50013a3fa6a574f373755","Укладчик-упаковщик/Комплектовщик")</f>
-        <v>Укладчик-упаковщик/Комплектовщик</v>
-      </c>
-      <c r="C250" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D250" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E250" s="33">
-        <v>800</v>
-      </c>
-      <c r="F250" s="34">
-        <f t="shared" si="7"/>
-        <v>930.23</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" outlineLevel="1">
-      <c r="A251" s="32">
-        <v>18</v>
-      </c>
-      <c r="B251" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/a1772f130008f6be610013a3fa533953374348","Укладчик-упаковщик/Комплектовщик")</f>
-        <v>Укладчик-упаковщик/Комплектовщик</v>
-      </c>
-      <c r="C251" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D251" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E251" s="33">
-        <v>800</v>
-      </c>
-      <c r="F251" s="34">
-        <f t="shared" si="7"/>
-        <v>930.23</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" outlineLevel="1">
-      <c r="A252" s="32">
-        <v>18</v>
-      </c>
-      <c r="B252" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/603bf5b600089221d20013a3fa624a6351737a","Укладчик-упаковщик/Комплектовщик")</f>
-        <v>Укладчик-упаковщик/Комплектовщик</v>
-      </c>
-      <c r="C252" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D252" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E252" s="33">
-        <v>800</v>
-      </c>
-      <c r="F252" s="34">
-        <f t="shared" si="7"/>
-        <v>930.23</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" outlineLevel="1">
-      <c r="A253" s="32">
-        <v>18</v>
-      </c>
-      <c r="B253" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/3c137e9900096745980013a3fa626d6d4a6441","Укладчик-упаковщик/Комплектовщик")</f>
-        <v>Укладчик-упаковщик/Комплектовщик</v>
-      </c>
-      <c r="C253" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D253" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E253" s="33">
-        <v>800</v>
-      </c>
-      <c r="F253" s="34">
-        <f t="shared" si="7"/>
-        <v>930.23</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" outlineLevel="1">
-      <c r="A254" s="32">
-        <v>18</v>
-      </c>
-      <c r="B254" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/f047ef4000020b5f910013a3fa756e6757344b","Укладчик-упаковщик/Комплектовщик")</f>
-        <v>Укладчик-упаковщик/Комплектовщик</v>
-      </c>
-      <c r="C254" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D254" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E254" s="33">
-        <v>700</v>
-      </c>
-      <c r="F254" s="34">
-        <f t="shared" si="7"/>
-        <v>813.95</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" outlineLevel="1">
-      <c r="A255" s="32">
-        <v>18</v>
-      </c>
-      <c r="B255" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/568a4d450001edf7190013a3fa63553752674c","Укладчик-упаковщик/Комплектовщик")</f>
-        <v>Укладчик-упаковщик/Комплектовщик</v>
-      </c>
-      <c r="C255" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D255" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E255" s="33">
-        <v>600</v>
-      </c>
-      <c r="F255" s="34">
-        <f t="shared" si="7"/>
-        <v>697.67</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" outlineLevel="1">
-      <c r="A256" s="32">
-        <v>18</v>
-      </c>
-      <c r="B256" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/e8616f2100032dba9e0013a3fa47306b494665","Укладчик-упаковщик/Комплектовщик")</f>
-        <v>Укладчик-упаковщик/Комплектовщик</v>
-      </c>
-      <c r="C256" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D256" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E256" s="33">
-        <v>600</v>
-      </c>
-      <c r="F256" s="34">
-        <f t="shared" si="7"/>
-        <v>697.67</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" outlineLevel="1">
-      <c r="A257" s="32">
-        <v>18</v>
-      </c>
-      <c r="B257" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/0328579500097fb8420013a3fa6a313057716e","Укладчик-упаковщик/Комплектовщик")</f>
-        <v>Укладчик-упаковщик/Комплектовщик</v>
-      </c>
-      <c r="C257" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D257" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E257" s="33">
-        <v>600</v>
-      </c>
-      <c r="F257" s="34">
-        <f t="shared" si="7"/>
-        <v>697.67</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" outlineLevel="1">
-      <c r="A258" s="32">
-        <v>18</v>
-      </c>
-      <c r="B258" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/644b8d3d000358e4360013a3fa534d41396e48","Укладчик-упаковщик/Комплектовщик")</f>
-        <v>Укладчик-упаковщик/Комплектовщик</v>
-      </c>
-      <c r="C258" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="D258" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E258" s="33">
-        <v>550</v>
-      </c>
-      <c r="F258" s="34">
-        <f t="shared" si="7"/>
-        <v>639.53</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" outlineLevel="1">
-      <c r="A259" s="32">
-        <v>18</v>
-      </c>
-      <c r="B259" s="33"/>
-      <c r="C259" s="33"/>
-      <c r="D259" s="33"/>
-      <c r="E259" s="33"/>
-      <c r="F259" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="1:6" outlineLevel="1">
-      <c r="A260" s="32">
-        <v>18</v>
-      </c>
-      <c r="B260" s="33"/>
-      <c r="C260" s="33"/>
-      <c r="D260" s="33"/>
-      <c r="E260" s="33"/>
-      <c r="F260" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="1:6" outlineLevel="1">
-      <c r="A261" s="32">
-        <v>18</v>
-      </c>
-      <c r="B261" s="33"/>
-      <c r="C261" s="33"/>
-      <c r="D261" s="33"/>
-      <c r="E261" s="33"/>
-      <c r="F261" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
     <row r="262" spans="1:6" outlineLevel="1">
       <c r="A262" s="32">
         <v>18</v>
       </c>
-      <c r="B262" s="33"/>
-      <c r="C262" s="33"/>
-      <c r="D262" s="33"/>
-      <c r="E262" s="33"/>
-      <c r="F262" s="34" t="str">
+      <c r="B262" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51860227","ООО Гарфилд")</f>
+        <v>ООО Гарфилд</v>
+      </c>
+      <c r="C262" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D262" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E262" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F262" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="263" spans="1:6" outlineLevel="1">
       <c r="A263" s="32">
         <v>18</v>
       </c>
-      <c r="B263" s="33"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
-      <c r="F263" s="34" t="str">
+      <c r="B263" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51794140","Хартгруппсервис")</f>
+        <v>Хартгруппсервис</v>
+      </c>
+      <c r="C263" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D263" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E263" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F263" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="264" spans="1:6" outlineLevel="1">
       <c r="A264" s="32">
         <v>18</v>
       </c>
-      <c r="B264" s="33"/>
-      <c r="C264" s="33"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="33"/>
-      <c r="F264" s="34" t="str">
+      <c r="B264" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51616063","ООО С-Нетворк")</f>
+        <v>ООО С-Нетворк</v>
+      </c>
+      <c r="C264" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D264" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E264" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F264" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="265" spans="1:6" outlineLevel="1">
       <c r="A265" s="32">
         <v>18</v>
       </c>
-      <c r="B265" s="33"/>
-      <c r="C265" s="33"/>
-      <c r="D265" s="33"/>
-      <c r="E265" s="33"/>
-      <c r="F265" s="34" t="str">
+      <c r="B265" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51610244","АртКерамика")</f>
+        <v>АртКерамика</v>
+      </c>
+      <c r="C265" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D265" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E265" s="33">
+        <v>2500</v>
+      </c>
+      <c r="F265" s="34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>2906.98</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -30769,8 +31004,8 @@
         <v>18</v>
       </c>
       <c r="B267" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50786904","ООО Деним-Джинс")</f>
-        <v>ООО Деним-Джинс</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51259646","Shangri La")</f>
+        <v>Shangri La</v>
       </c>
       <c r="C267" s="33" t="s">
         <v>736</v>
@@ -30779,11 +31014,11 @@
         <v>723</v>
       </c>
       <c r="E267" s="33">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F267" s="34">
         <f t="shared" ref="F267:F298" si="8">IF(ROUND(E267/$K$11,2)&gt;0,ROUND(E267/$K$11,2),"")</f>
-        <v>1744.19</v>
+        <v>930.23</v>
       </c>
     </row>
     <row r="268" spans="1:6" outlineLevel="1">
@@ -30791,8 +31026,8 @@
         <v>18</v>
       </c>
       <c r="B268" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50739590","ООО Еспортс Арена")</f>
-        <v>ООО Еспортс Арена</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/52119361","ООО ГлобалСлавСтрой")</f>
+        <v>ООО ГлобалСлавСтрой</v>
       </c>
       <c r="C268" s="33" t="s">
         <v>736</v>
@@ -30801,11 +31036,11 @@
         <v>723</v>
       </c>
       <c r="E268" s="33">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="F268" s="34">
         <f t="shared" si="8"/>
-        <v>1395.35</v>
+        <v>3255.81</v>
       </c>
     </row>
     <row r="269" spans="1:6" outlineLevel="1">
@@ -30813,8 +31048,8 @@
         <v>18</v>
       </c>
       <c r="B269" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50633119","ООО Кофечино")</f>
-        <v>ООО Кофечино</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50944666","ООО Глобалпрогрупп")</f>
+        <v>ООО Глобалпрогрупп</v>
       </c>
       <c r="C269" s="33" t="s">
         <v>736</v>
@@ -30823,11 +31058,11 @@
         <v>723</v>
       </c>
       <c r="E269" s="33">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="F269" s="34">
         <f t="shared" si="8"/>
-        <v>1395.35</v>
+        <v>1860.47</v>
       </c>
     </row>
     <row r="270" spans="1:6" outlineLevel="1">
@@ -30835,8 +31070,8 @@
         <v>18</v>
       </c>
       <c r="B270" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50202999","ООО Еда с умом")</f>
-        <v>ООО Еда с умом</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50929341","СКАЛАНОВА, СЗАО")</f>
+        <v>СКАЛАНОВА, СЗАО</v>
       </c>
       <c r="C270" s="33" t="s">
         <v>736</v>
@@ -30845,11 +31080,11 @@
         <v>723</v>
       </c>
       <c r="E270" s="33">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="F270" s="34">
         <f t="shared" si="8"/>
-        <v>2325.58</v>
+        <v>1860.47</v>
       </c>
     </row>
     <row r="271" spans="1:6" outlineLevel="1">
@@ -30857,8 +31092,8 @@
         <v>18</v>
       </c>
       <c r="B271" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/46638806","Опен Трэйд")</f>
-        <v>Опен Трэйд</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/52108405","Tifani")</f>
+        <v>Tifani</v>
       </c>
       <c r="C271" s="33" t="s">
         <v>736</v>
@@ -30867,11 +31102,11 @@
         <v>723</v>
       </c>
       <c r="E271" s="33">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F271" s="34">
         <f t="shared" si="8"/>
-        <v>1162.79</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="272" spans="1:6" outlineLevel="1">
@@ -30879,8 +31114,8 @@
         <v>18</v>
       </c>
       <c r="B272" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50291126","ООО Дубровская чистая вода")</f>
-        <v>ООО Дубровская чистая вода</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51991048","Терра пицца")</f>
+        <v>Терра пицца</v>
       </c>
       <c r="C272" s="33" t="s">
         <v>736</v>
@@ -30901,8 +31136,8 @@
         <v>18</v>
       </c>
       <c r="B273" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50635309","ООО Гинерион")</f>
-        <v>ООО Гинерион</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50889394","ООО Норте Рокс")</f>
+        <v>ООО Норте Рокс</v>
       </c>
       <c r="C273" s="33" t="s">
         <v>736</v>
@@ -30911,11 +31146,11 @@
         <v>723</v>
       </c>
       <c r="E273" s="33">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F273" s="34">
         <f t="shared" si="8"/>
-        <v>1046.51</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="274" spans="1:6" outlineLevel="1">
@@ -30923,8 +31158,8 @@
         <v>18</v>
       </c>
       <c r="B274" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50235298","ООО ПараграфЦентр")</f>
-        <v>ООО ПараграфЦентр</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50910846","ООО Ривьера СПА")</f>
+        <v>ООО Ривьера СПА</v>
       </c>
       <c r="C274" s="33" t="s">
         <v>736</v>
@@ -30933,11 +31168,11 @@
         <v>723</v>
       </c>
       <c r="E274" s="33">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F274" s="34">
         <f t="shared" si="8"/>
-        <v>1162.79</v>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="275" spans="1:6" outlineLevel="1">
@@ -30945,8 +31180,8 @@
         <v>18</v>
       </c>
       <c r="B275" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50263375","ООО АВАСЕТ")</f>
-        <v>ООО АВАСЕТ</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51720959","Синезис")</f>
+        <v>Синезис</v>
       </c>
       <c r="C275" s="33" t="s">
         <v>736</v>
@@ -30955,11 +31190,11 @@
         <v>723</v>
       </c>
       <c r="E275" s="33">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F275" s="34">
         <f t="shared" si="8"/>
-        <v>581.4</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="276" spans="1:6" outlineLevel="1">
@@ -30967,8 +31202,8 @@
         <v>18</v>
       </c>
       <c r="B276" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50477491","Терра пицца")</f>
-        <v>Терра пицца</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50934575","ООО Новый Альянс")</f>
+        <v>ООО Новый Альянс</v>
       </c>
       <c r="C276" s="33" t="s">
         <v>736</v>
@@ -30977,11 +31212,11 @@
         <v>723</v>
       </c>
       <c r="E276" s="33">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F276" s="34">
         <f t="shared" si="8"/>
-        <v>1162.79</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="277" spans="1:6" outlineLevel="1">
@@ -30989,8 +31224,8 @@
         <v>18</v>
       </c>
       <c r="B277" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50779693","ООО СеАл Монолит")</f>
-        <v>ООО СеАл Монолит</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51955293","ООО Эдшон")</f>
+        <v>ООО Эдшон</v>
       </c>
       <c r="C277" s="33" t="s">
         <v>736</v>
@@ -31011,8 +31246,8 @@
         <v>18</v>
       </c>
       <c r="B278" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50786474","ООО Савана-Спорт Трейдинг")</f>
-        <v>ООО Савана-Спорт Трейдинг</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50804320","Штолле")</f>
+        <v>Штолле</v>
       </c>
       <c r="C278" s="33" t="s">
         <v>736</v>
@@ -31021,11 +31256,11 @@
         <v>723</v>
       </c>
       <c r="E278" s="33">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="F278" s="34">
         <f t="shared" si="8"/>
-        <v>1162.79</v>
+        <v>988.37</v>
       </c>
     </row>
     <row r="279" spans="1:6" outlineLevel="1">
@@ -31033,8 +31268,8 @@
         <v>18</v>
       </c>
       <c r="B279" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50397204","ООО Спортюнион-Трейдинг / Ресторан-кондитерская ODI")</f>
-        <v>ООО Спортюнион-Трейдинг / Ресторан-кондитерская ODI</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/52039662","Опен Трэйд")</f>
+        <v>Опен Трэйд</v>
       </c>
       <c r="C279" s="33" t="s">
         <v>736</v>
@@ -31043,11 +31278,11 @@
         <v>723</v>
       </c>
       <c r="E279" s="33">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="F279" s="34">
         <f t="shared" si="8"/>
-        <v>1133.72</v>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="280" spans="1:6" outlineLevel="1">
@@ -31055,8 +31290,8 @@
         <v>18</v>
       </c>
       <c r="B280" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50782394","Ресторан-пивоварня ДРУЗЬЯ")</f>
-        <v>Ресторан-пивоварня ДРУЗЬЯ</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50972523","ООО Спортюнион-Трейдинг / Ресторан-кондитерская ODI")</f>
+        <v>ООО Спортюнион-Трейдинг / Ресторан-кондитерская ODI</v>
       </c>
       <c r="C280" s="33" t="s">
         <v>736</v>
@@ -31065,11 +31300,11 @@
         <v>723</v>
       </c>
       <c r="E280" s="33">
-        <v>650</v>
+        <v>520</v>
       </c>
       <c r="F280" s="34">
         <f t="shared" si="8"/>
-        <v>755.81</v>
+        <v>604.65</v>
       </c>
     </row>
     <row r="281" spans="1:6" outlineLevel="1">
@@ -31077,8 +31312,8 @@
         <v>18</v>
       </c>
       <c r="B281" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50238589","ООО Норте Рокс")</f>
-        <v>ООО Норте Рокс</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/49979181","ООО СИСТЕМЫ ИНВЕСТИЦИЙ И ИННОВАЦИЙ ПЛЮС")</f>
+        <v>ООО СИСТЕМЫ ИНВЕСТИЦИЙ И ИННОВАЦИЙ ПЛЮС</v>
       </c>
       <c r="C281" s="33" t="s">
         <v>736</v>
@@ -31087,11 +31322,11 @@
         <v>723</v>
       </c>
       <c r="E281" s="33">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F281" s="34">
         <f t="shared" si="8"/>
-        <v>1162.79</v>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="282" spans="1:6" outlineLevel="1">
@@ -31099,8 +31334,8 @@
         <v>18</v>
       </c>
       <c r="B282" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/49979181","ООО СИСТЕМЫ ИНВЕСТИЦИЙ И ИННОВАЦИЙ ПЛЮС")</f>
-        <v>ООО СИСТЕМЫ ИНВЕСТИЦИЙ И ИННОВАЦИЙ ПЛЮС</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51249796","ООО Налибоки-Н")</f>
+        <v>ООО Налибоки-Н</v>
       </c>
       <c r="C282" s="33" t="s">
         <v>736</v>
@@ -31109,11 +31344,11 @@
         <v>723</v>
       </c>
       <c r="E282" s="33">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F282" s="34">
         <f t="shared" si="8"/>
-        <v>1511.63</v>
+        <v>755.81</v>
       </c>
     </row>
     <row r="283" spans="1:6" outlineLevel="1">
@@ -31121,8 +31356,8 @@
         <v>18</v>
       </c>
       <c r="B283" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50209900","ГОСТИНИЦА ПЕКИН-МИНСК")</f>
-        <v>ГОСТИНИЦА ПЕКИН-МИНСК</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/52042534","ООО Ред Пилл")</f>
+        <v>ООО Ред Пилл</v>
       </c>
       <c r="C283" s="33" t="s">
         <v>736</v>
@@ -31131,11 +31366,11 @@
         <v>723</v>
       </c>
       <c r="E283" s="33">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F283" s="34">
         <f t="shared" si="8"/>
-        <v>930.23</v>
+        <v>813.95</v>
       </c>
     </row>
     <row r="284" spans="1:6" outlineLevel="1">
@@ -31143,8 +31378,8 @@
         <v>18</v>
       </c>
       <c r="B284" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50296076","ООО РайтКонсалт")</f>
-        <v>ООО РайтКонсалт</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/50931555","ООО Шеф-повар Кейтеринг")</f>
+        <v>ООО Шеф-повар Кейтеринг</v>
       </c>
       <c r="C284" s="33" t="s">
         <v>736</v>
@@ -31165,184 +31400,184 @@
         <v>18</v>
       </c>
       <c r="B285" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50812337","Кафе Золотой гребешок")</f>
+        <v>Кафе Золотой гребешок</v>
+      </c>
+      <c r="C285" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D285" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E285" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F285" s="34">
+        <f t="shared" si="8"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" outlineLevel="1">
+      <c r="A286" s="32">
+        <v>18</v>
+      </c>
+      <c r="B286" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50805214","ООО Азия-Компани")</f>
+        <v>ООО Азия-Компани</v>
+      </c>
+      <c r="C286" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D286" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E286" s="33">
+        <v>650</v>
+      </c>
+      <c r="F286" s="34">
+        <f t="shared" si="8"/>
+        <v>755.81</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" outlineLevel="1">
+      <c r="A287" s="32">
+        <v>18</v>
+      </c>
+      <c r="B287" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51980961","ООО ФудБизнес")</f>
+        <v>ООО ФудБизнес</v>
+      </c>
+      <c r="C287" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D287" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E287" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F287" s="34">
+        <f t="shared" si="8"/>
+        <v>1162.79</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" outlineLevel="1">
+      <c r="A288" s="32">
+        <v>18</v>
+      </c>
+      <c r="B288" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/52060649","Папа Джонс/ООО Кондитерская №4")</f>
+        <v>Папа Джонс/ООО Кондитерская №4</v>
+      </c>
+      <c r="C288" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D288" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E288" s="33">
+        <v>500</v>
+      </c>
+      <c r="F288" s="34">
+        <f t="shared" si="8"/>
+        <v>581.4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" outlineLevel="1">
+      <c r="A289" s="32">
+        <v>18</v>
+      </c>
+      <c r="B289" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/50133482","СООО Шондра / Боулинг-центр MADISON")</f>
+        <v>СООО Шондра / Боулинг-центр MADISON</v>
+      </c>
+      <c r="C289" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D289" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E289" s="33">
+        <v>825</v>
+      </c>
+      <c r="F289" s="34">
+        <f t="shared" si="8"/>
+        <v>959.3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" outlineLevel="1">
+      <c r="A290" s="32">
+        <v>18</v>
+      </c>
+      <c r="B290" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/50731971","ООО Нефть сити")</f>
         <v>ООО Нефть сити</v>
       </c>
-      <c r="C285" s="33" t="s">
+      <c r="C290" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="D285" s="33" t="s">
+      <c r="D290" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E285" s="33">
+      <c r="E290" s="33">
         <v>2300</v>
       </c>
-      <c r="F285" s="34">
+      <c r="F290" s="34">
         <f t="shared" si="8"/>
         <v>2674.42</v>
       </c>
     </row>
-    <row r="286" spans="1:6" outlineLevel="1">
-      <c r="A286" s="32">
-        <v>18</v>
-      </c>
-      <c r="B286" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50781240","Папа Джонс/ООО Кондитерская №4")</f>
-        <v>Папа Джонс/ООО Кондитерская №4</v>
-      </c>
-      <c r="C286" s="33" t="s">
+    <row r="291" spans="1:6" outlineLevel="1">
+      <c r="A291" s="32">
+        <v>18</v>
+      </c>
+      <c r="B291" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/51707557","ООО Инвестиции и качество плюс")</f>
+        <v>ООО Инвестиции и качество плюс</v>
+      </c>
+      <c r="C291" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="D286" s="33" t="s">
+      <c r="D291" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E286" s="33">
-        <v>500</v>
-      </c>
-      <c r="F286" s="34">
+      <c r="E291" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F291" s="34">
         <f t="shared" si="8"/>
-        <v>581.4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" outlineLevel="1">
-      <c r="A287" s="32">
-        <v>18</v>
-      </c>
-      <c r="B287" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50766533","ООО Грузинбай")</f>
-        <v>ООО Грузинбай</v>
-      </c>
-      <c r="C287" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D287" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E287" s="33">
-        <v>800</v>
-      </c>
-      <c r="F287" s="34">
-        <f t="shared" si="8"/>
-        <v>930.23</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" outlineLevel="1">
-      <c r="A288" s="32">
-        <v>18</v>
-      </c>
-      <c r="B288" s="44" t="str">
+        <v>1395.35</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" outlineLevel="1">
+      <c r="A292" s="32">
+        <v>18</v>
+      </c>
+      <c r="B292" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/vacancy/42959139","GARAGE")</f>
         <v>GARAGE</v>
       </c>
-      <c r="C288" s="33" t="s">
+      <c r="C292" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="D288" s="33" t="s">
+      <c r="D292" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="E288" s="33">
+      <c r="E292" s="33">
         <v>1000</v>
       </c>
-      <c r="F288" s="34">
+      <c r="F292" s="34">
         <f t="shared" si="8"/>
         <v>1162.79</v>
       </c>
     </row>
-    <row r="289" spans="1:6" outlineLevel="1">
-      <c r="A289" s="32">
-        <v>18</v>
-      </c>
-      <c r="B289" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50655105","ООО БаркасГейм")</f>
-        <v>ООО БаркасГейм</v>
-      </c>
-      <c r="C289" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D289" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E289" s="33">
-        <v>1250</v>
-      </c>
-      <c r="F289" s="34">
-        <f t="shared" si="8"/>
-        <v>1453.49</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" outlineLevel="1">
-      <c r="A290" s="32">
-        <v>18</v>
-      </c>
-      <c r="B290" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50654810","ООО Фулун")</f>
-        <v>ООО Фулун</v>
-      </c>
-      <c r="C290" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D290" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E290" s="33">
-        <v>1500</v>
-      </c>
-      <c r="F290" s="34">
-        <f t="shared" si="8"/>
-        <v>1744.19</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" outlineLevel="1">
-      <c r="A291" s="32">
-        <v>18</v>
-      </c>
-      <c r="B291" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50258098","ОДО Керида")</f>
-        <v>ОДО Керида</v>
-      </c>
-      <c r="C291" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D291" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E291" s="33">
-        <v>800</v>
-      </c>
-      <c r="F291" s="34">
-        <f t="shared" si="8"/>
-        <v>930.23</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" outlineLevel="1">
-      <c r="A292" s="32">
-        <v>18</v>
-      </c>
-      <c r="B292" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/47713062","КОРОНА, ЗАМОК Торговые центры")</f>
-        <v>КОРОНА, ЗАМОК Торговые центры</v>
-      </c>
-      <c r="C292" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D292" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E292" s="33">
-        <v>870</v>
-      </c>
-      <c r="F292" s="34">
-        <f t="shared" si="8"/>
-        <v>1011.63</v>
-      </c>
-    </row>
     <row r="293" spans="1:6" outlineLevel="1">
       <c r="A293" s="32">
         <v>18</v>
       </c>
       <c r="B293" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50487698","Shangri La")</f>
-        <v>Shangri La</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51641158","ООО БаркасГейм")</f>
+        <v>ООО БаркасГейм</v>
       </c>
       <c r="C293" s="33" t="s">
         <v>736</v>
@@ -31363,8 +31598,8 @@
         <v>18</v>
       </c>
       <c r="B294" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50482458","ОАО Ресторан Арбат")</f>
-        <v>ОАО Ресторан Арбат</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51440275","ООО Медиа повод")</f>
+        <v>ООО Медиа повод</v>
       </c>
       <c r="C294" s="33" t="s">
         <v>736</v>
@@ -31373,11 +31608,11 @@
         <v>723</v>
       </c>
       <c r="E294" s="33">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="F294" s="34">
         <f t="shared" si="8"/>
-        <v>813.95</v>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="295" spans="1:6" outlineLevel="1">
@@ -31385,8 +31620,8 @@
         <v>18</v>
       </c>
       <c r="B295" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50584013","Экоотель Кветки яблыни")</f>
-        <v>Экоотель Кветки яблыни</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51432070","ООО Муншайн")</f>
+        <v>ООО Муншайн</v>
       </c>
       <c r="C295" s="33" t="s">
         <v>736</v>
@@ -31395,11 +31630,11 @@
         <v>723</v>
       </c>
       <c r="E295" s="33">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F295" s="34">
         <f t="shared" si="8"/>
-        <v>1744.19</v>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="296" spans="1:6" outlineLevel="1">
@@ -31407,8 +31642,8 @@
         <v>18</v>
       </c>
       <c r="B296" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/50572198","Отель Европа")</f>
-        <v>Отель Европа</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/51720877","Интерфармакс")</f>
+        <v>Интерфармакс</v>
       </c>
       <c r="C296" s="33" t="s">
         <v>736</v>
@@ -31417,11 +31652,11 @@
         <v>723</v>
       </c>
       <c r="E296" s="33">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="F296" s="34">
         <f t="shared" si="8"/>
-        <v>988.37</v>
+        <v>581.4</v>
       </c>
     </row>
     <row r="297" spans="1:6" outlineLevel="1">
@@ -31429,7 +31664,7 @@
         <v>18</v>
       </c>
       <c r="B297" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/c490458800076476b70013a3fa346848393868","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/8ef424ce000412d9af0013a3fa6f43597a3543","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C297" s="33" t="s">
@@ -31439,11 +31674,11 @@
         <v>721</v>
       </c>
       <c r="E297" s="33">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="F297" s="34">
         <f t="shared" si="8"/>
-        <v>1744.19</v>
+        <v>2093.02</v>
       </c>
     </row>
     <row r="298" spans="1:6" outlineLevel="1">
@@ -31451,7 +31686,7 @@
         <v>18</v>
       </c>
       <c r="B298" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/8bd2dd410001cf373c0013a3fa74686c793664","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/1f38bf050008937f5b0013a3fa757948496661","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C298" s="33" t="s">
@@ -31473,7 +31708,7 @@
         <v>18</v>
       </c>
       <c r="B299" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/47554f4000096547850013a3fa38506b4f4775","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/c490458800076476b70013a3fa346848393868","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C299" s="33" t="s">
@@ -31495,7 +31730,7 @@
         <v>18</v>
       </c>
       <c r="B300" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/78c57b63000809196b0013a3fa584f7a454979","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/247596620003eef2560013a3fa485453516558","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C300" s="33" t="s">
@@ -31517,7 +31752,7 @@
         <v>18</v>
       </c>
       <c r="B301" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d05b170000038f39f60013a3fa304d5346766a","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/44374c960002604bbe0013a3fa43536e436e74","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C301" s="33" t="s">
@@ -31527,11 +31762,11 @@
         <v>721</v>
       </c>
       <c r="E301" s="33">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F301" s="34">
         <f t="shared" si="9"/>
-        <v>1511.63</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="302" spans="1:6" outlineLevel="1">
@@ -31539,7 +31774,7 @@
         <v>18</v>
       </c>
       <c r="B302" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/20b0a66e00097b46b60013a3fa6c4b74727753","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/8bd2dd410001cf373c0013a3fa74686c793664","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C302" s="33" t="s">
@@ -31549,11 +31784,11 @@
         <v>721</v>
       </c>
       <c r="E302" s="33">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F302" s="34">
         <f t="shared" si="9"/>
-        <v>1395.35</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="303" spans="1:6" outlineLevel="1">
@@ -31561,7 +31796,7 @@
         <v>18</v>
       </c>
       <c r="B303" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/8ddd3738000952f3560013a3fa476833656558","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/7395880000090e6c860013a3fa585539645336","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C303" s="33" t="s">
@@ -31571,11 +31806,11 @@
         <v>721</v>
       </c>
       <c r="E303" s="33">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F303" s="34">
         <f t="shared" si="9"/>
-        <v>1395.35</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="304" spans="1:6" outlineLevel="1">
@@ -31583,7 +31818,7 @@
         <v>18</v>
       </c>
       <c r="B304" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/68d4c6970001c667ec0013a3fa627352683579","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/f2de1b5300095f472f0013a3fa50334f516539","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C304" s="33" t="s">
@@ -31593,11 +31828,11 @@
         <v>721</v>
       </c>
       <c r="E304" s="33">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F304" s="34">
         <f t="shared" si="9"/>
-        <v>1395.35</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="305" spans="1:6" outlineLevel="1">
@@ -31605,7 +31840,7 @@
         <v>18</v>
       </c>
       <c r="B305" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/a5afc04100098c2a690013a3fa615949775544","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/e5bcd18400098e49c80013a3fa4f7557524334","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C305" s="33" t="s">
@@ -31615,11 +31850,11 @@
         <v>721</v>
       </c>
       <c r="E305" s="33">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F305" s="34">
         <f t="shared" si="9"/>
-        <v>1279.07</v>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="306" spans="1:6" outlineLevel="1">
@@ -31627,7 +31862,7 @@
         <v>18</v>
       </c>
       <c r="B306" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/c753abfb00092dde2c0013a3fa524552705273","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/92fded90000983e5920013a3fa4a7961447765","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C306" s="33" t="s">
@@ -31637,11 +31872,11 @@
         <v>721</v>
       </c>
       <c r="E306" s="33">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F306" s="34">
         <f t="shared" si="9"/>
-        <v>1279.07</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="307" spans="1:6" outlineLevel="1">
@@ -31649,7 +31884,7 @@
         <v>18</v>
       </c>
       <c r="B307" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/df1029a10008d141bb0013a3fa43577a775971","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/edb54e8100091520880013a3fa6e5178546954","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C307" s="33" t="s">
@@ -31671,7 +31906,7 @@
         <v>18</v>
       </c>
       <c r="B308" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/7df3865800084e51590013a3fa344c584a5657","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/87dab88700098de7440013a3fa707352547849","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C308" s="33" t="s">
@@ -31693,7 +31928,7 @@
         <v>18</v>
       </c>
       <c r="B309" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/b1b576b30009856fe90013a3fa39516c597132","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/6b00ddcb00078e548e0013a3fa3362786d4978","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C309" s="33" t="s">
@@ -31715,7 +31950,7 @@
         <v>18</v>
       </c>
       <c r="B310" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/e6d8815c0002aeeec00013a3fa327a70415446","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/0d2dd56900096774eb0013a3fa573872466843","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C310" s="33" t="s">
@@ -31737,7 +31972,7 @@
         <v>18</v>
       </c>
       <c r="B311" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/07fbedcd00081451800013a3fa636a5977527a","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/467222f40008ea27720013a3fa6f6d62467755","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C311" s="33" t="s">
@@ -31759,7 +31994,7 @@
         <v>18</v>
       </c>
       <c r="B312" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/393bb41c00051329190013a3fa366f6e573732","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/6825953300092a77810013a3fa624551546776","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C312" s="33" t="s">
@@ -31781,7 +32016,7 @@
         <v>18</v>
       </c>
       <c r="B313" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/00724c33000585f3400013a3fa307867554f67","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/f0bf265800098f3aff0013a3fa5276374f306e","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C313" s="33" t="s">
@@ -31803,7 +32038,7 @@
         <v>18</v>
       </c>
       <c r="B314" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/caabd84c0008212f300013a3fa547635745a78","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/75cb13d20007f5d8950013a3fa594d39516866","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C314" s="33" t="s">
@@ -31825,7 +32060,7 @@
         <v>18</v>
       </c>
       <c r="B315" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/7755f82b0008b89e810013a3fa484455774d42","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/443cc11400099f7c440013a3fa65576c585673","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C315" s="33" t="s">
@@ -31835,11 +32070,11 @@
         <v>721</v>
       </c>
       <c r="E315" s="33">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F315" s="34">
         <f t="shared" si="9"/>
-        <v>930.23</v>
+        <v>872.09</v>
       </c>
     </row>
     <row r="316" spans="1:6" outlineLevel="1">
@@ -31847,7 +32082,7 @@
         <v>18</v>
       </c>
       <c r="B316" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/5fbf693400093307a00013a3fa6f6c5a693359","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/73b7e815000936cb570013a3fa327a646a6657","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C316" s="33" t="s">
@@ -31857,11 +32092,11 @@
         <v>721</v>
       </c>
       <c r="E316" s="33">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F316" s="34">
         <f t="shared" si="9"/>
-        <v>930.23</v>
+        <v>872.09</v>
       </c>
     </row>
     <row r="317" spans="1:6" outlineLevel="1">
@@ -31869,7 +32104,7 @@
         <v>18</v>
       </c>
       <c r="B317" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/0eecc8d300095c14d70013a3fa4c5238454471","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/414356480008ea0a070013a3fa714966784739","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C317" s="33" t="s">
@@ -31879,11 +32114,11 @@
         <v>721</v>
       </c>
       <c r="E317" s="33">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F317" s="34">
         <f t="shared" si="9"/>
-        <v>930.23</v>
+        <v>872.09</v>
       </c>
     </row>
     <row r="318" spans="1:6" outlineLevel="1">
@@ -31891,7 +32126,7 @@
         <v>18</v>
       </c>
       <c r="B318" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/87eb82b400098c6b880013a3fa646c49414278","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/fc8b78720009a200700013a3fa564c50434136","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C318" s="33" t="s">
@@ -31913,73 +32148,73 @@
         <v>18</v>
       </c>
       <c r="B319" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/22c75d520009a505560013a3fa7274486b6578","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C319" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D319" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E319" s="33">
+        <v>500</v>
+      </c>
+      <c r="F319" s="34">
+        <f t="shared" si="9"/>
+        <v>581.4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" outlineLevel="1">
+      <c r="A320" s="32">
+        <v>18</v>
+      </c>
+      <c r="B320" s="44" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/a3bc31e5000385daf90013a3fa4d784571716e","Официант")</f>
+        <v>Официант</v>
+      </c>
+      <c r="C320" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D320" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E320" s="33">
+        <v>500</v>
+      </c>
+      <c r="F320" s="34">
+        <f t="shared" si="9"/>
+        <v>581.4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" outlineLevel="1">
+      <c r="A321" s="32">
+        <v>18</v>
+      </c>
+      <c r="B321" s="44" t="str">
         <f>HYPERLINK("https://rabota.by/resume/b0cd5a41000948c8c70013a3fa3533366f4a6e","Официант")</f>
         <v>Официант</v>
       </c>
-      <c r="C319" s="33" t="s">
+      <c r="C321" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="D319" s="33" t="s">
+      <c r="D321" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="E319" s="33">
+      <c r="E321" s="33">
         <v>450</v>
       </c>
-      <c r="F319" s="34">
+      <c r="F321" s="34">
         <f t="shared" si="9"/>
         <v>523.26</v>
       </c>
     </row>
-    <row r="320" spans="1:6" outlineLevel="1">
-      <c r="A320" s="32">
-        <v>18</v>
-      </c>
-      <c r="B320" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ce83305d00094a41300013a3fa333137353938","Официант")</f>
-        <v>Официант</v>
-      </c>
-      <c r="C320" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D320" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E320" s="33">
-        <v>400</v>
-      </c>
-      <c r="F320" s="34">
-        <f t="shared" si="9"/>
-        <v>465.12</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" outlineLevel="1">
-      <c r="A321" s="32">
-        <v>18</v>
-      </c>
-      <c r="B321" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/2073ffd000097874720013a3fa61755a705361","Официант")</f>
-        <v>Официант</v>
-      </c>
-      <c r="C321" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D321" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="E321" s="33">
-        <v>400</v>
-      </c>
-      <c r="F321" s="34">
-        <f t="shared" si="9"/>
-        <v>465.12</v>
-      </c>
-    </row>
     <row r="322" spans="1:6" outlineLevel="1">
       <c r="A322" s="32">
         <v>18</v>
       </c>
       <c r="B322" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/274ee45c0006ce1e440013a3fa39465646534c","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/9756f1a1000584e2830013a3fa69334c634c74","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C322" s="33" t="s">
@@ -31989,11 +32224,11 @@
         <v>721</v>
       </c>
       <c r="E322" s="33">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F322" s="34">
         <f t="shared" si="9"/>
-        <v>465.12</v>
+        <v>523.26</v>
       </c>
     </row>
     <row r="323" spans="1:6" outlineLevel="1">
@@ -32001,7 +32236,7 @@
         <v>18</v>
       </c>
       <c r="B323" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/1d5199770007d5ad420013a3fa334243716771","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/ab9976cd00068433390013a3fa717371716d38","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C323" s="33" t="s">
@@ -32023,7 +32258,7 @@
         <v>18</v>
       </c>
       <c r="B324" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/31b9db3400042459470013a3fa4b4148553653","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/b1ae3e8e0002f41a760013a3fa356863316432","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C324" s="33" t="s">
@@ -32033,11 +32268,11 @@
         <v>721</v>
       </c>
       <c r="E324" s="33">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F324" s="34">
         <f t="shared" si="9"/>
-        <v>348.84</v>
+        <v>406.98</v>
       </c>
     </row>
     <row r="325" spans="1:6" outlineLevel="1">
@@ -32045,7 +32280,7 @@
         <v>18</v>
       </c>
       <c r="B325" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/8845464d00095ed2330013a3fa654764694467","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/9e0b81050009a2e0d70013a3fa4f6f664a6e51","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C325" s="33" t="s">
@@ -32055,11 +32290,11 @@
         <v>721</v>
       </c>
       <c r="E325" s="33">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="F325" s="34">
         <f t="shared" si="9"/>
-        <v>348.84</v>
+        <v>267.44</v>
       </c>
     </row>
     <row r="326" spans="1:6" outlineLevel="1">
@@ -32067,7 +32302,7 @@
         <v>18</v>
       </c>
       <c r="B326" s="44" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/e9961851000942a2210013a3fa506d7574686b","Официант")</f>
+        <f>HYPERLINK("https://rabota.by/resume/1bd6def100098ea0f40013a3fa4b53326f7034","Официант")</f>
         <v>Официант</v>
       </c>
       <c r="C326" s="33" t="s">
@@ -32077,11 +32312,11 @@
         <v>721</v>
       </c>
       <c r="E326" s="33">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F326" s="34">
         <f t="shared" si="9"/>
-        <v>290.7</v>
+        <v>232.56</v>
       </c>
     </row>
     <row r="327" spans="1:6">

--- a/Data/Output/18.xlsx
+++ b/Data/Output/18.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="804">
   <si>
     <t>Уровень позиции</t>
   </si>
@@ -25533,11 +25533,11 @@
       </c>
       <c r="C12" s="25">
         <f>IFERROR(ROUND(_xlfn.STDEV.S($E:$E),0),"-")</f>
-        <v>441</v>
+        <v>1234</v>
       </c>
       <c r="D12" s="25">
         <f>IFERROR(ROUND(_xlfn.STDEV.S($F:$F),0),"-")</f>
-        <v>513</v>
+        <v>1435</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>721</v>
@@ -25550,11 +25550,11 @@
       </c>
       <c r="C13" s="25">
         <f>IFERROR(ROUND(AVERAGE($E:$E),0),"-")</f>
-        <v>1317</v>
+        <v>1370</v>
       </c>
       <c r="D13" s="25">
         <f>IFERROR(ROUND(AVERAGE($F:$F),0),"-")</f>
-        <v>1531</v>
+        <v>1593</v>
       </c>
       <c r="K13" s="24" t="s">
         <v>723</v>
@@ -25567,11 +25567,11 @@
       </c>
       <c r="C14" s="25">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($E:$E,0.1),0),"-")</f>
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="D14" s="25">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($F:$F,0.1),0),"-")</f>
-        <v>1047</v>
+        <v>930</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" outlineLevel="1">
@@ -25581,11 +25581,11 @@
       </c>
       <c r="C15" s="25">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($E:$E,1),0),"-")</f>
-        <v>1007</v>
+        <v>900</v>
       </c>
       <c r="D15" s="25">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($F:$F,1),0),"-")</f>
-        <v>1171</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" outlineLevel="1">
@@ -25595,11 +25595,11 @@
       </c>
       <c r="C16" s="25">
         <f>IFERROR(ROUND(MEDIAN($E:$E),0),"-")</f>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D16" s="25">
         <f>IFERROR(ROUND(MEDIAN($F:$F),0),"-")</f>
-        <v>1395</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" outlineLevel="1">
@@ -25623,11 +25623,11 @@
       </c>
       <c r="C18" s="25">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($E:$E,0.9),0),"-")</f>
-        <v>1770</v>
+        <v>1820</v>
       </c>
       <c r="D18" s="25">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($F:$F,0.9),0),"-")</f>
-        <v>2058</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1" outlineLevel="1">
@@ -26470,780 +26470,1320 @@
       <c r="A84" s="35">
         <v>18</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="37" t="str">
+      <c r="B84" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/54218398","ОП НИИ ПКД")</f>
+        <v>ОП НИИ ПКД</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E84" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F84" s="37">
         <f t="shared" ref="F84:F115" si="2">IF(ROUND(E84/$K$11,2)&gt;0,ROUND(E84/$K$11,2),"")</f>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="85" spans="1:6" outlineLevel="1">
       <c r="A85" s="35">
         <v>18</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="37" t="str">
+      <c r="B85" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/52525472","APS")</f>
+        <v>APS</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E85" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F85" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="86" spans="1:6" outlineLevel="1">
       <c r="A86" s="35">
         <v>18</v>
       </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="37" t="str">
+      <c r="B86" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/53334882","Частное торговое унитарное предприятие «Товары в дом»")</f>
+        <v>Частное торговое унитарное предприятие «Товары в дом»</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D86" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E86" s="36">
+        <v>700</v>
+      </c>
+      <c r="F86" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>813.95</v>
       </c>
     </row>
     <row r="87" spans="1:6" outlineLevel="1">
       <c r="A87" s="35">
         <v>18</v>
       </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="37" t="str">
+      <c r="B87" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/54327420","ООО ЗИКО-ЗОРКА Групп")</f>
+        <v>ООО ЗИКО-ЗОРКА Групп</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E87" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F87" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="88" spans="1:6" outlineLevel="1">
       <c r="A88" s="35">
         <v>18</v>
       </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="37" t="str">
+      <c r="B88" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/53019479","ООО Залант Групп")</f>
+        <v>ООО Залант Групп</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D88" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E88" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F88" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="89" spans="1:6" outlineLevel="1">
       <c r="A89" s="35">
         <v>18</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="37" t="str">
+      <c r="B89" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/53988263","ОДО Фригат")</f>
+        <v>ОДО Фригат</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E89" s="36">
+        <v>1300</v>
+      </c>
+      <c r="F89" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1511.63</v>
       </c>
     </row>
     <row r="90" spans="1:6" outlineLevel="1">
       <c r="A90" s="35">
         <v>18</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="37" t="str">
+      <c r="B90" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/53831806","ООО Батен Би Групп")</f>
+        <v>ООО Батен Би Групп</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E90" s="36">
+        <v>1800</v>
+      </c>
+      <c r="F90" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2093.02</v>
       </c>
     </row>
     <row r="91" spans="1:6" outlineLevel="1">
       <c r="A91" s="35">
         <v>18</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="37" t="str">
+      <c r="B91" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/48532444","ТУТ и ТАМ Логистикс")</f>
+        <v>ТУТ и ТАМ Логистикс</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E91" s="36">
+        <v>2300</v>
+      </c>
+      <c r="F91" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2674.42</v>
       </c>
     </row>
     <row r="92" spans="1:6" outlineLevel="1">
       <c r="A92" s="35">
         <v>18</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="37" t="str">
+      <c r="B92" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/54146183","PRIMUM")</f>
+        <v>PRIMUM</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D92" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E92" s="36">
+        <v>650</v>
+      </c>
+      <c r="F92" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>755.81</v>
       </c>
     </row>
     <row r="93" spans="1:6" outlineLevel="1">
       <c r="A93" s="35">
         <v>18</v>
       </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="37" t="str">
+      <c r="B93" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/54280777","Стронгтрейд")</f>
+        <v>Стронгтрейд</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E93" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F93" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="35">
         <v>18</v>
       </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="37" t="str">
+      <c r="B94" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/44697312","Группа компаний НП-Сервис")</f>
+        <v>Группа компаний НП-Сервис</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D94" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E94" s="36">
+        <v>1800</v>
+      </c>
+      <c r="F94" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2093.02</v>
       </c>
     </row>
     <row r="95" spans="1:6" outlineLevel="1">
       <c r="A95" s="35">
         <v>18</v>
       </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="37" t="str">
+      <c r="B95" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/48850501","ООО ОМА")</f>
+        <v>ООО ОМА</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E95" s="36">
+        <v>1265</v>
+      </c>
+      <c r="F95" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1470.93</v>
       </c>
     </row>
     <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="35">
         <v>18</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="37" t="str">
+      <c r="B96" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/54314167","ОАО Галантэя")</f>
+        <v>ОАО Галантэя</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E96" s="36">
+        <v>950</v>
+      </c>
+      <c r="F96" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1104.6500000000001</v>
       </c>
     </row>
     <row r="97" spans="1:6" outlineLevel="1">
       <c r="A97" s="35">
         <v>18</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="37" t="str">
+      <c r="B97" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/53839604","ЗИД БАЙ")</f>
+        <v>ЗИД БАЙ</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D97" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E97" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F97" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="98" spans="1:6" outlineLevel="1">
       <c r="A98" s="35">
         <v>18</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="37" t="str">
+      <c r="B98" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/53332366","Росчерк")</f>
+        <v>Росчерк</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D98" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E98" s="36">
+        <v>1100</v>
+      </c>
+      <c r="F98" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="99" spans="1:6" outlineLevel="1">
       <c r="A99" s="35">
         <v>18</v>
       </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="37" t="str">
+      <c r="B99" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/52344144","ООО ЗОЛСТАР")</f>
+        <v>ООО ЗОЛСТАР</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D99" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E99" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F99" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="100" spans="1:6" outlineLevel="1">
       <c r="A100" s="35">
         <v>18</v>
       </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="37" t="str">
+      <c r="B100" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/53881719","ООО Стеклоплит Комплект")</f>
+        <v>ООО Стеклоплит Комплект</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D100" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E100" s="36">
+        <v>900</v>
+      </c>
+      <c r="F100" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="101" spans="1:6" outlineLevel="1">
       <c r="A101" s="35">
         <v>18</v>
       </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="37" t="str">
+      <c r="B101" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/vacancy/54424378","ОДО БелСаваж")</f>
+        <v>ОДО БелСаваж</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D101" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="E101" s="36">
+        <v>816</v>
+      </c>
+      <c r="F101" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>948.84</v>
       </c>
     </row>
     <row r="102" spans="1:6" outlineLevel="1">
       <c r="A102" s="35">
         <v>18</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="37" t="str">
+      <c r="B102" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/751a0d490008b2da410039ed1f486664336e64","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D102" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E102" s="36">
+        <v>10000</v>
+      </c>
+      <c r="F102" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>11627.91</v>
       </c>
     </row>
     <row r="103" spans="1:6" outlineLevel="1">
       <c r="A103" s="35">
         <v>18</v>
       </c>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="37" t="str">
+      <c r="B103" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/831f35880001ed00910039ed1f7a4642377070","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E103" s="36">
+        <v>3500</v>
+      </c>
+      <c r="F103" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4069.77</v>
       </c>
     </row>
     <row r="104" spans="1:6" outlineLevel="1">
       <c r="A104" s="35">
         <v>18</v>
       </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="37" t="str">
+      <c r="B104" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/da7cf1e300041788d60039ed1f635576677977","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D104" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E104" s="36">
+        <v>2000</v>
+      </c>
+      <c r="F104" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="105" spans="1:6" outlineLevel="1">
       <c r="A105" s="35">
         <v>18</v>
       </c>
-      <c r="B105" s="36"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="37" t="str">
+      <c r="B105" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/cf6bfcb000021faaf30039ed1f45697a564a65","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E105" s="36">
+        <v>2000</v>
+      </c>
+      <c r="F105" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="35">
         <v>18</v>
       </c>
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="37" t="str">
+      <c r="B106" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/284a6d3200059eda790039ed1f796c427a314d","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D106" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E106" s="36">
+        <v>2000</v>
+      </c>
+      <c r="F106" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2325.58</v>
       </c>
     </row>
     <row r="107" spans="1:6" outlineLevel="1">
       <c r="A107" s="35">
         <v>18</v>
       </c>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="37" t="str">
+      <c r="B107" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/2b15cab000054eb9af0039ed1f6d7953426854","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E107" s="36">
+        <v>1800</v>
+      </c>
+      <c r="F107" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2093.02</v>
       </c>
     </row>
     <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="35">
         <v>18</v>
       </c>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="37" t="str">
+      <c r="B108" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/75f5c26e0008304bfc0039ed1f5a634649724b","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E108" s="36">
+        <v>1800</v>
+      </c>
+      <c r="F108" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2093.02</v>
       </c>
     </row>
     <row r="109" spans="1:6" outlineLevel="1">
       <c r="A109" s="35">
         <v>18</v>
       </c>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="37" t="str">
+      <c r="B109" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/1a83166a00018e358f0039ed1f4a734a38714b","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E109" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F109" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="35">
         <v>18</v>
       </c>
-      <c r="B110" s="36"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="37" t="str">
+      <c r="B110" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/73deca57000312f3050039ed1f6e626c365a38","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E110" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F110" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="35">
         <v>18</v>
       </c>
-      <c r="B111" s="36"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="37" t="str">
+      <c r="B111" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/17a88eab00011830b00039ed1f4156646d6761","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E111" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F111" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="112" spans="1:6" outlineLevel="1">
       <c r="A112" s="35">
         <v>18</v>
       </c>
-      <c r="B112" s="36"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="37" t="str">
+      <c r="B112" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/5936458a00079e1a6a0039ed1f6f4976364a70","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E112" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F112" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="113" spans="1:6" outlineLevel="1">
       <c r="A113" s="35">
         <v>18</v>
       </c>
-      <c r="B113" s="36"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="37" t="str">
+      <c r="B113" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/2c8a010200029f2d010039ed1f5a30584d4848","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E113" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F113" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="35">
         <v>18</v>
       </c>
-      <c r="B114" s="36"/>
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="37" t="str">
+      <c r="B114" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/b4a5d15200036aeea30039ed1f4361484d3335","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E114" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F114" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="115" spans="1:6" outlineLevel="1">
       <c r="A115" s="35">
         <v>18</v>
       </c>
-      <c r="B115" s="36"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="37" t="str">
+      <c r="B115" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/edbd8fcf0007f4284d0039ed1f525a4d6a5775","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E115" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F115" s="37">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1744.19</v>
       </c>
     </row>
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="35">
         <v>18</v>
       </c>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="37" t="str">
+      <c r="B116" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/948fb7e100073a58ed0039ed1f6f4e57766c79","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E116" s="36">
+        <v>1250</v>
+      </c>
+      <c r="F116" s="37">
         <f t="shared" ref="F116:F147" si="3">IF(ROUND(E116/$K$11,2)&gt;0,ROUND(E116/$K$11,2),"")</f>
-        <v/>
+        <v>1453.49</v>
       </c>
     </row>
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="35">
         <v>18</v>
       </c>
-      <c r="B117" s="36"/>
-      <c r="C117" s="36"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="37" t="str">
+      <c r="B117" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/3f5767cc00026833600039ed1f497a46444c58","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C117" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E117" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F117" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="35">
         <v>18</v>
       </c>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="37" t="str">
+      <c r="B118" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/45c7f982000396e6b00039ed1f766f66765554","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C118" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D118" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E118" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F118" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="119" spans="1:6" outlineLevel="1">
       <c r="A119" s="35">
         <v>18</v>
       </c>
-      <c r="B119" s="36"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="37" t="str">
+      <c r="B119" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/86522060000367661b0039ed1f4e3459534546","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D119" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E119" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F119" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="35">
         <v>18</v>
       </c>
-      <c r="B120" s="36"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="37" t="str">
+      <c r="B120" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/3131e8ef000426f5f00039ed1f4f4435476a58","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C120" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E120" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F120" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="35">
         <v>18</v>
       </c>
-      <c r="B121" s="36"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="37" t="str">
+      <c r="B121" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/a05c5a1600074eec760039ed1f54717645444c","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D121" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E121" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F121" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="35">
         <v>18</v>
       </c>
-      <c r="B122" s="36"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="37" t="str">
+      <c r="B122" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/f7f8a52c000776f01e0039ed1f513530313473","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E122" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F122" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="123" spans="1:6" outlineLevel="1">
       <c r="A123" s="35">
         <v>18</v>
       </c>
-      <c r="B123" s="36"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="37" t="str">
+      <c r="B123" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/d41a50f500034191a50039ed1f484d546d7232","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C123" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D123" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E123" s="36">
+        <v>1150</v>
+      </c>
+      <c r="F123" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1337.21</v>
       </c>
     </row>
     <row r="124" spans="1:6" outlineLevel="1">
       <c r="A124" s="35">
         <v>18</v>
       </c>
-      <c r="B124" s="36"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="37" t="str">
+      <c r="B124" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/f4f89d2300041278420039ed1f57484e484559","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E124" s="36">
+        <v>1100</v>
+      </c>
+      <c r="F124" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="125" spans="1:6" outlineLevel="1">
       <c r="A125" s="35">
         <v>18</v>
       </c>
-      <c r="B125" s="36"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="37" t="str">
+      <c r="B125" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/d75a6891000390ebd40039ed1f656469774858","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C125" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E125" s="36">
+        <v>1100</v>
+      </c>
+      <c r="F125" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="126" spans="1:6" outlineLevel="1">
       <c r="A126" s="35">
         <v>18</v>
       </c>
-      <c r="B126" s="36"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="37" t="str">
+      <c r="B126" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/2b6b1c97000867e8b30039ed1f5350414e4f5a","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C126" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E126" s="36">
+        <v>1100</v>
+      </c>
+      <c r="F126" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="127" spans="1:6" outlineLevel="1">
       <c r="A127" s="35">
         <v>18</v>
       </c>
-      <c r="B127" s="36"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="37" t="str">
+      <c r="B127" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/8ded7655000287f2d00039ed1f68344e796f4d","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C127" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D127" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E127" s="36">
+        <v>1100</v>
+      </c>
+      <c r="F127" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1279.07</v>
       </c>
     </row>
     <row r="128" spans="1:6" outlineLevel="1">
       <c r="A128" s="35">
         <v>18</v>
       </c>
-      <c r="B128" s="36"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="37" t="str">
+      <c r="B128" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/a53956d1000438122a0039ed1f35526576384e","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D128" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E128" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F128" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="129" spans="1:6" outlineLevel="1">
       <c r="A129" s="35">
         <v>18</v>
       </c>
-      <c r="B129" s="36"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="37" t="str">
+      <c r="B129" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/b10008530001f6e0ff0039ed1f365267664d32","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C129" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E129" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F129" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="130" spans="1:6" outlineLevel="1">
       <c r="A130" s="35">
         <v>18</v>
       </c>
-      <c r="B130" s="36"/>
-      <c r="C130" s="36"/>
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="37" t="str">
+      <c r="B130" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/7ebdd55200080dad430039ed1f716c4c4e6f69","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C130" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D130" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E130" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F130" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1162.79</v>
       </c>
     </row>
     <row r="131" spans="1:6" outlineLevel="1">
       <c r="A131" s="35">
         <v>18</v>
       </c>
-      <c r="B131" s="36"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="36"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="37" t="str">
+      <c r="B131" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/9a063b5a0000b9b8ee0039ed1f736563726574","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C131" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E131" s="36">
+        <v>900</v>
+      </c>
+      <c r="F131" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="35">
         <v>18</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="37" t="str">
+      <c r="B132" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/0888aea900029fb6f50039ed1f385a56704164","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C132" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E132" s="36">
+        <v>900</v>
+      </c>
+      <c r="F132" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="35">
         <v>18</v>
       </c>
-      <c r="B133" s="36"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="37" t="str">
+      <c r="B133" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/61412e5c0002adf5d90039ed1f4a5543737555","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D133" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E133" s="36">
+        <v>900</v>
+      </c>
+      <c r="F133" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="35">
         <v>18</v>
       </c>
-      <c r="B134" s="36"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="37" t="str">
+      <c r="B134" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/331d1fa70005f27ace0039ed1f644354716a55","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E134" s="36">
+        <v>900</v>
+      </c>
+      <c r="F134" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1046.51</v>
       </c>
     </row>
     <row r="135" spans="1:6" outlineLevel="1">
       <c r="A135" s="35">
         <v>18</v>
       </c>
-      <c r="B135" s="36"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="37" t="str">
+      <c r="B135" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/76e4e47e0002cc46310039ed1f3353766c4143","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D135" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E135" s="36">
+        <v>850</v>
+      </c>
+      <c r="F135" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>988.37</v>
       </c>
     </row>
     <row r="136" spans="1:6" outlineLevel="1">
       <c r="A136" s="35">
         <v>18</v>
       </c>
-      <c r="B136" s="36"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="37" t="str">
+      <c r="B136" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/fd945ef20007f474310039ed1f706c34337957","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C136" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E136" s="36">
+        <v>850</v>
+      </c>
+      <c r="F136" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>988.37</v>
       </c>
     </row>
     <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="35">
         <v>18</v>
       </c>
-      <c r="B137" s="36"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="37" t="str">
+      <c r="B137" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/0015edbc0005aeee2e0039ed1f393953575232","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D137" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E137" s="36">
+        <v>800</v>
+      </c>
+      <c r="F137" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="35">
         <v>18</v>
       </c>
-      <c r="B138" s="36"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="37" t="str">
+      <c r="B138" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/643bbecd000376fb310039ed1f574563527545","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C138" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D138" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E138" s="36">
+        <v>800</v>
+      </c>
+      <c r="F138" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="35">
         <v>18</v>
       </c>
-      <c r="B139" s="36"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="36"/>
-      <c r="E139" s="36"/>
-      <c r="F139" s="37" t="str">
+      <c r="B139" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/2d486ae000017ac2830039ed1f707844794262","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C139" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D139" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E139" s="36">
+        <v>800</v>
+      </c>
+      <c r="F139" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="140" spans="1:6" outlineLevel="1">
       <c r="A140" s="35">
         <v>18</v>
       </c>
-      <c r="B140" s="36"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="37" t="str">
+      <c r="B140" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/2b6e635c0003f44ede0039ed1f364f5a704d38","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D140" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E140" s="36">
+        <v>800</v>
+      </c>
+      <c r="F140" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>930.23</v>
       </c>
     </row>
     <row r="141" spans="1:6" outlineLevel="1">
       <c r="A141" s="35">
         <v>18</v>
       </c>
-      <c r="B141" s="36"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="36"/>
-      <c r="E141" s="36"/>
-      <c r="F141" s="37" t="str">
+      <c r="B141" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/de8d68d70001bc785c0039ed1f4d6d506f6d75","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C141" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D141" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E141" s="36">
+        <v>600</v>
+      </c>
+      <c r="F141" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>697.67</v>
       </c>
     </row>
     <row r="142" spans="1:6" outlineLevel="1">
       <c r="A142" s="35">
         <v>18</v>
       </c>
-      <c r="B142" s="36"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="36"/>
-      <c r="F142" s="37" t="str">
+      <c r="B142" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/f89b1ca700034bdc970039ed1f314752345652","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E142" s="36">
+        <v>600</v>
+      </c>
+      <c r="F142" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>697.67</v>
       </c>
     </row>
     <row r="143" spans="1:6" outlineLevel="1">
       <c r="A143" s="35">
         <v>18</v>
       </c>
-      <c r="B143" s="36"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="37" t="str">
+      <c r="B143" s="47" t="str">
+        <f>HYPERLINK("https://rabota.by/resume/8aefd84200027e1f770039ed1f325462684663","Кладовщик")</f>
+        <v>Кладовщик</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D143" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E143" s="36">
+        <v>600</v>
+      </c>
+      <c r="F143" s="37">
         <f t="shared" si="3"/>
-        <v/>
+        <v>697.67</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -27260,1188 +27800,702 @@
       <c r="A145" s="35">
         <v>18</v>
       </c>
-      <c r="B145" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/52073241","Дарида, Частное предприятие")</f>
-        <v>Дарида, Частное предприятие</v>
-      </c>
-      <c r="C145" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D145" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E145" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F145" s="37">
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="37" t="str">
         <f t="shared" ref="F145:F176" si="4">IF(ROUND(E145/$K$11,2)&gt;0,ROUND(E145/$K$11,2),"")</f>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="146" spans="1:6" outlineLevel="1">
       <c r="A146" s="35">
         <v>18</v>
       </c>
-      <c r="B146" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/51880739","Белоруснефть-Промсервис")</f>
-        <v>Белоруснефть-Промсервис</v>
-      </c>
-      <c r="C146" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D146" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E146" s="36">
-        <v>1400</v>
-      </c>
-      <c r="F146" s="37">
+      <c r="B146" s="36"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1627.91</v>
+        <v/>
       </c>
     </row>
     <row r="147" spans="1:6" outlineLevel="1">
       <c r="A147" s="35">
         <v>18</v>
       </c>
-      <c r="B147" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/51468228","ООО Мистер Профи")</f>
-        <v>ООО Мистер Профи</v>
-      </c>
-      <c r="C147" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D147" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E147" s="36">
-        <v>2000</v>
-      </c>
-      <c r="F147" s="37">
+      <c r="B147" s="36"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>2325.58</v>
+        <v/>
       </c>
     </row>
     <row r="148" spans="1:6" outlineLevel="1">
       <c r="A148" s="35">
         <v>18</v>
       </c>
-      <c r="B148" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/51495101","Молочный гостинец")</f>
-        <v>Молочный гостинец</v>
-      </c>
-      <c r="C148" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D148" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E148" s="36">
-        <v>950</v>
-      </c>
-      <c r="F148" s="37">
+      <c r="B148" s="36"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="36"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1104.6500000000001</v>
+        <v/>
       </c>
     </row>
     <row r="149" spans="1:6" outlineLevel="1">
       <c r="A149" s="35">
         <v>18</v>
       </c>
-      <c r="B149" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/51878456","ООО Вайлд Вотер")</f>
-        <v>ООО Вайлд Вотер</v>
-      </c>
-      <c r="C149" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D149" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E149" s="36">
-        <v>900</v>
-      </c>
-      <c r="F149" s="37">
+      <c r="B149" s="36"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1046.51</v>
+        <v/>
       </c>
     </row>
     <row r="150" spans="1:6" outlineLevel="1">
       <c r="A150" s="35">
         <v>18</v>
       </c>
-      <c r="B150" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/52020627","ГРИНрозница ГК РАПА")</f>
-        <v>ГРИНрозница ГК РАПА</v>
-      </c>
-      <c r="C150" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D150" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E150" s="36">
-        <v>1105</v>
-      </c>
-      <c r="F150" s="37">
+      <c r="B150" s="36"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1284.8800000000001</v>
+        <v/>
       </c>
     </row>
     <row r="151" spans="1:6" outlineLevel="1">
       <c r="A151" s="35">
         <v>18</v>
       </c>
-      <c r="B151" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/52315866","Минский государственный дворец детей и молодёжи, УО")</f>
-        <v>Минский государственный дворец детей и молодёжи, УО</v>
-      </c>
-      <c r="C151" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D151" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E151" s="36">
-        <v>600</v>
-      </c>
-      <c r="F151" s="37">
+      <c r="B151" s="36"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="36"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>697.67</v>
+        <v/>
       </c>
     </row>
     <row r="152" spans="1:6" outlineLevel="1">
       <c r="A152" s="35">
         <v>18</v>
       </c>
-      <c r="B152" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/51324136","Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства")</f>
-        <v>Республиканский центр повышения квалификации руководящих работников и специалистов лесного хозяйства</v>
-      </c>
-      <c r="C152" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D152" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E152" s="36">
-        <v>950</v>
-      </c>
-      <c r="F152" s="37">
+      <c r="B152" s="36"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1104.6500000000001</v>
+        <v/>
       </c>
     </row>
     <row r="153" spans="1:6" outlineLevel="1">
       <c r="A153" s="35">
         <v>18</v>
       </c>
-      <c r="B153" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/51581778","ООО Строительная компания АгриПО")</f>
-        <v>ООО Строительная компания АгриПО</v>
-      </c>
-      <c r="C153" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D153" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E153" s="36">
-        <v>3000</v>
-      </c>
-      <c r="F153" s="37">
+      <c r="B153" s="36"/>
+      <c r="C153" s="36"/>
+      <c r="D153" s="36"/>
+      <c r="E153" s="36"/>
+      <c r="F153" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>3488.37</v>
+        <v/>
       </c>
     </row>
     <row r="154" spans="1:6" outlineLevel="1">
       <c r="A154" s="35">
         <v>18</v>
       </c>
-      <c r="B154" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/52293822","ООО РИТЕЙЛПРАЙМ ДЕВЕЛОПМЕНТ")</f>
-        <v>ООО РИТЕЙЛПРАЙМ ДЕВЕЛОПМЕНТ</v>
-      </c>
-      <c r="C154" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D154" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E154" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F154" s="37">
+      <c r="B154" s="36"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="155" spans="1:6" outlineLevel="1">
       <c r="A155" s="35">
         <v>18</v>
       </c>
-      <c r="B155" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/52020607","ЗАО Выставочный центр АКВАБЕЛ")</f>
-        <v>ЗАО Выставочный центр АКВАБЕЛ</v>
-      </c>
-      <c r="C155" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D155" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E155" s="36">
-        <v>1400</v>
-      </c>
-      <c r="F155" s="37">
+      <c r="B155" s="36"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1627.91</v>
+        <v/>
       </c>
     </row>
     <row r="156" spans="1:6" outlineLevel="1">
       <c r="A156" s="35">
         <v>18</v>
       </c>
-      <c r="B156" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/51890579","Всё для тепла монтаж")</f>
-        <v>Всё для тепла монтаж</v>
-      </c>
-      <c r="C156" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D156" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E156" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F156" s="37">
+      <c r="B156" s="36"/>
+      <c r="C156" s="36"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="157" spans="1:6" outlineLevel="1">
       <c r="A157" s="35">
         <v>18</v>
       </c>
-      <c r="B157" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/51213463","ООО СТС-Ринново")</f>
-        <v>ООО СТС-Ринново</v>
-      </c>
-      <c r="C157" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D157" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E157" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F157" s="37">
+      <c r="B157" s="36"/>
+      <c r="C157" s="36"/>
+      <c r="D157" s="36"/>
+      <c r="E157" s="36"/>
+      <c r="F157" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="158" spans="1:6" outlineLevel="1">
       <c r="A158" s="35">
         <v>18</v>
       </c>
-      <c r="B158" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/813e47c20009a938780013a3fa425353333744","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C158" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D158" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E158" s="36">
-        <v>2500</v>
-      </c>
-      <c r="F158" s="37">
+      <c r="B158" s="36"/>
+      <c r="C158" s="36"/>
+      <c r="D158" s="36"/>
+      <c r="E158" s="36"/>
+      <c r="F158" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>2906.98</v>
+        <v/>
       </c>
     </row>
     <row r="159" spans="1:6" outlineLevel="1">
       <c r="A159" s="35">
         <v>18</v>
       </c>
-      <c r="B159" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/de6093e600098231170013a3fa495861306d72","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C159" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D159" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E159" s="36">
-        <v>2000</v>
-      </c>
-      <c r="F159" s="37">
+      <c r="B159" s="36"/>
+      <c r="C159" s="36"/>
+      <c r="D159" s="36"/>
+      <c r="E159" s="36"/>
+      <c r="F159" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>2325.58</v>
+        <v/>
       </c>
     </row>
     <row r="160" spans="1:6" outlineLevel="1">
       <c r="A160" s="35">
         <v>18</v>
       </c>
-      <c r="B160" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/98b40bdc0004404ebe0013a3fa48446349704b","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C160" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D160" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E160" s="36">
-        <v>2000</v>
-      </c>
-      <c r="F160" s="37">
+      <c r="B160" s="36"/>
+      <c r="C160" s="36"/>
+      <c r="D160" s="36"/>
+      <c r="E160" s="36"/>
+      <c r="F160" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>2325.58</v>
+        <v/>
       </c>
     </row>
     <row r="161" spans="1:6" outlineLevel="1">
       <c r="A161" s="35">
         <v>18</v>
       </c>
-      <c r="B161" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/373e64300001eba76d0013a3fa6f58674e724d","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C161" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D161" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E161" s="36">
-        <v>1800</v>
-      </c>
-      <c r="F161" s="37">
+      <c r="B161" s="36"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="36"/>
+      <c r="E161" s="36"/>
+      <c r="F161" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>2093.02</v>
+        <v/>
       </c>
     </row>
     <row r="162" spans="1:6" outlineLevel="1">
       <c r="A162" s="35">
         <v>18</v>
       </c>
-      <c r="B162" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ade44998000900bc990013a3fa626453497a77","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C162" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D162" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E162" s="36">
-        <v>1700</v>
-      </c>
-      <c r="F162" s="37">
+      <c r="B162" s="36"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="36"/>
+      <c r="E162" s="36"/>
+      <c r="F162" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1976.74</v>
+        <v/>
       </c>
     </row>
     <row r="163" spans="1:6" outlineLevel="1">
       <c r="A163" s="35">
         <v>18</v>
       </c>
-      <c r="B163" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d83d20820009a0be5a0013a3fa536b68795467","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C163" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D163" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E163" s="36">
-        <v>1600</v>
-      </c>
-      <c r="F163" s="37">
+      <c r="B163" s="36"/>
+      <c r="C163" s="36"/>
+      <c r="D163" s="36"/>
+      <c r="E163" s="36"/>
+      <c r="F163" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1860.47</v>
+        <v/>
       </c>
     </row>
     <row r="164" spans="1:6" outlineLevel="1">
       <c r="A164" s="35">
         <v>18</v>
       </c>
-      <c r="B164" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/49cdc5b200032e884f0013a3fa396b534d3263","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C164" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D164" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E164" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F164" s="37">
+      <c r="B164" s="36"/>
+      <c r="C164" s="36"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="36"/>
+      <c r="F164" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="165" spans="1:6" outlineLevel="1">
       <c r="A165" s="35">
         <v>18</v>
       </c>
-      <c r="B165" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/9502a7a80001f92a530013a3fa366c68754643","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C165" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D165" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E165" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F165" s="37">
+      <c r="B165" s="36"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="36"/>
+      <c r="E165" s="36"/>
+      <c r="F165" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="166" spans="1:6" outlineLevel="1">
       <c r="A166" s="35">
         <v>18</v>
       </c>
-      <c r="B166" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d21541290009a7bd0b0013a3fa6b6277785255","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C166" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D166" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E166" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F166" s="37">
+      <c r="B166" s="36"/>
+      <c r="C166" s="36"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="36"/>
+      <c r="F166" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="167" spans="1:6" outlineLevel="1">
       <c r="A167" s="35">
         <v>18</v>
       </c>
-      <c r="B167" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/85a2b4ad00017f84060013a3fa4e4963465234","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C167" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D167" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E167" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F167" s="37">
+      <c r="B167" s="36"/>
+      <c r="C167" s="36"/>
+      <c r="D167" s="36"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="168" spans="1:6" outlineLevel="1">
       <c r="A168" s="35">
         <v>18</v>
       </c>
-      <c r="B168" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/32bca2340009aba6d00013a3fa364867753838","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C168" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D168" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E168" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F168" s="37">
+      <c r="B168" s="36"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="36"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="169" spans="1:6" outlineLevel="1">
       <c r="A169" s="35">
         <v>18</v>
       </c>
-      <c r="B169" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/3e24d6a700082b71790013a3fa354f4f355339","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C169" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D169" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E169" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F169" s="37">
+      <c r="B169" s="36"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="36"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="170" spans="1:6" outlineLevel="1">
       <c r="A170" s="35">
         <v>18</v>
       </c>
-      <c r="B170" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/9c090abc0007ee685b0013a3fa36326133714a","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C170" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D170" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E170" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F170" s="37">
+      <c r="B170" s="36"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="36"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="171" spans="1:6" outlineLevel="1">
       <c r="A171" s="35">
         <v>18</v>
       </c>
-      <c r="B171" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/230192770009a43b0e0013a3fa4d6437794671","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C171" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D171" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E171" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F171" s="37">
+      <c r="B171" s="36"/>
+      <c r="C171" s="36"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="172" spans="1:6" outlineLevel="1">
       <c r="A172" s="35">
         <v>18</v>
       </c>
-      <c r="B172" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/2e4a179400044e61d30013a3fa547673724f36","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C172" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D172" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E172" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F172" s="37">
+      <c r="B172" s="36"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
+      <c r="E172" s="36"/>
+      <c r="F172" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="173" spans="1:6" outlineLevel="1">
       <c r="A173" s="35">
         <v>18</v>
       </c>
-      <c r="B173" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/b6a6c39f000261eb270013a3fa656f676f3653","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C173" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D173" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E173" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F173" s="37">
+      <c r="B173" s="36"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="174" spans="1:6" outlineLevel="1">
       <c r="A174" s="35">
         <v>18</v>
       </c>
-      <c r="B174" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/c8cd0c55000785767e0013a3fa634b4b497555","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C174" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D174" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E174" s="36">
-        <v>1400</v>
-      </c>
-      <c r="F174" s="37">
+      <c r="B174" s="36"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1627.91</v>
+        <v/>
       </c>
     </row>
     <row r="175" spans="1:6" outlineLevel="1">
       <c r="A175" s="35">
         <v>18</v>
       </c>
-      <c r="B175" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/c2f49c4f000956b0cc0013a3fa59576c5a7644","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C175" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D175" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E175" s="36">
-        <v>1300</v>
-      </c>
-      <c r="F175" s="37">
+      <c r="B175" s="36"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="36"/>
+      <c r="F175" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1511.63</v>
+        <v/>
       </c>
     </row>
     <row r="176" spans="1:6" outlineLevel="1">
       <c r="A176" s="35">
         <v>18</v>
       </c>
-      <c r="B176" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/957cbb0f00064a618c0013a3fa494d59586631","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C176" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D176" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E176" s="36">
-        <v>1300</v>
-      </c>
-      <c r="F176" s="37">
+      <c r="B176" s="36"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="36"/>
+      <c r="F176" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>1511.63</v>
+        <v/>
       </c>
     </row>
     <row r="177" spans="1:6" outlineLevel="1">
       <c r="A177" s="35">
         <v>18</v>
       </c>
-      <c r="B177" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/82207502000415d2480013a3fa5771504f4938","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C177" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D177" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E177" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F177" s="37">
+      <c r="B177" s="36"/>
+      <c r="C177" s="36"/>
+      <c r="D177" s="36"/>
+      <c r="E177" s="36"/>
+      <c r="F177" s="37" t="str">
         <f t="shared" ref="F177:F208" si="5">IF(ROUND(E177/$K$11,2)&gt;0,ROUND(E177/$K$11,2),"")</f>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="178" spans="1:6" outlineLevel="1">
       <c r="A178" s="35">
         <v>18</v>
       </c>
-      <c r="B178" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/aec55e3e000860fbe60013a3fa4a6b6e6f6d50","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C178" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D178" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E178" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F178" s="37">
+      <c r="B178" s="36"/>
+      <c r="C178" s="36"/>
+      <c r="D178" s="36"/>
+      <c r="E178" s="36"/>
+      <c r="F178" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="179" spans="1:6" outlineLevel="1">
       <c r="A179" s="35">
         <v>18</v>
       </c>
-      <c r="B179" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/9def492700098a1a100013a3fa6c5271343142","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C179" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D179" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E179" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F179" s="37">
+      <c r="B179" s="36"/>
+      <c r="C179" s="36"/>
+      <c r="D179" s="36"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="180" spans="1:6" outlineLevel="1">
       <c r="A180" s="35">
         <v>18</v>
       </c>
-      <c r="B180" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d2c206240007e594000013a3fa6a66684d4833","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C180" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D180" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E180" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F180" s="37">
+      <c r="B180" s="36"/>
+      <c r="C180" s="36"/>
+      <c r="D180" s="36"/>
+      <c r="E180" s="36"/>
+      <c r="F180" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="181" spans="1:6" outlineLevel="1">
       <c r="A181" s="35">
         <v>18</v>
       </c>
-      <c r="B181" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d60df8f50009627ab30013a3fa4b324870314f","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C181" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D181" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E181" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F181" s="37">
+      <c r="B181" s="36"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="36"/>
+      <c r="E181" s="36"/>
+      <c r="F181" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="182" spans="1:6" outlineLevel="1">
       <c r="A182" s="35">
         <v>18</v>
       </c>
-      <c r="B182" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/83e346d000086af5c40013a3fa384d6c4b4f78","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C182" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D182" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E182" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F182" s="37">
+      <c r="B182" s="36"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
+      <c r="E182" s="36"/>
+      <c r="F182" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="183" spans="1:6" outlineLevel="1">
       <c r="A183" s="35">
         <v>18</v>
       </c>
-      <c r="B183" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/efc8b3fc00056f02960013a3fa43417335536f","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C183" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D183" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E183" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F183" s="37">
+      <c r="B183" s="36"/>
+      <c r="C183" s="36"/>
+      <c r="D183" s="36"/>
+      <c r="E183" s="36"/>
+      <c r="F183" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="184" spans="1:6" outlineLevel="1">
       <c r="A184" s="35">
         <v>18</v>
       </c>
-      <c r="B184" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/7fdbe1e4000881f5650013a3fa4f7173455361","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C184" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D184" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E184" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F184" s="37">
+      <c r="B184" s="36"/>
+      <c r="C184" s="36"/>
+      <c r="D184" s="36"/>
+      <c r="E184" s="36"/>
+      <c r="F184" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="185" spans="1:6" outlineLevel="1">
       <c r="A185" s="35">
         <v>18</v>
       </c>
-      <c r="B185" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/dd05e71e0008d8d88b0013a3fa5139376c4f6d","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C185" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D185" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E185" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F185" s="37">
+      <c r="B185" s="36"/>
+      <c r="C185" s="36"/>
+      <c r="D185" s="36"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="186" spans="1:6" outlineLevel="1">
       <c r="A186" s="35">
         <v>18</v>
       </c>
-      <c r="B186" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/3057379a00035c22250013a3fa76346d324c70","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C186" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D186" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E186" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F186" s="37">
+      <c r="B186" s="36"/>
+      <c r="C186" s="36"/>
+      <c r="D186" s="36"/>
+      <c r="E186" s="36"/>
+      <c r="F186" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="187" spans="1:6" outlineLevel="1">
       <c r="A187" s="35">
         <v>18</v>
       </c>
-      <c r="B187" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d343b5a300099965ec0013a3fa566436676771","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C187" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D187" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E187" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F187" s="37">
+      <c r="B187" s="36"/>
+      <c r="C187" s="36"/>
+      <c r="D187" s="36"/>
+      <c r="E187" s="36"/>
+      <c r="F187" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="188" spans="1:6" outlineLevel="1">
       <c r="A188" s="35">
         <v>18</v>
       </c>
-      <c r="B188" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/1dd6595a00089f93380013a3fa343859796268","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C188" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D188" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E188" s="36">
-        <v>900</v>
-      </c>
-      <c r="F188" s="37">
+      <c r="B188" s="36"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="36"/>
+      <c r="E188" s="36"/>
+      <c r="F188" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1046.51</v>
+        <v/>
       </c>
     </row>
     <row r="189" spans="1:6" outlineLevel="1">
       <c r="A189" s="35">
         <v>18</v>
       </c>
-      <c r="B189" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/f41645ea0007ccea100013a3fa745678767a38","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C189" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D189" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E189" s="36">
-        <v>900</v>
-      </c>
-      <c r="F189" s="37">
+      <c r="B189" s="36"/>
+      <c r="C189" s="36"/>
+      <c r="D189" s="36"/>
+      <c r="E189" s="36"/>
+      <c r="F189" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1046.51</v>
+        <v/>
       </c>
     </row>
     <row r="190" spans="1:6" outlineLevel="1">
       <c r="A190" s="35">
         <v>18</v>
       </c>
-      <c r="B190" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/4ef865ca00074942000013a3fa41646d626432","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C190" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D190" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E190" s="36">
-        <v>800</v>
-      </c>
-      <c r="F190" s="37">
+      <c r="B190" s="36"/>
+      <c r="C190" s="36"/>
+      <c r="D190" s="36"/>
+      <c r="E190" s="36"/>
+      <c r="F190" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>930.23</v>
+        <v/>
       </c>
     </row>
     <row r="191" spans="1:6" outlineLevel="1">
       <c r="A191" s="35">
         <v>18</v>
       </c>
-      <c r="B191" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/ced44e5b00099bc5cd0013a3fa706a72613354","Слесарь-сантехник")</f>
-        <v>Слесарь-сантехник</v>
-      </c>
-      <c r="C191" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D191" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E191" s="36">
-        <v>260</v>
-      </c>
-      <c r="F191" s="37">
+      <c r="B191" s="36"/>
+      <c r="C191" s="36"/>
+      <c r="D191" s="36"/>
+      <c r="E191" s="36"/>
+      <c r="F191" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>302.33</v>
+        <v/>
       </c>
     </row>
     <row r="192" spans="1:6" outlineLevel="1">
       <c r="A192" s="35">
         <v>18</v>
       </c>
-      <c r="B192" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/51272994","УП Лебяжий парк")</f>
-        <v>УП Лебяжий парк</v>
-      </c>
-      <c r="C192" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D192" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E192" s="36">
-        <v>1300</v>
-      </c>
-      <c r="F192" s="37">
+      <c r="B192" s="36"/>
+      <c r="C192" s="36"/>
+      <c r="D192" s="36"/>
+      <c r="E192" s="36"/>
+      <c r="F192" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1511.63</v>
+        <v/>
       </c>
     </row>
     <row r="193" spans="1:6" outlineLevel="1">
       <c r="A193" s="35">
         <v>18</v>
       </c>
-      <c r="B193" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/51082573","УП Минские городские общежития")</f>
-        <v>УП Минские городские общежития</v>
-      </c>
-      <c r="C193" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D193" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E193" s="36">
-        <v>850</v>
-      </c>
-      <c r="F193" s="37">
+      <c r="B193" s="36"/>
+      <c r="C193" s="36"/>
+      <c r="D193" s="36"/>
+      <c r="E193" s="36"/>
+      <c r="F193" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>988.37</v>
+        <v/>
       </c>
     </row>
     <row r="194" spans="1:6" outlineLevel="1">
       <c r="A194" s="35">
         <v>18</v>
       </c>
-      <c r="B194" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/51311675","УП ДУП БЕЛГИДРАВЛИКА УПП НИВА Романовича С.Г.")</f>
-        <v>УП ДУП БЕЛГИДРАВЛИКА УПП НИВА Романовича С.Г.</v>
-      </c>
-      <c r="C194" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D194" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E194" s="36">
-        <v>1100</v>
-      </c>
-      <c r="F194" s="37">
+      <c r="B194" s="36"/>
+      <c r="C194" s="36"/>
+      <c r="D194" s="36"/>
+      <c r="E194" s="36"/>
+      <c r="F194" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1279.07</v>
+        <v/>
       </c>
     </row>
     <row r="195" spans="1:6" outlineLevel="1">
       <c r="A195" s="35">
         <v>18</v>
       </c>
-      <c r="B195" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/52096972","УП Минскзеленстрой")</f>
-        <v>УП Минскзеленстрой</v>
-      </c>
-      <c r="C195" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D195" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E195" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F195" s="37">
+      <c r="B195" s="36"/>
+      <c r="C195" s="36"/>
+      <c r="D195" s="36"/>
+      <c r="E195" s="36"/>
+      <c r="F195" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="196" spans="1:6" outlineLevel="1">
       <c r="A196" s="35">
         <v>18</v>
       </c>
-      <c r="B196" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/52290079","УП ТС Холдер Титул")</f>
-        <v>УП ТС Холдер Титул</v>
-      </c>
-      <c r="C196" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D196" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E196" s="36">
-        <v>1028</v>
-      </c>
-      <c r="F196" s="37">
+      <c r="B196" s="36"/>
+      <c r="C196" s="36"/>
+      <c r="D196" s="36"/>
+      <c r="E196" s="36"/>
+      <c r="F196" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1195.3499999999999</v>
+        <v/>
       </c>
     </row>
     <row r="197" spans="1:6" outlineLevel="1">
       <c r="A197" s="35">
         <v>18</v>
       </c>
-      <c r="B197" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/52001665","УП ЖЭС МЖК")</f>
-        <v>УП ЖЭС МЖК</v>
-      </c>
-      <c r="C197" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D197" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E197" s="36">
-        <v>1068</v>
-      </c>
-      <c r="F197" s="37">
+      <c r="B197" s="36"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="36"/>
+      <c r="E197" s="36"/>
+      <c r="F197" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1241.8599999999999</v>
+        <v/>
       </c>
     </row>
     <row r="198" spans="1:6" outlineLevel="1">
       <c r="A198" s="35">
         <v>18</v>
       </c>
-      <c r="B198" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/51240200","Филиал Минская городская телефонная сеть РУП Белтелеком")</f>
-        <v>Филиал Минская городская телефонная сеть РУП Белтелеком</v>
-      </c>
-      <c r="C198" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="D198" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E198" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F198" s="37">
+      <c r="B198" s="36"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="36"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="199" spans="1:6" outlineLevel="1">

--- a/Data/Output/18.xlsx
+++ b/Data/Output/18.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="805">
   <si>
     <t>Уровень позиции</t>
   </si>
@@ -2453,6 +2453,9 @@
   </si>
   <si>
     <t>Уборщик служебных (или производственных) помещений/ Уборщик территорий</t>
+  </si>
+  <si>
+    <t>Начальник управления информационных технологий</t>
   </si>
 </sst>
 </file>
@@ -25531,13 +25534,13 @@
       <c r="B12" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="25" t="str">
         <f>IFERROR(ROUND(_xlfn.STDEV.S($E:$E),0),"-")</f>
-        <v>1234</v>
-      </c>
-      <c r="D12" s="25">
+        <v>-</v>
+      </c>
+      <c r="D12" s="25" t="str">
         <f>IFERROR(ROUND(_xlfn.STDEV.S($F:$F),0),"-")</f>
-        <v>1435</v>
+        <v>-</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>721</v>
@@ -25550,11 +25553,11 @@
       </c>
       <c r="C13" s="25">
         <f>IFERROR(ROUND(AVERAGE($E:$E),0),"-")</f>
-        <v>1370</v>
+        <v>2150</v>
       </c>
       <c r="D13" s="25">
         <f>IFERROR(ROUND(AVERAGE($F:$F),0),"-")</f>
-        <v>1593</v>
+        <v>2500</v>
       </c>
       <c r="K13" s="24" t="s">
         <v>723</v>
@@ -25567,11 +25570,11 @@
       </c>
       <c r="C14" s="25">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($E:$E,0.1),0),"-")</f>
-        <v>800</v>
+        <v>2150</v>
       </c>
       <c r="D14" s="25">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($F:$F,0.1),0),"-")</f>
-        <v>930</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" outlineLevel="1">
@@ -25581,11 +25584,11 @@
       </c>
       <c r="C15" s="25">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($E:$E,1),0),"-")</f>
-        <v>900</v>
+        <v>2150</v>
       </c>
       <c r="D15" s="25">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($F:$F,1),0),"-")</f>
-        <v>1047</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" outlineLevel="1">
@@ -25595,11 +25598,11 @@
       </c>
       <c r="C16" s="25">
         <f>IFERROR(ROUND(MEDIAN($E:$E),0),"-")</f>
-        <v>1100</v>
+        <v>2150</v>
       </c>
       <c r="D16" s="25">
         <f>IFERROR(ROUND(MEDIAN($F:$F),0),"-")</f>
-        <v>1279</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" outlineLevel="1">
@@ -25609,11 +25612,11 @@
       </c>
       <c r="C17" s="25">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($E:$E,3),0),"-")</f>
-        <v>1500</v>
+        <v>2150</v>
       </c>
       <c r="D17" s="25">
         <f>IFERROR(ROUND(_xlfn.QUARTILE.INC($F:$F,3),0),"-")</f>
-        <v>1744</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1" outlineLevel="1">
@@ -25623,11 +25626,11 @@
       </c>
       <c r="C18" s="25">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($E:$E,0.9),0),"-")</f>
-        <v>1820</v>
+        <v>2150</v>
       </c>
       <c r="D18" s="25">
         <f>IFERROR(ROUND(_xlfn.PERCENTILE.INC($F:$F,0.9),0),"-")</f>
-        <v>2116</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1" outlineLevel="1">
@@ -26471,1319 +26474,788 @@
         <v>18</v>
       </c>
       <c r="B84" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/54218398","ОП НИИ ПКД")</f>
-        <v>ОП НИИ ПКД</v>
+        <f>HYPERLINK("https://rabota.by/vacancy/54292444","Белмедпрепараты")</f>
+        <v>Белмедпрепараты</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>362</v>
+        <v>804</v>
       </c>
       <c r="D84" s="36" t="s">
         <v>723</v>
       </c>
       <c r="E84" s="36">
-        <v>1500</v>
+        <v>2150</v>
       </c>
       <c r="F84" s="37">
         <f t="shared" ref="F84:F115" si="2">IF(ROUND(E84/$K$11,2)&gt;0,ROUND(E84/$K$11,2),"")</f>
-        <v>1744.19</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="85" spans="1:6" outlineLevel="1">
       <c r="A85" s="35">
         <v>18</v>
       </c>
-      <c r="B85" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/52525472","APS")</f>
-        <v>APS</v>
-      </c>
-      <c r="C85" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D85" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E85" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F85" s="37">
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:6" outlineLevel="1">
       <c r="A86" s="35">
         <v>18</v>
       </c>
-      <c r="B86" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/53334882","Частное торговое унитарное предприятие «Товары в дом»")</f>
-        <v>Частное торговое унитарное предприятие «Товары в дом»</v>
-      </c>
-      <c r="C86" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D86" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E86" s="36">
-        <v>700</v>
-      </c>
-      <c r="F86" s="37">
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>813.95</v>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:6" outlineLevel="1">
       <c r="A87" s="35">
         <v>18</v>
       </c>
-      <c r="B87" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/54327420","ООО ЗИКО-ЗОРКА Групп")</f>
-        <v>ООО ЗИКО-ЗОРКА Групп</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D87" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E87" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F87" s="37">
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:6" outlineLevel="1">
       <c r="A88" s="35">
         <v>18</v>
       </c>
-      <c r="B88" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/53019479","ООО Залант Групп")</f>
-        <v>ООО Залант Групп</v>
-      </c>
-      <c r="C88" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D88" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E88" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F88" s="37">
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:6" outlineLevel="1">
       <c r="A89" s="35">
         <v>18</v>
       </c>
-      <c r="B89" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/53988263","ОДО Фригат")</f>
-        <v>ОДО Фригат</v>
-      </c>
-      <c r="C89" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D89" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E89" s="36">
-        <v>1300</v>
-      </c>
-      <c r="F89" s="37">
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1511.63</v>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:6" outlineLevel="1">
       <c r="A90" s="35">
         <v>18</v>
       </c>
-      <c r="B90" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/53831806","ООО Батен Би Групп")</f>
-        <v>ООО Батен Би Групп</v>
-      </c>
-      <c r="C90" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D90" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E90" s="36">
-        <v>1800</v>
-      </c>
-      <c r="F90" s="37">
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>2093.02</v>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:6" outlineLevel="1">
       <c r="A91" s="35">
         <v>18</v>
       </c>
-      <c r="B91" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48532444","ТУТ и ТАМ Логистикс")</f>
-        <v>ТУТ и ТАМ Логистикс</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D91" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E91" s="36">
-        <v>2300</v>
-      </c>
-      <c r="F91" s="37">
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>2674.42</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:6" outlineLevel="1">
       <c r="A92" s="35">
         <v>18</v>
       </c>
-      <c r="B92" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/54146183","PRIMUM")</f>
-        <v>PRIMUM</v>
-      </c>
-      <c r="C92" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E92" s="36">
-        <v>650</v>
-      </c>
-      <c r="F92" s="37">
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>755.81</v>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:6" outlineLevel="1">
       <c r="A93" s="35">
         <v>18</v>
       </c>
-      <c r="B93" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/54280777","Стронгтрейд")</f>
-        <v>Стронгтрейд</v>
-      </c>
-      <c r="C93" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E93" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F93" s="37">
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="35">
         <v>18</v>
       </c>
-      <c r="B94" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/44697312","Группа компаний НП-Сервис")</f>
-        <v>Группа компаний НП-Сервис</v>
-      </c>
-      <c r="C94" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D94" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E94" s="36">
-        <v>1800</v>
-      </c>
-      <c r="F94" s="37">
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>2093.02</v>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:6" outlineLevel="1">
       <c r="A95" s="35">
         <v>18</v>
       </c>
-      <c r="B95" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/48850501","ООО ОМА")</f>
-        <v>ООО ОМА</v>
-      </c>
-      <c r="C95" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D95" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E95" s="36">
-        <v>1265</v>
-      </c>
-      <c r="F95" s="37">
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1470.93</v>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="35">
         <v>18</v>
       </c>
-      <c r="B96" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/54314167","ОАО Галантэя")</f>
-        <v>ОАО Галантэя</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D96" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E96" s="36">
-        <v>950</v>
-      </c>
-      <c r="F96" s="37">
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1104.6500000000001</v>
+        <v/>
       </c>
     </row>
     <row r="97" spans="1:6" outlineLevel="1">
       <c r="A97" s="35">
         <v>18</v>
       </c>
-      <c r="B97" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/53839604","ЗИД БАЙ")</f>
-        <v>ЗИД БАЙ</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E97" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F97" s="37">
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:6" outlineLevel="1">
       <c r="A98" s="35">
         <v>18</v>
       </c>
-      <c r="B98" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/53332366","Росчерк")</f>
-        <v>Росчерк</v>
-      </c>
-      <c r="C98" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D98" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E98" s="36">
-        <v>1100</v>
-      </c>
-      <c r="F98" s="37">
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1279.07</v>
+        <v/>
       </c>
     </row>
     <row r="99" spans="1:6" outlineLevel="1">
       <c r="A99" s="35">
         <v>18</v>
       </c>
-      <c r="B99" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/52344144","ООО ЗОЛСТАР")</f>
-        <v>ООО ЗОЛСТАР</v>
-      </c>
-      <c r="C99" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D99" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E99" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F99" s="37">
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="100" spans="1:6" outlineLevel="1">
       <c r="A100" s="35">
         <v>18</v>
       </c>
-      <c r="B100" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/53881719","ООО Стеклоплит Комплект")</f>
-        <v>ООО Стеклоплит Комплект</v>
-      </c>
-      <c r="C100" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D100" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E100" s="36">
-        <v>900</v>
-      </c>
-      <c r="F100" s="37">
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1046.51</v>
+        <v/>
       </c>
     </row>
     <row r="101" spans="1:6" outlineLevel="1">
       <c r="A101" s="35">
         <v>18</v>
       </c>
-      <c r="B101" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/vacancy/54424378","ОДО БелСаваж")</f>
-        <v>ОДО БелСаваж</v>
-      </c>
-      <c r="C101" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D101" s="36" t="s">
-        <v>723</v>
-      </c>
-      <c r="E101" s="36">
-        <v>816</v>
-      </c>
-      <c r="F101" s="37">
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>948.84</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:6" outlineLevel="1">
       <c r="A102" s="35">
         <v>18</v>
       </c>
-      <c r="B102" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/751a0d490008b2da410039ed1f486664336e64","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C102" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D102" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E102" s="36">
-        <v>10000</v>
-      </c>
-      <c r="F102" s="37">
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>11627.91</v>
+        <v/>
       </c>
     </row>
     <row r="103" spans="1:6" outlineLevel="1">
       <c r="A103" s="35">
         <v>18</v>
       </c>
-      <c r="B103" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/831f35880001ed00910039ed1f7a4642377070","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E103" s="36">
-        <v>3500</v>
-      </c>
-      <c r="F103" s="37">
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>4069.77</v>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:6" outlineLevel="1">
       <c r="A104" s="35">
         <v>18</v>
       </c>
-      <c r="B104" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/da7cf1e300041788d60039ed1f635576677977","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C104" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D104" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E104" s="36">
-        <v>2000</v>
-      </c>
-      <c r="F104" s="37">
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>2325.58</v>
+        <v/>
       </c>
     </row>
     <row r="105" spans="1:6" outlineLevel="1">
       <c r="A105" s="35">
         <v>18</v>
       </c>
-      <c r="B105" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/cf6bfcb000021faaf30039ed1f45697a564a65","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D105" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E105" s="36">
-        <v>2000</v>
-      </c>
-      <c r="F105" s="37">
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>2325.58</v>
+        <v/>
       </c>
     </row>
     <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="35">
         <v>18</v>
       </c>
-      <c r="B106" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/284a6d3200059eda790039ed1f796c427a314d","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C106" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D106" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E106" s="36">
-        <v>2000</v>
-      </c>
-      <c r="F106" s="37">
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>2325.58</v>
+        <v/>
       </c>
     </row>
     <row r="107" spans="1:6" outlineLevel="1">
       <c r="A107" s="35">
         <v>18</v>
       </c>
-      <c r="B107" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/2b15cab000054eb9af0039ed1f6d7953426854","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C107" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D107" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E107" s="36">
-        <v>1800</v>
-      </c>
-      <c r="F107" s="37">
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>2093.02</v>
+        <v/>
       </c>
     </row>
     <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="35">
         <v>18</v>
       </c>
-      <c r="B108" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/75f5c26e0008304bfc0039ed1f5a634649724b","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C108" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D108" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E108" s="36">
-        <v>1800</v>
-      </c>
-      <c r="F108" s="37">
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>2093.02</v>
+        <v/>
       </c>
     </row>
     <row r="109" spans="1:6" outlineLevel="1">
       <c r="A109" s="35">
         <v>18</v>
       </c>
-      <c r="B109" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/1a83166a00018e358f0039ed1f4a734a38714b","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C109" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D109" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E109" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F109" s="37">
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="35">
         <v>18</v>
       </c>
-      <c r="B110" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/73deca57000312f3050039ed1f6e626c365a38","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C110" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D110" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E110" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F110" s="37">
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="35">
         <v>18</v>
       </c>
-      <c r="B111" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/17a88eab00011830b00039ed1f4156646d6761","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C111" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D111" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E111" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F111" s="37">
+      <c r="B111" s="36"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="112" spans="1:6" outlineLevel="1">
       <c r="A112" s="35">
         <v>18</v>
       </c>
-      <c r="B112" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/5936458a00079e1a6a0039ed1f6f4976364a70","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C112" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D112" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E112" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F112" s="37">
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="113" spans="1:6" outlineLevel="1">
       <c r="A113" s="35">
         <v>18</v>
       </c>
-      <c r="B113" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/2c8a010200029f2d010039ed1f5a30584d4848","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C113" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D113" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E113" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F113" s="37">
+      <c r="B113" s="36"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="35">
         <v>18</v>
       </c>
-      <c r="B114" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/b4a5d15200036aeea30039ed1f4361484d3335","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C114" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D114" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E114" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F114" s="37">
+      <c r="B114" s="36"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="115" spans="1:6" outlineLevel="1">
       <c r="A115" s="35">
         <v>18</v>
       </c>
-      <c r="B115" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/edbd8fcf0007f4284d0039ed1f525a4d6a5775","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C115" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D115" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E115" s="36">
-        <v>1500</v>
-      </c>
-      <c r="F115" s="37">
+      <c r="B115" s="36"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>1744.19</v>
+        <v/>
       </c>
     </row>
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="35">
         <v>18</v>
       </c>
-      <c r="B116" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/948fb7e100073a58ed0039ed1f6f4e57766c79","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C116" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D116" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E116" s="36">
-        <v>1250</v>
-      </c>
-      <c r="F116" s="37">
+      <c r="B116" s="36"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="37" t="str">
         <f t="shared" ref="F116:F147" si="3">IF(ROUND(E116/$K$11,2)&gt;0,ROUND(E116/$K$11,2),"")</f>
-        <v>1453.49</v>
+        <v/>
       </c>
     </row>
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="35">
         <v>18</v>
       </c>
-      <c r="B117" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/3f5767cc00026833600039ed1f497a46444c58","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C117" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D117" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E117" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F117" s="37">
+      <c r="B117" s="36"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="35">
         <v>18</v>
       </c>
-      <c r="B118" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/45c7f982000396e6b00039ed1f766f66765554","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C118" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D118" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E118" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F118" s="37">
+      <c r="B118" s="36"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="119" spans="1:6" outlineLevel="1">
       <c r="A119" s="35">
         <v>18</v>
       </c>
-      <c r="B119" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/86522060000367661b0039ed1f4e3459534546","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C119" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D119" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E119" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F119" s="37">
+      <c r="B119" s="36"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="35">
         <v>18</v>
       </c>
-      <c r="B120" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/3131e8ef000426f5f00039ed1f4f4435476a58","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C120" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D120" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E120" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F120" s="37">
+      <c r="B120" s="36"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="35">
         <v>18</v>
       </c>
-      <c r="B121" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/a05c5a1600074eec760039ed1f54717645444c","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C121" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D121" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E121" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F121" s="37">
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="35">
         <v>18</v>
       </c>
-      <c r="B122" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/f7f8a52c000776f01e0039ed1f513530313473","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C122" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D122" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E122" s="36">
-        <v>1200</v>
-      </c>
-      <c r="F122" s="37">
+      <c r="B122" s="36"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1395.35</v>
+        <v/>
       </c>
     </row>
     <row r="123" spans="1:6" outlineLevel="1">
       <c r="A123" s="35">
         <v>18</v>
       </c>
-      <c r="B123" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d41a50f500034191a50039ed1f484d546d7232","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C123" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D123" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E123" s="36">
-        <v>1150</v>
-      </c>
-      <c r="F123" s="37">
+      <c r="B123" s="36"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1337.21</v>
+        <v/>
       </c>
     </row>
     <row r="124" spans="1:6" outlineLevel="1">
       <c r="A124" s="35">
         <v>18</v>
       </c>
-      <c r="B124" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/f4f89d2300041278420039ed1f57484e484559","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C124" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D124" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E124" s="36">
-        <v>1100</v>
-      </c>
-      <c r="F124" s="37">
+      <c r="B124" s="36"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1279.07</v>
+        <v/>
       </c>
     </row>
     <row r="125" spans="1:6" outlineLevel="1">
       <c r="A125" s="35">
         <v>18</v>
       </c>
-      <c r="B125" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/d75a6891000390ebd40039ed1f656469774858","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C125" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D125" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E125" s="36">
-        <v>1100</v>
-      </c>
-      <c r="F125" s="37">
+      <c r="B125" s="36"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1279.07</v>
+        <v/>
       </c>
     </row>
     <row r="126" spans="1:6" outlineLevel="1">
       <c r="A126" s="35">
         <v>18</v>
       </c>
-      <c r="B126" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/2b6b1c97000867e8b30039ed1f5350414e4f5a","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C126" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D126" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E126" s="36">
-        <v>1100</v>
-      </c>
-      <c r="F126" s="37">
+      <c r="B126" s="36"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1279.07</v>
+        <v/>
       </c>
     </row>
     <row r="127" spans="1:6" outlineLevel="1">
       <c r="A127" s="35">
         <v>18</v>
       </c>
-      <c r="B127" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/8ded7655000287f2d00039ed1f68344e796f4d","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C127" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D127" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E127" s="36">
-        <v>1100</v>
-      </c>
-      <c r="F127" s="37">
+      <c r="B127" s="36"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1279.07</v>
+        <v/>
       </c>
     </row>
     <row r="128" spans="1:6" outlineLevel="1">
       <c r="A128" s="35">
         <v>18</v>
       </c>
-      <c r="B128" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/a53956d1000438122a0039ed1f35526576384e","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C128" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D128" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E128" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F128" s="37">
+      <c r="B128" s="36"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="129" spans="1:6" outlineLevel="1">
       <c r="A129" s="35">
         <v>18</v>
       </c>
-      <c r="B129" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/b10008530001f6e0ff0039ed1f365267664d32","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C129" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D129" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E129" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F129" s="37">
+      <c r="B129" s="36"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="130" spans="1:6" outlineLevel="1">
       <c r="A130" s="35">
         <v>18</v>
       </c>
-      <c r="B130" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/7ebdd55200080dad430039ed1f716c4c4e6f69","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C130" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D130" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E130" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F130" s="37">
+      <c r="B130" s="36"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1162.79</v>
+        <v/>
       </c>
     </row>
     <row r="131" spans="1:6" outlineLevel="1">
       <c r="A131" s="35">
         <v>18</v>
       </c>
-      <c r="B131" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/9a063b5a0000b9b8ee0039ed1f736563726574","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C131" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D131" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E131" s="36">
-        <v>900</v>
-      </c>
-      <c r="F131" s="37">
+      <c r="B131" s="36"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1046.51</v>
+        <v/>
       </c>
     </row>
     <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="35">
         <v>18</v>
       </c>
-      <c r="B132" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/0888aea900029fb6f50039ed1f385a56704164","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C132" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D132" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E132" s="36">
-        <v>900</v>
-      </c>
-      <c r="F132" s="37">
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1046.51</v>
+        <v/>
       </c>
     </row>
     <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="35">
         <v>18</v>
       </c>
-      <c r="B133" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/61412e5c0002adf5d90039ed1f4a5543737555","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C133" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D133" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E133" s="36">
-        <v>900</v>
-      </c>
-      <c r="F133" s="37">
+      <c r="B133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1046.51</v>
+        <v/>
       </c>
     </row>
     <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="35">
         <v>18</v>
       </c>
-      <c r="B134" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/331d1fa70005f27ace0039ed1f644354716a55","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C134" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D134" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E134" s="36">
-        <v>900</v>
-      </c>
-      <c r="F134" s="37">
+      <c r="B134" s="36"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>1046.51</v>
+        <v/>
       </c>
     </row>
     <row r="135" spans="1:6" outlineLevel="1">
       <c r="A135" s="35">
         <v>18</v>
       </c>
-      <c r="B135" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/76e4e47e0002cc46310039ed1f3353766c4143","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C135" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D135" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E135" s="36">
-        <v>850</v>
-      </c>
-      <c r="F135" s="37">
+      <c r="B135" s="36"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="36"/>
+      <c r="F135" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>988.37</v>
+        <v/>
       </c>
     </row>
     <row r="136" spans="1:6" outlineLevel="1">
       <c r="A136" s="35">
         <v>18</v>
       </c>
-      <c r="B136" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/fd945ef20007f474310039ed1f706c34337957","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C136" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D136" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E136" s="36">
-        <v>850</v>
-      </c>
-      <c r="F136" s="37">
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>988.37</v>
+        <v/>
       </c>
     </row>
     <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="35">
         <v>18</v>
       </c>
-      <c r="B137" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/0015edbc0005aeee2e0039ed1f393953575232","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C137" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D137" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E137" s="36">
-        <v>800</v>
-      </c>
-      <c r="F137" s="37">
+      <c r="B137" s="36"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>930.23</v>
+        <v/>
       </c>
     </row>
     <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="35">
         <v>18</v>
       </c>
-      <c r="B138" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/643bbecd000376fb310039ed1f574563527545","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C138" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D138" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E138" s="36">
-        <v>800</v>
-      </c>
-      <c r="F138" s="37">
+      <c r="B138" s="36"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>930.23</v>
+        <v/>
       </c>
     </row>
     <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="35">
         <v>18</v>
       </c>
-      <c r="B139" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/2d486ae000017ac2830039ed1f707844794262","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C139" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D139" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E139" s="36">
-        <v>800</v>
-      </c>
-      <c r="F139" s="37">
+      <c r="B139" s="36"/>
+      <c r="C139" s="36"/>
+      <c r="D139" s="36"/>
+      <c r="E139" s="36"/>
+      <c r="F139" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>930.23</v>
+        <v/>
       </c>
     </row>
     <row r="140" spans="1:6" outlineLevel="1">
       <c r="A140" s="35">
         <v>18</v>
       </c>
-      <c r="B140" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/2b6e635c0003f44ede0039ed1f364f5a704d38","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C140" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D140" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E140" s="36">
-        <v>800</v>
-      </c>
-      <c r="F140" s="37">
+      <c r="B140" s="36"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>930.23</v>
+        <v/>
       </c>
     </row>
     <row r="141" spans="1:6" outlineLevel="1">
       <c r="A141" s="35">
         <v>18</v>
       </c>
-      <c r="B141" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/de8d68d70001bc785c0039ed1f4d6d506f6d75","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C141" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D141" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E141" s="36">
-        <v>600</v>
-      </c>
-      <c r="F141" s="37">
+      <c r="B141" s="36"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>697.67</v>
+        <v/>
       </c>
     </row>
     <row r="142" spans="1:6" outlineLevel="1">
       <c r="A142" s="35">
         <v>18</v>
       </c>
-      <c r="B142" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/f89b1ca700034bdc970039ed1f314752345652","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C142" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D142" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E142" s="36">
-        <v>600</v>
-      </c>
-      <c r="F142" s="37">
+      <c r="B142" s="36"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>697.67</v>
+        <v/>
       </c>
     </row>
     <row r="143" spans="1:6" outlineLevel="1">
       <c r="A143" s="35">
         <v>18</v>
       </c>
-      <c r="B143" s="47" t="str">
-        <f>HYPERLINK("https://rabota.by/resume/8aefd84200027e1f770039ed1f325462684663","Кладовщик")</f>
-        <v>Кладовщик</v>
-      </c>
-      <c r="C143" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D143" s="36" t="s">
-        <v>721</v>
-      </c>
-      <c r="E143" s="36">
-        <v>600</v>
-      </c>
-      <c r="F143" s="37">
+      <c r="B143" s="36"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="36"/>
+      <c r="F143" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>697.67</v>
+        <v/>
       </c>
     </row>
     <row r="144" spans="1:6">
